--- a/controller/src/main/resources/jxls_templates/qiyueshu_yiwushoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/qiyueshu_yiwushoutuo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" activeTab="2"/>
+    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -1969,14 +1969,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.375" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
@@ -2445,11 +2445,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="13.5">
+    <row r="37" spans="1:4" ht="129" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="19" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5605,7 +5605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L237"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A214" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A220" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="C232" sqref="C232:D232"/>
     </sheetView>
   </sheetViews>

--- a/controller/src/main/resources/jxls_templates/qiyueshu_yiwushoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/qiyueshu_yiwushoutuo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570"/>
+    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -1543,6 +1543,36 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1570,65 +1600,11 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1656,6 +1632,30 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1969,14 +1969,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="16.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="107.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="45.125" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
     <col min="4" max="5" width="9" style="1"/>
     <col min="6" max="6" width="10.875" style="1" customWidth="1"/>
@@ -2445,11 +2445,11 @@
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="129" customHeight="1">
+    <row r="37" spans="1:4" ht="13.5" customHeight="1">
       <c r="A37" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="29" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2470,7 +2470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L237"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A181" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A217" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
@@ -2487,18 +2487,18 @@
       <c r="J2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="76" t="str">
+      <c r="K2" s="65" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="76"/>
+      <c r="L2" s="65"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="22" t="s">
@@ -2553,32 +2553,32 @@
       <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="66"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="B10" s="23"/>
@@ -2594,2186 +2594,2186 @@
       <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="66"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="66"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="66"/>
+      <c r="L14" s="66"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="66"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="66"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="66"/>
+      <c r="K16" s="66"/>
+      <c r="L16" s="66"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="66"/>
+      <c r="L17" s="66"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="66"/>
+      <c r="K20" s="66"/>
+      <c r="L20" s="66"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="66"/>
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="66"/>
+      <c r="J22" s="66"/>
+      <c r="K22" s="66"/>
+      <c r="L22" s="66"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="66"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="66"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66"/>
+      <c r="G30" s="66"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="66"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="66"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="66"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
+      <c r="B46" s="66"/>
+      <c r="C46" s="66"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
+      <c r="B47" s="66"/>
+      <c r="C47" s="66"/>
+      <c r="D47" s="66"/>
+      <c r="E47" s="66"/>
+      <c r="F47" s="66"/>
+      <c r="G47" s="66"/>
+      <c r="H47" s="66"/>
+      <c r="I47" s="66"/>
+      <c r="J47" s="66"/>
+      <c r="K47" s="66"/>
+      <c r="L47" s="66"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="77"/>
+      <c r="B48" s="66"/>
+      <c r="C48" s="66"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="66"/>
+      <c r="F48" s="66"/>
+      <c r="G48" s="66"/>
+      <c r="H48" s="66"/>
+      <c r="I48" s="66"/>
+      <c r="J48" s="66"/>
+      <c r="K48" s="66"/>
+      <c r="L48" s="66"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
+      <c r="B49" s="66"/>
+      <c r="C49" s="66"/>
+      <c r="D49" s="66"/>
+      <c r="E49" s="66"/>
+      <c r="F49" s="66"/>
+      <c r="G49" s="66"/>
+      <c r="H49" s="66"/>
+      <c r="I49" s="66"/>
+      <c r="J49" s="66"/>
+      <c r="K49" s="66"/>
+      <c r="L49" s="66"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="66"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="66"/>
+      <c r="I50" s="66"/>
+      <c r="J50" s="66"/>
+      <c r="K50" s="66"/>
+      <c r="L50" s="66"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="66"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="66"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
+      <c r="B52" s="66"/>
+      <c r="C52" s="66"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="66"/>
+      <c r="H52" s="66"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="66"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
+      <c r="B53" s="66"/>
+      <c r="C53" s="66"/>
+      <c r="D53" s="66"/>
+      <c r="E53" s="66"/>
+      <c r="F53" s="66"/>
+      <c r="G53" s="66"/>
+      <c r="H53" s="66"/>
+      <c r="I53" s="66"/>
+      <c r="J53" s="66"/>
+      <c r="K53" s="66"/>
+      <c r="L53" s="66"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
+      <c r="B54" s="66"/>
+      <c r="C54" s="66"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="66"/>
+      <c r="F54" s="66"/>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="66"/>
+      <c r="D55" s="66"/>
+      <c r="E55" s="66"/>
+      <c r="F55" s="66"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="66"/>
+      <c r="J55" s="66"/>
+      <c r="K55" s="66"/>
+      <c r="L55" s="66"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="77"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="77"/>
+      <c r="B56" s="66"/>
+      <c r="C56" s="66"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="66"/>
+      <c r="F56" s="66"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="66"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="66"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="77"/>
-      <c r="L57" s="77"/>
+      <c r="B57" s="66"/>
+      <c r="C57" s="66"/>
+      <c r="D57" s="66"/>
+      <c r="E57" s="66"/>
+      <c r="F57" s="66"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="66"/>
+      <c r="J57" s="66"/>
+      <c r="K57" s="66"/>
+      <c r="L57" s="66"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="77"/>
+      <c r="B58" s="66"/>
+      <c r="C58" s="66"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="66"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="66"/>
+      <c r="J58" s="66"/>
+      <c r="K58" s="66"/>
+      <c r="L58" s="66"/>
     </row>
     <row r="59" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="77"/>
-      <c r="L59" s="77"/>
+      <c r="B59" s="66"/>
+      <c r="C59" s="66"/>
+      <c r="D59" s="66"/>
+      <c r="E59" s="66"/>
+      <c r="F59" s="66"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="66"/>
+      <c r="J59" s="66"/>
+      <c r="K59" s="66"/>
+      <c r="L59" s="66"/>
     </row>
     <row r="60" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="77"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="77"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="66"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="66"/>
+      <c r="J60" s="66"/>
+      <c r="K60" s="66"/>
+      <c r="L60" s="66"/>
     </row>
     <row r="61" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B61" s="77"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="77"/>
-      <c r="K61" s="77"/>
-      <c r="L61" s="77"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="66"/>
+      <c r="J61" s="66"/>
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
     </row>
     <row r="62" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B62" s="77"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="77"/>
+      <c r="B62" s="66"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="66"/>
     </row>
     <row r="63" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B63" s="77"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="77"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="77"/>
-      <c r="K63" s="77"/>
-      <c r="L63" s="77"/>
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="66"/>
+      <c r="L63" s="66"/>
     </row>
     <row r="64" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B64" s="77"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="77"/>
-      <c r="K64" s="77"/>
-      <c r="L64" s="77"/>
+      <c r="B64" s="66"/>
+      <c r="C64" s="66"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="66"/>
+      <c r="F64" s="66"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="66"/>
+      <c r="J64" s="66"/>
+      <c r="K64" s="66"/>
+      <c r="L64" s="66"/>
     </row>
     <row r="65" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B65" s="77"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="77"/>
-      <c r="L65" s="77"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="66"/>
+      <c r="J65" s="66"/>
+      <c r="K65" s="66"/>
+      <c r="L65" s="66"/>
     </row>
     <row r="66" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B66" s="77"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="77"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="77"/>
+      <c r="B66" s="66"/>
+      <c r="C66" s="66"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="66"/>
+      <c r="F66" s="66"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="66"/>
+      <c r="J66" s="66"/>
+      <c r="K66" s="66"/>
+      <c r="L66" s="66"/>
     </row>
     <row r="67" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B67" s="77"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="77"/>
-      <c r="J67" s="77"/>
-      <c r="K67" s="77"/>
-      <c r="L67" s="77"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="66"/>
+      <c r="J67" s="66"/>
+      <c r="K67" s="66"/>
+      <c r="L67" s="66"/>
     </row>
     <row r="68" spans="2:12" ht="24.75" customHeight="1">
       <c r="J68" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K68" s="76" t="str">
+      <c r="K68" s="65" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L68" s="76"/>
+      <c r="L68" s="65"/>
     </row>
     <row r="69" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B69" s="77" t="s">
+      <c r="B69" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77"/>
-      <c r="J69" s="77"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="77"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="66"/>
+      <c r="L69" s="66"/>
     </row>
     <row r="70" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B70" s="77"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="77"/>
-      <c r="I70" s="77"/>
-      <c r="J70" s="77"/>
-      <c r="K70" s="77"/>
-      <c r="L70" s="77"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="66"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="66"/>
+      <c r="F70" s="66"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="66"/>
+      <c r="J70" s="66"/>
+      <c r="K70" s="66"/>
+      <c r="L70" s="66"/>
     </row>
     <row r="71" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B71" s="77"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="77"/>
-      <c r="I71" s="77"/>
-      <c r="J71" s="77"/>
-      <c r="K71" s="77"/>
-      <c r="L71" s="77"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="66"/>
+      <c r="J71" s="66"/>
+      <c r="K71" s="66"/>
+      <c r="L71" s="66"/>
     </row>
     <row r="72" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B72" s="77"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="77"/>
-      <c r="I72" s="77"/>
-      <c r="J72" s="77"/>
-      <c r="K72" s="77"/>
-      <c r="L72" s="77"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="66"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="66"/>
+      <c r="L72" s="66"/>
     </row>
     <row r="73" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="77"/>
-      <c r="L73" s="77"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="66"/>
+      <c r="L73" s="66"/>
     </row>
     <row r="74" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B74" s="77"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="77"/>
-      <c r="H74" s="77"/>
-      <c r="I74" s="77"/>
-      <c r="J74" s="77"/>
-      <c r="K74" s="77"/>
-      <c r="L74" s="77"/>
+      <c r="B74" s="66"/>
+      <c r="C74" s="66"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="66"/>
+      <c r="F74" s="66"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="66"/>
+      <c r="J74" s="66"/>
+      <c r="K74" s="66"/>
+      <c r="L74" s="66"/>
     </row>
     <row r="75" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B75" s="77"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="77"/>
-      <c r="H75" s="77"/>
-      <c r="I75" s="77"/>
-      <c r="J75" s="77"/>
-      <c r="K75" s="77"/>
-      <c r="L75" s="77"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="66"/>
+      <c r="J75" s="66"/>
+      <c r="K75" s="66"/>
+      <c r="L75" s="66"/>
     </row>
     <row r="76" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B76" s="77"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="77"/>
-      <c r="H76" s="77"/>
-      <c r="I76" s="77"/>
-      <c r="J76" s="77"/>
-      <c r="K76" s="77"/>
-      <c r="L76" s="77"/>
+      <c r="B76" s="66"/>
+      <c r="C76" s="66"/>
+      <c r="D76" s="66"/>
+      <c r="E76" s="66"/>
+      <c r="F76" s="66"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="66"/>
+      <c r="J76" s="66"/>
+      <c r="K76" s="66"/>
+      <c r="L76" s="66"/>
     </row>
     <row r="77" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B77" s="77"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="77"/>
-      <c r="H77" s="77"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="77"/>
-      <c r="L77" s="77"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="66"/>
+      <c r="J77" s="66"/>
+      <c r="K77" s="66"/>
+      <c r="L77" s="66"/>
     </row>
     <row r="78" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B78" s="77"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="77"/>
-      <c r="H78" s="77"/>
-      <c r="I78" s="77"/>
-      <c r="J78" s="77"/>
-      <c r="K78" s="77"/>
-      <c r="L78" s="77"/>
+      <c r="B78" s="66"/>
+      <c r="C78" s="66"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="66"/>
+      <c r="J78" s="66"/>
+      <c r="K78" s="66"/>
+      <c r="L78" s="66"/>
     </row>
     <row r="79" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B79" s="77"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="77"/>
-      <c r="H79" s="77"/>
-      <c r="I79" s="77"/>
-      <c r="J79" s="77"/>
-      <c r="K79" s="77"/>
-      <c r="L79" s="77"/>
+      <c r="B79" s="66"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="66"/>
+      <c r="K79" s="66"/>
+      <c r="L79" s="66"/>
     </row>
     <row r="80" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B80" s="77"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="77"/>
-      <c r="G80" s="77"/>
-      <c r="H80" s="77"/>
-      <c r="I80" s="77"/>
-      <c r="J80" s="77"/>
-      <c r="K80" s="77"/>
-      <c r="L80" s="77"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="66"/>
+      <c r="K80" s="66"/>
+      <c r="L80" s="66"/>
     </row>
     <row r="81" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B81" s="77"/>
-      <c r="C81" s="77"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
-      <c r="K81" s="77"/>
-      <c r="L81" s="77"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="66"/>
+      <c r="K81" s="66"/>
+      <c r="L81" s="66"/>
     </row>
     <row r="82" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B82" s="77"/>
-      <c r="C82" s="77"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="77"/>
-      <c r="I82" s="77"/>
-      <c r="J82" s="77"/>
-      <c r="K82" s="77"/>
-      <c r="L82" s="77"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="66"/>
+      <c r="K82" s="66"/>
+      <c r="L82" s="66"/>
     </row>
     <row r="83" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B83" s="77"/>
-      <c r="C83" s="77"/>
-      <c r="D83" s="77"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="77"/>
-      <c r="H83" s="77"/>
-      <c r="I83" s="77"/>
-      <c r="J83" s="77"/>
-      <c r="K83" s="77"/>
-      <c r="L83" s="77"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="66"/>
+      <c r="J83" s="66"/>
+      <c r="K83" s="66"/>
+      <c r="L83" s="66"/>
     </row>
     <row r="84" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B84" s="77"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="77"/>
-      <c r="J84" s="77"/>
-      <c r="K84" s="77"/>
-      <c r="L84" s="77"/>
+      <c r="B84" s="66"/>
+      <c r="C84" s="66"/>
+      <c r="D84" s="66"/>
+      <c r="E84" s="66"/>
+      <c r="F84" s="66"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="66"/>
+      <c r="J84" s="66"/>
+      <c r="K84" s="66"/>
+      <c r="L84" s="66"/>
     </row>
     <row r="85" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B85" s="77"/>
-      <c r="C85" s="77"/>
-      <c r="D85" s="77"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="77"/>
-      <c r="H85" s="77"/>
-      <c r="I85" s="77"/>
-      <c r="J85" s="77"/>
-      <c r="K85" s="77"/>
-      <c r="L85" s="77"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="66"/>
+      <c r="J85" s="66"/>
+      <c r="K85" s="66"/>
+      <c r="L85" s="66"/>
     </row>
     <row r="86" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B86" s="77"/>
-      <c r="C86" s="77"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="77"/>
-      <c r="H86" s="77"/>
-      <c r="I86" s="77"/>
-      <c r="J86" s="77"/>
-      <c r="K86" s="77"/>
-      <c r="L86" s="77"/>
+      <c r="B86" s="66"/>
+      <c r="C86" s="66"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="66"/>
+      <c r="J86" s="66"/>
+      <c r="K86" s="66"/>
+      <c r="L86" s="66"/>
     </row>
     <row r="87" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B87" s="77"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
-      <c r="K87" s="77"/>
-      <c r="L87" s="77"/>
+      <c r="B87" s="66"/>
+      <c r="C87" s="66"/>
+      <c r="D87" s="66"/>
+      <c r="E87" s="66"/>
+      <c r="F87" s="66"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="66"/>
+      <c r="J87" s="66"/>
+      <c r="K87" s="66"/>
+      <c r="L87" s="66"/>
     </row>
     <row r="88" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B88" s="77"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="77"/>
-      <c r="I88" s="77"/>
-      <c r="J88" s="77"/>
-      <c r="K88" s="77"/>
-      <c r="L88" s="77"/>
+      <c r="B88" s="66"/>
+      <c r="C88" s="66"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="66"/>
+      <c r="F88" s="66"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="66"/>
+      <c r="I88" s="66"/>
+      <c r="J88" s="66"/>
+      <c r="K88" s="66"/>
+      <c r="L88" s="66"/>
     </row>
     <row r="89" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B89" s="77"/>
-      <c r="C89" s="77"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="77"/>
-      <c r="I89" s="77"/>
-      <c r="J89" s="77"/>
-      <c r="K89" s="77"/>
-      <c r="L89" s="77"/>
+      <c r="B89" s="66"/>
+      <c r="C89" s="66"/>
+      <c r="D89" s="66"/>
+      <c r="E89" s="66"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="66"/>
+      <c r="J89" s="66"/>
+      <c r="K89" s="66"/>
+      <c r="L89" s="66"/>
     </row>
     <row r="90" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B90" s="77"/>
-      <c r="C90" s="77"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="77"/>
-      <c r="H90" s="77"/>
-      <c r="I90" s="77"/>
-      <c r="J90" s="77"/>
-      <c r="K90" s="77"/>
-      <c r="L90" s="77"/>
+      <c r="B90" s="66"/>
+      <c r="C90" s="66"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="66"/>
+      <c r="F90" s="66"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="66"/>
+      <c r="J90" s="66"/>
+      <c r="K90" s="66"/>
+      <c r="L90" s="66"/>
     </row>
     <row r="91" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B91" s="77"/>
-      <c r="C91" s="77"/>
-      <c r="D91" s="77"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="77"/>
-      <c r="I91" s="77"/>
-      <c r="J91" s="77"/>
-      <c r="K91" s="77"/>
-      <c r="L91" s="77"/>
+      <c r="B91" s="66"/>
+      <c r="C91" s="66"/>
+      <c r="D91" s="66"/>
+      <c r="E91" s="66"/>
+      <c r="F91" s="66"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="66"/>
+      <c r="J91" s="66"/>
+      <c r="K91" s="66"/>
+      <c r="L91" s="66"/>
     </row>
     <row r="92" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B92" s="77"/>
-      <c r="C92" s="77"/>
-      <c r="D92" s="77"/>
-      <c r="E92" s="77"/>
-      <c r="F92" s="77"/>
-      <c r="G92" s="77"/>
-      <c r="H92" s="77"/>
-      <c r="I92" s="77"/>
-      <c r="J92" s="77"/>
-      <c r="K92" s="77"/>
-      <c r="L92" s="77"/>
+      <c r="B92" s="66"/>
+      <c r="C92" s="66"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="66"/>
+      <c r="J92" s="66"/>
+      <c r="K92" s="66"/>
+      <c r="L92" s="66"/>
     </row>
     <row r="93" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B93" s="77"/>
-      <c r="C93" s="77"/>
-      <c r="D93" s="77"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="77"/>
-      <c r="G93" s="77"/>
-      <c r="H93" s="77"/>
-      <c r="I93" s="77"/>
-      <c r="J93" s="77"/>
-      <c r="K93" s="77"/>
-      <c r="L93" s="77"/>
+      <c r="B93" s="66"/>
+      <c r="C93" s="66"/>
+      <c r="D93" s="66"/>
+      <c r="E93" s="66"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="66"/>
+      <c r="J93" s="66"/>
+      <c r="K93" s="66"/>
+      <c r="L93" s="66"/>
     </row>
     <row r="94" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B94" s="77"/>
-      <c r="C94" s="77"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="77"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="77"/>
-      <c r="H94" s="77"/>
-      <c r="I94" s="77"/>
-      <c r="J94" s="77"/>
-      <c r="K94" s="77"/>
-      <c r="L94" s="77"/>
+      <c r="B94" s="66"/>
+      <c r="C94" s="66"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="66"/>
+      <c r="F94" s="66"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="66"/>
+      <c r="I94" s="66"/>
+      <c r="J94" s="66"/>
+      <c r="K94" s="66"/>
+      <c r="L94" s="66"/>
     </row>
     <row r="95" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B95" s="77"/>
-      <c r="C95" s="77"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="77"/>
-      <c r="G95" s="77"/>
-      <c r="H95" s="77"/>
-      <c r="I95" s="77"/>
-      <c r="J95" s="77"/>
-      <c r="K95" s="77"/>
-      <c r="L95" s="77"/>
+      <c r="B95" s="66"/>
+      <c r="C95" s="66"/>
+      <c r="D95" s="66"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="66"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="66"/>
+      <c r="J95" s="66"/>
+      <c r="K95" s="66"/>
+      <c r="L95" s="66"/>
     </row>
     <row r="96" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B96" s="77"/>
-      <c r="C96" s="77"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="77"/>
-      <c r="H96" s="77"/>
-      <c r="I96" s="77"/>
-      <c r="J96" s="77"/>
-      <c r="K96" s="77"/>
-      <c r="L96" s="77"/>
+      <c r="B96" s="66"/>
+      <c r="C96" s="66"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="66"/>
+      <c r="F96" s="66"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="66"/>
+      <c r="J96" s="66"/>
+      <c r="K96" s="66"/>
+      <c r="L96" s="66"/>
     </row>
     <row r="97" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B97" s="77"/>
-      <c r="C97" s="77"/>
-      <c r="D97" s="77"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="77"/>
-      <c r="G97" s="77"/>
-      <c r="H97" s="77"/>
-      <c r="I97" s="77"/>
-      <c r="J97" s="77"/>
-      <c r="K97" s="77"/>
-      <c r="L97" s="77"/>
+      <c r="B97" s="66"/>
+      <c r="C97" s="66"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="66"/>
+      <c r="J97" s="66"/>
+      <c r="K97" s="66"/>
+      <c r="L97" s="66"/>
     </row>
     <row r="98" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B98" s="77"/>
-      <c r="C98" s="77"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="77"/>
-      <c r="H98" s="77"/>
-      <c r="I98" s="77"/>
-      <c r="J98" s="77"/>
-      <c r="K98" s="77"/>
-      <c r="L98" s="77"/>
+      <c r="B98" s="66"/>
+      <c r="C98" s="66"/>
+      <c r="D98" s="66"/>
+      <c r="E98" s="66"/>
+      <c r="F98" s="66"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="66"/>
+      <c r="J98" s="66"/>
+      <c r="K98" s="66"/>
+      <c r="L98" s="66"/>
     </row>
     <row r="99" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B99" s="77"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="77"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77"/>
-      <c r="G99" s="77"/>
-      <c r="H99" s="77"/>
-      <c r="I99" s="77"/>
-      <c r="J99" s="77"/>
-      <c r="K99" s="77"/>
-      <c r="L99" s="77"/>
+      <c r="B99" s="66"/>
+      <c r="C99" s="66"/>
+      <c r="D99" s="66"/>
+      <c r="E99" s="66"/>
+      <c r="F99" s="66"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="66"/>
+      <c r="J99" s="66"/>
+      <c r="K99" s="66"/>
+      <c r="L99" s="66"/>
     </row>
     <row r="100" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B100" s="77"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
-      <c r="I100" s="77"/>
-      <c r="J100" s="77"/>
-      <c r="K100" s="77"/>
-      <c r="L100" s="77"/>
+      <c r="B100" s="66"/>
+      <c r="C100" s="66"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="66"/>
+      <c r="H100" s="66"/>
+      <c r="I100" s="66"/>
+      <c r="J100" s="66"/>
+      <c r="K100" s="66"/>
+      <c r="L100" s="66"/>
     </row>
     <row r="101" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B101" s="77"/>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="77"/>
-      <c r="I101" s="77"/>
-      <c r="J101" s="77"/>
-      <c r="K101" s="77"/>
-      <c r="L101" s="77"/>
+      <c r="B101" s="66"/>
+      <c r="C101" s="66"/>
+      <c r="D101" s="66"/>
+      <c r="E101" s="66"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="66"/>
+      <c r="J101" s="66"/>
+      <c r="K101" s="66"/>
+      <c r="L101" s="66"/>
     </row>
     <row r="102" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B102" s="77"/>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-      <c r="H102" s="77"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="77"/>
-      <c r="K102" s="77"/>
-      <c r="L102" s="77"/>
+      <c r="B102" s="66"/>
+      <c r="C102" s="66"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="66"/>
+      <c r="F102" s="66"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="66"/>
+      <c r="I102" s="66"/>
+      <c r="J102" s="66"/>
+      <c r="K102" s="66"/>
+      <c r="L102" s="66"/>
     </row>
     <row r="103" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B103" s="77"/>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="77"/>
-      <c r="H103" s="77"/>
-      <c r="I103" s="77"/>
-      <c r="J103" s="77"/>
-      <c r="K103" s="77"/>
-      <c r="L103" s="77"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="66"/>
+      <c r="D103" s="66"/>
+      <c r="E103" s="66"/>
+      <c r="F103" s="66"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="66"/>
+      <c r="J103" s="66"/>
+      <c r="K103" s="66"/>
+      <c r="L103" s="66"/>
     </row>
     <row r="104" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B104" s="77"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="77"/>
-      <c r="H104" s="77"/>
-      <c r="I104" s="77"/>
-      <c r="J104" s="77"/>
-      <c r="K104" s="77"/>
-      <c r="L104" s="77"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="66"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="66"/>
+      <c r="F104" s="66"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="66"/>
+      <c r="I104" s="66"/>
+      <c r="J104" s="66"/>
+      <c r="K104" s="66"/>
+      <c r="L104" s="66"/>
     </row>
     <row r="105" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B105" s="77"/>
-      <c r="C105" s="77"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="77"/>
-      <c r="I105" s="77"/>
-      <c r="J105" s="77"/>
-      <c r="K105" s="77"/>
-      <c r="L105" s="77"/>
+      <c r="B105" s="66"/>
+      <c r="C105" s="66"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="66"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="66"/>
+      <c r="H105" s="66"/>
+      <c r="I105" s="66"/>
+      <c r="J105" s="66"/>
+      <c r="K105" s="66"/>
+      <c r="L105" s="66"/>
     </row>
     <row r="106" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B106" s="77"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="77"/>
-      <c r="I106" s="77"/>
-      <c r="J106" s="77"/>
-      <c r="K106" s="77"/>
-      <c r="L106" s="77"/>
+      <c r="B106" s="66"/>
+      <c r="C106" s="66"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="66"/>
+      <c r="H106" s="66"/>
+      <c r="I106" s="66"/>
+      <c r="J106" s="66"/>
+      <c r="K106" s="66"/>
+      <c r="L106" s="66"/>
     </row>
     <row r="107" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B107" s="77"/>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="77"/>
-      <c r="H107" s="77"/>
-      <c r="I107" s="77"/>
-      <c r="J107" s="77"/>
-      <c r="K107" s="77"/>
-      <c r="L107" s="77"/>
+      <c r="B107" s="66"/>
+      <c r="C107" s="66"/>
+      <c r="D107" s="66"/>
+      <c r="E107" s="66"/>
+      <c r="F107" s="66"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="66"/>
+      <c r="I107" s="66"/>
+      <c r="J107" s="66"/>
+      <c r="K107" s="66"/>
+      <c r="L107" s="66"/>
     </row>
     <row r="108" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B108" s="77"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="77"/>
-      <c r="H108" s="77"/>
-      <c r="I108" s="77"/>
-      <c r="J108" s="77"/>
-      <c r="K108" s="77"/>
-      <c r="L108" s="77"/>
+      <c r="B108" s="66"/>
+      <c r="C108" s="66"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="66"/>
+      <c r="H108" s="66"/>
+      <c r="I108" s="66"/>
+      <c r="J108" s="66"/>
+      <c r="K108" s="66"/>
+      <c r="L108" s="66"/>
     </row>
     <row r="109" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B109" s="77"/>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="77"/>
-      <c r="I109" s="77"/>
-      <c r="J109" s="77"/>
-      <c r="K109" s="77"/>
-      <c r="L109" s="77"/>
+      <c r="B109" s="66"/>
+      <c r="C109" s="66"/>
+      <c r="D109" s="66"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="66"/>
+      <c r="H109" s="66"/>
+      <c r="I109" s="66"/>
+      <c r="J109" s="66"/>
+      <c r="K109" s="66"/>
+      <c r="L109" s="66"/>
     </row>
     <row r="110" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B110" s="77"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
-      <c r="I110" s="77"/>
-      <c r="J110" s="77"/>
-      <c r="K110" s="77"/>
-      <c r="L110" s="77"/>
+      <c r="B110" s="66"/>
+      <c r="C110" s="66"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="66"/>
+      <c r="F110" s="66"/>
+      <c r="G110" s="66"/>
+      <c r="H110" s="66"/>
+      <c r="I110" s="66"/>
+      <c r="J110" s="66"/>
+      <c r="K110" s="66"/>
+      <c r="L110" s="66"/>
     </row>
     <row r="111" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B111" s="77"/>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
-      <c r="I111" s="77"/>
-      <c r="J111" s="77"/>
-      <c r="K111" s="77"/>
-      <c r="L111" s="77"/>
+      <c r="B111" s="66"/>
+      <c r="C111" s="66"/>
+      <c r="D111" s="66"/>
+      <c r="E111" s="66"/>
+      <c r="F111" s="66"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="66"/>
+      <c r="J111" s="66"/>
+      <c r="K111" s="66"/>
+      <c r="L111" s="66"/>
     </row>
     <row r="112" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B112" s="77"/>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
-      <c r="I112" s="77"/>
-      <c r="J112" s="77"/>
-      <c r="K112" s="77"/>
-      <c r="L112" s="77"/>
+      <c r="B112" s="66"/>
+      <c r="C112" s="66"/>
+      <c r="D112" s="66"/>
+      <c r="E112" s="66"/>
+      <c r="F112" s="66"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="66"/>
+      <c r="I112" s="66"/>
+      <c r="J112" s="66"/>
+      <c r="K112" s="66"/>
+      <c r="L112" s="66"/>
     </row>
     <row r="113" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B113" s="77"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
-      <c r="K113" s="77"/>
-      <c r="L113" s="77"/>
+      <c r="B113" s="66"/>
+      <c r="C113" s="66"/>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="66"/>
+      <c r="J113" s="66"/>
+      <c r="K113" s="66"/>
+      <c r="L113" s="66"/>
     </row>
     <row r="114" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B114" s="77"/>
-      <c r="C114" s="77"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="77"/>
-      <c r="F114" s="77"/>
-      <c r="G114" s="77"/>
-      <c r="H114" s="77"/>
-      <c r="I114" s="77"/>
-      <c r="J114" s="77"/>
-      <c r="K114" s="77"/>
-      <c r="L114" s="77"/>
+      <c r="B114" s="66"/>
+      <c r="C114" s="66"/>
+      <c r="D114" s="66"/>
+      <c r="E114" s="66"/>
+      <c r="F114" s="66"/>
+      <c r="G114" s="66"/>
+      <c r="H114" s="66"/>
+      <c r="I114" s="66"/>
+      <c r="J114" s="66"/>
+      <c r="K114" s="66"/>
+      <c r="L114" s="66"/>
     </row>
     <row r="115" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B115" s="77"/>
-      <c r="C115" s="77"/>
-      <c r="D115" s="77"/>
-      <c r="E115" s="77"/>
-      <c r="F115" s="77"/>
-      <c r="G115" s="77"/>
-      <c r="H115" s="77"/>
-      <c r="I115" s="77"/>
-      <c r="J115" s="77"/>
-      <c r="K115" s="77"/>
-      <c r="L115" s="77"/>
+      <c r="B115" s="66"/>
+      <c r="C115" s="66"/>
+      <c r="D115" s="66"/>
+      <c r="E115" s="66"/>
+      <c r="F115" s="66"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="66"/>
+      <c r="J115" s="66"/>
+      <c r="K115" s="66"/>
+      <c r="L115" s="66"/>
     </row>
     <row r="116" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B116" s="77"/>
-      <c r="C116" s="77"/>
-      <c r="D116" s="77"/>
-      <c r="E116" s="77"/>
-      <c r="F116" s="77"/>
-      <c r="G116" s="77"/>
-      <c r="H116" s="77"/>
-      <c r="I116" s="77"/>
-      <c r="J116" s="77"/>
-      <c r="K116" s="77"/>
-      <c r="L116" s="77"/>
+      <c r="B116" s="66"/>
+      <c r="C116" s="66"/>
+      <c r="D116" s="66"/>
+      <c r="E116" s="66"/>
+      <c r="F116" s="66"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="66"/>
+      <c r="J116" s="66"/>
+      <c r="K116" s="66"/>
+      <c r="L116" s="66"/>
     </row>
     <row r="117" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B117" s="77"/>
-      <c r="C117" s="77"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="77"/>
-      <c r="F117" s="77"/>
-      <c r="G117" s="77"/>
-      <c r="H117" s="77"/>
-      <c r="I117" s="77"/>
-      <c r="J117" s="77"/>
-      <c r="K117" s="77"/>
-      <c r="L117" s="77"/>
+      <c r="B117" s="66"/>
+      <c r="C117" s="66"/>
+      <c r="D117" s="66"/>
+      <c r="E117" s="66"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="66"/>
+      <c r="J117" s="66"/>
+      <c r="K117" s="66"/>
+      <c r="L117" s="66"/>
     </row>
     <row r="118" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B118" s="77"/>
-      <c r="C118" s="77"/>
-      <c r="D118" s="77"/>
-      <c r="E118" s="77"/>
-      <c r="F118" s="77"/>
-      <c r="G118" s="77"/>
-      <c r="H118" s="77"/>
-      <c r="I118" s="77"/>
-      <c r="J118" s="77"/>
-      <c r="K118" s="77"/>
-      <c r="L118" s="77"/>
+      <c r="B118" s="66"/>
+      <c r="C118" s="66"/>
+      <c r="D118" s="66"/>
+      <c r="E118" s="66"/>
+      <c r="F118" s="66"/>
+      <c r="G118" s="66"/>
+      <c r="H118" s="66"/>
+      <c r="I118" s="66"/>
+      <c r="J118" s="66"/>
+      <c r="K118" s="66"/>
+      <c r="L118" s="66"/>
     </row>
     <row r="119" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B119" s="77"/>
-      <c r="C119" s="77"/>
-      <c r="D119" s="77"/>
-      <c r="E119" s="77"/>
-      <c r="F119" s="77"/>
-      <c r="G119" s="77"/>
-      <c r="H119" s="77"/>
-      <c r="I119" s="77"/>
-      <c r="J119" s="77"/>
-      <c r="K119" s="77"/>
-      <c r="L119" s="77"/>
+      <c r="B119" s="66"/>
+      <c r="C119" s="66"/>
+      <c r="D119" s="66"/>
+      <c r="E119" s="66"/>
+      <c r="F119" s="66"/>
+      <c r="G119" s="66"/>
+      <c r="H119" s="66"/>
+      <c r="I119" s="66"/>
+      <c r="J119" s="66"/>
+      <c r="K119" s="66"/>
+      <c r="L119" s="66"/>
     </row>
     <row r="120" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B120" s="77"/>
-      <c r="C120" s="77"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="77"/>
-      <c r="F120" s="77"/>
-      <c r="G120" s="77"/>
-      <c r="H120" s="77"/>
-      <c r="I120" s="77"/>
-      <c r="J120" s="77"/>
-      <c r="K120" s="77"/>
-      <c r="L120" s="77"/>
+      <c r="B120" s="66"/>
+      <c r="C120" s="66"/>
+      <c r="D120" s="66"/>
+      <c r="E120" s="66"/>
+      <c r="F120" s="66"/>
+      <c r="G120" s="66"/>
+      <c r="H120" s="66"/>
+      <c r="I120" s="66"/>
+      <c r="J120" s="66"/>
+      <c r="K120" s="66"/>
+      <c r="L120" s="66"/>
     </row>
     <row r="121" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B121" s="77"/>
-      <c r="C121" s="77"/>
-      <c r="D121" s="77"/>
-      <c r="E121" s="77"/>
-      <c r="F121" s="77"/>
-      <c r="G121" s="77"/>
-      <c r="H121" s="77"/>
-      <c r="I121" s="77"/>
-      <c r="J121" s="77"/>
-      <c r="K121" s="77"/>
-      <c r="L121" s="77"/>
+      <c r="B121" s="66"/>
+      <c r="C121" s="66"/>
+      <c r="D121" s="66"/>
+      <c r="E121" s="66"/>
+      <c r="F121" s="66"/>
+      <c r="G121" s="66"/>
+      <c r="H121" s="66"/>
+      <c r="I121" s="66"/>
+      <c r="J121" s="66"/>
+      <c r="K121" s="66"/>
+      <c r="L121" s="66"/>
     </row>
     <row r="122" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B122" s="77"/>
-      <c r="C122" s="77"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="77"/>
-      <c r="F122" s="77"/>
-      <c r="G122" s="77"/>
-      <c r="H122" s="77"/>
-      <c r="I122" s="77"/>
-      <c r="J122" s="77"/>
-      <c r="K122" s="77"/>
-      <c r="L122" s="77"/>
+      <c r="B122" s="66"/>
+      <c r="C122" s="66"/>
+      <c r="D122" s="66"/>
+      <c r="E122" s="66"/>
+      <c r="F122" s="66"/>
+      <c r="G122" s="66"/>
+      <c r="H122" s="66"/>
+      <c r="I122" s="66"/>
+      <c r="J122" s="66"/>
+      <c r="K122" s="66"/>
+      <c r="L122" s="66"/>
     </row>
     <row r="123" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B123" s="77"/>
-      <c r="C123" s="77"/>
-      <c r="D123" s="77"/>
-      <c r="E123" s="77"/>
-      <c r="F123" s="77"/>
-      <c r="G123" s="77"/>
-      <c r="H123" s="77"/>
-      <c r="I123" s="77"/>
-      <c r="J123" s="77"/>
-      <c r="K123" s="77"/>
-      <c r="L123" s="77"/>
+      <c r="B123" s="66"/>
+      <c r="C123" s="66"/>
+      <c r="D123" s="66"/>
+      <c r="E123" s="66"/>
+      <c r="F123" s="66"/>
+      <c r="G123" s="66"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="66"/>
+      <c r="J123" s="66"/>
+      <c r="K123" s="66"/>
+      <c r="L123" s="66"/>
     </row>
     <row r="124" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B124" s="77"/>
-      <c r="C124" s="77"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="77"/>
-      <c r="F124" s="77"/>
-      <c r="G124" s="77"/>
-      <c r="H124" s="77"/>
-      <c r="I124" s="77"/>
-      <c r="J124" s="77"/>
-      <c r="K124" s="77"/>
-      <c r="L124" s="77"/>
+      <c r="B124" s="66"/>
+      <c r="C124" s="66"/>
+      <c r="D124" s="66"/>
+      <c r="E124" s="66"/>
+      <c r="F124" s="66"/>
+      <c r="G124" s="66"/>
+      <c r="H124" s="66"/>
+      <c r="I124" s="66"/>
+      <c r="J124" s="66"/>
+      <c r="K124" s="66"/>
+      <c r="L124" s="66"/>
     </row>
     <row r="125" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B125" s="77"/>
-      <c r="C125" s="77"/>
-      <c r="D125" s="77"/>
-      <c r="E125" s="77"/>
-      <c r="F125" s="77"/>
-      <c r="G125" s="77"/>
-      <c r="H125" s="77"/>
-      <c r="I125" s="77"/>
-      <c r="J125" s="77"/>
-      <c r="K125" s="77"/>
-      <c r="L125" s="77"/>
+      <c r="B125" s="66"/>
+      <c r="C125" s="66"/>
+      <c r="D125" s="66"/>
+      <c r="E125" s="66"/>
+      <c r="F125" s="66"/>
+      <c r="G125" s="66"/>
+      <c r="H125" s="66"/>
+      <c r="I125" s="66"/>
+      <c r="J125" s="66"/>
+      <c r="K125" s="66"/>
+      <c r="L125" s="66"/>
     </row>
     <row r="126" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B126" s="77"/>
-      <c r="C126" s="77"/>
-      <c r="D126" s="77"/>
-      <c r="E126" s="77"/>
-      <c r="F126" s="77"/>
-      <c r="G126" s="77"/>
-      <c r="H126" s="77"/>
-      <c r="I126" s="77"/>
-      <c r="J126" s="77"/>
-      <c r="K126" s="77"/>
-      <c r="L126" s="77"/>
+      <c r="B126" s="66"/>
+      <c r="C126" s="66"/>
+      <c r="D126" s="66"/>
+      <c r="E126" s="66"/>
+      <c r="F126" s="66"/>
+      <c r="G126" s="66"/>
+      <c r="H126" s="66"/>
+      <c r="I126" s="66"/>
+      <c r="J126" s="66"/>
+      <c r="K126" s="66"/>
+      <c r="L126" s="66"/>
     </row>
     <row r="127" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B127" s="77"/>
-      <c r="C127" s="77"/>
-      <c r="D127" s="77"/>
-      <c r="E127" s="77"/>
-      <c r="F127" s="77"/>
-      <c r="G127" s="77"/>
-      <c r="H127" s="77"/>
-      <c r="I127" s="77"/>
-      <c r="J127" s="77"/>
-      <c r="K127" s="77"/>
-      <c r="L127" s="77"/>
+      <c r="B127" s="66"/>
+      <c r="C127" s="66"/>
+      <c r="D127" s="66"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="66"/>
+      <c r="G127" s="66"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="66"/>
+      <c r="J127" s="66"/>
+      <c r="K127" s="66"/>
+      <c r="L127" s="66"/>
     </row>
     <row r="128" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B128" s="77"/>
-      <c r="C128" s="77"/>
-      <c r="D128" s="77"/>
-      <c r="E128" s="77"/>
-      <c r="F128" s="77"/>
-      <c r="G128" s="77"/>
-      <c r="H128" s="77"/>
-      <c r="I128" s="77"/>
-      <c r="J128" s="77"/>
-      <c r="K128" s="77"/>
-      <c r="L128" s="77"/>
+      <c r="B128" s="66"/>
+      <c r="C128" s="66"/>
+      <c r="D128" s="66"/>
+      <c r="E128" s="66"/>
+      <c r="F128" s="66"/>
+      <c r="G128" s="66"/>
+      <c r="H128" s="66"/>
+      <c r="I128" s="66"/>
+      <c r="J128" s="66"/>
+      <c r="K128" s="66"/>
+      <c r="L128" s="66"/>
     </row>
     <row r="129" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B129" s="77"/>
-      <c r="C129" s="77"/>
-      <c r="D129" s="77"/>
-      <c r="E129" s="77"/>
-      <c r="F129" s="77"/>
-      <c r="G129" s="77"/>
-      <c r="H129" s="77"/>
-      <c r="I129" s="77"/>
-      <c r="J129" s="77"/>
-      <c r="K129" s="77"/>
-      <c r="L129" s="77"/>
+      <c r="B129" s="66"/>
+      <c r="C129" s="66"/>
+      <c r="D129" s="66"/>
+      <c r="E129" s="66"/>
+      <c r="F129" s="66"/>
+      <c r="G129" s="66"/>
+      <c r="H129" s="66"/>
+      <c r="I129" s="66"/>
+      <c r="J129" s="66"/>
+      <c r="K129" s="66"/>
+      <c r="L129" s="66"/>
     </row>
     <row r="130" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B130" s="77"/>
-      <c r="C130" s="77"/>
-      <c r="D130" s="77"/>
-      <c r="E130" s="77"/>
-      <c r="F130" s="77"/>
-      <c r="G130" s="77"/>
-      <c r="H130" s="77"/>
-      <c r="I130" s="77"/>
-      <c r="J130" s="77"/>
-      <c r="K130" s="77"/>
-      <c r="L130" s="77"/>
+      <c r="B130" s="66"/>
+      <c r="C130" s="66"/>
+      <c r="D130" s="66"/>
+      <c r="E130" s="66"/>
+      <c r="F130" s="66"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="66"/>
+      <c r="J130" s="66"/>
+      <c r="K130" s="66"/>
+      <c r="L130" s="66"/>
     </row>
     <row r="131" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B131" s="77"/>
-      <c r="C131" s="77"/>
-      <c r="D131" s="77"/>
-      <c r="E131" s="77"/>
-      <c r="F131" s="77"/>
-      <c r="G131" s="77"/>
-      <c r="H131" s="77"/>
-      <c r="I131" s="77"/>
-      <c r="J131" s="77"/>
-      <c r="K131" s="77"/>
-      <c r="L131" s="77"/>
+      <c r="B131" s="66"/>
+      <c r="C131" s="66"/>
+      <c r="D131" s="66"/>
+      <c r="E131" s="66"/>
+      <c r="F131" s="66"/>
+      <c r="G131" s="66"/>
+      <c r="H131" s="66"/>
+      <c r="I131" s="66"/>
+      <c r="J131" s="66"/>
+      <c r="K131" s="66"/>
+      <c r="L131" s="66"/>
     </row>
     <row r="132" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B132" s="77"/>
-      <c r="C132" s="77"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="77"/>
-      <c r="F132" s="77"/>
-      <c r="G132" s="77"/>
-      <c r="H132" s="77"/>
-      <c r="I132" s="77"/>
-      <c r="J132" s="77"/>
-      <c r="K132" s="77"/>
-      <c r="L132" s="77"/>
+      <c r="B132" s="66"/>
+      <c r="C132" s="66"/>
+      <c r="D132" s="66"/>
+      <c r="E132" s="66"/>
+      <c r="F132" s="66"/>
+      <c r="G132" s="66"/>
+      <c r="H132" s="66"/>
+      <c r="I132" s="66"/>
+      <c r="J132" s="66"/>
+      <c r="K132" s="66"/>
+      <c r="L132" s="66"/>
     </row>
     <row r="133" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B133" s="77"/>
-      <c r="C133" s="77"/>
-      <c r="D133" s="77"/>
-      <c r="E133" s="77"/>
-      <c r="F133" s="77"/>
-      <c r="G133" s="77"/>
-      <c r="H133" s="77"/>
-      <c r="I133" s="77"/>
-      <c r="J133" s="77"/>
-      <c r="K133" s="77"/>
-      <c r="L133" s="77"/>
+      <c r="B133" s="66"/>
+      <c r="C133" s="66"/>
+      <c r="D133" s="66"/>
+      <c r="E133" s="66"/>
+      <c r="F133" s="66"/>
+      <c r="G133" s="66"/>
+      <c r="H133" s="66"/>
+      <c r="I133" s="66"/>
+      <c r="J133" s="66"/>
+      <c r="K133" s="66"/>
+      <c r="L133" s="66"/>
     </row>
     <row r="134" spans="2:12" ht="24.75" customHeight="1">
       <c r="J134" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K134" s="76" t="str">
+      <c r="K134" s="65" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L134" s="76"/>
+      <c r="L134" s="65"/>
     </row>
     <row r="135" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B135" s="77" t="s">
+      <c r="B135" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C135" s="77"/>
-      <c r="D135" s="77"/>
-      <c r="E135" s="77"/>
-      <c r="F135" s="77"/>
-      <c r="G135" s="77"/>
-      <c r="H135" s="77"/>
-      <c r="I135" s="77"/>
-      <c r="J135" s="77"/>
-      <c r="K135" s="77"/>
-      <c r="L135" s="77"/>
+      <c r="C135" s="66"/>
+      <c r="D135" s="66"/>
+      <c r="E135" s="66"/>
+      <c r="F135" s="66"/>
+      <c r="G135" s="66"/>
+      <c r="H135" s="66"/>
+      <c r="I135" s="66"/>
+      <c r="J135" s="66"/>
+      <c r="K135" s="66"/>
+      <c r="L135" s="66"/>
     </row>
     <row r="136" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B136" s="77"/>
-      <c r="C136" s="77"/>
-      <c r="D136" s="77"/>
-      <c r="E136" s="77"/>
-      <c r="F136" s="77"/>
-      <c r="G136" s="77"/>
-      <c r="H136" s="77"/>
-      <c r="I136" s="77"/>
-      <c r="J136" s="77"/>
-      <c r="K136" s="77"/>
-      <c r="L136" s="77"/>
+      <c r="B136" s="66"/>
+      <c r="C136" s="66"/>
+      <c r="D136" s="66"/>
+      <c r="E136" s="66"/>
+      <c r="F136" s="66"/>
+      <c r="G136" s="66"/>
+      <c r="H136" s="66"/>
+      <c r="I136" s="66"/>
+      <c r="J136" s="66"/>
+      <c r="K136" s="66"/>
+      <c r="L136" s="66"/>
     </row>
     <row r="137" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B137" s="77"/>
-      <c r="C137" s="77"/>
-      <c r="D137" s="77"/>
-      <c r="E137" s="77"/>
-      <c r="F137" s="77"/>
-      <c r="G137" s="77"/>
-      <c r="H137" s="77"/>
-      <c r="I137" s="77"/>
-      <c r="J137" s="77"/>
-      <c r="K137" s="77"/>
-      <c r="L137" s="77"/>
+      <c r="B137" s="66"/>
+      <c r="C137" s="66"/>
+      <c r="D137" s="66"/>
+      <c r="E137" s="66"/>
+      <c r="F137" s="66"/>
+      <c r="G137" s="66"/>
+      <c r="H137" s="66"/>
+      <c r="I137" s="66"/>
+      <c r="J137" s="66"/>
+      <c r="K137" s="66"/>
+      <c r="L137" s="66"/>
     </row>
     <row r="138" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B138" s="77"/>
-      <c r="C138" s="77"/>
-      <c r="D138" s="77"/>
-      <c r="E138" s="77"/>
-      <c r="F138" s="77"/>
-      <c r="G138" s="77"/>
-      <c r="H138" s="77"/>
-      <c r="I138" s="77"/>
-      <c r="J138" s="77"/>
-      <c r="K138" s="77"/>
-      <c r="L138" s="77"/>
+      <c r="B138" s="66"/>
+      <c r="C138" s="66"/>
+      <c r="D138" s="66"/>
+      <c r="E138" s="66"/>
+      <c r="F138" s="66"/>
+      <c r="G138" s="66"/>
+      <c r="H138" s="66"/>
+      <c r="I138" s="66"/>
+      <c r="J138" s="66"/>
+      <c r="K138" s="66"/>
+      <c r="L138" s="66"/>
     </row>
     <row r="139" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B139" s="77"/>
-      <c r="C139" s="77"/>
-      <c r="D139" s="77"/>
-      <c r="E139" s="77"/>
-      <c r="F139" s="77"/>
-      <c r="G139" s="77"/>
-      <c r="H139" s="77"/>
-      <c r="I139" s="77"/>
-      <c r="J139" s="77"/>
-      <c r="K139" s="77"/>
-      <c r="L139" s="77"/>
+      <c r="B139" s="66"/>
+      <c r="C139" s="66"/>
+      <c r="D139" s="66"/>
+      <c r="E139" s="66"/>
+      <c r="F139" s="66"/>
+      <c r="G139" s="66"/>
+      <c r="H139" s="66"/>
+      <c r="I139" s="66"/>
+      <c r="J139" s="66"/>
+      <c r="K139" s="66"/>
+      <c r="L139" s="66"/>
     </row>
     <row r="140" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B140" s="77"/>
-      <c r="C140" s="77"/>
-      <c r="D140" s="77"/>
-      <c r="E140" s="77"/>
-      <c r="F140" s="77"/>
-      <c r="G140" s="77"/>
-      <c r="H140" s="77"/>
-      <c r="I140" s="77"/>
-      <c r="J140" s="77"/>
-      <c r="K140" s="77"/>
-      <c r="L140" s="77"/>
+      <c r="B140" s="66"/>
+      <c r="C140" s="66"/>
+      <c r="D140" s="66"/>
+      <c r="E140" s="66"/>
+      <c r="F140" s="66"/>
+      <c r="G140" s="66"/>
+      <c r="H140" s="66"/>
+      <c r="I140" s="66"/>
+      <c r="J140" s="66"/>
+      <c r="K140" s="66"/>
+      <c r="L140" s="66"/>
     </row>
     <row r="141" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B141" s="77"/>
-      <c r="C141" s="77"/>
-      <c r="D141" s="77"/>
-      <c r="E141" s="77"/>
-      <c r="F141" s="77"/>
-      <c r="G141" s="77"/>
-      <c r="H141" s="77"/>
-      <c r="I141" s="77"/>
-      <c r="J141" s="77"/>
-      <c r="K141" s="77"/>
-      <c r="L141" s="77"/>
+      <c r="B141" s="66"/>
+      <c r="C141" s="66"/>
+      <c r="D141" s="66"/>
+      <c r="E141" s="66"/>
+      <c r="F141" s="66"/>
+      <c r="G141" s="66"/>
+      <c r="H141" s="66"/>
+      <c r="I141" s="66"/>
+      <c r="J141" s="66"/>
+      <c r="K141" s="66"/>
+      <c r="L141" s="66"/>
     </row>
     <row r="142" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B142" s="77"/>
-      <c r="C142" s="77"/>
-      <c r="D142" s="77"/>
-      <c r="E142" s="77"/>
-      <c r="F142" s="77"/>
-      <c r="G142" s="77"/>
-      <c r="H142" s="77"/>
-      <c r="I142" s="77"/>
-      <c r="J142" s="77"/>
-      <c r="K142" s="77"/>
-      <c r="L142" s="77"/>
+      <c r="B142" s="66"/>
+      <c r="C142" s="66"/>
+      <c r="D142" s="66"/>
+      <c r="E142" s="66"/>
+      <c r="F142" s="66"/>
+      <c r="G142" s="66"/>
+      <c r="H142" s="66"/>
+      <c r="I142" s="66"/>
+      <c r="J142" s="66"/>
+      <c r="K142" s="66"/>
+      <c r="L142" s="66"/>
     </row>
     <row r="143" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B143" s="77"/>
-      <c r="C143" s="77"/>
-      <c r="D143" s="77"/>
-      <c r="E143" s="77"/>
-      <c r="F143" s="77"/>
-      <c r="G143" s="77"/>
-      <c r="H143" s="77"/>
-      <c r="I143" s="77"/>
-      <c r="J143" s="77"/>
-      <c r="K143" s="77"/>
-      <c r="L143" s="77"/>
+      <c r="B143" s="66"/>
+      <c r="C143" s="66"/>
+      <c r="D143" s="66"/>
+      <c r="E143" s="66"/>
+      <c r="F143" s="66"/>
+      <c r="G143" s="66"/>
+      <c r="H143" s="66"/>
+      <c r="I143" s="66"/>
+      <c r="J143" s="66"/>
+      <c r="K143" s="66"/>
+      <c r="L143" s="66"/>
     </row>
     <row r="144" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B144" s="77"/>
-      <c r="C144" s="77"/>
-      <c r="D144" s="77"/>
-      <c r="E144" s="77"/>
-      <c r="F144" s="77"/>
-      <c r="G144" s="77"/>
-      <c r="H144" s="77"/>
-      <c r="I144" s="77"/>
-      <c r="J144" s="77"/>
-      <c r="K144" s="77"/>
-      <c r="L144" s="77"/>
+      <c r="B144" s="66"/>
+      <c r="C144" s="66"/>
+      <c r="D144" s="66"/>
+      <c r="E144" s="66"/>
+      <c r="F144" s="66"/>
+      <c r="G144" s="66"/>
+      <c r="H144" s="66"/>
+      <c r="I144" s="66"/>
+      <c r="J144" s="66"/>
+      <c r="K144" s="66"/>
+      <c r="L144" s="66"/>
     </row>
     <row r="145" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B145" s="77"/>
-      <c r="C145" s="77"/>
-      <c r="D145" s="77"/>
-      <c r="E145" s="77"/>
-      <c r="F145" s="77"/>
-      <c r="G145" s="77"/>
-      <c r="H145" s="77"/>
-      <c r="I145" s="77"/>
-      <c r="J145" s="77"/>
-      <c r="K145" s="77"/>
-      <c r="L145" s="77"/>
+      <c r="B145" s="66"/>
+      <c r="C145" s="66"/>
+      <c r="D145" s="66"/>
+      <c r="E145" s="66"/>
+      <c r="F145" s="66"/>
+      <c r="G145" s="66"/>
+      <c r="H145" s="66"/>
+      <c r="I145" s="66"/>
+      <c r="J145" s="66"/>
+      <c r="K145" s="66"/>
+      <c r="L145" s="66"/>
     </row>
     <row r="146" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B146" s="77"/>
-      <c r="C146" s="77"/>
-      <c r="D146" s="77"/>
-      <c r="E146" s="77"/>
-      <c r="F146" s="77"/>
-      <c r="G146" s="77"/>
-      <c r="H146" s="77"/>
-      <c r="I146" s="77"/>
-      <c r="J146" s="77"/>
-      <c r="K146" s="77"/>
-      <c r="L146" s="77"/>
+      <c r="B146" s="66"/>
+      <c r="C146" s="66"/>
+      <c r="D146" s="66"/>
+      <c r="E146" s="66"/>
+      <c r="F146" s="66"/>
+      <c r="G146" s="66"/>
+      <c r="H146" s="66"/>
+      <c r="I146" s="66"/>
+      <c r="J146" s="66"/>
+      <c r="K146" s="66"/>
+      <c r="L146" s="66"/>
     </row>
     <row r="147" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B147" s="77"/>
-      <c r="C147" s="77"/>
-      <c r="D147" s="77"/>
-      <c r="E147" s="77"/>
-      <c r="F147" s="77"/>
-      <c r="G147" s="77"/>
-      <c r="H147" s="77"/>
-      <c r="I147" s="77"/>
-      <c r="J147" s="77"/>
-      <c r="K147" s="77"/>
-      <c r="L147" s="77"/>
+      <c r="B147" s="66"/>
+      <c r="C147" s="66"/>
+      <c r="D147" s="66"/>
+      <c r="E147" s="66"/>
+      <c r="F147" s="66"/>
+      <c r="G147" s="66"/>
+      <c r="H147" s="66"/>
+      <c r="I147" s="66"/>
+      <c r="J147" s="66"/>
+      <c r="K147" s="66"/>
+      <c r="L147" s="66"/>
     </row>
     <row r="148" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B148" s="77"/>
-      <c r="C148" s="77"/>
-      <c r="D148" s="77"/>
-      <c r="E148" s="77"/>
-      <c r="F148" s="77"/>
-      <c r="G148" s="77"/>
-      <c r="H148" s="77"/>
-      <c r="I148" s="77"/>
-      <c r="J148" s="77"/>
-      <c r="K148" s="77"/>
-      <c r="L148" s="77"/>
+      <c r="B148" s="66"/>
+      <c r="C148" s="66"/>
+      <c r="D148" s="66"/>
+      <c r="E148" s="66"/>
+      <c r="F148" s="66"/>
+      <c r="G148" s="66"/>
+      <c r="H148" s="66"/>
+      <c r="I148" s="66"/>
+      <c r="J148" s="66"/>
+      <c r="K148" s="66"/>
+      <c r="L148" s="66"/>
     </row>
     <row r="149" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B149" s="77"/>
-      <c r="C149" s="77"/>
-      <c r="D149" s="77"/>
-      <c r="E149" s="77"/>
-      <c r="F149" s="77"/>
-      <c r="G149" s="77"/>
-      <c r="H149" s="77"/>
-      <c r="I149" s="77"/>
-      <c r="J149" s="77"/>
-      <c r="K149" s="77"/>
-      <c r="L149" s="77"/>
+      <c r="B149" s="66"/>
+      <c r="C149" s="66"/>
+      <c r="D149" s="66"/>
+      <c r="E149" s="66"/>
+      <c r="F149" s="66"/>
+      <c r="G149" s="66"/>
+      <c r="H149" s="66"/>
+      <c r="I149" s="66"/>
+      <c r="J149" s="66"/>
+      <c r="K149" s="66"/>
+      <c r="L149" s="66"/>
     </row>
     <row r="150" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B150" s="77"/>
-      <c r="C150" s="77"/>
-      <c r="D150" s="77"/>
-      <c r="E150" s="77"/>
-      <c r="F150" s="77"/>
-      <c r="G150" s="77"/>
-      <c r="H150" s="77"/>
-      <c r="I150" s="77"/>
-      <c r="J150" s="77"/>
-      <c r="K150" s="77"/>
-      <c r="L150" s="77"/>
+      <c r="B150" s="66"/>
+      <c r="C150" s="66"/>
+      <c r="D150" s="66"/>
+      <c r="E150" s="66"/>
+      <c r="F150" s="66"/>
+      <c r="G150" s="66"/>
+      <c r="H150" s="66"/>
+      <c r="I150" s="66"/>
+      <c r="J150" s="66"/>
+      <c r="K150" s="66"/>
+      <c r="L150" s="66"/>
     </row>
     <row r="151" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B151" s="77"/>
-      <c r="C151" s="77"/>
-      <c r="D151" s="77"/>
-      <c r="E151" s="77"/>
-      <c r="F151" s="77"/>
-      <c r="G151" s="77"/>
-      <c r="H151" s="77"/>
-      <c r="I151" s="77"/>
-      <c r="J151" s="77"/>
-      <c r="K151" s="77"/>
-      <c r="L151" s="77"/>
+      <c r="B151" s="66"/>
+      <c r="C151" s="66"/>
+      <c r="D151" s="66"/>
+      <c r="E151" s="66"/>
+      <c r="F151" s="66"/>
+      <c r="G151" s="66"/>
+      <c r="H151" s="66"/>
+      <c r="I151" s="66"/>
+      <c r="J151" s="66"/>
+      <c r="K151" s="66"/>
+      <c r="L151" s="66"/>
     </row>
     <row r="152" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B152" s="77"/>
-      <c r="C152" s="77"/>
-      <c r="D152" s="77"/>
-      <c r="E152" s="77"/>
-      <c r="F152" s="77"/>
-      <c r="G152" s="77"/>
-      <c r="H152" s="77"/>
-      <c r="I152" s="77"/>
-      <c r="J152" s="77"/>
-      <c r="K152" s="77"/>
-      <c r="L152" s="77"/>
+      <c r="B152" s="66"/>
+      <c r="C152" s="66"/>
+      <c r="D152" s="66"/>
+      <c r="E152" s="66"/>
+      <c r="F152" s="66"/>
+      <c r="G152" s="66"/>
+      <c r="H152" s="66"/>
+      <c r="I152" s="66"/>
+      <c r="J152" s="66"/>
+      <c r="K152" s="66"/>
+      <c r="L152" s="66"/>
     </row>
     <row r="153" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B153" s="77"/>
-      <c r="C153" s="77"/>
-      <c r="D153" s="77"/>
-      <c r="E153" s="77"/>
-      <c r="F153" s="77"/>
-      <c r="G153" s="77"/>
-      <c r="H153" s="77"/>
-      <c r="I153" s="77"/>
-      <c r="J153" s="77"/>
-      <c r="K153" s="77"/>
-      <c r="L153" s="77"/>
+      <c r="B153" s="66"/>
+      <c r="C153" s="66"/>
+      <c r="D153" s="66"/>
+      <c r="E153" s="66"/>
+      <c r="F153" s="66"/>
+      <c r="G153" s="66"/>
+      <c r="H153" s="66"/>
+      <c r="I153" s="66"/>
+      <c r="J153" s="66"/>
+      <c r="K153" s="66"/>
+      <c r="L153" s="66"/>
     </row>
     <row r="154" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B154" s="77"/>
-      <c r="C154" s="77"/>
-      <c r="D154" s="77"/>
-      <c r="E154" s="77"/>
-      <c r="F154" s="77"/>
-      <c r="G154" s="77"/>
-      <c r="H154" s="77"/>
-      <c r="I154" s="77"/>
-      <c r="J154" s="77"/>
-      <c r="K154" s="77"/>
-      <c r="L154" s="77"/>
+      <c r="B154" s="66"/>
+      <c r="C154" s="66"/>
+      <c r="D154" s="66"/>
+      <c r="E154" s="66"/>
+      <c r="F154" s="66"/>
+      <c r="G154" s="66"/>
+      <c r="H154" s="66"/>
+      <c r="I154" s="66"/>
+      <c r="J154" s="66"/>
+      <c r="K154" s="66"/>
+      <c r="L154" s="66"/>
     </row>
     <row r="155" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B155" s="77"/>
-      <c r="C155" s="77"/>
-      <c r="D155" s="77"/>
-      <c r="E155" s="77"/>
-      <c r="F155" s="77"/>
-      <c r="G155" s="77"/>
-      <c r="H155" s="77"/>
-      <c r="I155" s="77"/>
-      <c r="J155" s="77"/>
-      <c r="K155" s="77"/>
-      <c r="L155" s="77"/>
+      <c r="B155" s="66"/>
+      <c r="C155" s="66"/>
+      <c r="D155" s="66"/>
+      <c r="E155" s="66"/>
+      <c r="F155" s="66"/>
+      <c r="G155" s="66"/>
+      <c r="H155" s="66"/>
+      <c r="I155" s="66"/>
+      <c r="J155" s="66"/>
+      <c r="K155" s="66"/>
+      <c r="L155" s="66"/>
     </row>
     <row r="156" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B156" s="77"/>
-      <c r="C156" s="77"/>
-      <c r="D156" s="77"/>
-      <c r="E156" s="77"/>
-      <c r="F156" s="77"/>
-      <c r="G156" s="77"/>
-      <c r="H156" s="77"/>
-      <c r="I156" s="77"/>
-      <c r="J156" s="77"/>
-      <c r="K156" s="77"/>
-      <c r="L156" s="77"/>
+      <c r="B156" s="66"/>
+      <c r="C156" s="66"/>
+      <c r="D156" s="66"/>
+      <c r="E156" s="66"/>
+      <c r="F156" s="66"/>
+      <c r="G156" s="66"/>
+      <c r="H156" s="66"/>
+      <c r="I156" s="66"/>
+      <c r="J156" s="66"/>
+      <c r="K156" s="66"/>
+      <c r="L156" s="66"/>
     </row>
     <row r="157" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B157" s="77"/>
-      <c r="C157" s="77"/>
-      <c r="D157" s="77"/>
-      <c r="E157" s="77"/>
-      <c r="F157" s="77"/>
-      <c r="G157" s="77"/>
-      <c r="H157" s="77"/>
-      <c r="I157" s="77"/>
-      <c r="J157" s="77"/>
-      <c r="K157" s="77"/>
-      <c r="L157" s="77"/>
+      <c r="B157" s="66"/>
+      <c r="C157" s="66"/>
+      <c r="D157" s="66"/>
+      <c r="E157" s="66"/>
+      <c r="F157" s="66"/>
+      <c r="G157" s="66"/>
+      <c r="H157" s="66"/>
+      <c r="I157" s="66"/>
+      <c r="J157" s="66"/>
+      <c r="K157" s="66"/>
+      <c r="L157" s="66"/>
     </row>
     <row r="158" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B158" s="77"/>
-      <c r="C158" s="77"/>
-      <c r="D158" s="77"/>
-      <c r="E158" s="77"/>
-      <c r="F158" s="77"/>
-      <c r="G158" s="77"/>
-      <c r="H158" s="77"/>
-      <c r="I158" s="77"/>
-      <c r="J158" s="77"/>
-      <c r="K158" s="77"/>
-      <c r="L158" s="77"/>
+      <c r="B158" s="66"/>
+      <c r="C158" s="66"/>
+      <c r="D158" s="66"/>
+      <c r="E158" s="66"/>
+      <c r="F158" s="66"/>
+      <c r="G158" s="66"/>
+      <c r="H158" s="66"/>
+      <c r="I158" s="66"/>
+      <c r="J158" s="66"/>
+      <c r="K158" s="66"/>
+      <c r="L158" s="66"/>
     </row>
     <row r="159" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B159" s="77"/>
-      <c r="C159" s="77"/>
-      <c r="D159" s="77"/>
-      <c r="E159" s="77"/>
-      <c r="F159" s="77"/>
-      <c r="G159" s="77"/>
-      <c r="H159" s="77"/>
-      <c r="I159" s="77"/>
-      <c r="J159" s="77"/>
-      <c r="K159" s="77"/>
-      <c r="L159" s="77"/>
+      <c r="B159" s="66"/>
+      <c r="C159" s="66"/>
+      <c r="D159" s="66"/>
+      <c r="E159" s="66"/>
+      <c r="F159" s="66"/>
+      <c r="G159" s="66"/>
+      <c r="H159" s="66"/>
+      <c r="I159" s="66"/>
+      <c r="J159" s="66"/>
+      <c r="K159" s="66"/>
+      <c r="L159" s="66"/>
     </row>
     <row r="160" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B160" s="77"/>
-      <c r="C160" s="77"/>
-      <c r="D160" s="77"/>
-      <c r="E160" s="77"/>
-      <c r="F160" s="77"/>
-      <c r="G160" s="77"/>
-      <c r="H160" s="77"/>
-      <c r="I160" s="77"/>
-      <c r="J160" s="77"/>
-      <c r="K160" s="77"/>
-      <c r="L160" s="77"/>
+      <c r="B160" s="66"/>
+      <c r="C160" s="66"/>
+      <c r="D160" s="66"/>
+      <c r="E160" s="66"/>
+      <c r="F160" s="66"/>
+      <c r="G160" s="66"/>
+      <c r="H160" s="66"/>
+      <c r="I160" s="66"/>
+      <c r="J160" s="66"/>
+      <c r="K160" s="66"/>
+      <c r="L160" s="66"/>
     </row>
     <row r="161" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B161" s="77"/>
-      <c r="C161" s="77"/>
-      <c r="D161" s="77"/>
-      <c r="E161" s="77"/>
-      <c r="F161" s="77"/>
-      <c r="G161" s="77"/>
-      <c r="H161" s="77"/>
-      <c r="I161" s="77"/>
-      <c r="J161" s="77"/>
-      <c r="K161" s="77"/>
-      <c r="L161" s="77"/>
+      <c r="B161" s="66"/>
+      <c r="C161" s="66"/>
+      <c r="D161" s="66"/>
+      <c r="E161" s="66"/>
+      <c r="F161" s="66"/>
+      <c r="G161" s="66"/>
+      <c r="H161" s="66"/>
+      <c r="I161" s="66"/>
+      <c r="J161" s="66"/>
+      <c r="K161" s="66"/>
+      <c r="L161" s="66"/>
     </row>
     <row r="162" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B162" s="77"/>
-      <c r="C162" s="77"/>
-      <c r="D162" s="77"/>
-      <c r="E162" s="77"/>
-      <c r="F162" s="77"/>
-      <c r="G162" s="77"/>
-      <c r="H162" s="77"/>
-      <c r="I162" s="77"/>
-      <c r="J162" s="77"/>
-      <c r="K162" s="77"/>
-      <c r="L162" s="77"/>
+      <c r="B162" s="66"/>
+      <c r="C162" s="66"/>
+      <c r="D162" s="66"/>
+      <c r="E162" s="66"/>
+      <c r="F162" s="66"/>
+      <c r="G162" s="66"/>
+      <c r="H162" s="66"/>
+      <c r="I162" s="66"/>
+      <c r="J162" s="66"/>
+      <c r="K162" s="66"/>
+      <c r="L162" s="66"/>
     </row>
     <row r="163" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B163" s="77"/>
-      <c r="C163" s="77"/>
-      <c r="D163" s="77"/>
-      <c r="E163" s="77"/>
-      <c r="F163" s="77"/>
-      <c r="G163" s="77"/>
-      <c r="H163" s="77"/>
-      <c r="I163" s="77"/>
-      <c r="J163" s="77"/>
-      <c r="K163" s="77"/>
-      <c r="L163" s="77"/>
+      <c r="B163" s="66"/>
+      <c r="C163" s="66"/>
+      <c r="D163" s="66"/>
+      <c r="E163" s="66"/>
+      <c r="F163" s="66"/>
+      <c r="G163" s="66"/>
+      <c r="H163" s="66"/>
+      <c r="I163" s="66"/>
+      <c r="J163" s="66"/>
+      <c r="K163" s="66"/>
+      <c r="L163" s="66"/>
     </row>
     <row r="164" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B164" s="77"/>
-      <c r="C164" s="77"/>
-      <c r="D164" s="77"/>
-      <c r="E164" s="77"/>
-      <c r="F164" s="77"/>
-      <c r="G164" s="77"/>
-      <c r="H164" s="77"/>
-      <c r="I164" s="77"/>
-      <c r="J164" s="77"/>
-      <c r="K164" s="77"/>
-      <c r="L164" s="77"/>
+      <c r="B164" s="66"/>
+      <c r="C164" s="66"/>
+      <c r="D164" s="66"/>
+      <c r="E164" s="66"/>
+      <c r="F164" s="66"/>
+      <c r="G164" s="66"/>
+      <c r="H164" s="66"/>
+      <c r="I164" s="66"/>
+      <c r="J164" s="66"/>
+      <c r="K164" s="66"/>
+      <c r="L164" s="66"/>
     </row>
     <row r="165" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B165" s="77"/>
-      <c r="C165" s="77"/>
-      <c r="D165" s="77"/>
-      <c r="E165" s="77"/>
-      <c r="F165" s="77"/>
-      <c r="G165" s="77"/>
-      <c r="H165" s="77"/>
-      <c r="I165" s="77"/>
-      <c r="J165" s="77"/>
-      <c r="K165" s="77"/>
-      <c r="L165" s="77"/>
+      <c r="B165" s="66"/>
+      <c r="C165" s="66"/>
+      <c r="D165" s="66"/>
+      <c r="E165" s="66"/>
+      <c r="F165" s="66"/>
+      <c r="G165" s="66"/>
+      <c r="H165" s="66"/>
+      <c r="I165" s="66"/>
+      <c r="J165" s="66"/>
+      <c r="K165" s="66"/>
+      <c r="L165" s="66"/>
     </row>
     <row r="166" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B166" s="77"/>
-      <c r="C166" s="77"/>
-      <c r="D166" s="77"/>
-      <c r="E166" s="77"/>
-      <c r="F166" s="77"/>
-      <c r="G166" s="77"/>
-      <c r="H166" s="77"/>
-      <c r="I166" s="77"/>
-      <c r="J166" s="77"/>
-      <c r="K166" s="77"/>
-      <c r="L166" s="77"/>
+      <c r="B166" s="66"/>
+      <c r="C166" s="66"/>
+      <c r="D166" s="66"/>
+      <c r="E166" s="66"/>
+      <c r="F166" s="66"/>
+      <c r="G166" s="66"/>
+      <c r="H166" s="66"/>
+      <c r="I166" s="66"/>
+      <c r="J166" s="66"/>
+      <c r="K166" s="66"/>
+      <c r="L166" s="66"/>
     </row>
     <row r="167" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B167" s="77"/>
-      <c r="C167" s="77"/>
-      <c r="D167" s="77"/>
-      <c r="E167" s="77"/>
-      <c r="F167" s="77"/>
-      <c r="G167" s="77"/>
-      <c r="H167" s="77"/>
-      <c r="I167" s="77"/>
-      <c r="J167" s="77"/>
-      <c r="K167" s="77"/>
-      <c r="L167" s="77"/>
+      <c r="B167" s="66"/>
+      <c r="C167" s="66"/>
+      <c r="D167" s="66"/>
+      <c r="E167" s="66"/>
+      <c r="F167" s="66"/>
+      <c r="G167" s="66"/>
+      <c r="H167" s="66"/>
+      <c r="I167" s="66"/>
+      <c r="J167" s="66"/>
+      <c r="K167" s="66"/>
+      <c r="L167" s="66"/>
     </row>
     <row r="168" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B168" s="77"/>
-      <c r="C168" s="77"/>
-      <c r="D168" s="77"/>
-      <c r="E168" s="77"/>
-      <c r="F168" s="77"/>
-      <c r="G168" s="77"/>
-      <c r="H168" s="77"/>
-      <c r="I168" s="77"/>
-      <c r="J168" s="77"/>
-      <c r="K168" s="77"/>
-      <c r="L168" s="77"/>
+      <c r="B168" s="66"/>
+      <c r="C168" s="66"/>
+      <c r="D168" s="66"/>
+      <c r="E168" s="66"/>
+      <c r="F168" s="66"/>
+      <c r="G168" s="66"/>
+      <c r="H168" s="66"/>
+      <c r="I168" s="66"/>
+      <c r="J168" s="66"/>
+      <c r="K168" s="66"/>
+      <c r="L168" s="66"/>
     </row>
     <row r="169" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B169" s="77"/>
-      <c r="C169" s="77"/>
-      <c r="D169" s="77"/>
-      <c r="E169" s="77"/>
-      <c r="F169" s="77"/>
-      <c r="G169" s="77"/>
-      <c r="H169" s="77"/>
-      <c r="I169" s="77"/>
-      <c r="J169" s="77"/>
-      <c r="K169" s="77"/>
-      <c r="L169" s="77"/>
+      <c r="B169" s="66"/>
+      <c r="C169" s="66"/>
+      <c r="D169" s="66"/>
+      <c r="E169" s="66"/>
+      <c r="F169" s="66"/>
+      <c r="G169" s="66"/>
+      <c r="H169" s="66"/>
+      <c r="I169" s="66"/>
+      <c r="J169" s="66"/>
+      <c r="K169" s="66"/>
+      <c r="L169" s="66"/>
     </row>
     <row r="170" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B170" s="77"/>
-      <c r="C170" s="77"/>
-      <c r="D170" s="77"/>
-      <c r="E170" s="77"/>
-      <c r="F170" s="77"/>
-      <c r="G170" s="77"/>
-      <c r="H170" s="77"/>
-      <c r="I170" s="77"/>
-      <c r="J170" s="77"/>
-      <c r="K170" s="77"/>
-      <c r="L170" s="77"/>
+      <c r="B170" s="66"/>
+      <c r="C170" s="66"/>
+      <c r="D170" s="66"/>
+      <c r="E170" s="66"/>
+      <c r="F170" s="66"/>
+      <c r="G170" s="66"/>
+      <c r="H170" s="66"/>
+      <c r="I170" s="66"/>
+      <c r="J170" s="66"/>
+      <c r="K170" s="66"/>
+      <c r="L170" s="66"/>
     </row>
     <row r="171" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B171" s="77"/>
-      <c r="C171" s="77"/>
-      <c r="D171" s="77"/>
-      <c r="E171" s="77"/>
-      <c r="F171" s="77"/>
-      <c r="G171" s="77"/>
-      <c r="H171" s="77"/>
-      <c r="I171" s="77"/>
-      <c r="J171" s="77"/>
-      <c r="K171" s="77"/>
-      <c r="L171" s="77"/>
+      <c r="B171" s="66"/>
+      <c r="C171" s="66"/>
+      <c r="D171" s="66"/>
+      <c r="E171" s="66"/>
+      <c r="F171" s="66"/>
+      <c r="G171" s="66"/>
+      <c r="H171" s="66"/>
+      <c r="I171" s="66"/>
+      <c r="J171" s="66"/>
+      <c r="K171" s="66"/>
+      <c r="L171" s="66"/>
     </row>
     <row r="172" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B172" s="77"/>
-      <c r="C172" s="77"/>
-      <c r="D172" s="77"/>
-      <c r="E172" s="77"/>
-      <c r="F172" s="77"/>
-      <c r="G172" s="77"/>
-      <c r="H172" s="77"/>
-      <c r="I172" s="77"/>
-      <c r="J172" s="77"/>
-      <c r="K172" s="77"/>
-      <c r="L172" s="77"/>
+      <c r="B172" s="66"/>
+      <c r="C172" s="66"/>
+      <c r="D172" s="66"/>
+      <c r="E172" s="66"/>
+      <c r="F172" s="66"/>
+      <c r="G172" s="66"/>
+      <c r="H172" s="66"/>
+      <c r="I172" s="66"/>
+      <c r="J172" s="66"/>
+      <c r="K172" s="66"/>
+      <c r="L172" s="66"/>
     </row>
     <row r="173" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B173" s="77"/>
-      <c r="C173" s="77"/>
-      <c r="D173" s="77"/>
-      <c r="E173" s="77"/>
-      <c r="F173" s="77"/>
-      <c r="G173" s="77"/>
-      <c r="H173" s="77"/>
-      <c r="I173" s="77"/>
-      <c r="J173" s="77"/>
-      <c r="K173" s="77"/>
-      <c r="L173" s="77"/>
+      <c r="B173" s="66"/>
+      <c r="C173" s="66"/>
+      <c r="D173" s="66"/>
+      <c r="E173" s="66"/>
+      <c r="F173" s="66"/>
+      <c r="G173" s="66"/>
+      <c r="H173" s="66"/>
+      <c r="I173" s="66"/>
+      <c r="J173" s="66"/>
+      <c r="K173" s="66"/>
+      <c r="L173" s="66"/>
     </row>
     <row r="174" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B174" s="77"/>
-      <c r="C174" s="77"/>
-      <c r="D174" s="77"/>
-      <c r="E174" s="77"/>
-      <c r="F174" s="77"/>
-      <c r="G174" s="77"/>
-      <c r="H174" s="77"/>
-      <c r="I174" s="77"/>
-      <c r="J174" s="77"/>
-      <c r="K174" s="77"/>
-      <c r="L174" s="77"/>
+      <c r="B174" s="66"/>
+      <c r="C174" s="66"/>
+      <c r="D174" s="66"/>
+      <c r="E174" s="66"/>
+      <c r="F174" s="66"/>
+      <c r="G174" s="66"/>
+      <c r="H174" s="66"/>
+      <c r="I174" s="66"/>
+      <c r="J174" s="66"/>
+      <c r="K174" s="66"/>
+      <c r="L174" s="66"/>
     </row>
     <row r="175" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B175" s="77"/>
-      <c r="C175" s="77"/>
-      <c r="D175" s="77"/>
-      <c r="E175" s="77"/>
-      <c r="F175" s="77"/>
-      <c r="G175" s="77"/>
-      <c r="H175" s="77"/>
-      <c r="I175" s="77"/>
-      <c r="J175" s="77"/>
-      <c r="K175" s="77"/>
-      <c r="L175" s="77"/>
+      <c r="B175" s="66"/>
+      <c r="C175" s="66"/>
+      <c r="D175" s="66"/>
+      <c r="E175" s="66"/>
+      <c r="F175" s="66"/>
+      <c r="G175" s="66"/>
+      <c r="H175" s="66"/>
+      <c r="I175" s="66"/>
+      <c r="J175" s="66"/>
+      <c r="K175" s="66"/>
+      <c r="L175" s="66"/>
     </row>
     <row r="176" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B176" s="77"/>
-      <c r="C176" s="77"/>
-      <c r="D176" s="77"/>
-      <c r="E176" s="77"/>
-      <c r="F176" s="77"/>
-      <c r="G176" s="77"/>
-      <c r="H176" s="77"/>
-      <c r="I176" s="77"/>
-      <c r="J176" s="77"/>
-      <c r="K176" s="77"/>
-      <c r="L176" s="77"/>
+      <c r="B176" s="66"/>
+      <c r="C176" s="66"/>
+      <c r="D176" s="66"/>
+      <c r="E176" s="66"/>
+      <c r="F176" s="66"/>
+      <c r="G176" s="66"/>
+      <c r="H176" s="66"/>
+      <c r="I176" s="66"/>
+      <c r="J176" s="66"/>
+      <c r="K176" s="66"/>
+      <c r="L176" s="66"/>
     </row>
     <row r="177" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B177" s="77"/>
-      <c r="C177" s="77"/>
-      <c r="D177" s="77"/>
-      <c r="E177" s="77"/>
-      <c r="F177" s="77"/>
-      <c r="G177" s="77"/>
-      <c r="H177" s="77"/>
-      <c r="I177" s="77"/>
-      <c r="J177" s="77"/>
-      <c r="K177" s="77"/>
-      <c r="L177" s="77"/>
+      <c r="B177" s="66"/>
+      <c r="C177" s="66"/>
+      <c r="D177" s="66"/>
+      <c r="E177" s="66"/>
+      <c r="F177" s="66"/>
+      <c r="G177" s="66"/>
+      <c r="H177" s="66"/>
+      <c r="I177" s="66"/>
+      <c r="J177" s="66"/>
+      <c r="K177" s="66"/>
+      <c r="L177" s="66"/>
     </row>
     <row r="178" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B178" s="77" t="s">
+      <c r="B178" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="C178" s="77"/>
-      <c r="D178" s="79" t="str">
+      <c r="C178" s="66"/>
+      <c r="D178" s="68" t="str">
         <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E178" s="79"/>
+      <c r="E178" s="68"/>
       <c r="F178" s="44"/>
       <c r="G178" s="44"/>
       <c r="H178" s="44"/>
@@ -5090,11 +5090,11 @@
       <c r="J208" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K208" s="76" t="str">
+      <c r="K208" s="65" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L208" s="76"/>
+      <c r="L208" s="65"/>
     </row>
     <row r="209" spans="2:12" ht="17.25">
       <c r="B209" s="27" t="s">
@@ -5118,19 +5118,19 @@
     </row>
     <row r="212" spans="2:12" ht="14.25">
       <c r="B212" s="23"/>
-      <c r="C212" s="62" t="str">
+      <c r="C212" s="72" t="str">
         <f>記入!B10</f>
         <v>${cv.pjnamejapanese}</v>
       </c>
-      <c r="D212" s="62"/>
-      <c r="E212" s="62"/>
-      <c r="F212" s="62"/>
-      <c r="G212" s="62"/>
-      <c r="H212" s="62"/>
-      <c r="I212" s="62"/>
-      <c r="J212" s="62"/>
-      <c r="K212" s="62"/>
-      <c r="L212" s="62"/>
+      <c r="D212" s="72"/>
+      <c r="E212" s="72"/>
+      <c r="F212" s="72"/>
+      <c r="G212" s="72"/>
+      <c r="H212" s="72"/>
+      <c r="I212" s="72"/>
+      <c r="J212" s="72"/>
+      <c r="K212" s="72"/>
+      <c r="L212" s="72"/>
     </row>
     <row r="213" spans="2:12" ht="14.25">
       <c r="B213" s="23"/>
@@ -5165,11 +5165,11 @@
       <c r="C215" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D215" s="63" t="str">
+      <c r="D215" s="73" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E215" s="64"/>
+      <c r="E215" s="74"/>
       <c r="F215" s="24"/>
       <c r="G215" s="24"/>
       <c r="H215" s="24"/>
@@ -5183,11 +5183,11 @@
       <c r="C216" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D216" s="63" t="str">
+      <c r="D216" s="73" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E216" s="64"/>
+      <c r="E216" s="74"/>
       <c r="F216" s="24"/>
       <c r="G216" s="24"/>
       <c r="H216" s="24"/>
@@ -5250,18 +5250,18 @@
     </row>
     <row r="222" spans="2:12" ht="14.25">
       <c r="B222" s="23"/>
-      <c r="C222" s="74" t="s">
+      <c r="C222" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="D222" s="74"/>
-      <c r="E222" s="74" t="s">
+      <c r="D222" s="62"/>
+      <c r="E222" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="F222" s="74"/>
-      <c r="G222" s="74" t="s">
+      <c r="F222" s="62"/>
+      <c r="G222" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="H222" s="74"/>
+      <c r="H222" s="62"/>
       <c r="I222" s="23"/>
       <c r="J222" s="23"/>
       <c r="K222" s="23"/>
@@ -5269,21 +5269,21 @@
     </row>
     <row r="223" spans="2:12" ht="14.25">
       <c r="B223" s="23"/>
-      <c r="C223" s="71" t="str">
+      <c r="C223" s="64" t="str">
         <f>IF(E223="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="D223" s="71"/>
-      <c r="E223" s="74" t="str">
+      <c r="D223" s="64"/>
+      <c r="E223" s="62" t="str">
         <f>IF(記入!A29="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F223" s="74"/>
-      <c r="G223" s="80" t="str">
+      <c r="F223" s="62"/>
+      <c r="G223" s="63" t="str">
         <f>IF(記入!B29="","-",記入!B29)</f>
         <v>${ba1[0].deliverydate}</v>
       </c>
-      <c r="H223" s="80"/>
+      <c r="H223" s="63"/>
       <c r="I223" s="23"/>
       <c r="J223" s="23"/>
       <c r="K223" s="23"/>
@@ -5291,21 +5291,21 @@
     </row>
     <row r="224" spans="2:12" ht="14.25">
       <c r="B224" s="23"/>
-      <c r="C224" s="71" t="str">
+      <c r="C224" s="64" t="str">
         <f>IF(E224="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="D224" s="71"/>
-      <c r="E224" s="74" t="str">
+      <c r="D224" s="64"/>
+      <c r="E224" s="62" t="str">
         <f>IF(記入!A30="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F224" s="74"/>
-      <c r="G224" s="80" t="str">
+      <c r="F224" s="62"/>
+      <c r="G224" s="63" t="str">
         <f>IF(記入!B30="","-",記入!B30)</f>
         <v>${ba1[1].deliverydate}</v>
       </c>
-      <c r="H224" s="80"/>
+      <c r="H224" s="63"/>
       <c r="I224" s="23"/>
       <c r="J224" s="23"/>
       <c r="K224" s="23"/>
@@ -5313,21 +5313,21 @@
     </row>
     <row r="225" spans="2:12" ht="14.25">
       <c r="B225" s="23"/>
-      <c r="C225" s="71" t="str">
+      <c r="C225" s="64" t="str">
         <f>IF(E225="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="D225" s="71"/>
-      <c r="E225" s="74" t="str">
+      <c r="D225" s="64"/>
+      <c r="E225" s="62" t="str">
         <f>IF(記入!A31="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F225" s="74"/>
-      <c r="G225" s="80" t="str">
+      <c r="F225" s="62"/>
+      <c r="G225" s="63" t="str">
         <f>IF(記入!B31="","-",記入!B31)</f>
         <v>${ba1[2].deliverydate}</v>
       </c>
-      <c r="H225" s="80"/>
+      <c r="H225" s="63"/>
       <c r="I225" s="23"/>
       <c r="J225" s="23"/>
       <c r="K225" s="23"/>
@@ -5335,21 +5335,21 @@
     </row>
     <row r="226" spans="2:12" ht="14.25">
       <c r="B226" s="23"/>
-      <c r="C226" s="71" t="str">
+      <c r="C226" s="64" t="str">
         <f>IF(E226="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="D226" s="71"/>
-      <c r="E226" s="74" t="str">
+      <c r="D226" s="64"/>
+      <c r="E226" s="62" t="str">
         <f>IF(記入!A32="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F226" s="74"/>
-      <c r="G226" s="80" t="str">
+      <c r="F226" s="62"/>
+      <c r="G226" s="63" t="str">
         <f>IF(記入!B32="","-",記入!B32)</f>
         <v>${ba1[3].deliverydate}</v>
       </c>
-      <c r="H226" s="80"/>
+      <c r="H226" s="63"/>
       <c r="I226" s="23"/>
       <c r="J226" s="23"/>
       <c r="K226" s="23"/>
@@ -5385,131 +5385,131 @@
     </row>
     <row r="229" spans="2:12" ht="14.25">
       <c r="B229" s="23"/>
-      <c r="C229" s="74" t="s">
+      <c r="C229" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D229" s="74"/>
-      <c r="E229" s="74" t="s">
+      <c r="D229" s="62"/>
+      <c r="E229" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="F229" s="74"/>
-      <c r="G229" s="74" t="s">
+      <c r="F229" s="62"/>
+      <c r="G229" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="H229" s="74"/>
-      <c r="I229" s="74" t="str">
+      <c r="H229" s="62"/>
+      <c r="I229" s="62" t="str">
         <f>"金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額(${cv.currencyposition})</v>
       </c>
-      <c r="J229" s="74"/>
-      <c r="K229" s="74" t="str">
+      <c r="J229" s="62"/>
+      <c r="K229" s="62" t="str">
         <f>"金額総計"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額総計(${cv.currencyposition})</v>
       </c>
-      <c r="L229" s="74"/>
+      <c r="L229" s="62"/>
     </row>
     <row r="230" spans="2:12" ht="14.25">
       <c r="B230" s="23"/>
-      <c r="C230" s="71" t="str">
+      <c r="C230" s="64" t="str">
         <f>IF(E230="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="D230" s="71"/>
-      <c r="E230" s="72" t="str">
+      <c r="D230" s="64"/>
+      <c r="E230" s="71" t="str">
         <f>IF(記入!D29="","-",記入!D29)</f>
         <v>${ba1[0].claimdate}</v>
       </c>
-      <c r="F230" s="73"/>
-      <c r="G230" s="72" t="str">
+      <c r="F230" s="70"/>
+      <c r="G230" s="71" t="str">
         <f>IF(記入!E29="","-",記入!E29)</f>
         <v>${ba1[0].supportdate}</v>
       </c>
-      <c r="H230" s="73"/>
-      <c r="I230" s="75" t="str">
+      <c r="H230" s="70"/>
+      <c r="I230" s="69" t="str">
         <f>IF(記入!F29="","-",記入!F29)</f>
         <v>${ba1[0].claimamount}</v>
       </c>
-      <c r="J230" s="73"/>
-      <c r="K230" s="65" t="str">
+      <c r="J230" s="70"/>
+      <c r="K230" s="75" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="L230" s="66"/>
+      <c r="L230" s="76"/>
     </row>
     <row r="231" spans="2:12" ht="14.25" customHeight="1">
       <c r="B231" s="23"/>
-      <c r="C231" s="71" t="str">
+      <c r="C231" s="64" t="str">
         <f>IF(E231="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="D231" s="71"/>
-      <c r="E231" s="72" t="str">
+      <c r="D231" s="64"/>
+      <c r="E231" s="71" t="str">
         <f>IF(記入!D30="","-",記入!D30)</f>
         <v>${ba1[1].claimdate}</v>
       </c>
-      <c r="F231" s="73"/>
-      <c r="G231" s="72" t="str">
+      <c r="F231" s="70"/>
+      <c r="G231" s="71" t="str">
         <f>IF(記入!E30="","-",記入!E30)</f>
         <v>${ba1[1].supportdate}</v>
       </c>
-      <c r="H231" s="73"/>
-      <c r="I231" s="75" t="str">
+      <c r="H231" s="70"/>
+      <c r="I231" s="69" t="str">
         <f>IF(記入!F30="","-",記入!F30)</f>
         <v>${ba1[1].claimamount}</v>
       </c>
-      <c r="J231" s="73"/>
-      <c r="K231" s="67"/>
-      <c r="L231" s="68"/>
+      <c r="J231" s="70"/>
+      <c r="K231" s="77"/>
+      <c r="L231" s="78"/>
     </row>
     <row r="232" spans="2:12" ht="14.25" customHeight="1">
       <c r="B232" s="23"/>
-      <c r="C232" s="71" t="str">
+      <c r="C232" s="64" t="str">
         <f>IF(E232="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="D232" s="71"/>
-      <c r="E232" s="72" t="str">
+      <c r="D232" s="64"/>
+      <c r="E232" s="71" t="str">
         <f>IF(記入!D31="","-",記入!D31)</f>
         <v>${ba1[2].claimdate}</v>
       </c>
-      <c r="F232" s="73"/>
-      <c r="G232" s="72" t="str">
+      <c r="F232" s="70"/>
+      <c r="G232" s="71" t="str">
         <f>IF(記入!E31="","-",記入!E31)</f>
         <v>${ba1[2].supportdate}</v>
       </c>
-      <c r="H232" s="73"/>
-      <c r="I232" s="75" t="str">
+      <c r="H232" s="70"/>
+      <c r="I232" s="69" t="str">
         <f>IF(記入!F31="","-",記入!F31)</f>
         <v>${ba1[2].claimamount}</v>
       </c>
-      <c r="J232" s="73"/>
-      <c r="K232" s="67"/>
-      <c r="L232" s="68"/>
+      <c r="J232" s="70"/>
+      <c r="K232" s="77"/>
+      <c r="L232" s="78"/>
     </row>
     <row r="233" spans="2:12" ht="14.25" customHeight="1">
       <c r="B233" s="23"/>
-      <c r="C233" s="71" t="str">
+      <c r="C233" s="64" t="str">
         <f>IF(E233="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="D233" s="71"/>
-      <c r="E233" s="72" t="str">
+      <c r="D233" s="64"/>
+      <c r="E233" s="71" t="str">
         <f>IF(記入!D32="","-",記入!D32)</f>
         <v>${ba1[3].claimdate}</v>
       </c>
-      <c r="F233" s="73"/>
-      <c r="G233" s="72" t="str">
+      <c r="F233" s="70"/>
+      <c r="G233" s="71" t="str">
         <f>IF(記入!E32="","-",記入!E32)</f>
         <v>${ba1[3].supportdate}</v>
       </c>
-      <c r="H233" s="73"/>
-      <c r="I233" s="75" t="str">
+      <c r="H233" s="70"/>
+      <c r="I233" s="69" t="str">
         <f>IF(記入!F32="","-",記入!F32)</f>
         <v>${ba1[3].claimamount}</v>
       </c>
-      <c r="J233" s="73"/>
-      <c r="K233" s="69"/>
-      <c r="L233" s="70"/>
+      <c r="J233" s="70"/>
+      <c r="K233" s="79"/>
+      <c r="L233" s="80"/>
     </row>
     <row r="234" spans="2:12" ht="14.25">
       <c r="B234" s="23"/>
@@ -5531,41 +5531,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="G225:H225"/>
-    <mergeCell ref="G226:H226"/>
-    <mergeCell ref="C222:D222"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B69:L133"/>
-    <mergeCell ref="B11:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K134:L134"/>
-    <mergeCell ref="B135:L177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="I230:J230"/>
-    <mergeCell ref="I231:J231"/>
-    <mergeCell ref="I232:J232"/>
-    <mergeCell ref="I233:J233"/>
-    <mergeCell ref="K229:L229"/>
-    <mergeCell ref="I229:J229"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="G230:H230"/>
-    <mergeCell ref="E226:F226"/>
     <mergeCell ref="C212:L212"/>
     <mergeCell ref="D215:E215"/>
     <mergeCell ref="D216:E216"/>
@@ -5582,6 +5547,41 @@
     <mergeCell ref="E230:F230"/>
     <mergeCell ref="E231:F231"/>
     <mergeCell ref="E232:F232"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="G230:H230"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="I230:J230"/>
+    <mergeCell ref="I231:J231"/>
+    <mergeCell ref="I232:J232"/>
+    <mergeCell ref="I233:J233"/>
+    <mergeCell ref="K229:L229"/>
+    <mergeCell ref="I229:J229"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B69:L133"/>
+    <mergeCell ref="B11:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="B135:L177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="G225:H225"/>
+    <mergeCell ref="G226:H226"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5624,18 +5624,18 @@
       <c r="J2" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="83" t="str">
+      <c r="K2" s="95" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="83"/>
+      <c r="L2" s="95"/>
     </row>
     <row r="3" spans="1:12" ht="20.25">
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="32" t="s">
@@ -5691,32 +5691,32 @@
       <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="B10" s="34"/>
@@ -5732,2186 +5732,2186 @@
       <c r="L10" s="34"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="97"/>
+      <c r="L14" s="97"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="97"/>
+      <c r="L18" s="97"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="97"/>
+      <c r="L19" s="97"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="97"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="97"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="97"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="97"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="97"/>
+      <c r="L23" s="97"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="97"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="97"/>
+      <c r="L25" s="97"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="97"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="97"/>
+      <c r="H28" s="97"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="97"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="97"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="97"/>
+      <c r="H29" s="97"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="97"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="97"/>
+      <c r="H30" s="97"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
+      <c r="H31" s="97"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="97"/>
+      <c r="L31" s="97"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="97"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="97"/>
+      <c r="H32" s="97"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="97"/>
+      <c r="L32" s="97"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="97"/>
+      <c r="E35" s="97"/>
+      <c r="F35" s="97"/>
+      <c r="G35" s="97"/>
+      <c r="H35" s="97"/>
+      <c r="I35" s="97"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="97"/>
+      <c r="L35" s="97"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="97"/>
+      <c r="L36" s="97"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="97"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="97"/>
+      <c r="G37" s="97"/>
+      <c r="H37" s="97"/>
+      <c r="I37" s="97"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="97"/>
+      <c r="L37" s="97"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="97"/>
+      <c r="K38" s="97"/>
+      <c r="L38" s="97"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="97"/>
+      <c r="G39" s="97"/>
+      <c r="H39" s="97"/>
+      <c r="I39" s="97"/>
+      <c r="J39" s="97"/>
+      <c r="K39" s="97"/>
+      <c r="L39" s="97"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="97"/>
+      <c r="D40" s="97"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="97"/>
+      <c r="G40" s="97"/>
+      <c r="H40" s="97"/>
+      <c r="I40" s="97"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="97"/>
+      <c r="L40" s="97"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="97"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="97"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="97"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="97"/>
+      <c r="D47" s="97"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="97"/>
+      <c r="G47" s="97"/>
+      <c r="H47" s="97"/>
+      <c r="I47" s="97"/>
+      <c r="J47" s="97"/>
+      <c r="K47" s="97"/>
+      <c r="L47" s="97"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="97"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="97"/>
+      <c r="G48" s="97"/>
+      <c r="H48" s="97"/>
+      <c r="I48" s="97"/>
+      <c r="J48" s="97"/>
+      <c r="K48" s="97"/>
+      <c r="L48" s="97"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="97"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="97"/>
+      <c r="L49" s="97"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="97"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="97"/>
+      <c r="F50" s="97"/>
+      <c r="G50" s="97"/>
+      <c r="H50" s="97"/>
+      <c r="I50" s="97"/>
+      <c r="J50" s="97"/>
+      <c r="K50" s="97"/>
+      <c r="L50" s="97"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="97"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="97"/>
+      <c r="G51" s="97"/>
+      <c r="H51" s="97"/>
+      <c r="I51" s="97"/>
+      <c r="J51" s="97"/>
+      <c r="K51" s="97"/>
+      <c r="L51" s="97"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="97"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="97"/>
+      <c r="F52" s="97"/>
+      <c r="G52" s="97"/>
+      <c r="H52" s="97"/>
+      <c r="I52" s="97"/>
+      <c r="J52" s="97"/>
+      <c r="K52" s="97"/>
+      <c r="L52" s="97"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="97"/>
+      <c r="F53" s="97"/>
+      <c r="G53" s="97"/>
+      <c r="H53" s="97"/>
+      <c r="I53" s="97"/>
+      <c r="J53" s="97"/>
+      <c r="K53" s="97"/>
+      <c r="L53" s="97"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="97"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="97"/>
+      <c r="J54" s="97"/>
+      <c r="K54" s="97"/>
+      <c r="L54" s="97"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="97"/>
+      <c r="F55" s="97"/>
+      <c r="G55" s="97"/>
+      <c r="H55" s="97"/>
+      <c r="I55" s="97"/>
+      <c r="J55" s="97"/>
+      <c r="K55" s="97"/>
+      <c r="L55" s="97"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
+      <c r="B56" s="97"/>
+      <c r="C56" s="97"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="97"/>
+      <c r="F56" s="97"/>
+      <c r="G56" s="97"/>
+      <c r="H56" s="97"/>
+      <c r="I56" s="97"/>
+      <c r="J56" s="97"/>
+      <c r="K56" s="97"/>
+      <c r="L56" s="97"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
+      <c r="B57" s="97"/>
+      <c r="C57" s="97"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="97"/>
+      <c r="F57" s="97"/>
+      <c r="G57" s="97"/>
+      <c r="H57" s="97"/>
+      <c r="I57" s="97"/>
+      <c r="J57" s="97"/>
+      <c r="K57" s="97"/>
+      <c r="L57" s="97"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
+      <c r="B58" s="97"/>
+      <c r="C58" s="97"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="97"/>
+      <c r="F58" s="97"/>
+      <c r="G58" s="97"/>
+      <c r="H58" s="97"/>
+      <c r="I58" s="97"/>
+      <c r="J58" s="97"/>
+      <c r="K58" s="97"/>
+      <c r="L58" s="97"/>
     </row>
     <row r="59" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
+      <c r="B59" s="97"/>
+      <c r="C59" s="97"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="97"/>
+      <c r="F59" s="97"/>
+      <c r="G59" s="97"/>
+      <c r="H59" s="97"/>
+      <c r="I59" s="97"/>
+      <c r="J59" s="97"/>
+      <c r="K59" s="97"/>
+      <c r="L59" s="97"/>
     </row>
     <row r="60" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="85"/>
+      <c r="B60" s="97"/>
+      <c r="C60" s="97"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="97"/>
+      <c r="F60" s="97"/>
+      <c r="G60" s="97"/>
+      <c r="H60" s="97"/>
+      <c r="I60" s="97"/>
+      <c r="J60" s="97"/>
+      <c r="K60" s="97"/>
+      <c r="L60" s="97"/>
     </row>
     <row r="61" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
+      <c r="B61" s="97"/>
+      <c r="C61" s="97"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="97"/>
+      <c r="F61" s="97"/>
+      <c r="G61" s="97"/>
+      <c r="H61" s="97"/>
+      <c r="I61" s="97"/>
+      <c r="J61" s="97"/>
+      <c r="K61" s="97"/>
+      <c r="L61" s="97"/>
     </row>
     <row r="62" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="85"/>
-      <c r="K62" s="85"/>
-      <c r="L62" s="85"/>
+      <c r="B62" s="97"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="97"/>
+      <c r="L62" s="97"/>
     </row>
     <row r="63" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B63" s="85"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="85"/>
-      <c r="J63" s="85"/>
-      <c r="K63" s="85"/>
-      <c r="L63" s="85"/>
+      <c r="B63" s="97"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="97"/>
+      <c r="J63" s="97"/>
+      <c r="K63" s="97"/>
+      <c r="L63" s="97"/>
     </row>
     <row r="64" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="85"/>
-      <c r="J64" s="85"/>
-      <c r="K64" s="85"/>
-      <c r="L64" s="85"/>
+      <c r="B64" s="97"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="97"/>
+      <c r="J64" s="97"/>
+      <c r="K64" s="97"/>
+      <c r="L64" s="97"/>
     </row>
     <row r="65" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="85"/>
-      <c r="I65" s="85"/>
-      <c r="J65" s="85"/>
-      <c r="K65" s="85"/>
-      <c r="L65" s="85"/>
+      <c r="B65" s="97"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
+      <c r="J65" s="97"/>
+      <c r="K65" s="97"/>
+      <c r="L65" s="97"/>
     </row>
     <row r="66" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="85"/>
-      <c r="J66" s="85"/>
-      <c r="K66" s="85"/>
-      <c r="L66" s="85"/>
+      <c r="B66" s="97"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="97"/>
+      <c r="K66" s="97"/>
+      <c r="L66" s="97"/>
     </row>
     <row r="67" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B67" s="85"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="85"/>
-      <c r="H67" s="85"/>
-      <c r="I67" s="85"/>
-      <c r="J67" s="85"/>
-      <c r="K67" s="85"/>
-      <c r="L67" s="85"/>
+      <c r="B67" s="97"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="97"/>
+      <c r="J67" s="97"/>
+      <c r="K67" s="97"/>
+      <c r="L67" s="97"/>
     </row>
     <row r="68" spans="2:12" ht="24.75" customHeight="1">
       <c r="J68" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="K68" s="83" t="str">
+      <c r="K68" s="95" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L68" s="83"/>
+      <c r="L68" s="95"/>
     </row>
     <row r="69" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B69" s="85" t="s">
+      <c r="B69" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
-      <c r="I69" s="85"/>
-      <c r="J69" s="85"/>
-      <c r="K69" s="85"/>
-      <c r="L69" s="85"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="97"/>
+      <c r="J69" s="97"/>
+      <c r="K69" s="97"/>
+      <c r="L69" s="97"/>
     </row>
     <row r="70" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="85"/>
-      <c r="I70" s="85"/>
-      <c r="J70" s="85"/>
-      <c r="K70" s="85"/>
-      <c r="L70" s="85"/>
+      <c r="B70" s="97"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="97"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="97"/>
+      <c r="I70" s="97"/>
+      <c r="J70" s="97"/>
+      <c r="K70" s="97"/>
+      <c r="L70" s="97"/>
     </row>
     <row r="71" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="85"/>
-      <c r="I71" s="85"/>
-      <c r="J71" s="85"/>
-      <c r="K71" s="85"/>
-      <c r="L71" s="85"/>
+      <c r="B71" s="97"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="97"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="97"/>
+      <c r="I71" s="97"/>
+      <c r="J71" s="97"/>
+      <c r="K71" s="97"/>
+      <c r="L71" s="97"/>
     </row>
     <row r="72" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="85"/>
-      <c r="I72" s="85"/>
-      <c r="J72" s="85"/>
-      <c r="K72" s="85"/>
-      <c r="L72" s="85"/>
+      <c r="B72" s="97"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="97"/>
+      <c r="H72" s="97"/>
+      <c r="I72" s="97"/>
+      <c r="J72" s="97"/>
+      <c r="K72" s="97"/>
+      <c r="L72" s="97"/>
     </row>
     <row r="73" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B73" s="85"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="85"/>
-      <c r="I73" s="85"/>
-      <c r="J73" s="85"/>
-      <c r="K73" s="85"/>
-      <c r="L73" s="85"/>
+      <c r="B73" s="97"/>
+      <c r="C73" s="97"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="97"/>
+      <c r="G73" s="97"/>
+      <c r="H73" s="97"/>
+      <c r="I73" s="97"/>
+      <c r="J73" s="97"/>
+      <c r="K73" s="97"/>
+      <c r="L73" s="97"/>
     </row>
     <row r="74" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B74" s="85"/>
-      <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="85"/>
-      <c r="K74" s="85"/>
-      <c r="L74" s="85"/>
+      <c r="B74" s="97"/>
+      <c r="C74" s="97"/>
+      <c r="D74" s="97"/>
+      <c r="E74" s="97"/>
+      <c r="F74" s="97"/>
+      <c r="G74" s="97"/>
+      <c r="H74" s="97"/>
+      <c r="I74" s="97"/>
+      <c r="J74" s="97"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="97"/>
     </row>
     <row r="75" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="85"/>
-      <c r="J75" s="85"/>
-      <c r="K75" s="85"/>
-      <c r="L75" s="85"/>
+      <c r="B75" s="97"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="97"/>
+      <c r="E75" s="97"/>
+      <c r="F75" s="97"/>
+      <c r="G75" s="97"/>
+      <c r="H75" s="97"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
+      <c r="K75" s="97"/>
+      <c r="L75" s="97"/>
     </row>
     <row r="76" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B76" s="85"/>
-      <c r="C76" s="85"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="85"/>
-      <c r="H76" s="85"/>
-      <c r="I76" s="85"/>
-      <c r="J76" s="85"/>
-      <c r="K76" s="85"/>
-      <c r="L76" s="85"/>
+      <c r="B76" s="97"/>
+      <c r="C76" s="97"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="97"/>
+      <c r="F76" s="97"/>
+      <c r="G76" s="97"/>
+      <c r="H76" s="97"/>
+      <c r="I76" s="97"/>
+      <c r="J76" s="97"/>
+      <c r="K76" s="97"/>
+      <c r="L76" s="97"/>
     </row>
     <row r="77" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B77" s="85"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="85"/>
-      <c r="F77" s="85"/>
-      <c r="G77" s="85"/>
-      <c r="H77" s="85"/>
-      <c r="I77" s="85"/>
-      <c r="J77" s="85"/>
-      <c r="K77" s="85"/>
-      <c r="L77" s="85"/>
+      <c r="B77" s="97"/>
+      <c r="C77" s="97"/>
+      <c r="D77" s="97"/>
+      <c r="E77" s="97"/>
+      <c r="F77" s="97"/>
+      <c r="G77" s="97"/>
+      <c r="H77" s="97"/>
+      <c r="I77" s="97"/>
+      <c r="J77" s="97"/>
+      <c r="K77" s="97"/>
+      <c r="L77" s="97"/>
     </row>
     <row r="78" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B78" s="85"/>
-      <c r="C78" s="85"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="85"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="85"/>
-      <c r="H78" s="85"/>
-      <c r="I78" s="85"/>
-      <c r="J78" s="85"/>
-      <c r="K78" s="85"/>
-      <c r="L78" s="85"/>
+      <c r="B78" s="97"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="97"/>
+      <c r="E78" s="97"/>
+      <c r="F78" s="97"/>
+      <c r="G78" s="97"/>
+      <c r="H78" s="97"/>
+      <c r="I78" s="97"/>
+      <c r="J78" s="97"/>
+      <c r="K78" s="97"/>
+      <c r="L78" s="97"/>
     </row>
     <row r="79" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="85"/>
-      <c r="J79" s="85"/>
-      <c r="K79" s="85"/>
-      <c r="L79" s="85"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="97"/>
+      <c r="K79" s="97"/>
+      <c r="L79" s="97"/>
     </row>
     <row r="80" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B80" s="85"/>
-      <c r="C80" s="85"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="85"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="85"/>
-      <c r="H80" s="85"/>
-      <c r="I80" s="85"/>
-      <c r="J80" s="85"/>
-      <c r="K80" s="85"/>
-      <c r="L80" s="85"/>
+      <c r="B80" s="97"/>
+      <c r="C80" s="97"/>
+      <c r="D80" s="97"/>
+      <c r="E80" s="97"/>
+      <c r="F80" s="97"/>
+      <c r="G80" s="97"/>
+      <c r="H80" s="97"/>
+      <c r="I80" s="97"/>
+      <c r="J80" s="97"/>
+      <c r="K80" s="97"/>
+      <c r="L80" s="97"/>
     </row>
     <row r="81" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B81" s="85"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="85"/>
-      <c r="E81" s="85"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="85"/>
-      <c r="H81" s="85"/>
-      <c r="I81" s="85"/>
-      <c r="J81" s="85"/>
-      <c r="K81" s="85"/>
-      <c r="L81" s="85"/>
+      <c r="B81" s="97"/>
+      <c r="C81" s="97"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="97"/>
+      <c r="F81" s="97"/>
+      <c r="G81" s="97"/>
+      <c r="H81" s="97"/>
+      <c r="I81" s="97"/>
+      <c r="J81" s="97"/>
+      <c r="K81" s="97"/>
+      <c r="L81" s="97"/>
     </row>
     <row r="82" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B82" s="85"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="85"/>
-      <c r="L82" s="85"/>
+      <c r="B82" s="97"/>
+      <c r="C82" s="97"/>
+      <c r="D82" s="97"/>
+      <c r="E82" s="97"/>
+      <c r="F82" s="97"/>
+      <c r="G82" s="97"/>
+      <c r="H82" s="97"/>
+      <c r="I82" s="97"/>
+      <c r="J82" s="97"/>
+      <c r="K82" s="97"/>
+      <c r="L82" s="97"/>
     </row>
     <row r="83" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B83" s="85"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="85"/>
-      <c r="H83" s="85"/>
-      <c r="I83" s="85"/>
-      <c r="J83" s="85"/>
-      <c r="K83" s="85"/>
-      <c r="L83" s="85"/>
+      <c r="B83" s="97"/>
+      <c r="C83" s="97"/>
+      <c r="D83" s="97"/>
+      <c r="E83" s="97"/>
+      <c r="F83" s="97"/>
+      <c r="G83" s="97"/>
+      <c r="H83" s="97"/>
+      <c r="I83" s="97"/>
+      <c r="J83" s="97"/>
+      <c r="K83" s="97"/>
+      <c r="L83" s="97"/>
     </row>
     <row r="84" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B84" s="85"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="85"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="85"/>
-      <c r="G84" s="85"/>
-      <c r="H84" s="85"/>
-      <c r="I84" s="85"/>
-      <c r="J84" s="85"/>
-      <c r="K84" s="85"/>
-      <c r="L84" s="85"/>
+      <c r="B84" s="97"/>
+      <c r="C84" s="97"/>
+      <c r="D84" s="97"/>
+      <c r="E84" s="97"/>
+      <c r="F84" s="97"/>
+      <c r="G84" s="97"/>
+      <c r="H84" s="97"/>
+      <c r="I84" s="97"/>
+      <c r="J84" s="97"/>
+      <c r="K84" s="97"/>
+      <c r="L84" s="97"/>
     </row>
     <row r="85" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B85" s="85"/>
-      <c r="C85" s="85"/>
-      <c r="D85" s="85"/>
-      <c r="E85" s="85"/>
-      <c r="F85" s="85"/>
-      <c r="G85" s="85"/>
-      <c r="H85" s="85"/>
-      <c r="I85" s="85"/>
-      <c r="J85" s="85"/>
-      <c r="K85" s="85"/>
-      <c r="L85" s="85"/>
+      <c r="B85" s="97"/>
+      <c r="C85" s="97"/>
+      <c r="D85" s="97"/>
+      <c r="E85" s="97"/>
+      <c r="F85" s="97"/>
+      <c r="G85" s="97"/>
+      <c r="H85" s="97"/>
+      <c r="I85" s="97"/>
+      <c r="J85" s="97"/>
+      <c r="K85" s="97"/>
+      <c r="L85" s="97"/>
     </row>
     <row r="86" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B86" s="85"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="85"/>
-      <c r="H86" s="85"/>
-      <c r="I86" s="85"/>
-      <c r="J86" s="85"/>
-      <c r="K86" s="85"/>
-      <c r="L86" s="85"/>
+      <c r="B86" s="97"/>
+      <c r="C86" s="97"/>
+      <c r="D86" s="97"/>
+      <c r="E86" s="97"/>
+      <c r="F86" s="97"/>
+      <c r="G86" s="97"/>
+      <c r="H86" s="97"/>
+      <c r="I86" s="97"/>
+      <c r="J86" s="97"/>
+      <c r="K86" s="97"/>
+      <c r="L86" s="97"/>
     </row>
     <row r="87" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B87" s="85"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="H87" s="85"/>
-      <c r="I87" s="85"/>
-      <c r="J87" s="85"/>
-      <c r="K87" s="85"/>
-      <c r="L87" s="85"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="97"/>
+      <c r="D87" s="97"/>
+      <c r="E87" s="97"/>
+      <c r="F87" s="97"/>
+      <c r="G87" s="97"/>
+      <c r="H87" s="97"/>
+      <c r="I87" s="97"/>
+      <c r="J87" s="97"/>
+      <c r="K87" s="97"/>
+      <c r="L87" s="97"/>
     </row>
     <row r="88" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B88" s="85"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="85"/>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85"/>
-      <c r="K88" s="85"/>
-      <c r="L88" s="85"/>
+      <c r="B88" s="97"/>
+      <c r="C88" s="97"/>
+      <c r="D88" s="97"/>
+      <c r="E88" s="97"/>
+      <c r="F88" s="97"/>
+      <c r="G88" s="97"/>
+      <c r="H88" s="97"/>
+      <c r="I88" s="97"/>
+      <c r="J88" s="97"/>
+      <c r="K88" s="97"/>
+      <c r="L88" s="97"/>
     </row>
     <row r="89" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B89" s="85"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="85"/>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
-      <c r="K89" s="85"/>
-      <c r="L89" s="85"/>
+      <c r="B89" s="97"/>
+      <c r="C89" s="97"/>
+      <c r="D89" s="97"/>
+      <c r="E89" s="97"/>
+      <c r="F89" s="97"/>
+      <c r="G89" s="97"/>
+      <c r="H89" s="97"/>
+      <c r="I89" s="97"/>
+      <c r="J89" s="97"/>
+      <c r="K89" s="97"/>
+      <c r="L89" s="97"/>
     </row>
     <row r="90" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="85"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="85"/>
-      <c r="H90" s="85"/>
-      <c r="I90" s="85"/>
-      <c r="J90" s="85"/>
-      <c r="K90" s="85"/>
-      <c r="L90" s="85"/>
+      <c r="B90" s="97"/>
+      <c r="C90" s="97"/>
+      <c r="D90" s="97"/>
+      <c r="E90" s="97"/>
+      <c r="F90" s="97"/>
+      <c r="G90" s="97"/>
+      <c r="H90" s="97"/>
+      <c r="I90" s="97"/>
+      <c r="J90" s="97"/>
+      <c r="K90" s="97"/>
+      <c r="L90" s="97"/>
     </row>
     <row r="91" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B91" s="85"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="85"/>
-      <c r="H91" s="85"/>
-      <c r="I91" s="85"/>
-      <c r="J91" s="85"/>
-      <c r="K91" s="85"/>
-      <c r="L91" s="85"/>
+      <c r="B91" s="97"/>
+      <c r="C91" s="97"/>
+      <c r="D91" s="97"/>
+      <c r="E91" s="97"/>
+      <c r="F91" s="97"/>
+      <c r="G91" s="97"/>
+      <c r="H91" s="97"/>
+      <c r="I91" s="97"/>
+      <c r="J91" s="97"/>
+      <c r="K91" s="97"/>
+      <c r="L91" s="97"/>
     </row>
     <row r="92" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B92" s="85"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="85"/>
-      <c r="I92" s="85"/>
-      <c r="J92" s="85"/>
-      <c r="K92" s="85"/>
-      <c r="L92" s="85"/>
+      <c r="B92" s="97"/>
+      <c r="C92" s="97"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="97"/>
+      <c r="F92" s="97"/>
+      <c r="G92" s="97"/>
+      <c r="H92" s="97"/>
+      <c r="I92" s="97"/>
+      <c r="J92" s="97"/>
+      <c r="K92" s="97"/>
+      <c r="L92" s="97"/>
     </row>
     <row r="93" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B93" s="85"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="85"/>
-      <c r="I93" s="85"/>
-      <c r="J93" s="85"/>
-      <c r="K93" s="85"/>
-      <c r="L93" s="85"/>
+      <c r="B93" s="97"/>
+      <c r="C93" s="97"/>
+      <c r="D93" s="97"/>
+      <c r="E93" s="97"/>
+      <c r="F93" s="97"/>
+      <c r="G93" s="97"/>
+      <c r="H93" s="97"/>
+      <c r="I93" s="97"/>
+      <c r="J93" s="97"/>
+      <c r="K93" s="97"/>
+      <c r="L93" s="97"/>
     </row>
     <row r="94" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B94" s="85"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="85"/>
-      <c r="I94" s="85"/>
-      <c r="J94" s="85"/>
-      <c r="K94" s="85"/>
-      <c r="L94" s="85"/>
+      <c r="B94" s="97"/>
+      <c r="C94" s="97"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="97"/>
+      <c r="F94" s="97"/>
+      <c r="G94" s="97"/>
+      <c r="H94" s="97"/>
+      <c r="I94" s="97"/>
+      <c r="J94" s="97"/>
+      <c r="K94" s="97"/>
+      <c r="L94" s="97"/>
     </row>
     <row r="95" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B95" s="85"/>
-      <c r="C95" s="85"/>
-      <c r="D95" s="85"/>
-      <c r="E95" s="85"/>
-      <c r="F95" s="85"/>
-      <c r="G95" s="85"/>
-      <c r="H95" s="85"/>
-      <c r="I95" s="85"/>
-      <c r="J95" s="85"/>
-      <c r="K95" s="85"/>
-      <c r="L95" s="85"/>
+      <c r="B95" s="97"/>
+      <c r="C95" s="97"/>
+      <c r="D95" s="97"/>
+      <c r="E95" s="97"/>
+      <c r="F95" s="97"/>
+      <c r="G95" s="97"/>
+      <c r="H95" s="97"/>
+      <c r="I95" s="97"/>
+      <c r="J95" s="97"/>
+      <c r="K95" s="97"/>
+      <c r="L95" s="97"/>
     </row>
     <row r="96" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B96" s="85"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="85"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="85"/>
-      <c r="H96" s="85"/>
-      <c r="I96" s="85"/>
-      <c r="J96" s="85"/>
-      <c r="K96" s="85"/>
-      <c r="L96" s="85"/>
+      <c r="B96" s="97"/>
+      <c r="C96" s="97"/>
+      <c r="D96" s="97"/>
+      <c r="E96" s="97"/>
+      <c r="F96" s="97"/>
+      <c r="G96" s="97"/>
+      <c r="H96" s="97"/>
+      <c r="I96" s="97"/>
+      <c r="J96" s="97"/>
+      <c r="K96" s="97"/>
+      <c r="L96" s="97"/>
     </row>
     <row r="97" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B97" s="85"/>
-      <c r="C97" s="85"/>
-      <c r="D97" s="85"/>
-      <c r="E97" s="85"/>
-      <c r="F97" s="85"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="85"/>
-      <c r="I97" s="85"/>
-      <c r="J97" s="85"/>
-      <c r="K97" s="85"/>
-      <c r="L97" s="85"/>
+      <c r="B97" s="97"/>
+      <c r="C97" s="97"/>
+      <c r="D97" s="97"/>
+      <c r="E97" s="97"/>
+      <c r="F97" s="97"/>
+      <c r="G97" s="97"/>
+      <c r="H97" s="97"/>
+      <c r="I97" s="97"/>
+      <c r="J97" s="97"/>
+      <c r="K97" s="97"/>
+      <c r="L97" s="97"/>
     </row>
     <row r="98" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B98" s="85"/>
-      <c r="C98" s="85"/>
-      <c r="D98" s="85"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="85"/>
-      <c r="G98" s="85"/>
-      <c r="H98" s="85"/>
-      <c r="I98" s="85"/>
-      <c r="J98" s="85"/>
-      <c r="K98" s="85"/>
-      <c r="L98" s="85"/>
+      <c r="B98" s="97"/>
+      <c r="C98" s="97"/>
+      <c r="D98" s="97"/>
+      <c r="E98" s="97"/>
+      <c r="F98" s="97"/>
+      <c r="G98" s="97"/>
+      <c r="H98" s="97"/>
+      <c r="I98" s="97"/>
+      <c r="J98" s="97"/>
+      <c r="K98" s="97"/>
+      <c r="L98" s="97"/>
     </row>
     <row r="99" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B99" s="85"/>
-      <c r="C99" s="85"/>
-      <c r="D99" s="85"/>
-      <c r="E99" s="85"/>
-      <c r="F99" s="85"/>
-      <c r="G99" s="85"/>
-      <c r="H99" s="85"/>
-      <c r="I99" s="85"/>
-      <c r="J99" s="85"/>
-      <c r="K99" s="85"/>
-      <c r="L99" s="85"/>
+      <c r="B99" s="97"/>
+      <c r="C99" s="97"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="97"/>
+      <c r="F99" s="97"/>
+      <c r="G99" s="97"/>
+      <c r="H99" s="97"/>
+      <c r="I99" s="97"/>
+      <c r="J99" s="97"/>
+      <c r="K99" s="97"/>
+      <c r="L99" s="97"/>
     </row>
     <row r="100" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B100" s="85"/>
-      <c r="C100" s="85"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
-      <c r="I100" s="85"/>
-      <c r="J100" s="85"/>
-      <c r="K100" s="85"/>
-      <c r="L100" s="85"/>
+      <c r="B100" s="97"/>
+      <c r="C100" s="97"/>
+      <c r="D100" s="97"/>
+      <c r="E100" s="97"/>
+      <c r="F100" s="97"/>
+      <c r="G100" s="97"/>
+      <c r="H100" s="97"/>
+      <c r="I100" s="97"/>
+      <c r="J100" s="97"/>
+      <c r="K100" s="97"/>
+      <c r="L100" s="97"/>
     </row>
     <row r="101" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="85"/>
-      <c r="E101" s="85"/>
-      <c r="F101" s="85"/>
-      <c r="G101" s="85"/>
-      <c r="H101" s="85"/>
-      <c r="I101" s="85"/>
-      <c r="J101" s="85"/>
-      <c r="K101" s="85"/>
-      <c r="L101" s="85"/>
+      <c r="B101" s="97"/>
+      <c r="C101" s="97"/>
+      <c r="D101" s="97"/>
+      <c r="E101" s="97"/>
+      <c r="F101" s="97"/>
+      <c r="G101" s="97"/>
+      <c r="H101" s="97"/>
+      <c r="I101" s="97"/>
+      <c r="J101" s="97"/>
+      <c r="K101" s="97"/>
+      <c r="L101" s="97"/>
     </row>
     <row r="102" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B102" s="85"/>
-      <c r="C102" s="85"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="85"/>
-      <c r="F102" s="85"/>
-      <c r="G102" s="85"/>
-      <c r="H102" s="85"/>
-      <c r="I102" s="85"/>
-      <c r="J102" s="85"/>
-      <c r="K102" s="85"/>
-      <c r="L102" s="85"/>
+      <c r="B102" s="97"/>
+      <c r="C102" s="97"/>
+      <c r="D102" s="97"/>
+      <c r="E102" s="97"/>
+      <c r="F102" s="97"/>
+      <c r="G102" s="97"/>
+      <c r="H102" s="97"/>
+      <c r="I102" s="97"/>
+      <c r="J102" s="97"/>
+      <c r="K102" s="97"/>
+      <c r="L102" s="97"/>
     </row>
     <row r="103" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B103" s="85"/>
-      <c r="C103" s="85"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="85"/>
-      <c r="I103" s="85"/>
-      <c r="J103" s="85"/>
-      <c r="K103" s="85"/>
-      <c r="L103" s="85"/>
+      <c r="B103" s="97"/>
+      <c r="C103" s="97"/>
+      <c r="D103" s="97"/>
+      <c r="E103" s="97"/>
+      <c r="F103" s="97"/>
+      <c r="G103" s="97"/>
+      <c r="H103" s="97"/>
+      <c r="I103" s="97"/>
+      <c r="J103" s="97"/>
+      <c r="K103" s="97"/>
+      <c r="L103" s="97"/>
     </row>
     <row r="104" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B104" s="85"/>
-      <c r="C104" s="85"/>
-      <c r="D104" s="85"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="H104" s="85"/>
-      <c r="I104" s="85"/>
-      <c r="J104" s="85"/>
-      <c r="K104" s="85"/>
-      <c r="L104" s="85"/>
+      <c r="B104" s="97"/>
+      <c r="C104" s="97"/>
+      <c r="D104" s="97"/>
+      <c r="E104" s="97"/>
+      <c r="F104" s="97"/>
+      <c r="G104" s="97"/>
+      <c r="H104" s="97"/>
+      <c r="I104" s="97"/>
+      <c r="J104" s="97"/>
+      <c r="K104" s="97"/>
+      <c r="L104" s="97"/>
     </row>
     <row r="105" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B105" s="85"/>
-      <c r="C105" s="85"/>
-      <c r="D105" s="85"/>
-      <c r="E105" s="85"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="85"/>
-      <c r="H105" s="85"/>
-      <c r="I105" s="85"/>
-      <c r="J105" s="85"/>
-      <c r="K105" s="85"/>
-      <c r="L105" s="85"/>
+      <c r="B105" s="97"/>
+      <c r="C105" s="97"/>
+      <c r="D105" s="97"/>
+      <c r="E105" s="97"/>
+      <c r="F105" s="97"/>
+      <c r="G105" s="97"/>
+      <c r="H105" s="97"/>
+      <c r="I105" s="97"/>
+      <c r="J105" s="97"/>
+      <c r="K105" s="97"/>
+      <c r="L105" s="97"/>
     </row>
     <row r="106" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B106" s="85"/>
-      <c r="C106" s="85"/>
-      <c r="D106" s="85"/>
-      <c r="E106" s="85"/>
-      <c r="F106" s="85"/>
-      <c r="G106" s="85"/>
-      <c r="H106" s="85"/>
-      <c r="I106" s="85"/>
-      <c r="J106" s="85"/>
-      <c r="K106" s="85"/>
-      <c r="L106" s="85"/>
+      <c r="B106" s="97"/>
+      <c r="C106" s="97"/>
+      <c r="D106" s="97"/>
+      <c r="E106" s="97"/>
+      <c r="F106" s="97"/>
+      <c r="G106" s="97"/>
+      <c r="H106" s="97"/>
+      <c r="I106" s="97"/>
+      <c r="J106" s="97"/>
+      <c r="K106" s="97"/>
+      <c r="L106" s="97"/>
     </row>
     <row r="107" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B107" s="85"/>
-      <c r="C107" s="85"/>
-      <c r="D107" s="85"/>
-      <c r="E107" s="85"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="85"/>
-      <c r="H107" s="85"/>
-      <c r="I107" s="85"/>
-      <c r="J107" s="85"/>
-      <c r="K107" s="85"/>
-      <c r="L107" s="85"/>
+      <c r="B107" s="97"/>
+      <c r="C107" s="97"/>
+      <c r="D107" s="97"/>
+      <c r="E107" s="97"/>
+      <c r="F107" s="97"/>
+      <c r="G107" s="97"/>
+      <c r="H107" s="97"/>
+      <c r="I107" s="97"/>
+      <c r="J107" s="97"/>
+      <c r="K107" s="97"/>
+      <c r="L107" s="97"/>
     </row>
     <row r="108" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B108" s="85"/>
-      <c r="C108" s="85"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
-      <c r="H108" s="85"/>
-      <c r="I108" s="85"/>
-      <c r="J108" s="85"/>
-      <c r="K108" s="85"/>
-      <c r="L108" s="85"/>
+      <c r="B108" s="97"/>
+      <c r="C108" s="97"/>
+      <c r="D108" s="97"/>
+      <c r="E108" s="97"/>
+      <c r="F108" s="97"/>
+      <c r="G108" s="97"/>
+      <c r="H108" s="97"/>
+      <c r="I108" s="97"/>
+      <c r="J108" s="97"/>
+      <c r="K108" s="97"/>
+      <c r="L108" s="97"/>
     </row>
     <row r="109" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B109" s="85"/>
-      <c r="C109" s="85"/>
-      <c r="D109" s="85"/>
-      <c r="E109" s="85"/>
-      <c r="F109" s="85"/>
-      <c r="G109" s="85"/>
-      <c r="H109" s="85"/>
-      <c r="I109" s="85"/>
-      <c r="J109" s="85"/>
-      <c r="K109" s="85"/>
-      <c r="L109" s="85"/>
+      <c r="B109" s="97"/>
+      <c r="C109" s="97"/>
+      <c r="D109" s="97"/>
+      <c r="E109" s="97"/>
+      <c r="F109" s="97"/>
+      <c r="G109" s="97"/>
+      <c r="H109" s="97"/>
+      <c r="I109" s="97"/>
+      <c r="J109" s="97"/>
+      <c r="K109" s="97"/>
+      <c r="L109" s="97"/>
     </row>
     <row r="110" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B110" s="85"/>
-      <c r="C110" s="85"/>
-      <c r="D110" s="85"/>
-      <c r="E110" s="85"/>
-      <c r="F110" s="85"/>
-      <c r="G110" s="85"/>
-      <c r="H110" s="85"/>
-      <c r="I110" s="85"/>
-      <c r="J110" s="85"/>
-      <c r="K110" s="85"/>
-      <c r="L110" s="85"/>
+      <c r="B110" s="97"/>
+      <c r="C110" s="97"/>
+      <c r="D110" s="97"/>
+      <c r="E110" s="97"/>
+      <c r="F110" s="97"/>
+      <c r="G110" s="97"/>
+      <c r="H110" s="97"/>
+      <c r="I110" s="97"/>
+      <c r="J110" s="97"/>
+      <c r="K110" s="97"/>
+      <c r="L110" s="97"/>
     </row>
     <row r="111" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B111" s="85"/>
-      <c r="C111" s="85"/>
-      <c r="D111" s="85"/>
-      <c r="E111" s="85"/>
-      <c r="F111" s="85"/>
-      <c r="G111" s="85"/>
-      <c r="H111" s="85"/>
-      <c r="I111" s="85"/>
-      <c r="J111" s="85"/>
-      <c r="K111" s="85"/>
-      <c r="L111" s="85"/>
+      <c r="B111" s="97"/>
+      <c r="C111" s="97"/>
+      <c r="D111" s="97"/>
+      <c r="E111" s="97"/>
+      <c r="F111" s="97"/>
+      <c r="G111" s="97"/>
+      <c r="H111" s="97"/>
+      <c r="I111" s="97"/>
+      <c r="J111" s="97"/>
+      <c r="K111" s="97"/>
+      <c r="L111" s="97"/>
     </row>
     <row r="112" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B112" s="85"/>
-      <c r="C112" s="85"/>
-      <c r="D112" s="85"/>
-      <c r="E112" s="85"/>
-      <c r="F112" s="85"/>
-      <c r="G112" s="85"/>
-      <c r="H112" s="85"/>
-      <c r="I112" s="85"/>
-      <c r="J112" s="85"/>
-      <c r="K112" s="85"/>
-      <c r="L112" s="85"/>
+      <c r="B112" s="97"/>
+      <c r="C112" s="97"/>
+      <c r="D112" s="97"/>
+      <c r="E112" s="97"/>
+      <c r="F112" s="97"/>
+      <c r="G112" s="97"/>
+      <c r="H112" s="97"/>
+      <c r="I112" s="97"/>
+      <c r="J112" s="97"/>
+      <c r="K112" s="97"/>
+      <c r="L112" s="97"/>
     </row>
     <row r="113" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B113" s="85"/>
-      <c r="C113" s="85"/>
-      <c r="D113" s="85"/>
-      <c r="E113" s="85"/>
-      <c r="F113" s="85"/>
-      <c r="G113" s="85"/>
-      <c r="H113" s="85"/>
-      <c r="I113" s="85"/>
-      <c r="J113" s="85"/>
-      <c r="K113" s="85"/>
-      <c r="L113" s="85"/>
+      <c r="B113" s="97"/>
+      <c r="C113" s="97"/>
+      <c r="D113" s="97"/>
+      <c r="E113" s="97"/>
+      <c r="F113" s="97"/>
+      <c r="G113" s="97"/>
+      <c r="H113" s="97"/>
+      <c r="I113" s="97"/>
+      <c r="J113" s="97"/>
+      <c r="K113" s="97"/>
+      <c r="L113" s="97"/>
     </row>
     <row r="114" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B114" s="85"/>
-      <c r="C114" s="85"/>
-      <c r="D114" s="85"/>
-      <c r="E114" s="85"/>
-      <c r="F114" s="85"/>
-      <c r="G114" s="85"/>
-      <c r="H114" s="85"/>
-      <c r="I114" s="85"/>
-      <c r="J114" s="85"/>
-      <c r="K114" s="85"/>
-      <c r="L114" s="85"/>
+      <c r="B114" s="97"/>
+      <c r="C114" s="97"/>
+      <c r="D114" s="97"/>
+      <c r="E114" s="97"/>
+      <c r="F114" s="97"/>
+      <c r="G114" s="97"/>
+      <c r="H114" s="97"/>
+      <c r="I114" s="97"/>
+      <c r="J114" s="97"/>
+      <c r="K114" s="97"/>
+      <c r="L114" s="97"/>
     </row>
     <row r="115" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B115" s="85"/>
-      <c r="C115" s="85"/>
-      <c r="D115" s="85"/>
-      <c r="E115" s="85"/>
-      <c r="F115" s="85"/>
-      <c r="G115" s="85"/>
-      <c r="H115" s="85"/>
-      <c r="I115" s="85"/>
-      <c r="J115" s="85"/>
-      <c r="K115" s="85"/>
-      <c r="L115" s="85"/>
+      <c r="B115" s="97"/>
+      <c r="C115" s="97"/>
+      <c r="D115" s="97"/>
+      <c r="E115" s="97"/>
+      <c r="F115" s="97"/>
+      <c r="G115" s="97"/>
+      <c r="H115" s="97"/>
+      <c r="I115" s="97"/>
+      <c r="J115" s="97"/>
+      <c r="K115" s="97"/>
+      <c r="L115" s="97"/>
     </row>
     <row r="116" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B116" s="85"/>
-      <c r="C116" s="85"/>
-      <c r="D116" s="85"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="85"/>
-      <c r="G116" s="85"/>
-      <c r="H116" s="85"/>
-      <c r="I116" s="85"/>
-      <c r="J116" s="85"/>
-      <c r="K116" s="85"/>
-      <c r="L116" s="85"/>
+      <c r="B116" s="97"/>
+      <c r="C116" s="97"/>
+      <c r="D116" s="97"/>
+      <c r="E116" s="97"/>
+      <c r="F116" s="97"/>
+      <c r="G116" s="97"/>
+      <c r="H116" s="97"/>
+      <c r="I116" s="97"/>
+      <c r="J116" s="97"/>
+      <c r="K116" s="97"/>
+      <c r="L116" s="97"/>
     </row>
     <row r="117" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B117" s="85"/>
-      <c r="C117" s="85"/>
-      <c r="D117" s="85"/>
-      <c r="E117" s="85"/>
-      <c r="F117" s="85"/>
-      <c r="G117" s="85"/>
-      <c r="H117" s="85"/>
-      <c r="I117" s="85"/>
-      <c r="J117" s="85"/>
-      <c r="K117" s="85"/>
-      <c r="L117" s="85"/>
+      <c r="B117" s="97"/>
+      <c r="C117" s="97"/>
+      <c r="D117" s="97"/>
+      <c r="E117" s="97"/>
+      <c r="F117" s="97"/>
+      <c r="G117" s="97"/>
+      <c r="H117" s="97"/>
+      <c r="I117" s="97"/>
+      <c r="J117" s="97"/>
+      <c r="K117" s="97"/>
+      <c r="L117" s="97"/>
     </row>
     <row r="118" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B118" s="85"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="85"/>
-      <c r="E118" s="85"/>
-      <c r="F118" s="85"/>
-      <c r="G118" s="85"/>
-      <c r="H118" s="85"/>
-      <c r="I118" s="85"/>
-      <c r="J118" s="85"/>
-      <c r="K118" s="85"/>
-      <c r="L118" s="85"/>
+      <c r="B118" s="97"/>
+      <c r="C118" s="97"/>
+      <c r="D118" s="97"/>
+      <c r="E118" s="97"/>
+      <c r="F118" s="97"/>
+      <c r="G118" s="97"/>
+      <c r="H118" s="97"/>
+      <c r="I118" s="97"/>
+      <c r="J118" s="97"/>
+      <c r="K118" s="97"/>
+      <c r="L118" s="97"/>
     </row>
     <row r="119" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B119" s="85"/>
-      <c r="C119" s="85"/>
-      <c r="D119" s="85"/>
-      <c r="E119" s="85"/>
-      <c r="F119" s="85"/>
-      <c r="G119" s="85"/>
-      <c r="H119" s="85"/>
-      <c r="I119" s="85"/>
-      <c r="J119" s="85"/>
-      <c r="K119" s="85"/>
-      <c r="L119" s="85"/>
+      <c r="B119" s="97"/>
+      <c r="C119" s="97"/>
+      <c r="D119" s="97"/>
+      <c r="E119" s="97"/>
+      <c r="F119" s="97"/>
+      <c r="G119" s="97"/>
+      <c r="H119" s="97"/>
+      <c r="I119" s="97"/>
+      <c r="J119" s="97"/>
+      <c r="K119" s="97"/>
+      <c r="L119" s="97"/>
     </row>
     <row r="120" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B120" s="85"/>
-      <c r="C120" s="85"/>
-      <c r="D120" s="85"/>
-      <c r="E120" s="85"/>
-      <c r="F120" s="85"/>
-      <c r="G120" s="85"/>
-      <c r="H120" s="85"/>
-      <c r="I120" s="85"/>
-      <c r="J120" s="85"/>
-      <c r="K120" s="85"/>
-      <c r="L120" s="85"/>
+      <c r="B120" s="97"/>
+      <c r="C120" s="97"/>
+      <c r="D120" s="97"/>
+      <c r="E120" s="97"/>
+      <c r="F120" s="97"/>
+      <c r="G120" s="97"/>
+      <c r="H120" s="97"/>
+      <c r="I120" s="97"/>
+      <c r="J120" s="97"/>
+      <c r="K120" s="97"/>
+      <c r="L120" s="97"/>
     </row>
     <row r="121" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B121" s="85"/>
-      <c r="C121" s="85"/>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="85"/>
-      <c r="I121" s="85"/>
-      <c r="J121" s="85"/>
-      <c r="K121" s="85"/>
-      <c r="L121" s="85"/>
+      <c r="B121" s="97"/>
+      <c r="C121" s="97"/>
+      <c r="D121" s="97"/>
+      <c r="E121" s="97"/>
+      <c r="F121" s="97"/>
+      <c r="G121" s="97"/>
+      <c r="H121" s="97"/>
+      <c r="I121" s="97"/>
+      <c r="J121" s="97"/>
+      <c r="K121" s="97"/>
+      <c r="L121" s="97"/>
     </row>
     <row r="122" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B122" s="85"/>
-      <c r="C122" s="85"/>
-      <c r="D122" s="85"/>
-      <c r="E122" s="85"/>
-      <c r="F122" s="85"/>
-      <c r="G122" s="85"/>
-      <c r="H122" s="85"/>
-      <c r="I122" s="85"/>
-      <c r="J122" s="85"/>
-      <c r="K122" s="85"/>
-      <c r="L122" s="85"/>
+      <c r="B122" s="97"/>
+      <c r="C122" s="97"/>
+      <c r="D122" s="97"/>
+      <c r="E122" s="97"/>
+      <c r="F122" s="97"/>
+      <c r="G122" s="97"/>
+      <c r="H122" s="97"/>
+      <c r="I122" s="97"/>
+      <c r="J122" s="97"/>
+      <c r="K122" s="97"/>
+      <c r="L122" s="97"/>
     </row>
     <row r="123" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B123" s="85"/>
-      <c r="C123" s="85"/>
-      <c r="D123" s="85"/>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
-      <c r="G123" s="85"/>
-      <c r="H123" s="85"/>
-      <c r="I123" s="85"/>
-      <c r="J123" s="85"/>
-      <c r="K123" s="85"/>
-      <c r="L123" s="85"/>
+      <c r="B123" s="97"/>
+      <c r="C123" s="97"/>
+      <c r="D123" s="97"/>
+      <c r="E123" s="97"/>
+      <c r="F123" s="97"/>
+      <c r="G123" s="97"/>
+      <c r="H123" s="97"/>
+      <c r="I123" s="97"/>
+      <c r="J123" s="97"/>
+      <c r="K123" s="97"/>
+      <c r="L123" s="97"/>
     </row>
     <row r="124" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B124" s="85"/>
-      <c r="C124" s="85"/>
-      <c r="D124" s="85"/>
-      <c r="E124" s="85"/>
-      <c r="F124" s="85"/>
-      <c r="G124" s="85"/>
-      <c r="H124" s="85"/>
-      <c r="I124" s="85"/>
-      <c r="J124" s="85"/>
-      <c r="K124" s="85"/>
-      <c r="L124" s="85"/>
+      <c r="B124" s="97"/>
+      <c r="C124" s="97"/>
+      <c r="D124" s="97"/>
+      <c r="E124" s="97"/>
+      <c r="F124" s="97"/>
+      <c r="G124" s="97"/>
+      <c r="H124" s="97"/>
+      <c r="I124" s="97"/>
+      <c r="J124" s="97"/>
+      <c r="K124" s="97"/>
+      <c r="L124" s="97"/>
     </row>
     <row r="125" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B125" s="85"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="85"/>
-      <c r="E125" s="85"/>
-      <c r="F125" s="85"/>
-      <c r="G125" s="85"/>
-      <c r="H125" s="85"/>
-      <c r="I125" s="85"/>
-      <c r="J125" s="85"/>
-      <c r="K125" s="85"/>
-      <c r="L125" s="85"/>
+      <c r="B125" s="97"/>
+      <c r="C125" s="97"/>
+      <c r="D125" s="97"/>
+      <c r="E125" s="97"/>
+      <c r="F125" s="97"/>
+      <c r="G125" s="97"/>
+      <c r="H125" s="97"/>
+      <c r="I125" s="97"/>
+      <c r="J125" s="97"/>
+      <c r="K125" s="97"/>
+      <c r="L125" s="97"/>
     </row>
     <row r="126" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B126" s="85"/>
-      <c r="C126" s="85"/>
-      <c r="D126" s="85"/>
-      <c r="E126" s="85"/>
-      <c r="F126" s="85"/>
-      <c r="G126" s="85"/>
-      <c r="H126" s="85"/>
-      <c r="I126" s="85"/>
-      <c r="J126" s="85"/>
-      <c r="K126" s="85"/>
-      <c r="L126" s="85"/>
+      <c r="B126" s="97"/>
+      <c r="C126" s="97"/>
+      <c r="D126" s="97"/>
+      <c r="E126" s="97"/>
+      <c r="F126" s="97"/>
+      <c r="G126" s="97"/>
+      <c r="H126" s="97"/>
+      <c r="I126" s="97"/>
+      <c r="J126" s="97"/>
+      <c r="K126" s="97"/>
+      <c r="L126" s="97"/>
     </row>
     <row r="127" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B127" s="85"/>
-      <c r="C127" s="85"/>
-      <c r="D127" s="85"/>
-      <c r="E127" s="85"/>
-      <c r="F127" s="85"/>
-      <c r="G127" s="85"/>
-      <c r="H127" s="85"/>
-      <c r="I127" s="85"/>
-      <c r="J127" s="85"/>
-      <c r="K127" s="85"/>
-      <c r="L127" s="85"/>
+      <c r="B127" s="97"/>
+      <c r="C127" s="97"/>
+      <c r="D127" s="97"/>
+      <c r="E127" s="97"/>
+      <c r="F127" s="97"/>
+      <c r="G127" s="97"/>
+      <c r="H127" s="97"/>
+      <c r="I127" s="97"/>
+      <c r="J127" s="97"/>
+      <c r="K127" s="97"/>
+      <c r="L127" s="97"/>
     </row>
     <row r="128" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B128" s="85"/>
-      <c r="C128" s="85"/>
-      <c r="D128" s="85"/>
-      <c r="E128" s="85"/>
-      <c r="F128" s="85"/>
-      <c r="G128" s="85"/>
-      <c r="H128" s="85"/>
-      <c r="I128" s="85"/>
-      <c r="J128" s="85"/>
-      <c r="K128" s="85"/>
-      <c r="L128" s="85"/>
+      <c r="B128" s="97"/>
+      <c r="C128" s="97"/>
+      <c r="D128" s="97"/>
+      <c r="E128" s="97"/>
+      <c r="F128" s="97"/>
+      <c r="G128" s="97"/>
+      <c r="H128" s="97"/>
+      <c r="I128" s="97"/>
+      <c r="J128" s="97"/>
+      <c r="K128" s="97"/>
+      <c r="L128" s="97"/>
     </row>
     <row r="129" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B129" s="85"/>
-      <c r="C129" s="85"/>
-      <c r="D129" s="85"/>
-      <c r="E129" s="85"/>
-      <c r="F129" s="85"/>
-      <c r="G129" s="85"/>
-      <c r="H129" s="85"/>
-      <c r="I129" s="85"/>
-      <c r="J129" s="85"/>
-      <c r="K129" s="85"/>
-      <c r="L129" s="85"/>
+      <c r="B129" s="97"/>
+      <c r="C129" s="97"/>
+      <c r="D129" s="97"/>
+      <c r="E129" s="97"/>
+      <c r="F129" s="97"/>
+      <c r="G129" s="97"/>
+      <c r="H129" s="97"/>
+      <c r="I129" s="97"/>
+      <c r="J129" s="97"/>
+      <c r="K129" s="97"/>
+      <c r="L129" s="97"/>
     </row>
     <row r="130" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B130" s="85"/>
-      <c r="C130" s="85"/>
-      <c r="D130" s="85"/>
-      <c r="E130" s="85"/>
-      <c r="F130" s="85"/>
-      <c r="G130" s="85"/>
-      <c r="H130" s="85"/>
-      <c r="I130" s="85"/>
-      <c r="J130" s="85"/>
-      <c r="K130" s="85"/>
-      <c r="L130" s="85"/>
+      <c r="B130" s="97"/>
+      <c r="C130" s="97"/>
+      <c r="D130" s="97"/>
+      <c r="E130" s="97"/>
+      <c r="F130" s="97"/>
+      <c r="G130" s="97"/>
+      <c r="H130" s="97"/>
+      <c r="I130" s="97"/>
+      <c r="J130" s="97"/>
+      <c r="K130" s="97"/>
+      <c r="L130" s="97"/>
     </row>
     <row r="131" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B131" s="85"/>
-      <c r="C131" s="85"/>
-      <c r="D131" s="85"/>
-      <c r="E131" s="85"/>
-      <c r="F131" s="85"/>
-      <c r="G131" s="85"/>
-      <c r="H131" s="85"/>
-      <c r="I131" s="85"/>
-      <c r="J131" s="85"/>
-      <c r="K131" s="85"/>
-      <c r="L131" s="85"/>
+      <c r="B131" s="97"/>
+      <c r="C131" s="97"/>
+      <c r="D131" s="97"/>
+      <c r="E131" s="97"/>
+      <c r="F131" s="97"/>
+      <c r="G131" s="97"/>
+      <c r="H131" s="97"/>
+      <c r="I131" s="97"/>
+      <c r="J131" s="97"/>
+      <c r="K131" s="97"/>
+      <c r="L131" s="97"/>
     </row>
     <row r="132" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B132" s="85"/>
-      <c r="C132" s="85"/>
-      <c r="D132" s="85"/>
-      <c r="E132" s="85"/>
-      <c r="F132" s="85"/>
-      <c r="G132" s="85"/>
-      <c r="H132" s="85"/>
-      <c r="I132" s="85"/>
-      <c r="J132" s="85"/>
-      <c r="K132" s="85"/>
-      <c r="L132" s="85"/>
+      <c r="B132" s="97"/>
+      <c r="C132" s="97"/>
+      <c r="D132" s="97"/>
+      <c r="E132" s="97"/>
+      <c r="F132" s="97"/>
+      <c r="G132" s="97"/>
+      <c r="H132" s="97"/>
+      <c r="I132" s="97"/>
+      <c r="J132" s="97"/>
+      <c r="K132" s="97"/>
+      <c r="L132" s="97"/>
     </row>
     <row r="133" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B133" s="85"/>
-      <c r="C133" s="85"/>
-      <c r="D133" s="85"/>
-      <c r="E133" s="85"/>
-      <c r="F133" s="85"/>
-      <c r="G133" s="85"/>
-      <c r="H133" s="85"/>
-      <c r="I133" s="85"/>
-      <c r="J133" s="85"/>
-      <c r="K133" s="85"/>
-      <c r="L133" s="85"/>
+      <c r="B133" s="97"/>
+      <c r="C133" s="97"/>
+      <c r="D133" s="97"/>
+      <c r="E133" s="97"/>
+      <c r="F133" s="97"/>
+      <c r="G133" s="97"/>
+      <c r="H133" s="97"/>
+      <c r="I133" s="97"/>
+      <c r="J133" s="97"/>
+      <c r="K133" s="97"/>
+      <c r="L133" s="97"/>
     </row>
     <row r="134" spans="2:12" ht="24.75" customHeight="1">
       <c r="J134" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="K134" s="83" t="str">
+      <c r="K134" s="95" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L134" s="83"/>
+      <c r="L134" s="95"/>
     </row>
     <row r="135" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B135" s="85" t="s">
+      <c r="B135" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="C135" s="85"/>
-      <c r="D135" s="85"/>
-      <c r="E135" s="85"/>
-      <c r="F135" s="85"/>
-      <c r="G135" s="85"/>
-      <c r="H135" s="85"/>
-      <c r="I135" s="85"/>
-      <c r="J135" s="85"/>
-      <c r="K135" s="85"/>
-      <c r="L135" s="85"/>
+      <c r="C135" s="97"/>
+      <c r="D135" s="97"/>
+      <c r="E135" s="97"/>
+      <c r="F135" s="97"/>
+      <c r="G135" s="97"/>
+      <c r="H135" s="97"/>
+      <c r="I135" s="97"/>
+      <c r="J135" s="97"/>
+      <c r="K135" s="97"/>
+      <c r="L135" s="97"/>
     </row>
     <row r="136" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B136" s="85"/>
-      <c r="C136" s="85"/>
-      <c r="D136" s="85"/>
-      <c r="E136" s="85"/>
-      <c r="F136" s="85"/>
-      <c r="G136" s="85"/>
-      <c r="H136" s="85"/>
-      <c r="I136" s="85"/>
-      <c r="J136" s="85"/>
-      <c r="K136" s="85"/>
-      <c r="L136" s="85"/>
+      <c r="B136" s="97"/>
+      <c r="C136" s="97"/>
+      <c r="D136" s="97"/>
+      <c r="E136" s="97"/>
+      <c r="F136" s="97"/>
+      <c r="G136" s="97"/>
+      <c r="H136" s="97"/>
+      <c r="I136" s="97"/>
+      <c r="J136" s="97"/>
+      <c r="K136" s="97"/>
+      <c r="L136" s="97"/>
     </row>
     <row r="137" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B137" s="85"/>
-      <c r="C137" s="85"/>
-      <c r="D137" s="85"/>
-      <c r="E137" s="85"/>
-      <c r="F137" s="85"/>
-      <c r="G137" s="85"/>
-      <c r="H137" s="85"/>
-      <c r="I137" s="85"/>
-      <c r="J137" s="85"/>
-      <c r="K137" s="85"/>
-      <c r="L137" s="85"/>
+      <c r="B137" s="97"/>
+      <c r="C137" s="97"/>
+      <c r="D137" s="97"/>
+      <c r="E137" s="97"/>
+      <c r="F137" s="97"/>
+      <c r="G137" s="97"/>
+      <c r="H137" s="97"/>
+      <c r="I137" s="97"/>
+      <c r="J137" s="97"/>
+      <c r="K137" s="97"/>
+      <c r="L137" s="97"/>
     </row>
     <row r="138" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B138" s="85"/>
-      <c r="C138" s="85"/>
-      <c r="D138" s="85"/>
-      <c r="E138" s="85"/>
-      <c r="F138" s="85"/>
-      <c r="G138" s="85"/>
-      <c r="H138" s="85"/>
-      <c r="I138" s="85"/>
-      <c r="J138" s="85"/>
-      <c r="K138" s="85"/>
-      <c r="L138" s="85"/>
+      <c r="B138" s="97"/>
+      <c r="C138" s="97"/>
+      <c r="D138" s="97"/>
+      <c r="E138" s="97"/>
+      <c r="F138" s="97"/>
+      <c r="G138" s="97"/>
+      <c r="H138" s="97"/>
+      <c r="I138" s="97"/>
+      <c r="J138" s="97"/>
+      <c r="K138" s="97"/>
+      <c r="L138" s="97"/>
     </row>
     <row r="139" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B139" s="85"/>
-      <c r="C139" s="85"/>
-      <c r="D139" s="85"/>
-      <c r="E139" s="85"/>
-      <c r="F139" s="85"/>
-      <c r="G139" s="85"/>
-      <c r="H139" s="85"/>
-      <c r="I139" s="85"/>
-      <c r="J139" s="85"/>
-      <c r="K139" s="85"/>
-      <c r="L139" s="85"/>
+      <c r="B139" s="97"/>
+      <c r="C139" s="97"/>
+      <c r="D139" s="97"/>
+      <c r="E139" s="97"/>
+      <c r="F139" s="97"/>
+      <c r="G139" s="97"/>
+      <c r="H139" s="97"/>
+      <c r="I139" s="97"/>
+      <c r="J139" s="97"/>
+      <c r="K139" s="97"/>
+      <c r="L139" s="97"/>
     </row>
     <row r="140" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B140" s="85"/>
-      <c r="C140" s="85"/>
-      <c r="D140" s="85"/>
-      <c r="E140" s="85"/>
-      <c r="F140" s="85"/>
-      <c r="G140" s="85"/>
-      <c r="H140" s="85"/>
-      <c r="I140" s="85"/>
-      <c r="J140" s="85"/>
-      <c r="K140" s="85"/>
-      <c r="L140" s="85"/>
+      <c r="B140" s="97"/>
+      <c r="C140" s="97"/>
+      <c r="D140" s="97"/>
+      <c r="E140" s="97"/>
+      <c r="F140" s="97"/>
+      <c r="G140" s="97"/>
+      <c r="H140" s="97"/>
+      <c r="I140" s="97"/>
+      <c r="J140" s="97"/>
+      <c r="K140" s="97"/>
+      <c r="L140" s="97"/>
     </row>
     <row r="141" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B141" s="85"/>
-      <c r="C141" s="85"/>
-      <c r="D141" s="85"/>
-      <c r="E141" s="85"/>
-      <c r="F141" s="85"/>
-      <c r="G141" s="85"/>
-      <c r="H141" s="85"/>
-      <c r="I141" s="85"/>
-      <c r="J141" s="85"/>
-      <c r="K141" s="85"/>
-      <c r="L141" s="85"/>
+      <c r="B141" s="97"/>
+      <c r="C141" s="97"/>
+      <c r="D141" s="97"/>
+      <c r="E141" s="97"/>
+      <c r="F141" s="97"/>
+      <c r="G141" s="97"/>
+      <c r="H141" s="97"/>
+      <c r="I141" s="97"/>
+      <c r="J141" s="97"/>
+      <c r="K141" s="97"/>
+      <c r="L141" s="97"/>
     </row>
     <row r="142" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B142" s="85"/>
-      <c r="C142" s="85"/>
-      <c r="D142" s="85"/>
-      <c r="E142" s="85"/>
-      <c r="F142" s="85"/>
-      <c r="G142" s="85"/>
-      <c r="H142" s="85"/>
-      <c r="I142" s="85"/>
-      <c r="J142" s="85"/>
-      <c r="K142" s="85"/>
-      <c r="L142" s="85"/>
+      <c r="B142" s="97"/>
+      <c r="C142" s="97"/>
+      <c r="D142" s="97"/>
+      <c r="E142" s="97"/>
+      <c r="F142" s="97"/>
+      <c r="G142" s="97"/>
+      <c r="H142" s="97"/>
+      <c r="I142" s="97"/>
+      <c r="J142" s="97"/>
+      <c r="K142" s="97"/>
+      <c r="L142" s="97"/>
     </row>
     <row r="143" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B143" s="85"/>
-      <c r="C143" s="85"/>
-      <c r="D143" s="85"/>
-      <c r="E143" s="85"/>
-      <c r="F143" s="85"/>
-      <c r="G143" s="85"/>
-      <c r="H143" s="85"/>
-      <c r="I143" s="85"/>
-      <c r="J143" s="85"/>
-      <c r="K143" s="85"/>
-      <c r="L143" s="85"/>
+      <c r="B143" s="97"/>
+      <c r="C143" s="97"/>
+      <c r="D143" s="97"/>
+      <c r="E143" s="97"/>
+      <c r="F143" s="97"/>
+      <c r="G143" s="97"/>
+      <c r="H143" s="97"/>
+      <c r="I143" s="97"/>
+      <c r="J143" s="97"/>
+      <c r="K143" s="97"/>
+      <c r="L143" s="97"/>
     </row>
     <row r="144" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B144" s="85"/>
-      <c r="C144" s="85"/>
-      <c r="D144" s="85"/>
-      <c r="E144" s="85"/>
-      <c r="F144" s="85"/>
-      <c r="G144" s="85"/>
-      <c r="H144" s="85"/>
-      <c r="I144" s="85"/>
-      <c r="J144" s="85"/>
-      <c r="K144" s="85"/>
-      <c r="L144" s="85"/>
+      <c r="B144" s="97"/>
+      <c r="C144" s="97"/>
+      <c r="D144" s="97"/>
+      <c r="E144" s="97"/>
+      <c r="F144" s="97"/>
+      <c r="G144" s="97"/>
+      <c r="H144" s="97"/>
+      <c r="I144" s="97"/>
+      <c r="J144" s="97"/>
+      <c r="K144" s="97"/>
+      <c r="L144" s="97"/>
     </row>
     <row r="145" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B145" s="85"/>
-      <c r="C145" s="85"/>
-      <c r="D145" s="85"/>
-      <c r="E145" s="85"/>
-      <c r="F145" s="85"/>
-      <c r="G145" s="85"/>
-      <c r="H145" s="85"/>
-      <c r="I145" s="85"/>
-      <c r="J145" s="85"/>
-      <c r="K145" s="85"/>
-      <c r="L145" s="85"/>
+      <c r="B145" s="97"/>
+      <c r="C145" s="97"/>
+      <c r="D145" s="97"/>
+      <c r="E145" s="97"/>
+      <c r="F145" s="97"/>
+      <c r="G145" s="97"/>
+      <c r="H145" s="97"/>
+      <c r="I145" s="97"/>
+      <c r="J145" s="97"/>
+      <c r="K145" s="97"/>
+      <c r="L145" s="97"/>
     </row>
     <row r="146" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B146" s="85"/>
-      <c r="C146" s="85"/>
-      <c r="D146" s="85"/>
-      <c r="E146" s="85"/>
-      <c r="F146" s="85"/>
-      <c r="G146" s="85"/>
-      <c r="H146" s="85"/>
-      <c r="I146" s="85"/>
-      <c r="J146" s="85"/>
-      <c r="K146" s="85"/>
-      <c r="L146" s="85"/>
+      <c r="B146" s="97"/>
+      <c r="C146" s="97"/>
+      <c r="D146" s="97"/>
+      <c r="E146" s="97"/>
+      <c r="F146" s="97"/>
+      <c r="G146" s="97"/>
+      <c r="H146" s="97"/>
+      <c r="I146" s="97"/>
+      <c r="J146" s="97"/>
+      <c r="K146" s="97"/>
+      <c r="L146" s="97"/>
     </row>
     <row r="147" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B147" s="85"/>
-      <c r="C147" s="85"/>
-      <c r="D147" s="85"/>
-      <c r="E147" s="85"/>
-      <c r="F147" s="85"/>
-      <c r="G147" s="85"/>
-      <c r="H147" s="85"/>
-      <c r="I147" s="85"/>
-      <c r="J147" s="85"/>
-      <c r="K147" s="85"/>
-      <c r="L147" s="85"/>
+      <c r="B147" s="97"/>
+      <c r="C147" s="97"/>
+      <c r="D147" s="97"/>
+      <c r="E147" s="97"/>
+      <c r="F147" s="97"/>
+      <c r="G147" s="97"/>
+      <c r="H147" s="97"/>
+      <c r="I147" s="97"/>
+      <c r="J147" s="97"/>
+      <c r="K147" s="97"/>
+      <c r="L147" s="97"/>
     </row>
     <row r="148" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B148" s="85"/>
-      <c r="C148" s="85"/>
-      <c r="D148" s="85"/>
-      <c r="E148" s="85"/>
-      <c r="F148" s="85"/>
-      <c r="G148" s="85"/>
-      <c r="H148" s="85"/>
-      <c r="I148" s="85"/>
-      <c r="J148" s="85"/>
-      <c r="K148" s="85"/>
-      <c r="L148" s="85"/>
+      <c r="B148" s="97"/>
+      <c r="C148" s="97"/>
+      <c r="D148" s="97"/>
+      <c r="E148" s="97"/>
+      <c r="F148" s="97"/>
+      <c r="G148" s="97"/>
+      <c r="H148" s="97"/>
+      <c r="I148" s="97"/>
+      <c r="J148" s="97"/>
+      <c r="K148" s="97"/>
+      <c r="L148" s="97"/>
     </row>
     <row r="149" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B149" s="85"/>
-      <c r="C149" s="85"/>
-      <c r="D149" s="85"/>
-      <c r="E149" s="85"/>
-      <c r="F149" s="85"/>
-      <c r="G149" s="85"/>
-      <c r="H149" s="85"/>
-      <c r="I149" s="85"/>
-      <c r="J149" s="85"/>
-      <c r="K149" s="85"/>
-      <c r="L149" s="85"/>
+      <c r="B149" s="97"/>
+      <c r="C149" s="97"/>
+      <c r="D149" s="97"/>
+      <c r="E149" s="97"/>
+      <c r="F149" s="97"/>
+      <c r="G149" s="97"/>
+      <c r="H149" s="97"/>
+      <c r="I149" s="97"/>
+      <c r="J149" s="97"/>
+      <c r="K149" s="97"/>
+      <c r="L149" s="97"/>
     </row>
     <row r="150" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B150" s="85"/>
-      <c r="C150" s="85"/>
-      <c r="D150" s="85"/>
-      <c r="E150" s="85"/>
-      <c r="F150" s="85"/>
-      <c r="G150" s="85"/>
-      <c r="H150" s="85"/>
-      <c r="I150" s="85"/>
-      <c r="J150" s="85"/>
-      <c r="K150" s="85"/>
-      <c r="L150" s="85"/>
+      <c r="B150" s="97"/>
+      <c r="C150" s="97"/>
+      <c r="D150" s="97"/>
+      <c r="E150" s="97"/>
+      <c r="F150" s="97"/>
+      <c r="G150" s="97"/>
+      <c r="H150" s="97"/>
+      <c r="I150" s="97"/>
+      <c r="J150" s="97"/>
+      <c r="K150" s="97"/>
+      <c r="L150" s="97"/>
     </row>
     <row r="151" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B151" s="85"/>
-      <c r="C151" s="85"/>
-      <c r="D151" s="85"/>
-      <c r="E151" s="85"/>
-      <c r="F151" s="85"/>
-      <c r="G151" s="85"/>
-      <c r="H151" s="85"/>
-      <c r="I151" s="85"/>
-      <c r="J151" s="85"/>
-      <c r="K151" s="85"/>
-      <c r="L151" s="85"/>
+      <c r="B151" s="97"/>
+      <c r="C151" s="97"/>
+      <c r="D151" s="97"/>
+      <c r="E151" s="97"/>
+      <c r="F151" s="97"/>
+      <c r="G151" s="97"/>
+      <c r="H151" s="97"/>
+      <c r="I151" s="97"/>
+      <c r="J151" s="97"/>
+      <c r="K151" s="97"/>
+      <c r="L151" s="97"/>
     </row>
     <row r="152" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B152" s="85"/>
-      <c r="C152" s="85"/>
-      <c r="D152" s="85"/>
-      <c r="E152" s="85"/>
-      <c r="F152" s="85"/>
-      <c r="G152" s="85"/>
-      <c r="H152" s="85"/>
-      <c r="I152" s="85"/>
-      <c r="J152" s="85"/>
-      <c r="K152" s="85"/>
-      <c r="L152" s="85"/>
+      <c r="B152" s="97"/>
+      <c r="C152" s="97"/>
+      <c r="D152" s="97"/>
+      <c r="E152" s="97"/>
+      <c r="F152" s="97"/>
+      <c r="G152" s="97"/>
+      <c r="H152" s="97"/>
+      <c r="I152" s="97"/>
+      <c r="J152" s="97"/>
+      <c r="K152" s="97"/>
+      <c r="L152" s="97"/>
     </row>
     <row r="153" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B153" s="85"/>
-      <c r="C153" s="85"/>
-      <c r="D153" s="85"/>
-      <c r="E153" s="85"/>
-      <c r="F153" s="85"/>
-      <c r="G153" s="85"/>
-      <c r="H153" s="85"/>
-      <c r="I153" s="85"/>
-      <c r="J153" s="85"/>
-      <c r="K153" s="85"/>
-      <c r="L153" s="85"/>
+      <c r="B153" s="97"/>
+      <c r="C153" s="97"/>
+      <c r="D153" s="97"/>
+      <c r="E153" s="97"/>
+      <c r="F153" s="97"/>
+      <c r="G153" s="97"/>
+      <c r="H153" s="97"/>
+      <c r="I153" s="97"/>
+      <c r="J153" s="97"/>
+      <c r="K153" s="97"/>
+      <c r="L153" s="97"/>
     </row>
     <row r="154" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B154" s="85"/>
-      <c r="C154" s="85"/>
-      <c r="D154" s="85"/>
-      <c r="E154" s="85"/>
-      <c r="F154" s="85"/>
-      <c r="G154" s="85"/>
-      <c r="H154" s="85"/>
-      <c r="I154" s="85"/>
-      <c r="J154" s="85"/>
-      <c r="K154" s="85"/>
-      <c r="L154" s="85"/>
+      <c r="B154" s="97"/>
+      <c r="C154" s="97"/>
+      <c r="D154" s="97"/>
+      <c r="E154" s="97"/>
+      <c r="F154" s="97"/>
+      <c r="G154" s="97"/>
+      <c r="H154" s="97"/>
+      <c r="I154" s="97"/>
+      <c r="J154" s="97"/>
+      <c r="K154" s="97"/>
+      <c r="L154" s="97"/>
     </row>
     <row r="155" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B155" s="85"/>
-      <c r="C155" s="85"/>
-      <c r="D155" s="85"/>
-      <c r="E155" s="85"/>
-      <c r="F155" s="85"/>
-      <c r="G155" s="85"/>
-      <c r="H155" s="85"/>
-      <c r="I155" s="85"/>
-      <c r="J155" s="85"/>
-      <c r="K155" s="85"/>
-      <c r="L155" s="85"/>
+      <c r="B155" s="97"/>
+      <c r="C155" s="97"/>
+      <c r="D155" s="97"/>
+      <c r="E155" s="97"/>
+      <c r="F155" s="97"/>
+      <c r="G155" s="97"/>
+      <c r="H155" s="97"/>
+      <c r="I155" s="97"/>
+      <c r="J155" s="97"/>
+      <c r="K155" s="97"/>
+      <c r="L155" s="97"/>
     </row>
     <row r="156" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B156" s="85"/>
-      <c r="C156" s="85"/>
-      <c r="D156" s="85"/>
-      <c r="E156" s="85"/>
-      <c r="F156" s="85"/>
-      <c r="G156" s="85"/>
-      <c r="H156" s="85"/>
-      <c r="I156" s="85"/>
-      <c r="J156" s="85"/>
-      <c r="K156" s="85"/>
-      <c r="L156" s="85"/>
+      <c r="B156" s="97"/>
+      <c r="C156" s="97"/>
+      <c r="D156" s="97"/>
+      <c r="E156" s="97"/>
+      <c r="F156" s="97"/>
+      <c r="G156" s="97"/>
+      <c r="H156" s="97"/>
+      <c r="I156" s="97"/>
+      <c r="J156" s="97"/>
+      <c r="K156" s="97"/>
+      <c r="L156" s="97"/>
     </row>
     <row r="157" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B157" s="85"/>
-      <c r="C157" s="85"/>
-      <c r="D157" s="85"/>
-      <c r="E157" s="85"/>
-      <c r="F157" s="85"/>
-      <c r="G157" s="85"/>
-      <c r="H157" s="85"/>
-      <c r="I157" s="85"/>
-      <c r="J157" s="85"/>
-      <c r="K157" s="85"/>
-      <c r="L157" s="85"/>
+      <c r="B157" s="97"/>
+      <c r="C157" s="97"/>
+      <c r="D157" s="97"/>
+      <c r="E157" s="97"/>
+      <c r="F157" s="97"/>
+      <c r="G157" s="97"/>
+      <c r="H157" s="97"/>
+      <c r="I157" s="97"/>
+      <c r="J157" s="97"/>
+      <c r="K157" s="97"/>
+      <c r="L157" s="97"/>
     </row>
     <row r="158" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B158" s="85"/>
-      <c r="C158" s="85"/>
-      <c r="D158" s="85"/>
-      <c r="E158" s="85"/>
-      <c r="F158" s="85"/>
-      <c r="G158" s="85"/>
-      <c r="H158" s="85"/>
-      <c r="I158" s="85"/>
-      <c r="J158" s="85"/>
-      <c r="K158" s="85"/>
-      <c r="L158" s="85"/>
+      <c r="B158" s="97"/>
+      <c r="C158" s="97"/>
+      <c r="D158" s="97"/>
+      <c r="E158" s="97"/>
+      <c r="F158" s="97"/>
+      <c r="G158" s="97"/>
+      <c r="H158" s="97"/>
+      <c r="I158" s="97"/>
+      <c r="J158" s="97"/>
+      <c r="K158" s="97"/>
+      <c r="L158" s="97"/>
     </row>
     <row r="159" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B159" s="85"/>
-      <c r="C159" s="85"/>
-      <c r="D159" s="85"/>
-      <c r="E159" s="85"/>
-      <c r="F159" s="85"/>
-      <c r="G159" s="85"/>
-      <c r="H159" s="85"/>
-      <c r="I159" s="85"/>
-      <c r="J159" s="85"/>
-      <c r="K159" s="85"/>
-      <c r="L159" s="85"/>
+      <c r="B159" s="97"/>
+      <c r="C159" s="97"/>
+      <c r="D159" s="97"/>
+      <c r="E159" s="97"/>
+      <c r="F159" s="97"/>
+      <c r="G159" s="97"/>
+      <c r="H159" s="97"/>
+      <c r="I159" s="97"/>
+      <c r="J159" s="97"/>
+      <c r="K159" s="97"/>
+      <c r="L159" s="97"/>
     </row>
     <row r="160" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B160" s="85"/>
-      <c r="C160" s="85"/>
-      <c r="D160" s="85"/>
-      <c r="E160" s="85"/>
-      <c r="F160" s="85"/>
-      <c r="G160" s="85"/>
-      <c r="H160" s="85"/>
-      <c r="I160" s="85"/>
-      <c r="J160" s="85"/>
-      <c r="K160" s="85"/>
-      <c r="L160" s="85"/>
+      <c r="B160" s="97"/>
+      <c r="C160" s="97"/>
+      <c r="D160" s="97"/>
+      <c r="E160" s="97"/>
+      <c r="F160" s="97"/>
+      <c r="G160" s="97"/>
+      <c r="H160" s="97"/>
+      <c r="I160" s="97"/>
+      <c r="J160" s="97"/>
+      <c r="K160" s="97"/>
+      <c r="L160" s="97"/>
     </row>
     <row r="161" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B161" s="85"/>
-      <c r="C161" s="85"/>
-      <c r="D161" s="85"/>
-      <c r="E161" s="85"/>
-      <c r="F161" s="85"/>
-      <c r="G161" s="85"/>
-      <c r="H161" s="85"/>
-      <c r="I161" s="85"/>
-      <c r="J161" s="85"/>
-      <c r="K161" s="85"/>
-      <c r="L161" s="85"/>
+      <c r="B161" s="97"/>
+      <c r="C161" s="97"/>
+      <c r="D161" s="97"/>
+      <c r="E161" s="97"/>
+      <c r="F161" s="97"/>
+      <c r="G161" s="97"/>
+      <c r="H161" s="97"/>
+      <c r="I161" s="97"/>
+      <c r="J161" s="97"/>
+      <c r="K161" s="97"/>
+      <c r="L161" s="97"/>
     </row>
     <row r="162" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B162" s="85"/>
-      <c r="C162" s="85"/>
-      <c r="D162" s="85"/>
-      <c r="E162" s="85"/>
-      <c r="F162" s="85"/>
-      <c r="G162" s="85"/>
-      <c r="H162" s="85"/>
-      <c r="I162" s="85"/>
-      <c r="J162" s="85"/>
-      <c r="K162" s="85"/>
-      <c r="L162" s="85"/>
+      <c r="B162" s="97"/>
+      <c r="C162" s="97"/>
+      <c r="D162" s="97"/>
+      <c r="E162" s="97"/>
+      <c r="F162" s="97"/>
+      <c r="G162" s="97"/>
+      <c r="H162" s="97"/>
+      <c r="I162" s="97"/>
+      <c r="J162" s="97"/>
+      <c r="K162" s="97"/>
+      <c r="L162" s="97"/>
     </row>
     <row r="163" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B163" s="85"/>
-      <c r="C163" s="85"/>
-      <c r="D163" s="85"/>
-      <c r="E163" s="85"/>
-      <c r="F163" s="85"/>
-      <c r="G163" s="85"/>
-      <c r="H163" s="85"/>
-      <c r="I163" s="85"/>
-      <c r="J163" s="85"/>
-      <c r="K163" s="85"/>
-      <c r="L163" s="85"/>
+      <c r="B163" s="97"/>
+      <c r="C163" s="97"/>
+      <c r="D163" s="97"/>
+      <c r="E163" s="97"/>
+      <c r="F163" s="97"/>
+      <c r="G163" s="97"/>
+      <c r="H163" s="97"/>
+      <c r="I163" s="97"/>
+      <c r="J163" s="97"/>
+      <c r="K163" s="97"/>
+      <c r="L163" s="97"/>
     </row>
     <row r="164" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B164" s="85"/>
-      <c r="C164" s="85"/>
-      <c r="D164" s="85"/>
-      <c r="E164" s="85"/>
-      <c r="F164" s="85"/>
-      <c r="G164" s="85"/>
-      <c r="H164" s="85"/>
-      <c r="I164" s="85"/>
-      <c r="J164" s="85"/>
-      <c r="K164" s="85"/>
-      <c r="L164" s="85"/>
+      <c r="B164" s="97"/>
+      <c r="C164" s="97"/>
+      <c r="D164" s="97"/>
+      <c r="E164" s="97"/>
+      <c r="F164" s="97"/>
+      <c r="G164" s="97"/>
+      <c r="H164" s="97"/>
+      <c r="I164" s="97"/>
+      <c r="J164" s="97"/>
+      <c r="K164" s="97"/>
+      <c r="L164" s="97"/>
     </row>
     <row r="165" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B165" s="85"/>
-      <c r="C165" s="85"/>
-      <c r="D165" s="85"/>
-      <c r="E165" s="85"/>
-      <c r="F165" s="85"/>
-      <c r="G165" s="85"/>
-      <c r="H165" s="85"/>
-      <c r="I165" s="85"/>
-      <c r="J165" s="85"/>
-      <c r="K165" s="85"/>
-      <c r="L165" s="85"/>
+      <c r="B165" s="97"/>
+      <c r="C165" s="97"/>
+      <c r="D165" s="97"/>
+      <c r="E165" s="97"/>
+      <c r="F165" s="97"/>
+      <c r="G165" s="97"/>
+      <c r="H165" s="97"/>
+      <c r="I165" s="97"/>
+      <c r="J165" s="97"/>
+      <c r="K165" s="97"/>
+      <c r="L165" s="97"/>
     </row>
     <row r="166" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B166" s="85"/>
-      <c r="C166" s="85"/>
-      <c r="D166" s="85"/>
-      <c r="E166" s="85"/>
-      <c r="F166" s="85"/>
-      <c r="G166" s="85"/>
-      <c r="H166" s="85"/>
-      <c r="I166" s="85"/>
-      <c r="J166" s="85"/>
-      <c r="K166" s="85"/>
-      <c r="L166" s="85"/>
+      <c r="B166" s="97"/>
+      <c r="C166" s="97"/>
+      <c r="D166" s="97"/>
+      <c r="E166" s="97"/>
+      <c r="F166" s="97"/>
+      <c r="G166" s="97"/>
+      <c r="H166" s="97"/>
+      <c r="I166" s="97"/>
+      <c r="J166" s="97"/>
+      <c r="K166" s="97"/>
+      <c r="L166" s="97"/>
     </row>
     <row r="167" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B167" s="85"/>
-      <c r="C167" s="85"/>
-      <c r="D167" s="85"/>
-      <c r="E167" s="85"/>
-      <c r="F167" s="85"/>
-      <c r="G167" s="85"/>
-      <c r="H167" s="85"/>
-      <c r="I167" s="85"/>
-      <c r="J167" s="85"/>
-      <c r="K167" s="85"/>
-      <c r="L167" s="85"/>
+      <c r="B167" s="97"/>
+      <c r="C167" s="97"/>
+      <c r="D167" s="97"/>
+      <c r="E167" s="97"/>
+      <c r="F167" s="97"/>
+      <c r="G167" s="97"/>
+      <c r="H167" s="97"/>
+      <c r="I167" s="97"/>
+      <c r="J167" s="97"/>
+      <c r="K167" s="97"/>
+      <c r="L167" s="97"/>
     </row>
     <row r="168" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B168" s="85"/>
-      <c r="C168" s="85"/>
-      <c r="D168" s="85"/>
-      <c r="E168" s="85"/>
-      <c r="F168" s="85"/>
-      <c r="G168" s="85"/>
-      <c r="H168" s="85"/>
-      <c r="I168" s="85"/>
-      <c r="J168" s="85"/>
-      <c r="K168" s="85"/>
-      <c r="L168" s="85"/>
+      <c r="B168" s="97"/>
+      <c r="C168" s="97"/>
+      <c r="D168" s="97"/>
+      <c r="E168" s="97"/>
+      <c r="F168" s="97"/>
+      <c r="G168" s="97"/>
+      <c r="H168" s="97"/>
+      <c r="I168" s="97"/>
+      <c r="J168" s="97"/>
+      <c r="K168" s="97"/>
+      <c r="L168" s="97"/>
     </row>
     <row r="169" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B169" s="85"/>
-      <c r="C169" s="85"/>
-      <c r="D169" s="85"/>
-      <c r="E169" s="85"/>
-      <c r="F169" s="85"/>
-      <c r="G169" s="85"/>
-      <c r="H169" s="85"/>
-      <c r="I169" s="85"/>
-      <c r="J169" s="85"/>
-      <c r="K169" s="85"/>
-      <c r="L169" s="85"/>
+      <c r="B169" s="97"/>
+      <c r="C169" s="97"/>
+      <c r="D169" s="97"/>
+      <c r="E169" s="97"/>
+      <c r="F169" s="97"/>
+      <c r="G169" s="97"/>
+      <c r="H169" s="97"/>
+      <c r="I169" s="97"/>
+      <c r="J169" s="97"/>
+      <c r="K169" s="97"/>
+      <c r="L169" s="97"/>
     </row>
     <row r="170" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B170" s="85"/>
-      <c r="C170" s="85"/>
-      <c r="D170" s="85"/>
-      <c r="E170" s="85"/>
-      <c r="F170" s="85"/>
-      <c r="G170" s="85"/>
-      <c r="H170" s="85"/>
-      <c r="I170" s="85"/>
-      <c r="J170" s="85"/>
-      <c r="K170" s="85"/>
-      <c r="L170" s="85"/>
+      <c r="B170" s="97"/>
+      <c r="C170" s="97"/>
+      <c r="D170" s="97"/>
+      <c r="E170" s="97"/>
+      <c r="F170" s="97"/>
+      <c r="G170" s="97"/>
+      <c r="H170" s="97"/>
+      <c r="I170" s="97"/>
+      <c r="J170" s="97"/>
+      <c r="K170" s="97"/>
+      <c r="L170" s="97"/>
     </row>
     <row r="171" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B171" s="85"/>
-      <c r="C171" s="85"/>
-      <c r="D171" s="85"/>
-      <c r="E171" s="85"/>
-      <c r="F171" s="85"/>
-      <c r="G171" s="85"/>
-      <c r="H171" s="85"/>
-      <c r="I171" s="85"/>
-      <c r="J171" s="85"/>
-      <c r="K171" s="85"/>
-      <c r="L171" s="85"/>
+      <c r="B171" s="97"/>
+      <c r="C171" s="97"/>
+      <c r="D171" s="97"/>
+      <c r="E171" s="97"/>
+      <c r="F171" s="97"/>
+      <c r="G171" s="97"/>
+      <c r="H171" s="97"/>
+      <c r="I171" s="97"/>
+      <c r="J171" s="97"/>
+      <c r="K171" s="97"/>
+      <c r="L171" s="97"/>
     </row>
     <row r="172" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B172" s="85"/>
-      <c r="C172" s="85"/>
-      <c r="D172" s="85"/>
-      <c r="E172" s="85"/>
-      <c r="F172" s="85"/>
-      <c r="G172" s="85"/>
-      <c r="H172" s="85"/>
-      <c r="I172" s="85"/>
-      <c r="J172" s="85"/>
-      <c r="K172" s="85"/>
-      <c r="L172" s="85"/>
+      <c r="B172" s="97"/>
+      <c r="C172" s="97"/>
+      <c r="D172" s="97"/>
+      <c r="E172" s="97"/>
+      <c r="F172" s="97"/>
+      <c r="G172" s="97"/>
+      <c r="H172" s="97"/>
+      <c r="I172" s="97"/>
+      <c r="J172" s="97"/>
+      <c r="K172" s="97"/>
+      <c r="L172" s="97"/>
     </row>
     <row r="173" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B173" s="85"/>
-      <c r="C173" s="85"/>
-      <c r="D173" s="85"/>
-      <c r="E173" s="85"/>
-      <c r="F173" s="85"/>
-      <c r="G173" s="85"/>
-      <c r="H173" s="85"/>
-      <c r="I173" s="85"/>
-      <c r="J173" s="85"/>
-      <c r="K173" s="85"/>
-      <c r="L173" s="85"/>
+      <c r="B173" s="97"/>
+      <c r="C173" s="97"/>
+      <c r="D173" s="97"/>
+      <c r="E173" s="97"/>
+      <c r="F173" s="97"/>
+      <c r="G173" s="97"/>
+      <c r="H173" s="97"/>
+      <c r="I173" s="97"/>
+      <c r="J173" s="97"/>
+      <c r="K173" s="97"/>
+      <c r="L173" s="97"/>
     </row>
     <row r="174" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B174" s="85"/>
-      <c r="C174" s="85"/>
-      <c r="D174" s="85"/>
-      <c r="E174" s="85"/>
-      <c r="F174" s="85"/>
-      <c r="G174" s="85"/>
-      <c r="H174" s="85"/>
-      <c r="I174" s="85"/>
-      <c r="J174" s="85"/>
-      <c r="K174" s="85"/>
-      <c r="L174" s="85"/>
+      <c r="B174" s="97"/>
+      <c r="C174" s="97"/>
+      <c r="D174" s="97"/>
+      <c r="E174" s="97"/>
+      <c r="F174" s="97"/>
+      <c r="G174" s="97"/>
+      <c r="H174" s="97"/>
+      <c r="I174" s="97"/>
+      <c r="J174" s="97"/>
+      <c r="K174" s="97"/>
+      <c r="L174" s="97"/>
     </row>
     <row r="175" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B175" s="85"/>
-      <c r="C175" s="85"/>
-      <c r="D175" s="85"/>
-      <c r="E175" s="85"/>
-      <c r="F175" s="85"/>
-      <c r="G175" s="85"/>
-      <c r="H175" s="85"/>
-      <c r="I175" s="85"/>
-      <c r="J175" s="85"/>
-      <c r="K175" s="85"/>
-      <c r="L175" s="85"/>
+      <c r="B175" s="97"/>
+      <c r="C175" s="97"/>
+      <c r="D175" s="97"/>
+      <c r="E175" s="97"/>
+      <c r="F175" s="97"/>
+      <c r="G175" s="97"/>
+      <c r="H175" s="97"/>
+      <c r="I175" s="97"/>
+      <c r="J175" s="97"/>
+      <c r="K175" s="97"/>
+      <c r="L175" s="97"/>
     </row>
     <row r="176" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B176" s="85"/>
-      <c r="C176" s="85"/>
-      <c r="D176" s="85"/>
-      <c r="E176" s="85"/>
-      <c r="F176" s="85"/>
-      <c r="G176" s="85"/>
-      <c r="H176" s="85"/>
-      <c r="I176" s="85"/>
-      <c r="J176" s="85"/>
-      <c r="K176" s="85"/>
-      <c r="L176" s="85"/>
+      <c r="B176" s="97"/>
+      <c r="C176" s="97"/>
+      <c r="D176" s="97"/>
+      <c r="E176" s="97"/>
+      <c r="F176" s="97"/>
+      <c r="G176" s="97"/>
+      <c r="H176" s="97"/>
+      <c r="I176" s="97"/>
+      <c r="J176" s="97"/>
+      <c r="K176" s="97"/>
+      <c r="L176" s="97"/>
     </row>
     <row r="177" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B177" s="85"/>
-      <c r="C177" s="85"/>
-      <c r="D177" s="85"/>
-      <c r="E177" s="85"/>
-      <c r="F177" s="85"/>
-      <c r="G177" s="85"/>
-      <c r="H177" s="85"/>
-      <c r="I177" s="85"/>
-      <c r="J177" s="85"/>
-      <c r="K177" s="85"/>
-      <c r="L177" s="85"/>
+      <c r="B177" s="97"/>
+      <c r="C177" s="97"/>
+      <c r="D177" s="97"/>
+      <c r="E177" s="97"/>
+      <c r="F177" s="97"/>
+      <c r="G177" s="97"/>
+      <c r="H177" s="97"/>
+      <c r="I177" s="97"/>
+      <c r="J177" s="97"/>
+      <c r="K177" s="97"/>
+      <c r="L177" s="97"/>
     </row>
     <row r="178" spans="2:12" ht="18" customHeight="1">
-      <c r="B178" s="85" t="s">
+      <c r="B178" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="C178" s="85"/>
-      <c r="D178" s="87" t="str">
+      <c r="C178" s="97"/>
+      <c r="D178" s="99" t="str">
         <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E178" s="87"/>
+      <c r="E178" s="99"/>
       <c r="F178" s="45"/>
       <c r="G178" s="45"/>
       <c r="H178" s="45"/>
@@ -8229,11 +8229,11 @@
       <c r="J208" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="K208" s="83" t="str">
+      <c r="K208" s="95" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L208" s="83"/>
+      <c r="L208" s="95"/>
     </row>
     <row r="209" spans="2:12" ht="18.75">
       <c r="B209" s="38" t="s">
@@ -8257,19 +8257,19 @@
     </row>
     <row r="212" spans="2:12" ht="14.25">
       <c r="B212" s="34"/>
-      <c r="C212" s="86" t="str">
+      <c r="C212" s="98" t="str">
         <f>記入!B11</f>
         <v>${cv.pjnamechinese}</v>
       </c>
-      <c r="D212" s="86"/>
-      <c r="E212" s="86"/>
-      <c r="F212" s="86"/>
-      <c r="G212" s="86"/>
-      <c r="H212" s="86"/>
-      <c r="I212" s="86"/>
-      <c r="J212" s="86"/>
-      <c r="K212" s="86"/>
-      <c r="L212" s="86"/>
+      <c r="D212" s="98"/>
+      <c r="E212" s="98"/>
+      <c r="F212" s="98"/>
+      <c r="G212" s="98"/>
+      <c r="H212" s="98"/>
+      <c r="I212" s="98"/>
+      <c r="J212" s="98"/>
+      <c r="K212" s="98"/>
+      <c r="L212" s="98"/>
     </row>
     <row r="213" spans="2:12" ht="14.25">
       <c r="B213" s="34"/>
@@ -8304,11 +8304,11 @@
       <c r="C215" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D215" s="81" t="str">
+      <c r="D215" s="93" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E215" s="82"/>
+      <c r="E215" s="94"/>
       <c r="F215" s="35"/>
       <c r="G215" s="35"/>
       <c r="H215" s="35"/>
@@ -8322,11 +8322,11 @@
       <c r="C216" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D216" s="81" t="str">
+      <c r="D216" s="93" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E216" s="82"/>
+      <c r="E216" s="94"/>
       <c r="F216" s="35"/>
       <c r="G216" s="35"/>
       <c r="H216" s="35"/>
@@ -8389,18 +8389,18 @@
     </row>
     <row r="222" spans="2:12" ht="14.25">
       <c r="B222" s="34"/>
-      <c r="C222" s="88" t="s">
+      <c r="C222" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D222" s="88"/>
-      <c r="E222" s="88" t="s">
+      <c r="D222" s="81"/>
+      <c r="E222" s="81" t="s">
         <v>88</v>
       </c>
-      <c r="F222" s="88"/>
-      <c r="G222" s="88" t="s">
+      <c r="F222" s="81"/>
+      <c r="G222" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="H222" s="88"/>
+      <c r="H222" s="81"/>
       <c r="I222" s="34"/>
       <c r="J222" s="34"/>
       <c r="K222" s="34"/>
@@ -8408,21 +8408,21 @@
     </row>
     <row r="223" spans="2:12" ht="14.25">
       <c r="B223" s="34"/>
-      <c r="C223" s="89" t="str">
+      <c r="C223" s="82" t="str">
         <f>IF(E223="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="D223" s="89"/>
-      <c r="E223" s="88" t="str">
+      <c r="D223" s="82"/>
+      <c r="E223" s="81" t="str">
         <f>IF(記入!A29="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F223" s="88"/>
-      <c r="G223" s="90" t="str">
+      <c r="F223" s="81"/>
+      <c r="G223" s="92" t="str">
         <f>IF(記入!B29="","-",記入!B29)</f>
         <v>${ba1[0].deliverydate}</v>
       </c>
-      <c r="H223" s="90"/>
+      <c r="H223" s="92"/>
       <c r="I223" s="34"/>
       <c r="J223" s="34"/>
       <c r="K223" s="34"/>
@@ -8430,21 +8430,21 @@
     </row>
     <row r="224" spans="2:12" ht="14.25">
       <c r="B224" s="34"/>
-      <c r="C224" s="89" t="str">
+      <c r="C224" s="82" t="str">
         <f>IF(E224="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="D224" s="89"/>
-      <c r="E224" s="88" t="str">
+      <c r="D224" s="82"/>
+      <c r="E224" s="81" t="str">
         <f>IF(記入!A30="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F224" s="88"/>
-      <c r="G224" s="90" t="str">
+      <c r="F224" s="81"/>
+      <c r="G224" s="92" t="str">
         <f>IF(記入!B30="","-",記入!B30)</f>
         <v>${ba1[1].deliverydate}</v>
       </c>
-      <c r="H224" s="90"/>
+      <c r="H224" s="92"/>
       <c r="I224" s="34"/>
       <c r="J224" s="34"/>
       <c r="K224" s="34"/>
@@ -8452,21 +8452,21 @@
     </row>
     <row r="225" spans="2:12" ht="14.25">
       <c r="B225" s="34"/>
-      <c r="C225" s="89" t="str">
+      <c r="C225" s="82" t="str">
         <f>IF(E225="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="D225" s="89"/>
-      <c r="E225" s="88" t="str">
+      <c r="D225" s="82"/>
+      <c r="E225" s="81" t="str">
         <f>IF(記入!A31="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F225" s="88"/>
-      <c r="G225" s="90" t="str">
+      <c r="F225" s="81"/>
+      <c r="G225" s="92" t="str">
         <f>IF(記入!B31="","-",記入!B31)</f>
         <v>${ba1[2].deliverydate}</v>
       </c>
-      <c r="H225" s="90"/>
+      <c r="H225" s="92"/>
       <c r="I225" s="34"/>
       <c r="J225" s="34"/>
       <c r="K225" s="34"/>
@@ -8474,21 +8474,21 @@
     </row>
     <row r="226" spans="2:12" ht="14.25">
       <c r="B226" s="34"/>
-      <c r="C226" s="89" t="str">
+      <c r="C226" s="82" t="str">
         <f>IF(E225="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="D226" s="89"/>
-      <c r="E226" s="88" t="str">
+      <c r="D226" s="82"/>
+      <c r="E226" s="81" t="str">
         <f>IF(記入!A32="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F226" s="88"/>
-      <c r="G226" s="90" t="str">
+      <c r="F226" s="81"/>
+      <c r="G226" s="92" t="str">
         <f>IF(記入!B32="","-",記入!B32)</f>
         <v>${ba1[3].deliverydate}</v>
       </c>
-      <c r="H226" s="90"/>
+      <c r="H226" s="92"/>
       <c r="I226" s="34"/>
       <c r="J226" s="34"/>
       <c r="K226" s="34"/>
@@ -8524,131 +8524,131 @@
     </row>
     <row r="229" spans="2:12" ht="14.25">
       <c r="B229" s="34"/>
-      <c r="C229" s="88" t="s">
+      <c r="C229" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D229" s="88"/>
-      <c r="E229" s="88" t="s">
+      <c r="D229" s="81"/>
+      <c r="E229" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="F229" s="88"/>
-      <c r="G229" s="88" t="s">
+      <c r="F229" s="81"/>
+      <c r="G229" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="H229" s="88"/>
-      <c r="I229" s="88" t="str">
+      <c r="H229" s="81"/>
+      <c r="I229" s="81" t="str">
         <f>"金额"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金额(${cv.currencyposition})</v>
       </c>
-      <c r="J229" s="88"/>
-      <c r="K229" s="88" t="str">
+      <c r="J229" s="81"/>
+      <c r="K229" s="81" t="str">
         <f>"金额总计"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金额总计(${cv.currencyposition})</v>
       </c>
-      <c r="L229" s="88"/>
+      <c r="L229" s="81"/>
     </row>
     <row r="230" spans="2:12" ht="14.25">
       <c r="B230" s="34"/>
-      <c r="C230" s="89" t="str">
+      <c r="C230" s="82" t="str">
         <f>IF(E230="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="D230" s="89"/>
-      <c r="E230" s="91" t="str">
+      <c r="D230" s="82"/>
+      <c r="E230" s="83" t="str">
         <f>IF(記入!D29="","-",記入!D29)</f>
         <v>${ba1[0].claimdate}</v>
       </c>
-      <c r="F230" s="92"/>
-      <c r="G230" s="91" t="str">
+      <c r="F230" s="84"/>
+      <c r="G230" s="83" t="str">
         <f>IF(記入!E29="","-",記入!E29)</f>
         <v>${ba1[0].supportdate}</v>
       </c>
-      <c r="H230" s="92"/>
-      <c r="I230" s="93" t="str">
+      <c r="H230" s="84"/>
+      <c r="I230" s="85" t="str">
         <f>IF(記入!F29="","-",記入!F29)</f>
         <v>${ba1[0].claimamount}</v>
       </c>
-      <c r="J230" s="92"/>
-      <c r="K230" s="94" t="str">
+      <c r="J230" s="84"/>
+      <c r="K230" s="86" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="L230" s="95"/>
+      <c r="L230" s="87"/>
     </row>
     <row r="231" spans="2:12" ht="14.25" customHeight="1">
       <c r="B231" s="34"/>
-      <c r="C231" s="89" t="str">
+      <c r="C231" s="82" t="str">
         <f>IF(E231="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="D231" s="89"/>
-      <c r="E231" s="91" t="str">
+      <c r="D231" s="82"/>
+      <c r="E231" s="83" t="str">
         <f>IF(記入!D30="","-",記入!D30)</f>
         <v>${ba1[1].claimdate}</v>
       </c>
-      <c r="F231" s="92"/>
-      <c r="G231" s="91" t="str">
+      <c r="F231" s="84"/>
+      <c r="G231" s="83" t="str">
         <f>IF(記入!E30="","-",記入!E30)</f>
         <v>${ba1[1].supportdate}</v>
       </c>
-      <c r="H231" s="92"/>
-      <c r="I231" s="93" t="str">
+      <c r="H231" s="84"/>
+      <c r="I231" s="85" t="str">
         <f>IF(記入!F30="","-",記入!F30)</f>
         <v>${ba1[1].claimamount}</v>
       </c>
-      <c r="J231" s="92"/>
-      <c r="K231" s="96"/>
-      <c r="L231" s="97"/>
+      <c r="J231" s="84"/>
+      <c r="K231" s="88"/>
+      <c r="L231" s="89"/>
     </row>
     <row r="232" spans="2:12" ht="14.25" customHeight="1">
       <c r="B232" s="34"/>
-      <c r="C232" s="89" t="str">
+      <c r="C232" s="82" t="str">
         <f>IF(E232="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="D232" s="89"/>
-      <c r="E232" s="91" t="str">
+      <c r="D232" s="82"/>
+      <c r="E232" s="83" t="str">
         <f>IF(記入!D31="","-",記入!D31)</f>
         <v>${ba1[2].claimdate}</v>
       </c>
-      <c r="F232" s="92"/>
-      <c r="G232" s="91" t="str">
+      <c r="F232" s="84"/>
+      <c r="G232" s="83" t="str">
         <f>IF(記入!E31="","-",記入!E31)</f>
         <v>${ba1[2].supportdate}</v>
       </c>
-      <c r="H232" s="92"/>
-      <c r="I232" s="93" t="str">
+      <c r="H232" s="84"/>
+      <c r="I232" s="85" t="str">
         <f>IF(記入!F31="","-",記入!F31)</f>
         <v>${ba1[2].claimamount}</v>
       </c>
-      <c r="J232" s="92"/>
-      <c r="K232" s="96"/>
-      <c r="L232" s="97"/>
+      <c r="J232" s="84"/>
+      <c r="K232" s="88"/>
+      <c r="L232" s="89"/>
     </row>
     <row r="233" spans="2:12" ht="14.25" customHeight="1">
       <c r="B233" s="34"/>
-      <c r="C233" s="89" t="str">
+      <c r="C233" s="82" t="str">
         <f>IF(E233="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="D233" s="89"/>
-      <c r="E233" s="91" t="str">
+      <c r="D233" s="82"/>
+      <c r="E233" s="83" t="str">
         <f>IF(記入!D32="","-",記入!D32)</f>
         <v>${ba1[3].claimdate}</v>
       </c>
-      <c r="F233" s="92"/>
-      <c r="G233" s="91" t="str">
+      <c r="F233" s="84"/>
+      <c r="G233" s="83" t="str">
         <f>IF(記入!E32="","-",記入!E32)</f>
         <v>${ba1[3].supportdate}</v>
       </c>
-      <c r="H233" s="92"/>
-      <c r="I233" s="93" t="str">
+      <c r="H233" s="84"/>
+      <c r="I233" s="85" t="str">
         <f>IF(記入!F32="","-",記入!F32)</f>
         <v>${ba1[3].claimamount}</v>
       </c>
-      <c r="J233" s="92"/>
-      <c r="K233" s="98"/>
-      <c r="L233" s="99"/>
+      <c r="J233" s="84"/>
+      <c r="K233" s="90"/>
+      <c r="L233" s="91"/>
     </row>
     <row r="234" spans="2:12" ht="14.25">
       <c r="B234" s="34"/>
@@ -8670,6 +8670,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B11:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B69:L133"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="B135:L177"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="C212:L212"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="C223:D223"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="G232:H232"/>
+    <mergeCell ref="I232:J232"/>
+    <mergeCell ref="C224:D224"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="G225:H225"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="G226:H226"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="G229:H229"/>
     <mergeCell ref="K229:L229"/>
     <mergeCell ref="C230:D230"/>
     <mergeCell ref="E230:F230"/>
@@ -8686,41 +8721,6 @@
     <mergeCell ref="I229:J229"/>
     <mergeCell ref="I231:J231"/>
     <mergeCell ref="C232:D232"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="G232:H232"/>
-    <mergeCell ref="I232:J232"/>
-    <mergeCell ref="C224:D224"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="G225:H225"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="G226:H226"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="C222:D222"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="C223:D223"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B11:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="B69:L133"/>
-    <mergeCell ref="K134:L134"/>
-    <mergeCell ref="B135:L177"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="C212:L212"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="D178:E178"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qiyueshu_yiwushoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/qiyueshu_yiwushoutuo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" activeTab="1"/>
+    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -1395,7 +1395,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1543,36 +1543,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1600,11 +1570,65 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1633,29 +1657,8 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1969,8 +1972,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2449,7 +2452,7 @@
       <c r="A37" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B37" s="100" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2470,7 +2473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L237"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A217" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A217" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
@@ -2487,18 +2490,18 @@
       <c r="J2" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="65" t="str">
+      <c r="K2" s="76" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="65"/>
+      <c r="L2" s="76"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="G3" s="78"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="22" t="s">
@@ -2553,32 +2556,32 @@
       <c r="L7" s="24"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="66"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="66"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="B10" s="23"/>
@@ -2594,2186 +2597,2186 @@
       <c r="L10" s="23"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="66" t="s">
+      <c r="B11" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="66"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="66"/>
-      <c r="L12" s="66"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="77"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="77"/>
+      <c r="L16" s="77"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="77"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="77"/>
+      <c r="J18" s="77"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="77"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="66"/>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="77"/>
+      <c r="G29" s="77"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="77"/>
+      <c r="K29" s="77"/>
+      <c r="L29" s="77"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="66"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="77"/>
+      <c r="J30" s="77"/>
+      <c r="K30" s="77"/>
+      <c r="L30" s="77"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="77"/>
+      <c r="J31" s="77"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="77"/>
+      <c r="J33" s="77"/>
+      <c r="K33" s="77"/>
+      <c r="L33" s="77"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="66"/>
-      <c r="C34" s="66"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="66"/>
-      <c r="H34" s="66"/>
-      <c r="I34" s="66"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="77"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="77"/>
+      <c r="J34" s="77"/>
+      <c r="K34" s="77"/>
+      <c r="L34" s="77"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="66"/>
-      <c r="C35" s="66"/>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="66"/>
-      <c r="L35" s="66"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="66"/>
-      <c r="L36" s="66"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="77"/>
+      <c r="H36" s="77"/>
+      <c r="I36" s="77"/>
+      <c r="J36" s="77"/>
+      <c r="K36" s="77"/>
+      <c r="L36" s="77"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="77"/>
+      <c r="J37" s="77"/>
+      <c r="K37" s="77"/>
+      <c r="L37" s="77"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
-      <c r="L38" s="66"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="77"/>
+      <c r="I38" s="77"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="77"/>
+      <c r="L38" s="77"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="77"/>
+      <c r="D39" s="77"/>
+      <c r="E39" s="77"/>
+      <c r="F39" s="77"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="77"/>
+      <c r="I39" s="77"/>
+      <c r="J39" s="77"/>
+      <c r="K39" s="77"/>
+      <c r="L39" s="77"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="77"/>
+      <c r="F40" s="77"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="77"/>
+      <c r="I40" s="77"/>
+      <c r="J40" s="77"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="77"/>
+      <c r="K41" s="77"/>
+      <c r="L41" s="77"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="66"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="77"/>
+      <c r="I42" s="77"/>
+      <c r="J42" s="77"/>
+      <c r="K42" s="77"/>
+      <c r="L42" s="77"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="66"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
+      <c r="B43" s="77"/>
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="77"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
+      <c r="L44" s="77"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="66"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="77"/>
+      <c r="H45" s="77"/>
+      <c r="I45" s="77"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="77"/>
+      <c r="L45" s="77"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="66"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="66"/>
-      <c r="F46" s="66"/>
-      <c r="G46" s="66"/>
-      <c r="H46" s="66"/>
-      <c r="I46" s="66"/>
-      <c r="J46" s="66"/>
-      <c r="K46" s="66"/>
-      <c r="L46" s="66"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="77"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="66"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="66"/>
-      <c r="E47" s="66"/>
-      <c r="F47" s="66"/>
-      <c r="G47" s="66"/>
-      <c r="H47" s="66"/>
-      <c r="I47" s="66"/>
-      <c r="J47" s="66"/>
-      <c r="K47" s="66"/>
-      <c r="L47" s="66"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="G47" s="77"/>
+      <c r="H47" s="77"/>
+      <c r="I47" s="77"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="77"/>
+      <c r="L47" s="77"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="66"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="66"/>
-      <c r="G48" s="66"/>
-      <c r="H48" s="66"/>
-      <c r="I48" s="66"/>
-      <c r="J48" s="66"/>
-      <c r="K48" s="66"/>
-      <c r="L48" s="66"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="77"/>
+      <c r="H48" s="77"/>
+      <c r="I48" s="77"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="77"/>
+      <c r="L48" s="77"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="66"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="66"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="66"/>
-      <c r="G49" s="66"/>
-      <c r="H49" s="66"/>
-      <c r="I49" s="66"/>
-      <c r="J49" s="66"/>
-      <c r="K49" s="66"/>
-      <c r="L49" s="66"/>
+      <c r="B49" s="77"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
+      <c r="L49" s="77"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="66"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="66"/>
-      <c r="I50" s="66"/>
-      <c r="J50" s="66"/>
-      <c r="K50" s="66"/>
-      <c r="L50" s="66"/>
+      <c r="B50" s="77"/>
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="77"/>
+      <c r="H50" s="77"/>
+      <c r="I50" s="77"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="77"/>
+      <c r="L50" s="77"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="66"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="66"/>
-      <c r="E51" s="66"/>
-      <c r="F51" s="66"/>
-      <c r="G51" s="66"/>
-      <c r="H51" s="66"/>
-      <c r="I51" s="66"/>
-      <c r="J51" s="66"/>
-      <c r="K51" s="66"/>
-      <c r="L51" s="66"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="77"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="66"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="66"/>
-      <c r="F52" s="66"/>
-      <c r="G52" s="66"/>
-      <c r="H52" s="66"/>
-      <c r="I52" s="66"/>
-      <c r="J52" s="66"/>
-      <c r="K52" s="66"/>
-      <c r="L52" s="66"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="F52" s="77"/>
+      <c r="G52" s="77"/>
+      <c r="H52" s="77"/>
+      <c r="I52" s="77"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="77"/>
+      <c r="L52" s="77"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="66"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="66"/>
-      <c r="E53" s="66"/>
-      <c r="F53" s="66"/>
-      <c r="G53" s="66"/>
-      <c r="H53" s="66"/>
-      <c r="I53" s="66"/>
-      <c r="J53" s="66"/>
-      <c r="K53" s="66"/>
-      <c r="L53" s="66"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77"/>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77"/>
+      <c r="K53" s="77"/>
+      <c r="L53" s="77"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="66"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="66"/>
-      <c r="F54" s="66"/>
-      <c r="G54" s="66"/>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66"/>
-      <c r="J54" s="66"/>
-      <c r="K54" s="66"/>
-      <c r="L54" s="66"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="77"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="66"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="66"/>
-      <c r="E55" s="66"/>
-      <c r="F55" s="66"/>
-      <c r="G55" s="66"/>
-      <c r="H55" s="66"/>
-      <c r="I55" s="66"/>
-      <c r="J55" s="66"/>
-      <c r="K55" s="66"/>
-      <c r="L55" s="66"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="F55" s="77"/>
+      <c r="G55" s="77"/>
+      <c r="H55" s="77"/>
+      <c r="I55" s="77"/>
+      <c r="J55" s="77"/>
+      <c r="K55" s="77"/>
+      <c r="L55" s="77"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="66"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="66"/>
-      <c r="F56" s="66"/>
-      <c r="G56" s="66"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="66"/>
-      <c r="J56" s="66"/>
-      <c r="K56" s="66"/>
-      <c r="L56" s="66"/>
+      <c r="B56" s="77"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="77"/>
+      <c r="E56" s="77"/>
+      <c r="F56" s="77"/>
+      <c r="G56" s="77"/>
+      <c r="H56" s="77"/>
+      <c r="I56" s="77"/>
+      <c r="J56" s="77"/>
+      <c r="K56" s="77"/>
+      <c r="L56" s="77"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="66"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="66"/>
-      <c r="E57" s="66"/>
-      <c r="F57" s="66"/>
-      <c r="G57" s="66"/>
-      <c r="H57" s="66"/>
-      <c r="I57" s="66"/>
-      <c r="J57" s="66"/>
-      <c r="K57" s="66"/>
-      <c r="L57" s="66"/>
+      <c r="B57" s="77"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
+      <c r="H57" s="77"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="77"/>
+      <c r="L57" s="77"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B58" s="66"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="66"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="66"/>
-      <c r="G58" s="66"/>
-      <c r="H58" s="66"/>
-      <c r="I58" s="66"/>
-      <c r="J58" s="66"/>
-      <c r="K58" s="66"/>
-      <c r="L58" s="66"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="77"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="77"/>
+      <c r="H58" s="77"/>
+      <c r="I58" s="77"/>
+      <c r="J58" s="77"/>
+      <c r="K58" s="77"/>
+      <c r="L58" s="77"/>
     </row>
     <row r="59" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B59" s="66"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="66"/>
-      <c r="E59" s="66"/>
-      <c r="F59" s="66"/>
-      <c r="G59" s="66"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="66"/>
-      <c r="J59" s="66"/>
-      <c r="K59" s="66"/>
-      <c r="L59" s="66"/>
+      <c r="B59" s="77"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77"/>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="77"/>
     </row>
     <row r="60" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B60" s="66"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="66"/>
-      <c r="H60" s="66"/>
-      <c r="I60" s="66"/>
-      <c r="J60" s="66"/>
-      <c r="K60" s="66"/>
-      <c r="L60" s="66"/>
+      <c r="B60" s="77"/>
+      <c r="C60" s="77"/>
+      <c r="D60" s="77"/>
+      <c r="E60" s="77"/>
+      <c r="F60" s="77"/>
+      <c r="G60" s="77"/>
+      <c r="H60" s="77"/>
+      <c r="I60" s="77"/>
+      <c r="J60" s="77"/>
+      <c r="K60" s="77"/>
+      <c r="L60" s="77"/>
     </row>
     <row r="61" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B61" s="66"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="66"/>
-      <c r="E61" s="66"/>
-      <c r="F61" s="66"/>
-      <c r="G61" s="66"/>
-      <c r="H61" s="66"/>
-      <c r="I61" s="66"/>
-      <c r="J61" s="66"/>
-      <c r="K61" s="66"/>
-      <c r="L61" s="66"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="77"/>
+      <c r="D61" s="77"/>
+      <c r="E61" s="77"/>
+      <c r="F61" s="77"/>
+      <c r="G61" s="77"/>
+      <c r="H61" s="77"/>
+      <c r="I61" s="77"/>
+      <c r="J61" s="77"/>
+      <c r="K61" s="77"/>
+      <c r="L61" s="77"/>
     </row>
     <row r="62" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B62" s="66"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="66"/>
-      <c r="L62" s="66"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="77"/>
+      <c r="D62" s="77"/>
+      <c r="E62" s="77"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
     </row>
     <row r="63" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B63" s="66"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="66"/>
-      <c r="L63" s="66"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="77"/>
+      <c r="D63" s="77"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="77"/>
+      <c r="K63" s="77"/>
+      <c r="L63" s="77"/>
     </row>
     <row r="64" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B64" s="66"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="66"/>
-      <c r="F64" s="66"/>
-      <c r="G64" s="66"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="66"/>
-      <c r="J64" s="66"/>
-      <c r="K64" s="66"/>
-      <c r="L64" s="66"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="77"/>
+      <c r="H64" s="77"/>
+      <c r="I64" s="77"/>
+      <c r="J64" s="77"/>
+      <c r="K64" s="77"/>
+      <c r="L64" s="77"/>
     </row>
     <row r="65" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
-      <c r="I65" s="66"/>
-      <c r="J65" s="66"/>
-      <c r="K65" s="66"/>
-      <c r="L65" s="66"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="77"/>
+      <c r="D65" s="77"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="77"/>
+      <c r="G65" s="77"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="77"/>
+      <c r="L65" s="77"/>
     </row>
     <row r="66" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B66" s="66"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="66"/>
-      <c r="F66" s="66"/>
-      <c r="G66" s="66"/>
-      <c r="H66" s="66"/>
-      <c r="I66" s="66"/>
-      <c r="J66" s="66"/>
-      <c r="K66" s="66"/>
-      <c r="L66" s="66"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="77"/>
+      <c r="D66" s="77"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="77"/>
+      <c r="H66" s="77"/>
+      <c r="I66" s="77"/>
+      <c r="J66" s="77"/>
+      <c r="K66" s="77"/>
+      <c r="L66" s="77"/>
     </row>
     <row r="67" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B67" s="66"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="66"/>
-      <c r="J67" s="66"/>
-      <c r="K67" s="66"/>
-      <c r="L67" s="66"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="77"/>
+      <c r="D67" s="77"/>
+      <c r="E67" s="77"/>
+      <c r="F67" s="77"/>
+      <c r="G67" s="77"/>
+      <c r="H67" s="77"/>
+      <c r="I67" s="77"/>
+      <c r="J67" s="77"/>
+      <c r="K67" s="77"/>
+      <c r="L67" s="77"/>
     </row>
     <row r="68" spans="2:12" ht="24.75" customHeight="1">
       <c r="J68" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K68" s="65" t="str">
+      <c r="K68" s="76" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L68" s="65"/>
+      <c r="L68" s="76"/>
     </row>
     <row r="69" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B69" s="66" t="s">
+      <c r="B69" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="66"/>
-      <c r="L69" s="66"/>
+      <c r="C69" s="77"/>
+      <c r="D69" s="77"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="77"/>
+      <c r="G69" s="77"/>
+      <c r="H69" s="77"/>
+      <c r="I69" s="77"/>
+      <c r="J69" s="77"/>
+      <c r="K69" s="77"/>
+      <c r="L69" s="77"/>
     </row>
     <row r="70" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B70" s="66"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66"/>
-      <c r="K70" s="66"/>
-      <c r="L70" s="66"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="77"/>
+      <c r="D70" s="77"/>
+      <c r="E70" s="77"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="77"/>
+      <c r="H70" s="77"/>
+      <c r="I70" s="77"/>
+      <c r="J70" s="77"/>
+      <c r="K70" s="77"/>
+      <c r="L70" s="77"/>
     </row>
     <row r="71" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-      <c r="I71" s="66"/>
-      <c r="J71" s="66"/>
-      <c r="K71" s="66"/>
-      <c r="L71" s="66"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="77"/>
+      <c r="H71" s="77"/>
+      <c r="I71" s="77"/>
+      <c r="J71" s="77"/>
+      <c r="K71" s="77"/>
+      <c r="L71" s="77"/>
     </row>
     <row r="72" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B72" s="66"/>
-      <c r="C72" s="66"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="66"/>
-      <c r="F72" s="66"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="66"/>
-      <c r="I72" s="66"/>
-      <c r="J72" s="66"/>
-      <c r="K72" s="66"/>
-      <c r="L72" s="66"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="77"/>
+      <c r="H72" s="77"/>
+      <c r="I72" s="77"/>
+      <c r="J72" s="77"/>
+      <c r="K72" s="77"/>
+      <c r="L72" s="77"/>
     </row>
     <row r="73" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
-      <c r="I73" s="66"/>
-      <c r="J73" s="66"/>
-      <c r="K73" s="66"/>
-      <c r="L73" s="66"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="77"/>
+      <c r="D73" s="77"/>
+      <c r="E73" s="77"/>
+      <c r="F73" s="77"/>
+      <c r="G73" s="77"/>
+      <c r="H73" s="77"/>
+      <c r="I73" s="77"/>
+      <c r="J73" s="77"/>
+      <c r="K73" s="77"/>
+      <c r="L73" s="77"/>
     </row>
     <row r="74" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B74" s="66"/>
-      <c r="C74" s="66"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="66"/>
-      <c r="F74" s="66"/>
-      <c r="G74" s="66"/>
-      <c r="H74" s="66"/>
-      <c r="I74" s="66"/>
-      <c r="J74" s="66"/>
-      <c r="K74" s="66"/>
-      <c r="L74" s="66"/>
+      <c r="B74" s="77"/>
+      <c r="C74" s="77"/>
+      <c r="D74" s="77"/>
+      <c r="E74" s="77"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="77"/>
+      <c r="H74" s="77"/>
+      <c r="I74" s="77"/>
+      <c r="J74" s="77"/>
+      <c r="K74" s="77"/>
+      <c r="L74" s="77"/>
     </row>
     <row r="75" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B75" s="66"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="66"/>
-      <c r="I75" s="66"/>
-      <c r="J75" s="66"/>
-      <c r="K75" s="66"/>
-      <c r="L75" s="66"/>
+      <c r="B75" s="77"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="77"/>
+      <c r="H75" s="77"/>
+      <c r="I75" s="77"/>
+      <c r="J75" s="77"/>
+      <c r="K75" s="77"/>
+      <c r="L75" s="77"/>
     </row>
     <row r="76" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B76" s="66"/>
-      <c r="C76" s="66"/>
-      <c r="D76" s="66"/>
-      <c r="E76" s="66"/>
-      <c r="F76" s="66"/>
-      <c r="G76" s="66"/>
-      <c r="H76" s="66"/>
-      <c r="I76" s="66"/>
-      <c r="J76" s="66"/>
-      <c r="K76" s="66"/>
-      <c r="L76" s="66"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="77"/>
+      <c r="F76" s="77"/>
+      <c r="G76" s="77"/>
+      <c r="H76" s="77"/>
+      <c r="I76" s="77"/>
+      <c r="J76" s="77"/>
+      <c r="K76" s="77"/>
+      <c r="L76" s="77"/>
     </row>
     <row r="77" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B77" s="66"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
-      <c r="I77" s="66"/>
-      <c r="J77" s="66"/>
-      <c r="K77" s="66"/>
-      <c r="L77" s="66"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="77"/>
+      <c r="F77" s="77"/>
+      <c r="G77" s="77"/>
+      <c r="H77" s="77"/>
+      <c r="I77" s="77"/>
+      <c r="J77" s="77"/>
+      <c r="K77" s="77"/>
+      <c r="L77" s="77"/>
     </row>
     <row r="78" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B78" s="66"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="66"/>
-      <c r="H78" s="66"/>
-      <c r="I78" s="66"/>
-      <c r="J78" s="66"/>
-      <c r="K78" s="66"/>
-      <c r="L78" s="66"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="77"/>
+      <c r="D78" s="77"/>
+      <c r="E78" s="77"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="77"/>
+      <c r="H78" s="77"/>
+      <c r="I78" s="77"/>
+      <c r="J78" s="77"/>
+      <c r="K78" s="77"/>
+      <c r="L78" s="77"/>
     </row>
     <row r="79" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B79" s="66"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
-      <c r="I79" s="66"/>
-      <c r="J79" s="66"/>
-      <c r="K79" s="66"/>
-      <c r="L79" s="66"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="77"/>
+      <c r="D79" s="77"/>
+      <c r="E79" s="77"/>
+      <c r="F79" s="77"/>
+      <c r="G79" s="77"/>
+      <c r="H79" s="77"/>
+      <c r="I79" s="77"/>
+      <c r="J79" s="77"/>
+      <c r="K79" s="77"/>
+      <c r="L79" s="77"/>
     </row>
     <row r="80" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B80" s="66"/>
-      <c r="C80" s="66"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="66"/>
-      <c r="F80" s="66"/>
-      <c r="G80" s="66"/>
-      <c r="H80" s="66"/>
-      <c r="I80" s="66"/>
-      <c r="J80" s="66"/>
-      <c r="K80" s="66"/>
-      <c r="L80" s="66"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="77"/>
+      <c r="D80" s="77"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="77"/>
+      <c r="G80" s="77"/>
+      <c r="H80" s="77"/>
+      <c r="I80" s="77"/>
+      <c r="J80" s="77"/>
+      <c r="K80" s="77"/>
+      <c r="L80" s="77"/>
     </row>
     <row r="81" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B81" s="66"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
-      <c r="I81" s="66"/>
-      <c r="J81" s="66"/>
-      <c r="K81" s="66"/>
-      <c r="L81" s="66"/>
+      <c r="B81" s="77"/>
+      <c r="C81" s="77"/>
+      <c r="D81" s="77"/>
+      <c r="E81" s="77"/>
+      <c r="F81" s="77"/>
+      <c r="G81" s="77"/>
+      <c r="H81" s="77"/>
+      <c r="I81" s="77"/>
+      <c r="J81" s="77"/>
+      <c r="K81" s="77"/>
+      <c r="L81" s="77"/>
     </row>
     <row r="82" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B82" s="66"/>
-      <c r="C82" s="66"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="66"/>
-      <c r="F82" s="66"/>
-      <c r="G82" s="66"/>
-      <c r="H82" s="66"/>
-      <c r="I82" s="66"/>
-      <c r="J82" s="66"/>
-      <c r="K82" s="66"/>
-      <c r="L82" s="66"/>
+      <c r="B82" s="77"/>
+      <c r="C82" s="77"/>
+      <c r="D82" s="77"/>
+      <c r="E82" s="77"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="77"/>
+      <c r="H82" s="77"/>
+      <c r="I82" s="77"/>
+      <c r="J82" s="77"/>
+      <c r="K82" s="77"/>
+      <c r="L82" s="77"/>
     </row>
     <row r="83" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B83" s="66"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
-      <c r="I83" s="66"/>
-      <c r="J83" s="66"/>
-      <c r="K83" s="66"/>
-      <c r="L83" s="66"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="77"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="77"/>
+      <c r="H83" s="77"/>
+      <c r="I83" s="77"/>
+      <c r="J83" s="77"/>
+      <c r="K83" s="77"/>
+      <c r="L83" s="77"/>
     </row>
     <row r="84" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B84" s="66"/>
-      <c r="C84" s="66"/>
-      <c r="D84" s="66"/>
-      <c r="E84" s="66"/>
-      <c r="F84" s="66"/>
-      <c r="G84" s="66"/>
-      <c r="H84" s="66"/>
-      <c r="I84" s="66"/>
-      <c r="J84" s="66"/>
-      <c r="K84" s="66"/>
-      <c r="L84" s="66"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="77"/>
+      <c r="F84" s="77"/>
+      <c r="G84" s="77"/>
+      <c r="H84" s="77"/>
+      <c r="I84" s="77"/>
+      <c r="J84" s="77"/>
+      <c r="K84" s="77"/>
+      <c r="L84" s="77"/>
     </row>
     <row r="85" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B85" s="66"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
-      <c r="I85" s="66"/>
-      <c r="J85" s="66"/>
-      <c r="K85" s="66"/>
-      <c r="L85" s="66"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="77"/>
+      <c r="G85" s="77"/>
+      <c r="H85" s="77"/>
+      <c r="I85" s="77"/>
+      <c r="J85" s="77"/>
+      <c r="K85" s="77"/>
+      <c r="L85" s="77"/>
     </row>
     <row r="86" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B86" s="66"/>
-      <c r="C86" s="66"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="66"/>
-      <c r="H86" s="66"/>
-      <c r="I86" s="66"/>
-      <c r="J86" s="66"/>
-      <c r="K86" s="66"/>
-      <c r="L86" s="66"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="77"/>
+      <c r="D86" s="77"/>
+      <c r="E86" s="77"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="77"/>
+      <c r="H86" s="77"/>
+      <c r="I86" s="77"/>
+      <c r="J86" s="77"/>
+      <c r="K86" s="77"/>
+      <c r="L86" s="77"/>
     </row>
     <row r="87" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B87" s="66"/>
-      <c r="C87" s="66"/>
-      <c r="D87" s="66"/>
-      <c r="E87" s="66"/>
-      <c r="F87" s="66"/>
-      <c r="G87" s="66"/>
-      <c r="H87" s="66"/>
-      <c r="I87" s="66"/>
-      <c r="J87" s="66"/>
-      <c r="K87" s="66"/>
-      <c r="L87" s="66"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="77"/>
+      <c r="G87" s="77"/>
+      <c r="H87" s="77"/>
+      <c r="I87" s="77"/>
+      <c r="J87" s="77"/>
+      <c r="K87" s="77"/>
+      <c r="L87" s="77"/>
     </row>
     <row r="88" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B88" s="66"/>
-      <c r="C88" s="66"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="66"/>
-      <c r="F88" s="66"/>
-      <c r="G88" s="66"/>
-      <c r="H88" s="66"/>
-      <c r="I88" s="66"/>
-      <c r="J88" s="66"/>
-      <c r="K88" s="66"/>
-      <c r="L88" s="66"/>
+      <c r="B88" s="77"/>
+      <c r="C88" s="77"/>
+      <c r="D88" s="77"/>
+      <c r="E88" s="77"/>
+      <c r="F88" s="77"/>
+      <c r="G88" s="77"/>
+      <c r="H88" s="77"/>
+      <c r="I88" s="77"/>
+      <c r="J88" s="77"/>
+      <c r="K88" s="77"/>
+      <c r="L88" s="77"/>
     </row>
     <row r="89" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B89" s="66"/>
-      <c r="C89" s="66"/>
-      <c r="D89" s="66"/>
-      <c r="E89" s="66"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="66"/>
-      <c r="I89" s="66"/>
-      <c r="J89" s="66"/>
-      <c r="K89" s="66"/>
-      <c r="L89" s="66"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="77"/>
+      <c r="G89" s="77"/>
+      <c r="H89" s="77"/>
+      <c r="I89" s="77"/>
+      <c r="J89" s="77"/>
+      <c r="K89" s="77"/>
+      <c r="L89" s="77"/>
     </row>
     <row r="90" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B90" s="66"/>
-      <c r="C90" s="66"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="66"/>
-      <c r="F90" s="66"/>
-      <c r="G90" s="66"/>
-      <c r="H90" s="66"/>
-      <c r="I90" s="66"/>
-      <c r="J90" s="66"/>
-      <c r="K90" s="66"/>
-      <c r="L90" s="66"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="77"/>
+      <c r="D90" s="77"/>
+      <c r="E90" s="77"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="77"/>
+      <c r="H90" s="77"/>
+      <c r="I90" s="77"/>
+      <c r="J90" s="77"/>
+      <c r="K90" s="77"/>
+      <c r="L90" s="77"/>
     </row>
     <row r="91" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B91" s="66"/>
-      <c r="C91" s="66"/>
-      <c r="D91" s="66"/>
-      <c r="E91" s="66"/>
-      <c r="F91" s="66"/>
-      <c r="G91" s="66"/>
-      <c r="H91" s="66"/>
-      <c r="I91" s="66"/>
-      <c r="J91" s="66"/>
-      <c r="K91" s="66"/>
-      <c r="L91" s="66"/>
+      <c r="B91" s="77"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="77"/>
+      <c r="G91" s="77"/>
+      <c r="H91" s="77"/>
+      <c r="I91" s="77"/>
+      <c r="J91" s="77"/>
+      <c r="K91" s="77"/>
+      <c r="L91" s="77"/>
     </row>
     <row r="92" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B92" s="66"/>
-      <c r="C92" s="66"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="66"/>
-      <c r="I92" s="66"/>
-      <c r="J92" s="66"/>
-      <c r="K92" s="66"/>
-      <c r="L92" s="66"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="77"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="77"/>
+      <c r="G92" s="77"/>
+      <c r="H92" s="77"/>
+      <c r="I92" s="77"/>
+      <c r="J92" s="77"/>
+      <c r="K92" s="77"/>
+      <c r="L92" s="77"/>
     </row>
     <row r="93" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B93" s="66"/>
-      <c r="C93" s="66"/>
-      <c r="D93" s="66"/>
-      <c r="E93" s="66"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="66"/>
-      <c r="I93" s="66"/>
-      <c r="J93" s="66"/>
-      <c r="K93" s="66"/>
-      <c r="L93" s="66"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="77"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="77"/>
+      <c r="G93" s="77"/>
+      <c r="H93" s="77"/>
+      <c r="I93" s="77"/>
+      <c r="J93" s="77"/>
+      <c r="K93" s="77"/>
+      <c r="L93" s="77"/>
     </row>
     <row r="94" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B94" s="66"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="66"/>
-      <c r="F94" s="66"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="66"/>
-      <c r="I94" s="66"/>
-      <c r="J94" s="66"/>
-      <c r="K94" s="66"/>
-      <c r="L94" s="66"/>
+      <c r="B94" s="77"/>
+      <c r="C94" s="77"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="77"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="77"/>
+      <c r="H94" s="77"/>
+      <c r="I94" s="77"/>
+      <c r="J94" s="77"/>
+      <c r="K94" s="77"/>
+      <c r="L94" s="77"/>
     </row>
     <row r="95" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B95" s="66"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="66"/>
-      <c r="J95" s="66"/>
-      <c r="K95" s="66"/>
-      <c r="L95" s="66"/>
+      <c r="B95" s="77"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="77"/>
+      <c r="G95" s="77"/>
+      <c r="H95" s="77"/>
+      <c r="I95" s="77"/>
+      <c r="J95" s="77"/>
+      <c r="K95" s="77"/>
+      <c r="L95" s="77"/>
     </row>
     <row r="96" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B96" s="66"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="66"/>
-      <c r="F96" s="66"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="66"/>
-      <c r="J96" s="66"/>
-      <c r="K96" s="66"/>
-      <c r="L96" s="66"/>
+      <c r="B96" s="77"/>
+      <c r="C96" s="77"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="77"/>
+      <c r="F96" s="77"/>
+      <c r="G96" s="77"/>
+      <c r="H96" s="77"/>
+      <c r="I96" s="77"/>
+      <c r="J96" s="77"/>
+      <c r="K96" s="77"/>
+      <c r="L96" s="77"/>
     </row>
     <row r="97" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B97" s="66"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="66"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="66"/>
-      <c r="J97" s="66"/>
-      <c r="K97" s="66"/>
-      <c r="L97" s="66"/>
+      <c r="B97" s="77"/>
+      <c r="C97" s="77"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="77"/>
+      <c r="H97" s="77"/>
+      <c r="I97" s="77"/>
+      <c r="J97" s="77"/>
+      <c r="K97" s="77"/>
+      <c r="L97" s="77"/>
     </row>
     <row r="98" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B98" s="66"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="F98" s="66"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="66"/>
-      <c r="J98" s="66"/>
-      <c r="K98" s="66"/>
-      <c r="L98" s="66"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="77"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="77"/>
+      <c r="H98" s="77"/>
+      <c r="I98" s="77"/>
+      <c r="J98" s="77"/>
+      <c r="K98" s="77"/>
+      <c r="L98" s="77"/>
     </row>
     <row r="99" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B99" s="66"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
-      <c r="F99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="66"/>
-      <c r="J99" s="66"/>
-      <c r="K99" s="66"/>
-      <c r="L99" s="66"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="77"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="77"/>
+      <c r="G99" s="77"/>
+      <c r="H99" s="77"/>
+      <c r="I99" s="77"/>
+      <c r="J99" s="77"/>
+      <c r="K99" s="77"/>
+      <c r="L99" s="77"/>
     </row>
     <row r="100" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B100" s="66"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="66"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="66"/>
-      <c r="J100" s="66"/>
-      <c r="K100" s="66"/>
-      <c r="L100" s="66"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="77"/>
+      <c r="L100" s="77"/>
     </row>
     <row r="101" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B101" s="66"/>
-      <c r="C101" s="66"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="66"/>
-      <c r="J101" s="66"/>
-      <c r="K101" s="66"/>
-      <c r="L101" s="66"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="77"/>
+      <c r="K101" s="77"/>
+      <c r="L101" s="77"/>
     </row>
     <row r="102" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B102" s="66"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="66"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="66"/>
-      <c r="I102" s="66"/>
-      <c r="J102" s="66"/>
-      <c r="K102" s="66"/>
-      <c r="L102" s="66"/>
+      <c r="B102" s="77"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
+      <c r="L102" s="77"/>
     </row>
     <row r="103" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B103" s="66"/>
-      <c r="C103" s="66"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="66"/>
-      <c r="L103" s="66"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="77"/>
+      <c r="K103" s="77"/>
+      <c r="L103" s="77"/>
     </row>
     <row r="104" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B104" s="66"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="66"/>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="66"/>
-      <c r="L104" s="66"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
     </row>
     <row r="105" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B105" s="66"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="66"/>
-      <c r="E105" s="66"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="66"/>
-      <c r="J105" s="66"/>
-      <c r="K105" s="66"/>
-      <c r="L105" s="66"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="77"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="77"/>
     </row>
     <row r="106" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B106" s="66"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="66"/>
-      <c r="H106" s="66"/>
-      <c r="I106" s="66"/>
-      <c r="J106" s="66"/>
-      <c r="K106" s="66"/>
-      <c r="L106" s="66"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="77"/>
+      <c r="K106" s="77"/>
+      <c r="L106" s="77"/>
     </row>
     <row r="107" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B107" s="66"/>
-      <c r="C107" s="66"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="66"/>
-      <c r="F107" s="66"/>
-      <c r="G107" s="66"/>
-      <c r="H107" s="66"/>
-      <c r="I107" s="66"/>
-      <c r="J107" s="66"/>
-      <c r="K107" s="66"/>
-      <c r="L107" s="66"/>
+      <c r="B107" s="77"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="77"/>
+      <c r="L107" s="77"/>
     </row>
     <row r="108" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B108" s="66"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="66"/>
-      <c r="F108" s="66"/>
-      <c r="G108" s="66"/>
-      <c r="H108" s="66"/>
-      <c r="I108" s="66"/>
-      <c r="J108" s="66"/>
-      <c r="K108" s="66"/>
-      <c r="L108" s="66"/>
+      <c r="B108" s="77"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="77"/>
+      <c r="I108" s="77"/>
+      <c r="J108" s="77"/>
+      <c r="K108" s="77"/>
+      <c r="L108" s="77"/>
     </row>
     <row r="109" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B109" s="66"/>
-      <c r="C109" s="66"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="66"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="66"/>
-      <c r="H109" s="66"/>
-      <c r="I109" s="66"/>
-      <c r="J109" s="66"/>
-      <c r="K109" s="66"/>
-      <c r="L109" s="66"/>
+      <c r="B109" s="77"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="77"/>
+      <c r="K109" s="77"/>
+      <c r="L109" s="77"/>
     </row>
     <row r="110" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B110" s="66"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="66"/>
-      <c r="F110" s="66"/>
-      <c r="G110" s="66"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="66"/>
-      <c r="J110" s="66"/>
-      <c r="K110" s="66"/>
-      <c r="L110" s="66"/>
+      <c r="B110" s="77"/>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+      <c r="K110" s="77"/>
+      <c r="L110" s="77"/>
     </row>
     <row r="111" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B111" s="66"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="66"/>
-      <c r="F111" s="66"/>
-      <c r="G111" s="66"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="66"/>
-      <c r="J111" s="66"/>
-      <c r="K111" s="66"/>
-      <c r="L111" s="66"/>
+      <c r="B111" s="77"/>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="77"/>
+      <c r="K111" s="77"/>
+      <c r="L111" s="77"/>
     </row>
     <row r="112" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B112" s="66"/>
-      <c r="C112" s="66"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="66"/>
-      <c r="F112" s="66"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="66"/>
-      <c r="I112" s="66"/>
-      <c r="J112" s="66"/>
-      <c r="K112" s="66"/>
-      <c r="L112" s="66"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="77"/>
     </row>
     <row r="113" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B113" s="66"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="66"/>
-      <c r="J113" s="66"/>
-      <c r="K113" s="66"/>
-      <c r="L113" s="66"/>
+      <c r="B113" s="77"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="77"/>
+      <c r="J113" s="77"/>
+      <c r="K113" s="77"/>
+      <c r="L113" s="77"/>
     </row>
     <row r="114" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B114" s="66"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="66"/>
-      <c r="E114" s="66"/>
-      <c r="F114" s="66"/>
-      <c r="G114" s="66"/>
-      <c r="H114" s="66"/>
-      <c r="I114" s="66"/>
-      <c r="J114" s="66"/>
-      <c r="K114" s="66"/>
-      <c r="L114" s="66"/>
+      <c r="B114" s="77"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
     </row>
     <row r="115" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B115" s="66"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66"/>
-      <c r="F115" s="66"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="66"/>
-      <c r="I115" s="66"/>
-      <c r="J115" s="66"/>
-      <c r="K115" s="66"/>
-      <c r="L115" s="66"/>
+      <c r="B115" s="77"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="77"/>
+      <c r="G115" s="77"/>
+      <c r="H115" s="77"/>
+      <c r="I115" s="77"/>
+      <c r="J115" s="77"/>
+      <c r="K115" s="77"/>
+      <c r="L115" s="77"/>
     </row>
     <row r="116" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B116" s="66"/>
-      <c r="C116" s="66"/>
-      <c r="D116" s="66"/>
-      <c r="E116" s="66"/>
-      <c r="F116" s="66"/>
-      <c r="G116" s="66"/>
-      <c r="H116" s="66"/>
-      <c r="I116" s="66"/>
-      <c r="J116" s="66"/>
-      <c r="K116" s="66"/>
-      <c r="L116" s="66"/>
+      <c r="B116" s="77"/>
+      <c r="C116" s="77"/>
+      <c r="D116" s="77"/>
+      <c r="E116" s="77"/>
+      <c r="F116" s="77"/>
+      <c r="G116" s="77"/>
+      <c r="H116" s="77"/>
+      <c r="I116" s="77"/>
+      <c r="J116" s="77"/>
+      <c r="K116" s="77"/>
+      <c r="L116" s="77"/>
     </row>
     <row r="117" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B117" s="66"/>
-      <c r="C117" s="66"/>
-      <c r="D117" s="66"/>
-      <c r="E117" s="66"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="66"/>
-      <c r="J117" s="66"/>
-      <c r="K117" s="66"/>
-      <c r="L117" s="66"/>
+      <c r="B117" s="77"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="77"/>
+      <c r="F117" s="77"/>
+      <c r="G117" s="77"/>
+      <c r="H117" s="77"/>
+      <c r="I117" s="77"/>
+      <c r="J117" s="77"/>
+      <c r="K117" s="77"/>
+      <c r="L117" s="77"/>
     </row>
     <row r="118" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B118" s="66"/>
-      <c r="C118" s="66"/>
-      <c r="D118" s="66"/>
-      <c r="E118" s="66"/>
-      <c r="F118" s="66"/>
-      <c r="G118" s="66"/>
-      <c r="H118" s="66"/>
-      <c r="I118" s="66"/>
-      <c r="J118" s="66"/>
-      <c r="K118" s="66"/>
-      <c r="L118" s="66"/>
+      <c r="B118" s="77"/>
+      <c r="C118" s="77"/>
+      <c r="D118" s="77"/>
+      <c r="E118" s="77"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="77"/>
+      <c r="H118" s="77"/>
+      <c r="I118" s="77"/>
+      <c r="J118" s="77"/>
+      <c r="K118" s="77"/>
+      <c r="L118" s="77"/>
     </row>
     <row r="119" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B119" s="66"/>
-      <c r="C119" s="66"/>
-      <c r="D119" s="66"/>
-      <c r="E119" s="66"/>
-      <c r="F119" s="66"/>
-      <c r="G119" s="66"/>
-      <c r="H119" s="66"/>
-      <c r="I119" s="66"/>
-      <c r="J119" s="66"/>
-      <c r="K119" s="66"/>
-      <c r="L119" s="66"/>
+      <c r="B119" s="77"/>
+      <c r="C119" s="77"/>
+      <c r="D119" s="77"/>
+      <c r="E119" s="77"/>
+      <c r="F119" s="77"/>
+      <c r="G119" s="77"/>
+      <c r="H119" s="77"/>
+      <c r="I119" s="77"/>
+      <c r="J119" s="77"/>
+      <c r="K119" s="77"/>
+      <c r="L119" s="77"/>
     </row>
     <row r="120" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B120" s="66"/>
-      <c r="C120" s="66"/>
-      <c r="D120" s="66"/>
-      <c r="E120" s="66"/>
-      <c r="F120" s="66"/>
-      <c r="G120" s="66"/>
-      <c r="H120" s="66"/>
-      <c r="I120" s="66"/>
-      <c r="J120" s="66"/>
-      <c r="K120" s="66"/>
-      <c r="L120" s="66"/>
+      <c r="B120" s="77"/>
+      <c r="C120" s="77"/>
+      <c r="D120" s="77"/>
+      <c r="E120" s="77"/>
+      <c r="F120" s="77"/>
+      <c r="G120" s="77"/>
+      <c r="H120" s="77"/>
+      <c r="I120" s="77"/>
+      <c r="J120" s="77"/>
+      <c r="K120" s="77"/>
+      <c r="L120" s="77"/>
     </row>
     <row r="121" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B121" s="66"/>
-      <c r="C121" s="66"/>
-      <c r="D121" s="66"/>
-      <c r="E121" s="66"/>
-      <c r="F121" s="66"/>
-      <c r="G121" s="66"/>
-      <c r="H121" s="66"/>
-      <c r="I121" s="66"/>
-      <c r="J121" s="66"/>
-      <c r="K121" s="66"/>
-      <c r="L121" s="66"/>
+      <c r="B121" s="77"/>
+      <c r="C121" s="77"/>
+      <c r="D121" s="77"/>
+      <c r="E121" s="77"/>
+      <c r="F121" s="77"/>
+      <c r="G121" s="77"/>
+      <c r="H121" s="77"/>
+      <c r="I121" s="77"/>
+      <c r="J121" s="77"/>
+      <c r="K121" s="77"/>
+      <c r="L121" s="77"/>
     </row>
     <row r="122" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B122" s="66"/>
-      <c r="C122" s="66"/>
-      <c r="D122" s="66"/>
-      <c r="E122" s="66"/>
-      <c r="F122" s="66"/>
-      <c r="G122" s="66"/>
-      <c r="H122" s="66"/>
-      <c r="I122" s="66"/>
-      <c r="J122" s="66"/>
-      <c r="K122" s="66"/>
-      <c r="L122" s="66"/>
+      <c r="B122" s="77"/>
+      <c r="C122" s="77"/>
+      <c r="D122" s="77"/>
+      <c r="E122" s="77"/>
+      <c r="F122" s="77"/>
+      <c r="G122" s="77"/>
+      <c r="H122" s="77"/>
+      <c r="I122" s="77"/>
+      <c r="J122" s="77"/>
+      <c r="K122" s="77"/>
+      <c r="L122" s="77"/>
     </row>
     <row r="123" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B123" s="66"/>
-      <c r="C123" s="66"/>
-      <c r="D123" s="66"/>
-      <c r="E123" s="66"/>
-      <c r="F123" s="66"/>
-      <c r="G123" s="66"/>
-      <c r="H123" s="66"/>
-      <c r="I123" s="66"/>
-      <c r="J123" s="66"/>
-      <c r="K123" s="66"/>
-      <c r="L123" s="66"/>
+      <c r="B123" s="77"/>
+      <c r="C123" s="77"/>
+      <c r="D123" s="77"/>
+      <c r="E123" s="77"/>
+      <c r="F123" s="77"/>
+      <c r="G123" s="77"/>
+      <c r="H123" s="77"/>
+      <c r="I123" s="77"/>
+      <c r="J123" s="77"/>
+      <c r="K123" s="77"/>
+      <c r="L123" s="77"/>
     </row>
     <row r="124" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B124" s="66"/>
-      <c r="C124" s="66"/>
-      <c r="D124" s="66"/>
-      <c r="E124" s="66"/>
-      <c r="F124" s="66"/>
-      <c r="G124" s="66"/>
-      <c r="H124" s="66"/>
-      <c r="I124" s="66"/>
-      <c r="J124" s="66"/>
-      <c r="K124" s="66"/>
-      <c r="L124" s="66"/>
+      <c r="B124" s="77"/>
+      <c r="C124" s="77"/>
+      <c r="D124" s="77"/>
+      <c r="E124" s="77"/>
+      <c r="F124" s="77"/>
+      <c r="G124" s="77"/>
+      <c r="H124" s="77"/>
+      <c r="I124" s="77"/>
+      <c r="J124" s="77"/>
+      <c r="K124" s="77"/>
+      <c r="L124" s="77"/>
     </row>
     <row r="125" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B125" s="66"/>
-      <c r="C125" s="66"/>
-      <c r="D125" s="66"/>
-      <c r="E125" s="66"/>
-      <c r="F125" s="66"/>
-      <c r="G125" s="66"/>
-      <c r="H125" s="66"/>
-      <c r="I125" s="66"/>
-      <c r="J125" s="66"/>
-      <c r="K125" s="66"/>
-      <c r="L125" s="66"/>
+      <c r="B125" s="77"/>
+      <c r="C125" s="77"/>
+      <c r="D125" s="77"/>
+      <c r="E125" s="77"/>
+      <c r="F125" s="77"/>
+      <c r="G125" s="77"/>
+      <c r="H125" s="77"/>
+      <c r="I125" s="77"/>
+      <c r="J125" s="77"/>
+      <c r="K125" s="77"/>
+      <c r="L125" s="77"/>
     </row>
     <row r="126" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B126" s="66"/>
-      <c r="C126" s="66"/>
-      <c r="D126" s="66"/>
-      <c r="E126" s="66"/>
-      <c r="F126" s="66"/>
-      <c r="G126" s="66"/>
-      <c r="H126" s="66"/>
-      <c r="I126" s="66"/>
-      <c r="J126" s="66"/>
-      <c r="K126" s="66"/>
-      <c r="L126" s="66"/>
+      <c r="B126" s="77"/>
+      <c r="C126" s="77"/>
+      <c r="D126" s="77"/>
+      <c r="E126" s="77"/>
+      <c r="F126" s="77"/>
+      <c r="G126" s="77"/>
+      <c r="H126" s="77"/>
+      <c r="I126" s="77"/>
+      <c r="J126" s="77"/>
+      <c r="K126" s="77"/>
+      <c r="L126" s="77"/>
     </row>
     <row r="127" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B127" s="66"/>
-      <c r="C127" s="66"/>
-      <c r="D127" s="66"/>
-      <c r="E127" s="66"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="66"/>
-      <c r="J127" s="66"/>
-      <c r="K127" s="66"/>
-      <c r="L127" s="66"/>
+      <c r="B127" s="77"/>
+      <c r="C127" s="77"/>
+      <c r="D127" s="77"/>
+      <c r="E127" s="77"/>
+      <c r="F127" s="77"/>
+      <c r="G127" s="77"/>
+      <c r="H127" s="77"/>
+      <c r="I127" s="77"/>
+      <c r="J127" s="77"/>
+      <c r="K127" s="77"/>
+      <c r="L127" s="77"/>
     </row>
     <row r="128" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B128" s="66"/>
-      <c r="C128" s="66"/>
-      <c r="D128" s="66"/>
-      <c r="E128" s="66"/>
-      <c r="F128" s="66"/>
-      <c r="G128" s="66"/>
-      <c r="H128" s="66"/>
-      <c r="I128" s="66"/>
-      <c r="J128" s="66"/>
-      <c r="K128" s="66"/>
-      <c r="L128" s="66"/>
+      <c r="B128" s="77"/>
+      <c r="C128" s="77"/>
+      <c r="D128" s="77"/>
+      <c r="E128" s="77"/>
+      <c r="F128" s="77"/>
+      <c r="G128" s="77"/>
+      <c r="H128" s="77"/>
+      <c r="I128" s="77"/>
+      <c r="J128" s="77"/>
+      <c r="K128" s="77"/>
+      <c r="L128" s="77"/>
     </row>
     <row r="129" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B129" s="66"/>
-      <c r="C129" s="66"/>
-      <c r="D129" s="66"/>
-      <c r="E129" s="66"/>
-      <c r="F129" s="66"/>
-      <c r="G129" s="66"/>
-      <c r="H129" s="66"/>
-      <c r="I129" s="66"/>
-      <c r="J129" s="66"/>
-      <c r="K129" s="66"/>
-      <c r="L129" s="66"/>
+      <c r="B129" s="77"/>
+      <c r="C129" s="77"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="77"/>
+      <c r="F129" s="77"/>
+      <c r="G129" s="77"/>
+      <c r="H129" s="77"/>
+      <c r="I129" s="77"/>
+      <c r="J129" s="77"/>
+      <c r="K129" s="77"/>
+      <c r="L129" s="77"/>
     </row>
     <row r="130" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B130" s="66"/>
-      <c r="C130" s="66"/>
-      <c r="D130" s="66"/>
-      <c r="E130" s="66"/>
-      <c r="F130" s="66"/>
-      <c r="G130" s="66"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="66"/>
-      <c r="J130" s="66"/>
-      <c r="K130" s="66"/>
-      <c r="L130" s="66"/>
+      <c r="B130" s="77"/>
+      <c r="C130" s="77"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="77"/>
+      <c r="F130" s="77"/>
+      <c r="G130" s="77"/>
+      <c r="H130" s="77"/>
+      <c r="I130" s="77"/>
+      <c r="J130" s="77"/>
+      <c r="K130" s="77"/>
+      <c r="L130" s="77"/>
     </row>
     <row r="131" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B131" s="66"/>
-      <c r="C131" s="66"/>
-      <c r="D131" s="66"/>
-      <c r="E131" s="66"/>
-      <c r="F131" s="66"/>
-      <c r="G131" s="66"/>
-      <c r="H131" s="66"/>
-      <c r="I131" s="66"/>
-      <c r="J131" s="66"/>
-      <c r="K131" s="66"/>
-      <c r="L131" s="66"/>
+      <c r="B131" s="77"/>
+      <c r="C131" s="77"/>
+      <c r="D131" s="77"/>
+      <c r="E131" s="77"/>
+      <c r="F131" s="77"/>
+      <c r="G131" s="77"/>
+      <c r="H131" s="77"/>
+      <c r="I131" s="77"/>
+      <c r="J131" s="77"/>
+      <c r="K131" s="77"/>
+      <c r="L131" s="77"/>
     </row>
     <row r="132" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B132" s="66"/>
-      <c r="C132" s="66"/>
-      <c r="D132" s="66"/>
-      <c r="E132" s="66"/>
-      <c r="F132" s="66"/>
-      <c r="G132" s="66"/>
-      <c r="H132" s="66"/>
-      <c r="I132" s="66"/>
-      <c r="J132" s="66"/>
-      <c r="K132" s="66"/>
-      <c r="L132" s="66"/>
+      <c r="B132" s="77"/>
+      <c r="C132" s="77"/>
+      <c r="D132" s="77"/>
+      <c r="E132" s="77"/>
+      <c r="F132" s="77"/>
+      <c r="G132" s="77"/>
+      <c r="H132" s="77"/>
+      <c r="I132" s="77"/>
+      <c r="J132" s="77"/>
+      <c r="K132" s="77"/>
+      <c r="L132" s="77"/>
     </row>
     <row r="133" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B133" s="66"/>
-      <c r="C133" s="66"/>
-      <c r="D133" s="66"/>
-      <c r="E133" s="66"/>
-      <c r="F133" s="66"/>
-      <c r="G133" s="66"/>
-      <c r="H133" s="66"/>
-      <c r="I133" s="66"/>
-      <c r="J133" s="66"/>
-      <c r="K133" s="66"/>
-      <c r="L133" s="66"/>
+      <c r="B133" s="77"/>
+      <c r="C133" s="77"/>
+      <c r="D133" s="77"/>
+      <c r="E133" s="77"/>
+      <c r="F133" s="77"/>
+      <c r="G133" s="77"/>
+      <c r="H133" s="77"/>
+      <c r="I133" s="77"/>
+      <c r="J133" s="77"/>
+      <c r="K133" s="77"/>
+      <c r="L133" s="77"/>
     </row>
     <row r="134" spans="2:12" ht="24.75" customHeight="1">
       <c r="J134" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K134" s="65" t="str">
+      <c r="K134" s="76" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L134" s="65"/>
+      <c r="L134" s="76"/>
     </row>
     <row r="135" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B135" s="66" t="s">
+      <c r="B135" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="C135" s="66"/>
-      <c r="D135" s="66"/>
-      <c r="E135" s="66"/>
-      <c r="F135" s="66"/>
-      <c r="G135" s="66"/>
-      <c r="H135" s="66"/>
-      <c r="I135" s="66"/>
-      <c r="J135" s="66"/>
-      <c r="K135" s="66"/>
-      <c r="L135" s="66"/>
+      <c r="C135" s="77"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="77"/>
+      <c r="F135" s="77"/>
+      <c r="G135" s="77"/>
+      <c r="H135" s="77"/>
+      <c r="I135" s="77"/>
+      <c r="J135" s="77"/>
+      <c r="K135" s="77"/>
+      <c r="L135" s="77"/>
     </row>
     <row r="136" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B136" s="66"/>
-      <c r="C136" s="66"/>
-      <c r="D136" s="66"/>
-      <c r="E136" s="66"/>
-      <c r="F136" s="66"/>
-      <c r="G136" s="66"/>
-      <c r="H136" s="66"/>
-      <c r="I136" s="66"/>
-      <c r="J136" s="66"/>
-      <c r="K136" s="66"/>
-      <c r="L136" s="66"/>
+      <c r="B136" s="77"/>
+      <c r="C136" s="77"/>
+      <c r="D136" s="77"/>
+      <c r="E136" s="77"/>
+      <c r="F136" s="77"/>
+      <c r="G136" s="77"/>
+      <c r="H136" s="77"/>
+      <c r="I136" s="77"/>
+      <c r="J136" s="77"/>
+      <c r="K136" s="77"/>
+      <c r="L136" s="77"/>
     </row>
     <row r="137" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B137" s="66"/>
-      <c r="C137" s="66"/>
-      <c r="D137" s="66"/>
-      <c r="E137" s="66"/>
-      <c r="F137" s="66"/>
-      <c r="G137" s="66"/>
-      <c r="H137" s="66"/>
-      <c r="I137" s="66"/>
-      <c r="J137" s="66"/>
-      <c r="K137" s="66"/>
-      <c r="L137" s="66"/>
+      <c r="B137" s="77"/>
+      <c r="C137" s="77"/>
+      <c r="D137" s="77"/>
+      <c r="E137" s="77"/>
+      <c r="F137" s="77"/>
+      <c r="G137" s="77"/>
+      <c r="H137" s="77"/>
+      <c r="I137" s="77"/>
+      <c r="J137" s="77"/>
+      <c r="K137" s="77"/>
+      <c r="L137" s="77"/>
     </row>
     <row r="138" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B138" s="66"/>
-      <c r="C138" s="66"/>
-      <c r="D138" s="66"/>
-      <c r="E138" s="66"/>
-      <c r="F138" s="66"/>
-      <c r="G138" s="66"/>
-      <c r="H138" s="66"/>
-      <c r="I138" s="66"/>
-      <c r="J138" s="66"/>
-      <c r="K138" s="66"/>
-      <c r="L138" s="66"/>
+      <c r="B138" s="77"/>
+      <c r="C138" s="77"/>
+      <c r="D138" s="77"/>
+      <c r="E138" s="77"/>
+      <c r="F138" s="77"/>
+      <c r="G138" s="77"/>
+      <c r="H138" s="77"/>
+      <c r="I138" s="77"/>
+      <c r="J138" s="77"/>
+      <c r="K138" s="77"/>
+      <c r="L138" s="77"/>
     </row>
     <row r="139" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B139" s="66"/>
-      <c r="C139" s="66"/>
-      <c r="D139" s="66"/>
-      <c r="E139" s="66"/>
-      <c r="F139" s="66"/>
-      <c r="G139" s="66"/>
-      <c r="H139" s="66"/>
-      <c r="I139" s="66"/>
-      <c r="J139" s="66"/>
-      <c r="K139" s="66"/>
-      <c r="L139" s="66"/>
+      <c r="B139" s="77"/>
+      <c r="C139" s="77"/>
+      <c r="D139" s="77"/>
+      <c r="E139" s="77"/>
+      <c r="F139" s="77"/>
+      <c r="G139" s="77"/>
+      <c r="H139" s="77"/>
+      <c r="I139" s="77"/>
+      <c r="J139" s="77"/>
+      <c r="K139" s="77"/>
+      <c r="L139" s="77"/>
     </row>
     <row r="140" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B140" s="66"/>
-      <c r="C140" s="66"/>
-      <c r="D140" s="66"/>
-      <c r="E140" s="66"/>
-      <c r="F140" s="66"/>
-      <c r="G140" s="66"/>
-      <c r="H140" s="66"/>
-      <c r="I140" s="66"/>
-      <c r="J140" s="66"/>
-      <c r="K140" s="66"/>
-      <c r="L140" s="66"/>
+      <c r="B140" s="77"/>
+      <c r="C140" s="77"/>
+      <c r="D140" s="77"/>
+      <c r="E140" s="77"/>
+      <c r="F140" s="77"/>
+      <c r="G140" s="77"/>
+      <c r="H140" s="77"/>
+      <c r="I140" s="77"/>
+      <c r="J140" s="77"/>
+      <c r="K140" s="77"/>
+      <c r="L140" s="77"/>
     </row>
     <row r="141" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B141" s="66"/>
-      <c r="C141" s="66"/>
-      <c r="D141" s="66"/>
-      <c r="E141" s="66"/>
-      <c r="F141" s="66"/>
-      <c r="G141" s="66"/>
-      <c r="H141" s="66"/>
-      <c r="I141" s="66"/>
-      <c r="J141" s="66"/>
-      <c r="K141" s="66"/>
-      <c r="L141" s="66"/>
+      <c r="B141" s="77"/>
+      <c r="C141" s="77"/>
+      <c r="D141" s="77"/>
+      <c r="E141" s="77"/>
+      <c r="F141" s="77"/>
+      <c r="G141" s="77"/>
+      <c r="H141" s="77"/>
+      <c r="I141" s="77"/>
+      <c r="J141" s="77"/>
+      <c r="K141" s="77"/>
+      <c r="L141" s="77"/>
     </row>
     <row r="142" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B142" s="66"/>
-      <c r="C142" s="66"/>
-      <c r="D142" s="66"/>
-      <c r="E142" s="66"/>
-      <c r="F142" s="66"/>
-      <c r="G142" s="66"/>
-      <c r="H142" s="66"/>
-      <c r="I142" s="66"/>
-      <c r="J142" s="66"/>
-      <c r="K142" s="66"/>
-      <c r="L142" s="66"/>
+      <c r="B142" s="77"/>
+      <c r="C142" s="77"/>
+      <c r="D142" s="77"/>
+      <c r="E142" s="77"/>
+      <c r="F142" s="77"/>
+      <c r="G142" s="77"/>
+      <c r="H142" s="77"/>
+      <c r="I142" s="77"/>
+      <c r="J142" s="77"/>
+      <c r="K142" s="77"/>
+      <c r="L142" s="77"/>
     </row>
     <row r="143" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B143" s="66"/>
-      <c r="C143" s="66"/>
-      <c r="D143" s="66"/>
-      <c r="E143" s="66"/>
-      <c r="F143" s="66"/>
-      <c r="G143" s="66"/>
-      <c r="H143" s="66"/>
-      <c r="I143" s="66"/>
-      <c r="J143" s="66"/>
-      <c r="K143" s="66"/>
-      <c r="L143" s="66"/>
+      <c r="B143" s="77"/>
+      <c r="C143" s="77"/>
+      <c r="D143" s="77"/>
+      <c r="E143" s="77"/>
+      <c r="F143" s="77"/>
+      <c r="G143" s="77"/>
+      <c r="H143" s="77"/>
+      <c r="I143" s="77"/>
+      <c r="J143" s="77"/>
+      <c r="K143" s="77"/>
+      <c r="L143" s="77"/>
     </row>
     <row r="144" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B144" s="66"/>
-      <c r="C144" s="66"/>
-      <c r="D144" s="66"/>
-      <c r="E144" s="66"/>
-      <c r="F144" s="66"/>
-      <c r="G144" s="66"/>
-      <c r="H144" s="66"/>
-      <c r="I144" s="66"/>
-      <c r="J144" s="66"/>
-      <c r="K144" s="66"/>
-      <c r="L144" s="66"/>
+      <c r="B144" s="77"/>
+      <c r="C144" s="77"/>
+      <c r="D144" s="77"/>
+      <c r="E144" s="77"/>
+      <c r="F144" s="77"/>
+      <c r="G144" s="77"/>
+      <c r="H144" s="77"/>
+      <c r="I144" s="77"/>
+      <c r="J144" s="77"/>
+      <c r="K144" s="77"/>
+      <c r="L144" s="77"/>
     </row>
     <row r="145" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B145" s="66"/>
-      <c r="C145" s="66"/>
-      <c r="D145" s="66"/>
-      <c r="E145" s="66"/>
-      <c r="F145" s="66"/>
-      <c r="G145" s="66"/>
-      <c r="H145" s="66"/>
-      <c r="I145" s="66"/>
-      <c r="J145" s="66"/>
-      <c r="K145" s="66"/>
-      <c r="L145" s="66"/>
+      <c r="B145" s="77"/>
+      <c r="C145" s="77"/>
+      <c r="D145" s="77"/>
+      <c r="E145" s="77"/>
+      <c r="F145" s="77"/>
+      <c r="G145" s="77"/>
+      <c r="H145" s="77"/>
+      <c r="I145" s="77"/>
+      <c r="J145" s="77"/>
+      <c r="K145" s="77"/>
+      <c r="L145" s="77"/>
     </row>
     <row r="146" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B146" s="66"/>
-      <c r="C146" s="66"/>
-      <c r="D146" s="66"/>
-      <c r="E146" s="66"/>
-      <c r="F146" s="66"/>
-      <c r="G146" s="66"/>
-      <c r="H146" s="66"/>
-      <c r="I146" s="66"/>
-      <c r="J146" s="66"/>
-      <c r="K146" s="66"/>
-      <c r="L146" s="66"/>
+      <c r="B146" s="77"/>
+      <c r="C146" s="77"/>
+      <c r="D146" s="77"/>
+      <c r="E146" s="77"/>
+      <c r="F146" s="77"/>
+      <c r="G146" s="77"/>
+      <c r="H146" s="77"/>
+      <c r="I146" s="77"/>
+      <c r="J146" s="77"/>
+      <c r="K146" s="77"/>
+      <c r="L146" s="77"/>
     </row>
     <row r="147" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B147" s="66"/>
-      <c r="C147" s="66"/>
-      <c r="D147" s="66"/>
-      <c r="E147" s="66"/>
-      <c r="F147" s="66"/>
-      <c r="G147" s="66"/>
-      <c r="H147" s="66"/>
-      <c r="I147" s="66"/>
-      <c r="J147" s="66"/>
-      <c r="K147" s="66"/>
-      <c r="L147" s="66"/>
+      <c r="B147" s="77"/>
+      <c r="C147" s="77"/>
+      <c r="D147" s="77"/>
+      <c r="E147" s="77"/>
+      <c r="F147" s="77"/>
+      <c r="G147" s="77"/>
+      <c r="H147" s="77"/>
+      <c r="I147" s="77"/>
+      <c r="J147" s="77"/>
+      <c r="K147" s="77"/>
+      <c r="L147" s="77"/>
     </row>
     <row r="148" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B148" s="66"/>
-      <c r="C148" s="66"/>
-      <c r="D148" s="66"/>
-      <c r="E148" s="66"/>
-      <c r="F148" s="66"/>
-      <c r="G148" s="66"/>
-      <c r="H148" s="66"/>
-      <c r="I148" s="66"/>
-      <c r="J148" s="66"/>
-      <c r="K148" s="66"/>
-      <c r="L148" s="66"/>
+      <c r="B148" s="77"/>
+      <c r="C148" s="77"/>
+      <c r="D148" s="77"/>
+      <c r="E148" s="77"/>
+      <c r="F148" s="77"/>
+      <c r="G148" s="77"/>
+      <c r="H148" s="77"/>
+      <c r="I148" s="77"/>
+      <c r="J148" s="77"/>
+      <c r="K148" s="77"/>
+      <c r="L148" s="77"/>
     </row>
     <row r="149" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B149" s="66"/>
-      <c r="C149" s="66"/>
-      <c r="D149" s="66"/>
-      <c r="E149" s="66"/>
-      <c r="F149" s="66"/>
-      <c r="G149" s="66"/>
-      <c r="H149" s="66"/>
-      <c r="I149" s="66"/>
-      <c r="J149" s="66"/>
-      <c r="K149" s="66"/>
-      <c r="L149" s="66"/>
+      <c r="B149" s="77"/>
+      <c r="C149" s="77"/>
+      <c r="D149" s="77"/>
+      <c r="E149" s="77"/>
+      <c r="F149" s="77"/>
+      <c r="G149" s="77"/>
+      <c r="H149" s="77"/>
+      <c r="I149" s="77"/>
+      <c r="J149" s="77"/>
+      <c r="K149" s="77"/>
+      <c r="L149" s="77"/>
     </row>
     <row r="150" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B150" s="66"/>
-      <c r="C150" s="66"/>
-      <c r="D150" s="66"/>
-      <c r="E150" s="66"/>
-      <c r="F150" s="66"/>
-      <c r="G150" s="66"/>
-      <c r="H150" s="66"/>
-      <c r="I150" s="66"/>
-      <c r="J150" s="66"/>
-      <c r="K150" s="66"/>
-      <c r="L150" s="66"/>
+      <c r="B150" s="77"/>
+      <c r="C150" s="77"/>
+      <c r="D150" s="77"/>
+      <c r="E150" s="77"/>
+      <c r="F150" s="77"/>
+      <c r="G150" s="77"/>
+      <c r="H150" s="77"/>
+      <c r="I150" s="77"/>
+      <c r="J150" s="77"/>
+      <c r="K150" s="77"/>
+      <c r="L150" s="77"/>
     </row>
     <row r="151" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B151" s="66"/>
-      <c r="C151" s="66"/>
-      <c r="D151" s="66"/>
-      <c r="E151" s="66"/>
-      <c r="F151" s="66"/>
-      <c r="G151" s="66"/>
-      <c r="H151" s="66"/>
-      <c r="I151" s="66"/>
-      <c r="J151" s="66"/>
-      <c r="K151" s="66"/>
-      <c r="L151" s="66"/>
+      <c r="B151" s="77"/>
+      <c r="C151" s="77"/>
+      <c r="D151" s="77"/>
+      <c r="E151" s="77"/>
+      <c r="F151" s="77"/>
+      <c r="G151" s="77"/>
+      <c r="H151" s="77"/>
+      <c r="I151" s="77"/>
+      <c r="J151" s="77"/>
+      <c r="K151" s="77"/>
+      <c r="L151" s="77"/>
     </row>
     <row r="152" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B152" s="66"/>
-      <c r="C152" s="66"/>
-      <c r="D152" s="66"/>
-      <c r="E152" s="66"/>
-      <c r="F152" s="66"/>
-      <c r="G152" s="66"/>
-      <c r="H152" s="66"/>
-      <c r="I152" s="66"/>
-      <c r="J152" s="66"/>
-      <c r="K152" s="66"/>
-      <c r="L152" s="66"/>
+      <c r="B152" s="77"/>
+      <c r="C152" s="77"/>
+      <c r="D152" s="77"/>
+      <c r="E152" s="77"/>
+      <c r="F152" s="77"/>
+      <c r="G152" s="77"/>
+      <c r="H152" s="77"/>
+      <c r="I152" s="77"/>
+      <c r="J152" s="77"/>
+      <c r="K152" s="77"/>
+      <c r="L152" s="77"/>
     </row>
     <row r="153" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B153" s="66"/>
-      <c r="C153" s="66"/>
-      <c r="D153" s="66"/>
-      <c r="E153" s="66"/>
-      <c r="F153" s="66"/>
-      <c r="G153" s="66"/>
-      <c r="H153" s="66"/>
-      <c r="I153" s="66"/>
-      <c r="J153" s="66"/>
-      <c r="K153" s="66"/>
-      <c r="L153" s="66"/>
+      <c r="B153" s="77"/>
+      <c r="C153" s="77"/>
+      <c r="D153" s="77"/>
+      <c r="E153" s="77"/>
+      <c r="F153" s="77"/>
+      <c r="G153" s="77"/>
+      <c r="H153" s="77"/>
+      <c r="I153" s="77"/>
+      <c r="J153" s="77"/>
+      <c r="K153" s="77"/>
+      <c r="L153" s="77"/>
     </row>
     <row r="154" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B154" s="66"/>
-      <c r="C154" s="66"/>
-      <c r="D154" s="66"/>
-      <c r="E154" s="66"/>
-      <c r="F154" s="66"/>
-      <c r="G154" s="66"/>
-      <c r="H154" s="66"/>
-      <c r="I154" s="66"/>
-      <c r="J154" s="66"/>
-      <c r="K154" s="66"/>
-      <c r="L154" s="66"/>
+      <c r="B154" s="77"/>
+      <c r="C154" s="77"/>
+      <c r="D154" s="77"/>
+      <c r="E154" s="77"/>
+      <c r="F154" s="77"/>
+      <c r="G154" s="77"/>
+      <c r="H154" s="77"/>
+      <c r="I154" s="77"/>
+      <c r="J154" s="77"/>
+      <c r="K154" s="77"/>
+      <c r="L154" s="77"/>
     </row>
     <row r="155" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B155" s="66"/>
-      <c r="C155" s="66"/>
-      <c r="D155" s="66"/>
-      <c r="E155" s="66"/>
-      <c r="F155" s="66"/>
-      <c r="G155" s="66"/>
-      <c r="H155" s="66"/>
-      <c r="I155" s="66"/>
-      <c r="J155" s="66"/>
-      <c r="K155" s="66"/>
-      <c r="L155" s="66"/>
+      <c r="B155" s="77"/>
+      <c r="C155" s="77"/>
+      <c r="D155" s="77"/>
+      <c r="E155" s="77"/>
+      <c r="F155" s="77"/>
+      <c r="G155" s="77"/>
+      <c r="H155" s="77"/>
+      <c r="I155" s="77"/>
+      <c r="J155" s="77"/>
+      <c r="K155" s="77"/>
+      <c r="L155" s="77"/>
     </row>
     <row r="156" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B156" s="66"/>
-      <c r="C156" s="66"/>
-      <c r="D156" s="66"/>
-      <c r="E156" s="66"/>
-      <c r="F156" s="66"/>
-      <c r="G156" s="66"/>
-      <c r="H156" s="66"/>
-      <c r="I156" s="66"/>
-      <c r="J156" s="66"/>
-      <c r="K156" s="66"/>
-      <c r="L156" s="66"/>
+      <c r="B156" s="77"/>
+      <c r="C156" s="77"/>
+      <c r="D156" s="77"/>
+      <c r="E156" s="77"/>
+      <c r="F156" s="77"/>
+      <c r="G156" s="77"/>
+      <c r="H156" s="77"/>
+      <c r="I156" s="77"/>
+      <c r="J156" s="77"/>
+      <c r="K156" s="77"/>
+      <c r="L156" s="77"/>
     </row>
     <row r="157" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B157" s="66"/>
-      <c r="C157" s="66"/>
-      <c r="D157" s="66"/>
-      <c r="E157" s="66"/>
-      <c r="F157" s="66"/>
-      <c r="G157" s="66"/>
-      <c r="H157" s="66"/>
-      <c r="I157" s="66"/>
-      <c r="J157" s="66"/>
-      <c r="K157" s="66"/>
-      <c r="L157" s="66"/>
+      <c r="B157" s="77"/>
+      <c r="C157" s="77"/>
+      <c r="D157" s="77"/>
+      <c r="E157" s="77"/>
+      <c r="F157" s="77"/>
+      <c r="G157" s="77"/>
+      <c r="H157" s="77"/>
+      <c r="I157" s="77"/>
+      <c r="J157" s="77"/>
+      <c r="K157" s="77"/>
+      <c r="L157" s="77"/>
     </row>
     <row r="158" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B158" s="66"/>
-      <c r="C158" s="66"/>
-      <c r="D158" s="66"/>
-      <c r="E158" s="66"/>
-      <c r="F158" s="66"/>
-      <c r="G158" s="66"/>
-      <c r="H158" s="66"/>
-      <c r="I158" s="66"/>
-      <c r="J158" s="66"/>
-      <c r="K158" s="66"/>
-      <c r="L158" s="66"/>
+      <c r="B158" s="77"/>
+      <c r="C158" s="77"/>
+      <c r="D158" s="77"/>
+      <c r="E158" s="77"/>
+      <c r="F158" s="77"/>
+      <c r="G158" s="77"/>
+      <c r="H158" s="77"/>
+      <c r="I158" s="77"/>
+      <c r="J158" s="77"/>
+      <c r="K158" s="77"/>
+      <c r="L158" s="77"/>
     </row>
     <row r="159" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B159" s="66"/>
-      <c r="C159" s="66"/>
-      <c r="D159" s="66"/>
-      <c r="E159" s="66"/>
-      <c r="F159" s="66"/>
-      <c r="G159" s="66"/>
-      <c r="H159" s="66"/>
-      <c r="I159" s="66"/>
-      <c r="J159" s="66"/>
-      <c r="K159" s="66"/>
-      <c r="L159" s="66"/>
+      <c r="B159" s="77"/>
+      <c r="C159" s="77"/>
+      <c r="D159" s="77"/>
+      <c r="E159" s="77"/>
+      <c r="F159" s="77"/>
+      <c r="G159" s="77"/>
+      <c r="H159" s="77"/>
+      <c r="I159" s="77"/>
+      <c r="J159" s="77"/>
+      <c r="K159" s="77"/>
+      <c r="L159" s="77"/>
     </row>
     <row r="160" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B160" s="66"/>
-      <c r="C160" s="66"/>
-      <c r="D160" s="66"/>
-      <c r="E160" s="66"/>
-      <c r="F160" s="66"/>
-      <c r="G160" s="66"/>
-      <c r="H160" s="66"/>
-      <c r="I160" s="66"/>
-      <c r="J160" s="66"/>
-      <c r="K160" s="66"/>
-      <c r="L160" s="66"/>
+      <c r="B160" s="77"/>
+      <c r="C160" s="77"/>
+      <c r="D160" s="77"/>
+      <c r="E160" s="77"/>
+      <c r="F160" s="77"/>
+      <c r="G160" s="77"/>
+      <c r="H160" s="77"/>
+      <c r="I160" s="77"/>
+      <c r="J160" s="77"/>
+      <c r="K160" s="77"/>
+      <c r="L160" s="77"/>
     </row>
     <row r="161" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B161" s="66"/>
-      <c r="C161" s="66"/>
-      <c r="D161" s="66"/>
-      <c r="E161" s="66"/>
-      <c r="F161" s="66"/>
-      <c r="G161" s="66"/>
-      <c r="H161" s="66"/>
-      <c r="I161" s="66"/>
-      <c r="J161" s="66"/>
-      <c r="K161" s="66"/>
-      <c r="L161" s="66"/>
+      <c r="B161" s="77"/>
+      <c r="C161" s="77"/>
+      <c r="D161" s="77"/>
+      <c r="E161" s="77"/>
+      <c r="F161" s="77"/>
+      <c r="G161" s="77"/>
+      <c r="H161" s="77"/>
+      <c r="I161" s="77"/>
+      <c r="J161" s="77"/>
+      <c r="K161" s="77"/>
+      <c r="L161" s="77"/>
     </row>
     <row r="162" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B162" s="66"/>
-      <c r="C162" s="66"/>
-      <c r="D162" s="66"/>
-      <c r="E162" s="66"/>
-      <c r="F162" s="66"/>
-      <c r="G162" s="66"/>
-      <c r="H162" s="66"/>
-      <c r="I162" s="66"/>
-      <c r="J162" s="66"/>
-      <c r="K162" s="66"/>
-      <c r="L162" s="66"/>
+      <c r="B162" s="77"/>
+      <c r="C162" s="77"/>
+      <c r="D162" s="77"/>
+      <c r="E162" s="77"/>
+      <c r="F162" s="77"/>
+      <c r="G162" s="77"/>
+      <c r="H162" s="77"/>
+      <c r="I162" s="77"/>
+      <c r="J162" s="77"/>
+      <c r="K162" s="77"/>
+      <c r="L162" s="77"/>
     </row>
     <row r="163" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B163" s="66"/>
-      <c r="C163" s="66"/>
-      <c r="D163" s="66"/>
-      <c r="E163" s="66"/>
-      <c r="F163" s="66"/>
-      <c r="G163" s="66"/>
-      <c r="H163" s="66"/>
-      <c r="I163" s="66"/>
-      <c r="J163" s="66"/>
-      <c r="K163" s="66"/>
-      <c r="L163" s="66"/>
+      <c r="B163" s="77"/>
+      <c r="C163" s="77"/>
+      <c r="D163" s="77"/>
+      <c r="E163" s="77"/>
+      <c r="F163" s="77"/>
+      <c r="G163" s="77"/>
+      <c r="H163" s="77"/>
+      <c r="I163" s="77"/>
+      <c r="J163" s="77"/>
+      <c r="K163" s="77"/>
+      <c r="L163" s="77"/>
     </row>
     <row r="164" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B164" s="66"/>
-      <c r="C164" s="66"/>
-      <c r="D164" s="66"/>
-      <c r="E164" s="66"/>
-      <c r="F164" s="66"/>
-      <c r="G164" s="66"/>
-      <c r="H164" s="66"/>
-      <c r="I164" s="66"/>
-      <c r="J164" s="66"/>
-      <c r="K164" s="66"/>
-      <c r="L164" s="66"/>
+      <c r="B164" s="77"/>
+      <c r="C164" s="77"/>
+      <c r="D164" s="77"/>
+      <c r="E164" s="77"/>
+      <c r="F164" s="77"/>
+      <c r="G164" s="77"/>
+      <c r="H164" s="77"/>
+      <c r="I164" s="77"/>
+      <c r="J164" s="77"/>
+      <c r="K164" s="77"/>
+      <c r="L164" s="77"/>
     </row>
     <row r="165" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B165" s="66"/>
-      <c r="C165" s="66"/>
-      <c r="D165" s="66"/>
-      <c r="E165" s="66"/>
-      <c r="F165" s="66"/>
-      <c r="G165" s="66"/>
-      <c r="H165" s="66"/>
-      <c r="I165" s="66"/>
-      <c r="J165" s="66"/>
-      <c r="K165" s="66"/>
-      <c r="L165" s="66"/>
+      <c r="B165" s="77"/>
+      <c r="C165" s="77"/>
+      <c r="D165" s="77"/>
+      <c r="E165" s="77"/>
+      <c r="F165" s="77"/>
+      <c r="G165" s="77"/>
+      <c r="H165" s="77"/>
+      <c r="I165" s="77"/>
+      <c r="J165" s="77"/>
+      <c r="K165" s="77"/>
+      <c r="L165" s="77"/>
     </row>
     <row r="166" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B166" s="66"/>
-      <c r="C166" s="66"/>
-      <c r="D166" s="66"/>
-      <c r="E166" s="66"/>
-      <c r="F166" s="66"/>
-      <c r="G166" s="66"/>
-      <c r="H166" s="66"/>
-      <c r="I166" s="66"/>
-      <c r="J166" s="66"/>
-      <c r="K166" s="66"/>
-      <c r="L166" s="66"/>
+      <c r="B166" s="77"/>
+      <c r="C166" s="77"/>
+      <c r="D166" s="77"/>
+      <c r="E166" s="77"/>
+      <c r="F166" s="77"/>
+      <c r="G166" s="77"/>
+      <c r="H166" s="77"/>
+      <c r="I166" s="77"/>
+      <c r="J166" s="77"/>
+      <c r="K166" s="77"/>
+      <c r="L166" s="77"/>
     </row>
     <row r="167" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B167" s="66"/>
-      <c r="C167" s="66"/>
-      <c r="D167" s="66"/>
-      <c r="E167" s="66"/>
-      <c r="F167" s="66"/>
-      <c r="G167" s="66"/>
-      <c r="H167" s="66"/>
-      <c r="I167" s="66"/>
-      <c r="J167" s="66"/>
-      <c r="K167" s="66"/>
-      <c r="L167" s="66"/>
+      <c r="B167" s="77"/>
+      <c r="C167" s="77"/>
+      <c r="D167" s="77"/>
+      <c r="E167" s="77"/>
+      <c r="F167" s="77"/>
+      <c r="G167" s="77"/>
+      <c r="H167" s="77"/>
+      <c r="I167" s="77"/>
+      <c r="J167" s="77"/>
+      <c r="K167" s="77"/>
+      <c r="L167" s="77"/>
     </row>
     <row r="168" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B168" s="66"/>
-      <c r="C168" s="66"/>
-      <c r="D168" s="66"/>
-      <c r="E168" s="66"/>
-      <c r="F168" s="66"/>
-      <c r="G168" s="66"/>
-      <c r="H168" s="66"/>
-      <c r="I168" s="66"/>
-      <c r="J168" s="66"/>
-      <c r="K168" s="66"/>
-      <c r="L168" s="66"/>
+      <c r="B168" s="77"/>
+      <c r="C168" s="77"/>
+      <c r="D168" s="77"/>
+      <c r="E168" s="77"/>
+      <c r="F168" s="77"/>
+      <c r="G168" s="77"/>
+      <c r="H168" s="77"/>
+      <c r="I168" s="77"/>
+      <c r="J168" s="77"/>
+      <c r="K168" s="77"/>
+      <c r="L168" s="77"/>
     </row>
     <row r="169" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B169" s="66"/>
-      <c r="C169" s="66"/>
-      <c r="D169" s="66"/>
-      <c r="E169" s="66"/>
-      <c r="F169" s="66"/>
-      <c r="G169" s="66"/>
-      <c r="H169" s="66"/>
-      <c r="I169" s="66"/>
-      <c r="J169" s="66"/>
-      <c r="K169" s="66"/>
-      <c r="L169" s="66"/>
+      <c r="B169" s="77"/>
+      <c r="C169" s="77"/>
+      <c r="D169" s="77"/>
+      <c r="E169" s="77"/>
+      <c r="F169" s="77"/>
+      <c r="G169" s="77"/>
+      <c r="H169" s="77"/>
+      <c r="I169" s="77"/>
+      <c r="J169" s="77"/>
+      <c r="K169" s="77"/>
+      <c r="L169" s="77"/>
     </row>
     <row r="170" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B170" s="66"/>
-      <c r="C170" s="66"/>
-      <c r="D170" s="66"/>
-      <c r="E170" s="66"/>
-      <c r="F170" s="66"/>
-      <c r="G170" s="66"/>
-      <c r="H170" s="66"/>
-      <c r="I170" s="66"/>
-      <c r="J170" s="66"/>
-      <c r="K170" s="66"/>
-      <c r="L170" s="66"/>
+      <c r="B170" s="77"/>
+      <c r="C170" s="77"/>
+      <c r="D170" s="77"/>
+      <c r="E170" s="77"/>
+      <c r="F170" s="77"/>
+      <c r="G170" s="77"/>
+      <c r="H170" s="77"/>
+      <c r="I170" s="77"/>
+      <c r="J170" s="77"/>
+      <c r="K170" s="77"/>
+      <c r="L170" s="77"/>
     </row>
     <row r="171" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B171" s="66"/>
-      <c r="C171" s="66"/>
-      <c r="D171" s="66"/>
-      <c r="E171" s="66"/>
-      <c r="F171" s="66"/>
-      <c r="G171" s="66"/>
-      <c r="H171" s="66"/>
-      <c r="I171" s="66"/>
-      <c r="J171" s="66"/>
-      <c r="K171" s="66"/>
-      <c r="L171" s="66"/>
+      <c r="B171" s="77"/>
+      <c r="C171" s="77"/>
+      <c r="D171" s="77"/>
+      <c r="E171" s="77"/>
+      <c r="F171" s="77"/>
+      <c r="G171" s="77"/>
+      <c r="H171" s="77"/>
+      <c r="I171" s="77"/>
+      <c r="J171" s="77"/>
+      <c r="K171" s="77"/>
+      <c r="L171" s="77"/>
     </row>
     <row r="172" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B172" s="66"/>
-      <c r="C172" s="66"/>
-      <c r="D172" s="66"/>
-      <c r="E172" s="66"/>
-      <c r="F172" s="66"/>
-      <c r="G172" s="66"/>
-      <c r="H172" s="66"/>
-      <c r="I172" s="66"/>
-      <c r="J172" s="66"/>
-      <c r="K172" s="66"/>
-      <c r="L172" s="66"/>
+      <c r="B172" s="77"/>
+      <c r="C172" s="77"/>
+      <c r="D172" s="77"/>
+      <c r="E172" s="77"/>
+      <c r="F172" s="77"/>
+      <c r="G172" s="77"/>
+      <c r="H172" s="77"/>
+      <c r="I172" s="77"/>
+      <c r="J172" s="77"/>
+      <c r="K172" s="77"/>
+      <c r="L172" s="77"/>
     </row>
     <row r="173" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B173" s="66"/>
-      <c r="C173" s="66"/>
-      <c r="D173" s="66"/>
-      <c r="E173" s="66"/>
-      <c r="F173" s="66"/>
-      <c r="G173" s="66"/>
-      <c r="H173" s="66"/>
-      <c r="I173" s="66"/>
-      <c r="J173" s="66"/>
-      <c r="K173" s="66"/>
-      <c r="L173" s="66"/>
+      <c r="B173" s="77"/>
+      <c r="C173" s="77"/>
+      <c r="D173" s="77"/>
+      <c r="E173" s="77"/>
+      <c r="F173" s="77"/>
+      <c r="G173" s="77"/>
+      <c r="H173" s="77"/>
+      <c r="I173" s="77"/>
+      <c r="J173" s="77"/>
+      <c r="K173" s="77"/>
+      <c r="L173" s="77"/>
     </row>
     <row r="174" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B174" s="66"/>
-      <c r="C174" s="66"/>
-      <c r="D174" s="66"/>
-      <c r="E174" s="66"/>
-      <c r="F174" s="66"/>
-      <c r="G174" s="66"/>
-      <c r="H174" s="66"/>
-      <c r="I174" s="66"/>
-      <c r="J174" s="66"/>
-      <c r="K174" s="66"/>
-      <c r="L174" s="66"/>
+      <c r="B174" s="77"/>
+      <c r="C174" s="77"/>
+      <c r="D174" s="77"/>
+      <c r="E174" s="77"/>
+      <c r="F174" s="77"/>
+      <c r="G174" s="77"/>
+      <c r="H174" s="77"/>
+      <c r="I174" s="77"/>
+      <c r="J174" s="77"/>
+      <c r="K174" s="77"/>
+      <c r="L174" s="77"/>
     </row>
     <row r="175" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B175" s="66"/>
-      <c r="C175" s="66"/>
-      <c r="D175" s="66"/>
-      <c r="E175" s="66"/>
-      <c r="F175" s="66"/>
-      <c r="G175" s="66"/>
-      <c r="H175" s="66"/>
-      <c r="I175" s="66"/>
-      <c r="J175" s="66"/>
-      <c r="K175" s="66"/>
-      <c r="L175" s="66"/>
+      <c r="B175" s="77"/>
+      <c r="C175" s="77"/>
+      <c r="D175" s="77"/>
+      <c r="E175" s="77"/>
+      <c r="F175" s="77"/>
+      <c r="G175" s="77"/>
+      <c r="H175" s="77"/>
+      <c r="I175" s="77"/>
+      <c r="J175" s="77"/>
+      <c r="K175" s="77"/>
+      <c r="L175" s="77"/>
     </row>
     <row r="176" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B176" s="66"/>
-      <c r="C176" s="66"/>
-      <c r="D176" s="66"/>
-      <c r="E176" s="66"/>
-      <c r="F176" s="66"/>
-      <c r="G176" s="66"/>
-      <c r="H176" s="66"/>
-      <c r="I176" s="66"/>
-      <c r="J176" s="66"/>
-      <c r="K176" s="66"/>
-      <c r="L176" s="66"/>
+      <c r="B176" s="77"/>
+      <c r="C176" s="77"/>
+      <c r="D176" s="77"/>
+      <c r="E176" s="77"/>
+      <c r="F176" s="77"/>
+      <c r="G176" s="77"/>
+      <c r="H176" s="77"/>
+      <c r="I176" s="77"/>
+      <c r="J176" s="77"/>
+      <c r="K176" s="77"/>
+      <c r="L176" s="77"/>
     </row>
     <row r="177" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B177" s="66"/>
-      <c r="C177" s="66"/>
-      <c r="D177" s="66"/>
-      <c r="E177" s="66"/>
-      <c r="F177" s="66"/>
-      <c r="G177" s="66"/>
-      <c r="H177" s="66"/>
-      <c r="I177" s="66"/>
-      <c r="J177" s="66"/>
-      <c r="K177" s="66"/>
-      <c r="L177" s="66"/>
+      <c r="B177" s="77"/>
+      <c r="C177" s="77"/>
+      <c r="D177" s="77"/>
+      <c r="E177" s="77"/>
+      <c r="F177" s="77"/>
+      <c r="G177" s="77"/>
+      <c r="H177" s="77"/>
+      <c r="I177" s="77"/>
+      <c r="J177" s="77"/>
+      <c r="K177" s="77"/>
+      <c r="L177" s="77"/>
     </row>
     <row r="178" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B178" s="66" t="s">
+      <c r="B178" s="77" t="s">
         <v>94</v>
       </c>
-      <c r="C178" s="66"/>
-      <c r="D178" s="68" t="str">
+      <c r="C178" s="77"/>
+      <c r="D178" s="79" t="str">
         <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E178" s="68"/>
+      <c r="E178" s="79"/>
       <c r="F178" s="44"/>
       <c r="G178" s="44"/>
       <c r="H178" s="44"/>
@@ -5090,11 +5093,11 @@
       <c r="J208" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="K208" s="65" t="str">
+      <c r="K208" s="76" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L208" s="65"/>
+      <c r="L208" s="76"/>
     </row>
     <row r="209" spans="2:12" ht="17.25">
       <c r="B209" s="27" t="s">
@@ -5118,19 +5121,19 @@
     </row>
     <row r="212" spans="2:12" ht="14.25">
       <c r="B212" s="23"/>
-      <c r="C212" s="72" t="str">
+      <c r="C212" s="62" t="str">
         <f>記入!B10</f>
         <v>${cv.pjnamejapanese}</v>
       </c>
-      <c r="D212" s="72"/>
-      <c r="E212" s="72"/>
-      <c r="F212" s="72"/>
-      <c r="G212" s="72"/>
-      <c r="H212" s="72"/>
-      <c r="I212" s="72"/>
-      <c r="J212" s="72"/>
-      <c r="K212" s="72"/>
-      <c r="L212" s="72"/>
+      <c r="D212" s="62"/>
+      <c r="E212" s="62"/>
+      <c r="F212" s="62"/>
+      <c r="G212" s="62"/>
+      <c r="H212" s="62"/>
+      <c r="I212" s="62"/>
+      <c r="J212" s="62"/>
+      <c r="K212" s="62"/>
+      <c r="L212" s="62"/>
     </row>
     <row r="213" spans="2:12" ht="14.25">
       <c r="B213" s="23"/>
@@ -5165,11 +5168,11 @@
       <c r="C215" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D215" s="73" t="str">
+      <c r="D215" s="63" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E215" s="74"/>
+      <c r="E215" s="64"/>
       <c r="F215" s="24"/>
       <c r="G215" s="24"/>
       <c r="H215" s="24"/>
@@ -5183,11 +5186,11 @@
       <c r="C216" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D216" s="73" t="str">
+      <c r="D216" s="63" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E216" s="74"/>
+      <c r="E216" s="64"/>
       <c r="F216" s="24"/>
       <c r="G216" s="24"/>
       <c r="H216" s="24"/>
@@ -5250,18 +5253,18 @@
     </row>
     <row r="222" spans="2:12" ht="14.25">
       <c r="B222" s="23"/>
-      <c r="C222" s="62" t="s">
+      <c r="C222" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="D222" s="62"/>
-      <c r="E222" s="62" t="s">
+      <c r="D222" s="74"/>
+      <c r="E222" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="F222" s="62"/>
-      <c r="G222" s="62" t="s">
+      <c r="F222" s="74"/>
+      <c r="G222" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="H222" s="62"/>
+      <c r="H222" s="74"/>
       <c r="I222" s="23"/>
       <c r="J222" s="23"/>
       <c r="K222" s="23"/>
@@ -5269,21 +5272,21 @@
     </row>
     <row r="223" spans="2:12" ht="14.25">
       <c r="B223" s="23"/>
-      <c r="C223" s="64" t="str">
+      <c r="C223" s="71" t="str">
         <f>IF(E223="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="D223" s="64"/>
-      <c r="E223" s="62" t="str">
+      <c r="D223" s="71"/>
+      <c r="E223" s="74" t="str">
         <f>IF(記入!A29="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F223" s="62"/>
-      <c r="G223" s="63" t="str">
+      <c r="F223" s="74"/>
+      <c r="G223" s="80" t="str">
         <f>IF(記入!B29="","-",記入!B29)</f>
         <v>${ba1[0].deliverydate}</v>
       </c>
-      <c r="H223" s="63"/>
+      <c r="H223" s="80"/>
       <c r="I223" s="23"/>
       <c r="J223" s="23"/>
       <c r="K223" s="23"/>
@@ -5291,21 +5294,21 @@
     </row>
     <row r="224" spans="2:12" ht="14.25">
       <c r="B224" s="23"/>
-      <c r="C224" s="64" t="str">
+      <c r="C224" s="71" t="str">
         <f>IF(E224="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="D224" s="64"/>
-      <c r="E224" s="62" t="str">
+      <c r="D224" s="71"/>
+      <c r="E224" s="74" t="str">
         <f>IF(記入!A30="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F224" s="62"/>
-      <c r="G224" s="63" t="str">
+      <c r="F224" s="74"/>
+      <c r="G224" s="80" t="str">
         <f>IF(記入!B30="","-",記入!B30)</f>
         <v>${ba1[1].deliverydate}</v>
       </c>
-      <c r="H224" s="63"/>
+      <c r="H224" s="80"/>
       <c r="I224" s="23"/>
       <c r="J224" s="23"/>
       <c r="K224" s="23"/>
@@ -5313,21 +5316,21 @@
     </row>
     <row r="225" spans="2:12" ht="14.25">
       <c r="B225" s="23"/>
-      <c r="C225" s="64" t="str">
+      <c r="C225" s="71" t="str">
         <f>IF(E225="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="D225" s="64"/>
-      <c r="E225" s="62" t="str">
+      <c r="D225" s="71"/>
+      <c r="E225" s="74" t="str">
         <f>IF(記入!A31="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F225" s="62"/>
-      <c r="G225" s="63" t="str">
+      <c r="F225" s="74"/>
+      <c r="G225" s="80" t="str">
         <f>IF(記入!B31="","-",記入!B31)</f>
         <v>${ba1[2].deliverydate}</v>
       </c>
-      <c r="H225" s="63"/>
+      <c r="H225" s="80"/>
       <c r="I225" s="23"/>
       <c r="J225" s="23"/>
       <c r="K225" s="23"/>
@@ -5335,21 +5338,21 @@
     </row>
     <row r="226" spans="2:12" ht="14.25">
       <c r="B226" s="23"/>
-      <c r="C226" s="64" t="str">
+      <c r="C226" s="71" t="str">
         <f>IF(E226="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="D226" s="64"/>
-      <c r="E226" s="62" t="str">
+      <c r="D226" s="71"/>
+      <c r="E226" s="74" t="str">
         <f>IF(記入!A32="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F226" s="62"/>
-      <c r="G226" s="63" t="str">
+      <c r="F226" s="74"/>
+      <c r="G226" s="80" t="str">
         <f>IF(記入!B32="","-",記入!B32)</f>
         <v>${ba1[3].deliverydate}</v>
       </c>
-      <c r="H226" s="63"/>
+      <c r="H226" s="80"/>
       <c r="I226" s="23"/>
       <c r="J226" s="23"/>
       <c r="K226" s="23"/>
@@ -5385,131 +5388,131 @@
     </row>
     <row r="229" spans="2:12" ht="14.25">
       <c r="B229" s="23"/>
-      <c r="C229" s="62" t="s">
+      <c r="C229" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D229" s="62"/>
-      <c r="E229" s="62" t="s">
+      <c r="D229" s="74"/>
+      <c r="E229" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="F229" s="62"/>
-      <c r="G229" s="62" t="s">
+      <c r="F229" s="74"/>
+      <c r="G229" s="74" t="s">
         <v>50</v>
       </c>
-      <c r="H229" s="62"/>
-      <c r="I229" s="62" t="str">
+      <c r="H229" s="74"/>
+      <c r="I229" s="74" t="str">
         <f>"金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額(${cv.currencyposition})</v>
       </c>
-      <c r="J229" s="62"/>
-      <c r="K229" s="62" t="str">
+      <c r="J229" s="74"/>
+      <c r="K229" s="74" t="str">
         <f>"金額総計"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額総計(${cv.currencyposition})</v>
       </c>
-      <c r="L229" s="62"/>
+      <c r="L229" s="74"/>
     </row>
     <row r="230" spans="2:12" ht="14.25">
       <c r="B230" s="23"/>
-      <c r="C230" s="64" t="str">
+      <c r="C230" s="71" t="str">
         <f>IF(E230="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="D230" s="64"/>
-      <c r="E230" s="71" t="str">
+      <c r="D230" s="71"/>
+      <c r="E230" s="72" t="str">
         <f>IF(記入!D29="","-",記入!D29)</f>
         <v>${ba1[0].claimdate}</v>
       </c>
-      <c r="F230" s="70"/>
-      <c r="G230" s="71" t="str">
+      <c r="F230" s="73"/>
+      <c r="G230" s="72" t="str">
         <f>IF(記入!E29="","-",記入!E29)</f>
         <v>${ba1[0].supportdate}</v>
       </c>
-      <c r="H230" s="70"/>
-      <c r="I230" s="69" t="str">
+      <c r="H230" s="73"/>
+      <c r="I230" s="75" t="str">
         <f>IF(記入!F29="","-",記入!F29)</f>
         <v>${ba1[0].claimamount}</v>
       </c>
-      <c r="J230" s="70"/>
-      <c r="K230" s="75" t="str">
+      <c r="J230" s="73"/>
+      <c r="K230" s="65" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="L230" s="76"/>
+      <c r="L230" s="66"/>
     </row>
     <row r="231" spans="2:12" ht="14.25" customHeight="1">
       <c r="B231" s="23"/>
-      <c r="C231" s="64" t="str">
+      <c r="C231" s="71" t="str">
         <f>IF(E231="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="D231" s="64"/>
-      <c r="E231" s="71" t="str">
+      <c r="D231" s="71"/>
+      <c r="E231" s="72" t="str">
         <f>IF(記入!D30="","-",記入!D30)</f>
         <v>${ba1[1].claimdate}</v>
       </c>
-      <c r="F231" s="70"/>
-      <c r="G231" s="71" t="str">
+      <c r="F231" s="73"/>
+      <c r="G231" s="72" t="str">
         <f>IF(記入!E30="","-",記入!E30)</f>
         <v>${ba1[1].supportdate}</v>
       </c>
-      <c r="H231" s="70"/>
-      <c r="I231" s="69" t="str">
+      <c r="H231" s="73"/>
+      <c r="I231" s="75" t="str">
         <f>IF(記入!F30="","-",記入!F30)</f>
         <v>${ba1[1].claimamount}</v>
       </c>
-      <c r="J231" s="70"/>
-      <c r="K231" s="77"/>
-      <c r="L231" s="78"/>
+      <c r="J231" s="73"/>
+      <c r="K231" s="67"/>
+      <c r="L231" s="68"/>
     </row>
     <row r="232" spans="2:12" ht="14.25" customHeight="1">
       <c r="B232" s="23"/>
-      <c r="C232" s="64" t="str">
+      <c r="C232" s="71" t="str">
         <f>IF(E232="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="D232" s="64"/>
-      <c r="E232" s="71" t="str">
+      <c r="D232" s="71"/>
+      <c r="E232" s="72" t="str">
         <f>IF(記入!D31="","-",記入!D31)</f>
         <v>${ba1[2].claimdate}</v>
       </c>
-      <c r="F232" s="70"/>
-      <c r="G232" s="71" t="str">
+      <c r="F232" s="73"/>
+      <c r="G232" s="72" t="str">
         <f>IF(記入!E31="","-",記入!E31)</f>
         <v>${ba1[2].supportdate}</v>
       </c>
-      <c r="H232" s="70"/>
-      <c r="I232" s="69" t="str">
+      <c r="H232" s="73"/>
+      <c r="I232" s="75" t="str">
         <f>IF(記入!F31="","-",記入!F31)</f>
         <v>${ba1[2].claimamount}</v>
       </c>
-      <c r="J232" s="70"/>
-      <c r="K232" s="77"/>
-      <c r="L232" s="78"/>
+      <c r="J232" s="73"/>
+      <c r="K232" s="67"/>
+      <c r="L232" s="68"/>
     </row>
     <row r="233" spans="2:12" ht="14.25" customHeight="1">
       <c r="B233" s="23"/>
-      <c r="C233" s="64" t="str">
+      <c r="C233" s="71" t="str">
         <f>IF(E233="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="D233" s="64"/>
-      <c r="E233" s="71" t="str">
+      <c r="D233" s="71"/>
+      <c r="E233" s="72" t="str">
         <f>IF(記入!D32="","-",記入!D32)</f>
         <v>${ba1[3].claimdate}</v>
       </c>
-      <c r="F233" s="70"/>
-      <c r="G233" s="71" t="str">
+      <c r="F233" s="73"/>
+      <c r="G233" s="72" t="str">
         <f>IF(記入!E32="","-",記入!E32)</f>
         <v>${ba1[3].supportdate}</v>
       </c>
-      <c r="H233" s="70"/>
-      <c r="I233" s="69" t="str">
+      <c r="H233" s="73"/>
+      <c r="I233" s="75" t="str">
         <f>IF(記入!F32="","-",記入!F32)</f>
         <v>${ba1[3].claimamount}</v>
       </c>
-      <c r="J233" s="70"/>
-      <c r="K233" s="79"/>
-      <c r="L233" s="80"/>
+      <c r="J233" s="73"/>
+      <c r="K233" s="69"/>
+      <c r="L233" s="70"/>
     </row>
     <row r="234" spans="2:12" ht="14.25">
       <c r="B234" s="23"/>
@@ -5531,6 +5534,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="G225:H225"/>
+    <mergeCell ref="G226:H226"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B69:L133"/>
+    <mergeCell ref="B11:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="B135:L177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="I230:J230"/>
+    <mergeCell ref="I231:J231"/>
+    <mergeCell ref="I232:J232"/>
+    <mergeCell ref="I233:J233"/>
+    <mergeCell ref="K229:L229"/>
+    <mergeCell ref="I229:J229"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="G230:H230"/>
+    <mergeCell ref="E226:F226"/>
     <mergeCell ref="C212:L212"/>
     <mergeCell ref="D215:E215"/>
     <mergeCell ref="D216:E216"/>
@@ -5547,41 +5585,6 @@
     <mergeCell ref="E230:F230"/>
     <mergeCell ref="E231:F231"/>
     <mergeCell ref="E232:F232"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="G230:H230"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="I230:J230"/>
-    <mergeCell ref="I231:J231"/>
-    <mergeCell ref="I232:J232"/>
-    <mergeCell ref="I233:J233"/>
-    <mergeCell ref="K229:L229"/>
-    <mergeCell ref="I229:J229"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B69:L133"/>
-    <mergeCell ref="B11:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K134:L134"/>
-    <mergeCell ref="B135:L177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C222:D222"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="G225:H225"/>
-    <mergeCell ref="G226:H226"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5624,18 +5627,18 @@
       <c r="J2" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="K2" s="95" t="str">
+      <c r="K2" s="83" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="95"/>
+      <c r="L2" s="83"/>
     </row>
     <row r="3" spans="1:12" ht="20.25">
-      <c r="F3" s="96" t="s">
+      <c r="F3" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="32" t="s">
@@ -5691,32 +5694,32 @@
       <c r="L7" s="35"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="B8" s="97" t="s">
+      <c r="B8" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="97"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="97"/>
-      <c r="K8" s="97"/>
-      <c r="L8" s="97"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="G8" s="85"/>
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="97"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="97"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="B10" s="34"/>
@@ -5732,2186 +5735,2186 @@
       <c r="L10" s="34"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="97" t="s">
+      <c r="B11" s="85" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="97"/>
-      <c r="L12" s="97"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
+      <c r="F12" s="85"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="85"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="97"/>
-      <c r="L13" s="97"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
+      <c r="F13" s="85"/>
+      <c r="G13" s="85"/>
+      <c r="H13" s="85"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="97"/>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="97"/>
-      <c r="H14" s="97"/>
-      <c r="I14" s="97"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="97"/>
-      <c r="L14" s="97"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="85"/>
+      <c r="H14" s="85"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="97"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="97"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="85"/>
+      <c r="G15" s="85"/>
+      <c r="H15" s="85"/>
+      <c r="I15" s="85"/>
+      <c r="J15" s="85"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="97"/>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="97"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
+      <c r="G16" s="85"/>
+      <c r="H16" s="85"/>
+      <c r="I16" s="85"/>
+      <c r="J16" s="85"/>
+      <c r="K16" s="85"/>
+      <c r="L16" s="85"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="97"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="85"/>
+      <c r="I17" s="85"/>
+      <c r="J17" s="85"/>
+      <c r="K17" s="85"/>
+      <c r="L17" s="85"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="97"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="97"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="85"/>
+      <c r="G18" s="85"/>
+      <c r="H18" s="85"/>
+      <c r="I18" s="85"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="85"/>
+      <c r="L18" s="85"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="97"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="97"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="97"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="97"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="85"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="85"/>
+      <c r="L20" s="85"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="97"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="85"/>
+      <c r="L21" s="85"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="97"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
+      <c r="L22" s="85"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="97"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="97"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="97"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="97"/>
-      <c r="L23" s="97"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
+      <c r="J23" s="85"/>
+      <c r="K23" s="85"/>
+      <c r="L23" s="85"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="97"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="97"/>
-      <c r="L24" s="97"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
+      <c r="L24" s="85"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="97"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="97"/>
-      <c r="F25" s="97"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="97"/>
-      <c r="L25" s="97"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="85"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
+      <c r="J25" s="85"/>
+      <c r="K25" s="85"/>
+      <c r="L25" s="85"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="97"/>
-      <c r="C26" s="97"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="97"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="97"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="85"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="85"/>
+      <c r="L26" s="85"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="97"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="97"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
+      <c r="F27" s="85"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="85"/>
+      <c r="L27" s="85"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="97"/>
-      <c r="C28" s="97"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="97"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
+      <c r="F28" s="85"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="85"/>
+      <c r="L28" s="85"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="97"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="97"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="97"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
+      <c r="F29" s="85"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="97"/>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="97"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="97"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="97"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="97"/>
-      <c r="L31" s="97"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
+      <c r="F31" s="85"/>
+      <c r="G31" s="85"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="97"/>
-      <c r="C32" s="97"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="97"/>
-      <c r="G32" s="97"/>
-      <c r="H32" s="97"/>
-      <c r="I32" s="97"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="97"/>
-      <c r="L32" s="97"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
+      <c r="J32" s="85"/>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="97"/>
-      <c r="L33" s="97"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
+      <c r="E33" s="85"/>
+      <c r="F33" s="85"/>
+      <c r="G33" s="85"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
+      <c r="J33" s="85"/>
+      <c r="K33" s="85"/>
+      <c r="L33" s="85"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
-      <c r="I34" s="97"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="97"/>
-      <c r="L34" s="97"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="85"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
+      <c r="J34" s="85"/>
+      <c r="K34" s="85"/>
+      <c r="L34" s="85"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
-      <c r="I35" s="97"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="97"/>
-      <c r="L35" s="97"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="85"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="85"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
+      <c r="J35" s="85"/>
+      <c r="K35" s="85"/>
+      <c r="L35" s="85"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="97"/>
-      <c r="L36" s="97"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="85"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="85"/>
+      <c r="H36" s="85"/>
+      <c r="I36" s="85"/>
+      <c r="J36" s="85"/>
+      <c r="K36" s="85"/>
+      <c r="L36" s="85"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="97"/>
-      <c r="L37" s="97"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
+      <c r="L37" s="85"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="97"/>
-      <c r="K38" s="97"/>
-      <c r="L38" s="97"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="85"/>
+      <c r="G38" s="85"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
+      <c r="J38" s="85"/>
+      <c r="K38" s="85"/>
+      <c r="L38" s="85"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="97"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="85"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
+      <c r="F39" s="85"/>
+      <c r="G39" s="85"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85"/>
+      <c r="L39" s="85"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="97"/>
-      <c r="C40" s="97"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="97"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
-      <c r="I40" s="97"/>
-      <c r="J40" s="97"/>
-      <c r="K40" s="97"/>
-      <c r="L40" s="97"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="85"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="85"/>
+      <c r="G40" s="85"/>
+      <c r="H40" s="85"/>
+      <c r="I40" s="85"/>
+      <c r="J40" s="85"/>
+      <c r="K40" s="85"/>
+      <c r="L40" s="85"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="85"/>
+      <c r="F41" s="85"/>
+      <c r="G41" s="85"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
+      <c r="J41" s="85"/>
+      <c r="K41" s="85"/>
+      <c r="L41" s="85"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="85"/>
+      <c r="G42" s="85"/>
+      <c r="H42" s="85"/>
+      <c r="I42" s="85"/>
+      <c r="J42" s="85"/>
+      <c r="K42" s="85"/>
+      <c r="L42" s="85"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="97"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="85"/>
+      <c r="D43" s="85"/>
+      <c r="E43" s="85"/>
+      <c r="F43" s="85"/>
+      <c r="G43" s="85"/>
+      <c r="H43" s="85"/>
+      <c r="I43" s="85"/>
+      <c r="J43" s="85"/>
+      <c r="K43" s="85"/>
+      <c r="L43" s="85"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="85"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="85"/>
+      <c r="F44" s="85"/>
+      <c r="G44" s="85"/>
+      <c r="H44" s="85"/>
+      <c r="I44" s="85"/>
+      <c r="J44" s="85"/>
+      <c r="K44" s="85"/>
+      <c r="L44" s="85"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="85"/>
+      <c r="F45" s="85"/>
+      <c r="G45" s="85"/>
+      <c r="H45" s="85"/>
+      <c r="I45" s="85"/>
+      <c r="J45" s="85"/>
+      <c r="K45" s="85"/>
+      <c r="L45" s="85"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
-      <c r="L46" s="97"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="85"/>
+      <c r="G46" s="85"/>
+      <c r="H46" s="85"/>
+      <c r="I46" s="85"/>
+      <c r="J46" s="85"/>
+      <c r="K46" s="85"/>
+      <c r="L46" s="85"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="97"/>
-      <c r="C47" s="97"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="97"/>
-      <c r="F47" s="97"/>
-      <c r="G47" s="97"/>
-      <c r="H47" s="97"/>
-      <c r="I47" s="97"/>
-      <c r="J47" s="97"/>
-      <c r="K47" s="97"/>
-      <c r="L47" s="97"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="85"/>
+      <c r="G47" s="85"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
+      <c r="J47" s="85"/>
+      <c r="K47" s="85"/>
+      <c r="L47" s="85"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="97"/>
-      <c r="C48" s="97"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="97"/>
-      <c r="F48" s="97"/>
-      <c r="G48" s="97"/>
-      <c r="H48" s="97"/>
-      <c r="I48" s="97"/>
-      <c r="J48" s="97"/>
-      <c r="K48" s="97"/>
-      <c r="L48" s="97"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
+      <c r="F48" s="85"/>
+      <c r="G48" s="85"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
+      <c r="L48" s="85"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="97"/>
-      <c r="C49" s="97"/>
-      <c r="D49" s="97"/>
-      <c r="E49" s="97"/>
-      <c r="F49" s="97"/>
-      <c r="G49" s="97"/>
-      <c r="H49" s="97"/>
-      <c r="I49" s="97"/>
-      <c r="J49" s="97"/>
-      <c r="K49" s="97"/>
-      <c r="L49" s="97"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="85"/>
+      <c r="D49" s="85"/>
+      <c r="E49" s="85"/>
+      <c r="F49" s="85"/>
+      <c r="G49" s="85"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
+      <c r="J49" s="85"/>
+      <c r="K49" s="85"/>
+      <c r="L49" s="85"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="97"/>
-      <c r="C50" s="97"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="97"/>
-      <c r="F50" s="97"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="97"/>
-      <c r="K50" s="97"/>
-      <c r="L50" s="97"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="85"/>
+      <c r="G50" s="85"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="85"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="97"/>
-      <c r="C51" s="97"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="97"/>
-      <c r="F51" s="97"/>
-      <c r="G51" s="97"/>
-      <c r="H51" s="97"/>
-      <c r="I51" s="97"/>
-      <c r="J51" s="97"/>
-      <c r="K51" s="97"/>
-      <c r="L51" s="97"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="85"/>
+      <c r="D51" s="85"/>
+      <c r="E51" s="85"/>
+      <c r="F51" s="85"/>
+      <c r="G51" s="85"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="85"/>
+      <c r="J51" s="85"/>
+      <c r="K51" s="85"/>
+      <c r="L51" s="85"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="97"/>
-      <c r="C52" s="97"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="97"/>
-      <c r="F52" s="97"/>
-      <c r="G52" s="97"/>
-      <c r="H52" s="97"/>
-      <c r="I52" s="97"/>
-      <c r="J52" s="97"/>
-      <c r="K52" s="97"/>
-      <c r="L52" s="97"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="85"/>
+      <c r="D52" s="85"/>
+      <c r="E52" s="85"/>
+      <c r="F52" s="85"/>
+      <c r="G52" s="85"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
+      <c r="J52" s="85"/>
+      <c r="K52" s="85"/>
+      <c r="L52" s="85"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="97"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="97"/>
-      <c r="F53" s="97"/>
-      <c r="G53" s="97"/>
-      <c r="H53" s="97"/>
-      <c r="I53" s="97"/>
-      <c r="J53" s="97"/>
-      <c r="K53" s="97"/>
-      <c r="L53" s="97"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="85"/>
+      <c r="D53" s="85"/>
+      <c r="E53" s="85"/>
+      <c r="F53" s="85"/>
+      <c r="G53" s="85"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="85"/>
+      <c r="J53" s="85"/>
+      <c r="K53" s="85"/>
+      <c r="L53" s="85"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="97"/>
-      <c r="C54" s="97"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="97"/>
-      <c r="L54" s="97"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="85"/>
+      <c r="G54" s="85"/>
+      <c r="H54" s="85"/>
+      <c r="I54" s="85"/>
+      <c r="J54" s="85"/>
+      <c r="K54" s="85"/>
+      <c r="L54" s="85"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="97"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="97"/>
-      <c r="F55" s="97"/>
-      <c r="G55" s="97"/>
-      <c r="H55" s="97"/>
-      <c r="I55" s="97"/>
-      <c r="J55" s="97"/>
-      <c r="K55" s="97"/>
-      <c r="L55" s="97"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="85"/>
+      <c r="D55" s="85"/>
+      <c r="E55" s="85"/>
+      <c r="F55" s="85"/>
+      <c r="G55" s="85"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
+      <c r="J55" s="85"/>
+      <c r="K55" s="85"/>
+      <c r="L55" s="85"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="97"/>
-      <c r="C56" s="97"/>
-      <c r="D56" s="97"/>
-      <c r="E56" s="97"/>
-      <c r="F56" s="97"/>
-      <c r="G56" s="97"/>
-      <c r="H56" s="97"/>
-      <c r="I56" s="97"/>
-      <c r="J56" s="97"/>
-      <c r="K56" s="97"/>
-      <c r="L56" s="97"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="85"/>
+      <c r="D56" s="85"/>
+      <c r="E56" s="85"/>
+      <c r="F56" s="85"/>
+      <c r="G56" s="85"/>
+      <c r="H56" s="85"/>
+      <c r="I56" s="85"/>
+      <c r="J56" s="85"/>
+      <c r="K56" s="85"/>
+      <c r="L56" s="85"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="97"/>
-      <c r="C57" s="97"/>
-      <c r="D57" s="97"/>
-      <c r="E57" s="97"/>
-      <c r="F57" s="97"/>
-      <c r="G57" s="97"/>
-      <c r="H57" s="97"/>
-      <c r="I57" s="97"/>
-      <c r="J57" s="97"/>
-      <c r="K57" s="97"/>
-      <c r="L57" s="97"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="85"/>
+      <c r="E57" s="85"/>
+      <c r="F57" s="85"/>
+      <c r="G57" s="85"/>
+      <c r="H57" s="85"/>
+      <c r="I57" s="85"/>
+      <c r="J57" s="85"/>
+      <c r="K57" s="85"/>
+      <c r="L57" s="85"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B58" s="97"/>
-      <c r="C58" s="97"/>
-      <c r="D58" s="97"/>
-      <c r="E58" s="97"/>
-      <c r="F58" s="97"/>
-      <c r="G58" s="97"/>
-      <c r="H58" s="97"/>
-      <c r="I58" s="97"/>
-      <c r="J58" s="97"/>
-      <c r="K58" s="97"/>
-      <c r="L58" s="97"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="85"/>
+      <c r="G58" s="85"/>
+      <c r="H58" s="85"/>
+      <c r="I58" s="85"/>
+      <c r="J58" s="85"/>
+      <c r="K58" s="85"/>
+      <c r="L58" s="85"/>
     </row>
     <row r="59" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B59" s="97"/>
-      <c r="C59" s="97"/>
-      <c r="D59" s="97"/>
-      <c r="E59" s="97"/>
-      <c r="F59" s="97"/>
-      <c r="G59" s="97"/>
-      <c r="H59" s="97"/>
-      <c r="I59" s="97"/>
-      <c r="J59" s="97"/>
-      <c r="K59" s="97"/>
-      <c r="L59" s="97"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="85"/>
+      <c r="G59" s="85"/>
+      <c r="H59" s="85"/>
+      <c r="I59" s="85"/>
+      <c r="J59" s="85"/>
+      <c r="K59" s="85"/>
+      <c r="L59" s="85"/>
     </row>
     <row r="60" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B60" s="97"/>
-      <c r="C60" s="97"/>
-      <c r="D60" s="97"/>
-      <c r="E60" s="97"/>
-      <c r="F60" s="97"/>
-      <c r="G60" s="97"/>
-      <c r="H60" s="97"/>
-      <c r="I60" s="97"/>
-      <c r="J60" s="97"/>
-      <c r="K60" s="97"/>
-      <c r="L60" s="97"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="85"/>
+      <c r="D60" s="85"/>
+      <c r="E60" s="85"/>
+      <c r="F60" s="85"/>
+      <c r="G60" s="85"/>
+      <c r="H60" s="85"/>
+      <c r="I60" s="85"/>
+      <c r="J60" s="85"/>
+      <c r="K60" s="85"/>
+      <c r="L60" s="85"/>
     </row>
     <row r="61" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B61" s="97"/>
-      <c r="C61" s="97"/>
-      <c r="D61" s="97"/>
-      <c r="E61" s="97"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="97"/>
-      <c r="H61" s="97"/>
-      <c r="I61" s="97"/>
-      <c r="J61" s="97"/>
-      <c r="K61" s="97"/>
-      <c r="L61" s="97"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="85"/>
+      <c r="D61" s="85"/>
+      <c r="E61" s="85"/>
+      <c r="F61" s="85"/>
+      <c r="G61" s="85"/>
+      <c r="H61" s="85"/>
+      <c r="I61" s="85"/>
+      <c r="J61" s="85"/>
+      <c r="K61" s="85"/>
+      <c r="L61" s="85"/>
     </row>
     <row r="62" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B62" s="97"/>
-      <c r="C62" s="97"/>
-      <c r="D62" s="97"/>
-      <c r="E62" s="97"/>
-      <c r="F62" s="97"/>
-      <c r="G62" s="97"/>
-      <c r="H62" s="97"/>
-      <c r="I62" s="97"/>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97"/>
-      <c r="L62" s="97"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="85"/>
+      <c r="G62" s="85"/>
+      <c r="H62" s="85"/>
+      <c r="I62" s="85"/>
+      <c r="J62" s="85"/>
+      <c r="K62" s="85"/>
+      <c r="L62" s="85"/>
     </row>
     <row r="63" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B63" s="97"/>
-      <c r="C63" s="97"/>
-      <c r="D63" s="97"/>
-      <c r="E63" s="97"/>
-      <c r="F63" s="97"/>
-      <c r="G63" s="97"/>
-      <c r="H63" s="97"/>
-      <c r="I63" s="97"/>
-      <c r="J63" s="97"/>
-      <c r="K63" s="97"/>
-      <c r="L63" s="97"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="85"/>
+      <c r="D63" s="85"/>
+      <c r="E63" s="85"/>
+      <c r="F63" s="85"/>
+      <c r="G63" s="85"/>
+      <c r="H63" s="85"/>
+      <c r="I63" s="85"/>
+      <c r="J63" s="85"/>
+      <c r="K63" s="85"/>
+      <c r="L63" s="85"/>
     </row>
     <row r="64" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B64" s="97"/>
-      <c r="C64" s="97"/>
-      <c r="D64" s="97"/>
-      <c r="E64" s="97"/>
-      <c r="F64" s="97"/>
-      <c r="G64" s="97"/>
-      <c r="H64" s="97"/>
-      <c r="I64" s="97"/>
-      <c r="J64" s="97"/>
-      <c r="K64" s="97"/>
-      <c r="L64" s="97"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="85"/>
+      <c r="D64" s="85"/>
+      <c r="E64" s="85"/>
+      <c r="F64" s="85"/>
+      <c r="G64" s="85"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
+      <c r="J64" s="85"/>
+      <c r="K64" s="85"/>
+      <c r="L64" s="85"/>
     </row>
     <row r="65" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B65" s="97"/>
-      <c r="C65" s="97"/>
-      <c r="D65" s="97"/>
-      <c r="E65" s="97"/>
-      <c r="F65" s="97"/>
-      <c r="G65" s="97"/>
-      <c r="H65" s="97"/>
-      <c r="I65" s="97"/>
-      <c r="J65" s="97"/>
-      <c r="K65" s="97"/>
-      <c r="L65" s="97"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="85"/>
+      <c r="D65" s="85"/>
+      <c r="E65" s="85"/>
+      <c r="F65" s="85"/>
+      <c r="G65" s="85"/>
+      <c r="H65" s="85"/>
+      <c r="I65" s="85"/>
+      <c r="J65" s="85"/>
+      <c r="K65" s="85"/>
+      <c r="L65" s="85"/>
     </row>
     <row r="66" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B66" s="97"/>
-      <c r="C66" s="97"/>
-      <c r="D66" s="97"/>
-      <c r="E66" s="97"/>
-      <c r="F66" s="97"/>
-      <c r="G66" s="97"/>
-      <c r="H66" s="97"/>
-      <c r="I66" s="97"/>
-      <c r="J66" s="97"/>
-      <c r="K66" s="97"/>
-      <c r="L66" s="97"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="85"/>
+      <c r="G66" s="85"/>
+      <c r="H66" s="85"/>
+      <c r="I66" s="85"/>
+      <c r="J66" s="85"/>
+      <c r="K66" s="85"/>
+      <c r="L66" s="85"/>
     </row>
     <row r="67" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B67" s="97"/>
-      <c r="C67" s="97"/>
-      <c r="D67" s="97"/>
-      <c r="E67" s="97"/>
-      <c r="F67" s="97"/>
-      <c r="G67" s="97"/>
-      <c r="H67" s="97"/>
-      <c r="I67" s="97"/>
-      <c r="J67" s="97"/>
-      <c r="K67" s="97"/>
-      <c r="L67" s="97"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="85"/>
+      <c r="D67" s="85"/>
+      <c r="E67" s="85"/>
+      <c r="F67" s="85"/>
+      <c r="G67" s="85"/>
+      <c r="H67" s="85"/>
+      <c r="I67" s="85"/>
+      <c r="J67" s="85"/>
+      <c r="K67" s="85"/>
+      <c r="L67" s="85"/>
     </row>
     <row r="68" spans="2:12" ht="24.75" customHeight="1">
       <c r="J68" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="K68" s="95" t="str">
+      <c r="K68" s="83" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L68" s="95"/>
+      <c r="L68" s="83"/>
     </row>
     <row r="69" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B69" s="97" t="s">
+      <c r="B69" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="97"/>
-      <c r="D69" s="97"/>
-      <c r="E69" s="97"/>
-      <c r="F69" s="97"/>
-      <c r="G69" s="97"/>
-      <c r="H69" s="97"/>
-      <c r="I69" s="97"/>
-      <c r="J69" s="97"/>
-      <c r="K69" s="97"/>
-      <c r="L69" s="97"/>
+      <c r="C69" s="85"/>
+      <c r="D69" s="85"/>
+      <c r="E69" s="85"/>
+      <c r="F69" s="85"/>
+      <c r="G69" s="85"/>
+      <c r="H69" s="85"/>
+      <c r="I69" s="85"/>
+      <c r="J69" s="85"/>
+      <c r="K69" s="85"/>
+      <c r="L69" s="85"/>
     </row>
     <row r="70" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B70" s="97"/>
-      <c r="C70" s="97"/>
-      <c r="D70" s="97"/>
-      <c r="E70" s="97"/>
-      <c r="F70" s="97"/>
-      <c r="G70" s="97"/>
-      <c r="H70" s="97"/>
-      <c r="I70" s="97"/>
-      <c r="J70" s="97"/>
-      <c r="K70" s="97"/>
-      <c r="L70" s="97"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="85"/>
+      <c r="G70" s="85"/>
+      <c r="H70" s="85"/>
+      <c r="I70" s="85"/>
+      <c r="J70" s="85"/>
+      <c r="K70" s="85"/>
+      <c r="L70" s="85"/>
     </row>
     <row r="71" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B71" s="97"/>
-      <c r="C71" s="97"/>
-      <c r="D71" s="97"/>
-      <c r="E71" s="97"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="97"/>
-      <c r="H71" s="97"/>
-      <c r="I71" s="97"/>
-      <c r="J71" s="97"/>
-      <c r="K71" s="97"/>
-      <c r="L71" s="97"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="85"/>
+      <c r="D71" s="85"/>
+      <c r="E71" s="85"/>
+      <c r="F71" s="85"/>
+      <c r="G71" s="85"/>
+      <c r="H71" s="85"/>
+      <c r="I71" s="85"/>
+      <c r="J71" s="85"/>
+      <c r="K71" s="85"/>
+      <c r="L71" s="85"/>
     </row>
     <row r="72" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B72" s="97"/>
-      <c r="C72" s="97"/>
-      <c r="D72" s="97"/>
-      <c r="E72" s="97"/>
-      <c r="F72" s="97"/>
-      <c r="G72" s="97"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="97"/>
-      <c r="J72" s="97"/>
-      <c r="K72" s="97"/>
-      <c r="L72" s="97"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="85"/>
+      <c r="D72" s="85"/>
+      <c r="E72" s="85"/>
+      <c r="F72" s="85"/>
+      <c r="G72" s="85"/>
+      <c r="H72" s="85"/>
+      <c r="I72" s="85"/>
+      <c r="J72" s="85"/>
+      <c r="K72" s="85"/>
+      <c r="L72" s="85"/>
     </row>
     <row r="73" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B73" s="97"/>
-      <c r="C73" s="97"/>
-      <c r="D73" s="97"/>
-      <c r="E73" s="97"/>
-      <c r="F73" s="97"/>
-      <c r="G73" s="97"/>
-      <c r="H73" s="97"/>
-      <c r="I73" s="97"/>
-      <c r="J73" s="97"/>
-      <c r="K73" s="97"/>
-      <c r="L73" s="97"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="85"/>
+      <c r="D73" s="85"/>
+      <c r="E73" s="85"/>
+      <c r="F73" s="85"/>
+      <c r="G73" s="85"/>
+      <c r="H73" s="85"/>
+      <c r="I73" s="85"/>
+      <c r="J73" s="85"/>
+      <c r="K73" s="85"/>
+      <c r="L73" s="85"/>
     </row>
     <row r="74" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B74" s="97"/>
-      <c r="C74" s="97"/>
-      <c r="D74" s="97"/>
-      <c r="E74" s="97"/>
-      <c r="F74" s="97"/>
-      <c r="G74" s="97"/>
-      <c r="H74" s="97"/>
-      <c r="I74" s="97"/>
-      <c r="J74" s="97"/>
-      <c r="K74" s="97"/>
-      <c r="L74" s="97"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="85"/>
+      <c r="G74" s="85"/>
+      <c r="H74" s="85"/>
+      <c r="I74" s="85"/>
+      <c r="J74" s="85"/>
+      <c r="K74" s="85"/>
+      <c r="L74" s="85"/>
     </row>
     <row r="75" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B75" s="97"/>
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
-      <c r="E75" s="97"/>
-      <c r="F75" s="97"/>
-      <c r="G75" s="97"/>
-      <c r="H75" s="97"/>
-      <c r="I75" s="97"/>
-      <c r="J75" s="97"/>
-      <c r="K75" s="97"/>
-      <c r="L75" s="97"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="85"/>
+      <c r="D75" s="85"/>
+      <c r="E75" s="85"/>
+      <c r="F75" s="85"/>
+      <c r="G75" s="85"/>
+      <c r="H75" s="85"/>
+      <c r="I75" s="85"/>
+      <c r="J75" s="85"/>
+      <c r="K75" s="85"/>
+      <c r="L75" s="85"/>
     </row>
     <row r="76" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B76" s="97"/>
-      <c r="C76" s="97"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="97"/>
-      <c r="G76" s="97"/>
-      <c r="H76" s="97"/>
-      <c r="I76" s="97"/>
-      <c r="J76" s="97"/>
-      <c r="K76" s="97"/>
-      <c r="L76" s="97"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="85"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="85"/>
+      <c r="I76" s="85"/>
+      <c r="J76" s="85"/>
+      <c r="K76" s="85"/>
+      <c r="L76" s="85"/>
     </row>
     <row r="77" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B77" s="97"/>
-      <c r="C77" s="97"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="97"/>
-      <c r="G77" s="97"/>
-      <c r="H77" s="97"/>
-      <c r="I77" s="97"/>
-      <c r="J77" s="97"/>
-      <c r="K77" s="97"/>
-      <c r="L77" s="97"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="85"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="85"/>
+      <c r="I77" s="85"/>
+      <c r="J77" s="85"/>
+      <c r="K77" s="85"/>
+      <c r="L77" s="85"/>
     </row>
     <row r="78" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B78" s="97"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
-      <c r="G78" s="97"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="97"/>
-      <c r="K78" s="97"/>
-      <c r="L78" s="97"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="85"/>
+      <c r="F78" s="85"/>
+      <c r="G78" s="85"/>
+      <c r="H78" s="85"/>
+      <c r="I78" s="85"/>
+      <c r="J78" s="85"/>
+      <c r="K78" s="85"/>
+      <c r="L78" s="85"/>
     </row>
     <row r="79" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B79" s="97"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="97"/>
-      <c r="H79" s="97"/>
-      <c r="I79" s="97"/>
-      <c r="J79" s="97"/>
-      <c r="K79" s="97"/>
-      <c r="L79" s="97"/>
+      <c r="B79" s="85"/>
+      <c r="C79" s="85"/>
+      <c r="D79" s="85"/>
+      <c r="E79" s="85"/>
+      <c r="F79" s="85"/>
+      <c r="G79" s="85"/>
+      <c r="H79" s="85"/>
+      <c r="I79" s="85"/>
+      <c r="J79" s="85"/>
+      <c r="K79" s="85"/>
+      <c r="L79" s="85"/>
     </row>
     <row r="80" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B80" s="97"/>
-      <c r="C80" s="97"/>
-      <c r="D80" s="97"/>
-      <c r="E80" s="97"/>
-      <c r="F80" s="97"/>
-      <c r="G80" s="97"/>
-      <c r="H80" s="97"/>
-      <c r="I80" s="97"/>
-      <c r="J80" s="97"/>
-      <c r="K80" s="97"/>
-      <c r="L80" s="97"/>
+      <c r="B80" s="85"/>
+      <c r="C80" s="85"/>
+      <c r="D80" s="85"/>
+      <c r="E80" s="85"/>
+      <c r="F80" s="85"/>
+      <c r="G80" s="85"/>
+      <c r="H80" s="85"/>
+      <c r="I80" s="85"/>
+      <c r="J80" s="85"/>
+      <c r="K80" s="85"/>
+      <c r="L80" s="85"/>
     </row>
     <row r="81" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B81" s="97"/>
-      <c r="C81" s="97"/>
-      <c r="D81" s="97"/>
-      <c r="E81" s="97"/>
-      <c r="F81" s="97"/>
-      <c r="G81" s="97"/>
-      <c r="H81" s="97"/>
-      <c r="I81" s="97"/>
-      <c r="J81" s="97"/>
-      <c r="K81" s="97"/>
-      <c r="L81" s="97"/>
+      <c r="B81" s="85"/>
+      <c r="C81" s="85"/>
+      <c r="D81" s="85"/>
+      <c r="E81" s="85"/>
+      <c r="F81" s="85"/>
+      <c r="G81" s="85"/>
+      <c r="H81" s="85"/>
+      <c r="I81" s="85"/>
+      <c r="J81" s="85"/>
+      <c r="K81" s="85"/>
+      <c r="L81" s="85"/>
     </row>
     <row r="82" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B82" s="97"/>
-      <c r="C82" s="97"/>
-      <c r="D82" s="97"/>
-      <c r="E82" s="97"/>
-      <c r="F82" s="97"/>
-      <c r="G82" s="97"/>
-      <c r="H82" s="97"/>
-      <c r="I82" s="97"/>
-      <c r="J82" s="97"/>
-      <c r="K82" s="97"/>
-      <c r="L82" s="97"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="85"/>
+      <c r="G82" s="85"/>
+      <c r="H82" s="85"/>
+      <c r="I82" s="85"/>
+      <c r="J82" s="85"/>
+      <c r="K82" s="85"/>
+      <c r="L82" s="85"/>
     </row>
     <row r="83" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B83" s="97"/>
-      <c r="C83" s="97"/>
-      <c r="D83" s="97"/>
-      <c r="E83" s="97"/>
-      <c r="F83" s="97"/>
-      <c r="G83" s="97"/>
-      <c r="H83" s="97"/>
-      <c r="I83" s="97"/>
-      <c r="J83" s="97"/>
-      <c r="K83" s="97"/>
-      <c r="L83" s="97"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
+      <c r="F83" s="85"/>
+      <c r="G83" s="85"/>
+      <c r="H83" s="85"/>
+      <c r="I83" s="85"/>
+      <c r="J83" s="85"/>
+      <c r="K83" s="85"/>
+      <c r="L83" s="85"/>
     </row>
     <row r="84" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B84" s="97"/>
-      <c r="C84" s="97"/>
-      <c r="D84" s="97"/>
-      <c r="E84" s="97"/>
-      <c r="F84" s="97"/>
-      <c r="G84" s="97"/>
-      <c r="H84" s="97"/>
-      <c r="I84" s="97"/>
-      <c r="J84" s="97"/>
-      <c r="K84" s="97"/>
-      <c r="L84" s="97"/>
+      <c r="B84" s="85"/>
+      <c r="C84" s="85"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="85"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="85"/>
+      <c r="J84" s="85"/>
+      <c r="K84" s="85"/>
+      <c r="L84" s="85"/>
     </row>
     <row r="85" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B85" s="97"/>
-      <c r="C85" s="97"/>
-      <c r="D85" s="97"/>
-      <c r="E85" s="97"/>
-      <c r="F85" s="97"/>
-      <c r="G85" s="97"/>
-      <c r="H85" s="97"/>
-      <c r="I85" s="97"/>
-      <c r="J85" s="97"/>
-      <c r="K85" s="97"/>
-      <c r="L85" s="97"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="85"/>
+      <c r="G85" s="85"/>
+      <c r="H85" s="85"/>
+      <c r="I85" s="85"/>
+      <c r="J85" s="85"/>
+      <c r="K85" s="85"/>
+      <c r="L85" s="85"/>
     </row>
     <row r="86" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B86" s="97"/>
-      <c r="C86" s="97"/>
-      <c r="D86" s="97"/>
-      <c r="E86" s="97"/>
-      <c r="F86" s="97"/>
-      <c r="G86" s="97"/>
-      <c r="H86" s="97"/>
-      <c r="I86" s="97"/>
-      <c r="J86" s="97"/>
-      <c r="K86" s="97"/>
-      <c r="L86" s="97"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
+      <c r="G86" s="85"/>
+      <c r="H86" s="85"/>
+      <c r="I86" s="85"/>
+      <c r="J86" s="85"/>
+      <c r="K86" s="85"/>
+      <c r="L86" s="85"/>
     </row>
     <row r="87" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B87" s="97"/>
-      <c r="C87" s="97"/>
-      <c r="D87" s="97"/>
-      <c r="E87" s="97"/>
-      <c r="F87" s="97"/>
-      <c r="G87" s="97"/>
-      <c r="H87" s="97"/>
-      <c r="I87" s="97"/>
-      <c r="J87" s="97"/>
-      <c r="K87" s="97"/>
-      <c r="L87" s="97"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
+      <c r="G87" s="85"/>
+      <c r="H87" s="85"/>
+      <c r="I87" s="85"/>
+      <c r="J87" s="85"/>
+      <c r="K87" s="85"/>
+      <c r="L87" s="85"/>
     </row>
     <row r="88" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B88" s="97"/>
-      <c r="C88" s="97"/>
-      <c r="D88" s="97"/>
-      <c r="E88" s="97"/>
-      <c r="F88" s="97"/>
-      <c r="G88" s="97"/>
-      <c r="H88" s="97"/>
-      <c r="I88" s="97"/>
-      <c r="J88" s="97"/>
-      <c r="K88" s="97"/>
-      <c r="L88" s="97"/>
+      <c r="B88" s="85"/>
+      <c r="C88" s="85"/>
+      <c r="D88" s="85"/>
+      <c r="E88" s="85"/>
+      <c r="F88" s="85"/>
+      <c r="G88" s="85"/>
+      <c r="H88" s="85"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="85"/>
+      <c r="L88" s="85"/>
     </row>
     <row r="89" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B89" s="97"/>
-      <c r="C89" s="97"/>
-      <c r="D89" s="97"/>
-      <c r="E89" s="97"/>
-      <c r="F89" s="97"/>
-      <c r="G89" s="97"/>
-      <c r="H89" s="97"/>
-      <c r="I89" s="97"/>
-      <c r="J89" s="97"/>
-      <c r="K89" s="97"/>
-      <c r="L89" s="97"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
+      <c r="F89" s="85"/>
+      <c r="G89" s="85"/>
+      <c r="H89" s="85"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="85"/>
+      <c r="L89" s="85"/>
     </row>
     <row r="90" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B90" s="97"/>
-      <c r="C90" s="97"/>
-      <c r="D90" s="97"/>
-      <c r="E90" s="97"/>
-      <c r="F90" s="97"/>
-      <c r="G90" s="97"/>
-      <c r="H90" s="97"/>
-      <c r="I90" s="97"/>
-      <c r="J90" s="97"/>
-      <c r="K90" s="97"/>
-      <c r="L90" s="97"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="85"/>
+      <c r="G90" s="85"/>
+      <c r="H90" s="85"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+      <c r="K90" s="85"/>
+      <c r="L90" s="85"/>
     </row>
     <row r="91" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B91" s="97"/>
-      <c r="C91" s="97"/>
-      <c r="D91" s="97"/>
-      <c r="E91" s="97"/>
-      <c r="F91" s="97"/>
-      <c r="G91" s="97"/>
-      <c r="H91" s="97"/>
-      <c r="I91" s="97"/>
-      <c r="J91" s="97"/>
-      <c r="K91" s="97"/>
-      <c r="L91" s="97"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="85"/>
+      <c r="F91" s="85"/>
+      <c r="G91" s="85"/>
+      <c r="H91" s="85"/>
+      <c r="I91" s="85"/>
+      <c r="J91" s="85"/>
+      <c r="K91" s="85"/>
+      <c r="L91" s="85"/>
     </row>
     <row r="92" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B92" s="97"/>
-      <c r="C92" s="97"/>
-      <c r="D92" s="97"/>
-      <c r="E92" s="97"/>
-      <c r="F92" s="97"/>
-      <c r="G92" s="97"/>
-      <c r="H92" s="97"/>
-      <c r="I92" s="97"/>
-      <c r="J92" s="97"/>
-      <c r="K92" s="97"/>
-      <c r="L92" s="97"/>
+      <c r="B92" s="85"/>
+      <c r="C92" s="85"/>
+      <c r="D92" s="85"/>
+      <c r="E92" s="85"/>
+      <c r="F92" s="85"/>
+      <c r="G92" s="85"/>
+      <c r="H92" s="85"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="85"/>
+      <c r="L92" s="85"/>
     </row>
     <row r="93" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B93" s="97"/>
-      <c r="C93" s="97"/>
-      <c r="D93" s="97"/>
-      <c r="E93" s="97"/>
-      <c r="F93" s="97"/>
-      <c r="G93" s="97"/>
-      <c r="H93" s="97"/>
-      <c r="I93" s="97"/>
-      <c r="J93" s="97"/>
-      <c r="K93" s="97"/>
-      <c r="L93" s="97"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="85"/>
+      <c r="G93" s="85"/>
+      <c r="H93" s="85"/>
+      <c r="I93" s="85"/>
+      <c r="J93" s="85"/>
+      <c r="K93" s="85"/>
+      <c r="L93" s="85"/>
     </row>
     <row r="94" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B94" s="97"/>
-      <c r="C94" s="97"/>
-      <c r="D94" s="97"/>
-      <c r="E94" s="97"/>
-      <c r="F94" s="97"/>
-      <c r="G94" s="97"/>
-      <c r="H94" s="97"/>
-      <c r="I94" s="97"/>
-      <c r="J94" s="97"/>
-      <c r="K94" s="97"/>
-      <c r="L94" s="97"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="85"/>
+      <c r="G94" s="85"/>
+      <c r="H94" s="85"/>
+      <c r="I94" s="85"/>
+      <c r="J94" s="85"/>
+      <c r="K94" s="85"/>
+      <c r="L94" s="85"/>
     </row>
     <row r="95" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B95" s="97"/>
-      <c r="C95" s="97"/>
-      <c r="D95" s="97"/>
-      <c r="E95" s="97"/>
-      <c r="F95" s="97"/>
-      <c r="G95" s="97"/>
-      <c r="H95" s="97"/>
-      <c r="I95" s="97"/>
-      <c r="J95" s="97"/>
-      <c r="K95" s="97"/>
-      <c r="L95" s="97"/>
+      <c r="B95" s="85"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="85"/>
+      <c r="E95" s="85"/>
+      <c r="F95" s="85"/>
+      <c r="G95" s="85"/>
+      <c r="H95" s="85"/>
+      <c r="I95" s="85"/>
+      <c r="J95" s="85"/>
+      <c r="K95" s="85"/>
+      <c r="L95" s="85"/>
     </row>
     <row r="96" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B96" s="97"/>
-      <c r="C96" s="97"/>
-      <c r="D96" s="97"/>
-      <c r="E96" s="97"/>
-      <c r="F96" s="97"/>
-      <c r="G96" s="97"/>
-      <c r="H96" s="97"/>
-      <c r="I96" s="97"/>
-      <c r="J96" s="97"/>
-      <c r="K96" s="97"/>
-      <c r="L96" s="97"/>
+      <c r="B96" s="85"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="85"/>
+      <c r="E96" s="85"/>
+      <c r="F96" s="85"/>
+      <c r="G96" s="85"/>
+      <c r="H96" s="85"/>
+      <c r="I96" s="85"/>
+      <c r="J96" s="85"/>
+      <c r="K96" s="85"/>
+      <c r="L96" s="85"/>
     </row>
     <row r="97" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B97" s="97"/>
-      <c r="C97" s="97"/>
-      <c r="D97" s="97"/>
-      <c r="E97" s="97"/>
-      <c r="F97" s="97"/>
-      <c r="G97" s="97"/>
-      <c r="H97" s="97"/>
-      <c r="I97" s="97"/>
-      <c r="J97" s="97"/>
-      <c r="K97" s="97"/>
-      <c r="L97" s="97"/>
+      <c r="B97" s="85"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="85"/>
+      <c r="E97" s="85"/>
+      <c r="F97" s="85"/>
+      <c r="G97" s="85"/>
+      <c r="H97" s="85"/>
+      <c r="I97" s="85"/>
+      <c r="J97" s="85"/>
+      <c r="K97" s="85"/>
+      <c r="L97" s="85"/>
     </row>
     <row r="98" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B98" s="97"/>
-      <c r="C98" s="97"/>
-      <c r="D98" s="97"/>
-      <c r="E98" s="97"/>
-      <c r="F98" s="97"/>
-      <c r="G98" s="97"/>
-      <c r="H98" s="97"/>
-      <c r="I98" s="97"/>
-      <c r="J98" s="97"/>
-      <c r="K98" s="97"/>
-      <c r="L98" s="97"/>
+      <c r="B98" s="85"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="85"/>
+      <c r="G98" s="85"/>
+      <c r="H98" s="85"/>
+      <c r="I98" s="85"/>
+      <c r="J98" s="85"/>
+      <c r="K98" s="85"/>
+      <c r="L98" s="85"/>
     </row>
     <row r="99" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B99" s="97"/>
-      <c r="C99" s="97"/>
-      <c r="D99" s="97"/>
-      <c r="E99" s="97"/>
-      <c r="F99" s="97"/>
-      <c r="G99" s="97"/>
-      <c r="H99" s="97"/>
-      <c r="I99" s="97"/>
-      <c r="J99" s="97"/>
-      <c r="K99" s="97"/>
-      <c r="L99" s="97"/>
+      <c r="B99" s="85"/>
+      <c r="C99" s="85"/>
+      <c r="D99" s="85"/>
+      <c r="E99" s="85"/>
+      <c r="F99" s="85"/>
+      <c r="G99" s="85"/>
+      <c r="H99" s="85"/>
+      <c r="I99" s="85"/>
+      <c r="J99" s="85"/>
+      <c r="K99" s="85"/>
+      <c r="L99" s="85"/>
     </row>
     <row r="100" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B100" s="97"/>
-      <c r="C100" s="97"/>
-      <c r="D100" s="97"/>
-      <c r="E100" s="97"/>
-      <c r="F100" s="97"/>
-      <c r="G100" s="97"/>
-      <c r="H100" s="97"/>
-      <c r="I100" s="97"/>
-      <c r="J100" s="97"/>
-      <c r="K100" s="97"/>
-      <c r="L100" s="97"/>
+      <c r="B100" s="85"/>
+      <c r="C100" s="85"/>
+      <c r="D100" s="85"/>
+      <c r="E100" s="85"/>
+      <c r="F100" s="85"/>
+      <c r="G100" s="85"/>
+      <c r="H100" s="85"/>
+      <c r="I100" s="85"/>
+      <c r="J100" s="85"/>
+      <c r="K100" s="85"/>
+      <c r="L100" s="85"/>
     </row>
     <row r="101" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B101" s="97"/>
-      <c r="C101" s="97"/>
-      <c r="D101" s="97"/>
-      <c r="E101" s="97"/>
-      <c r="F101" s="97"/>
-      <c r="G101" s="97"/>
-      <c r="H101" s="97"/>
-      <c r="I101" s="97"/>
-      <c r="J101" s="97"/>
-      <c r="K101" s="97"/>
-      <c r="L101" s="97"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="85"/>
+      <c r="E101" s="85"/>
+      <c r="F101" s="85"/>
+      <c r="G101" s="85"/>
+      <c r="H101" s="85"/>
+      <c r="I101" s="85"/>
+      <c r="J101" s="85"/>
+      <c r="K101" s="85"/>
+      <c r="L101" s="85"/>
     </row>
     <row r="102" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B102" s="97"/>
-      <c r="C102" s="97"/>
-      <c r="D102" s="97"/>
-      <c r="E102" s="97"/>
-      <c r="F102" s="97"/>
-      <c r="G102" s="97"/>
-      <c r="H102" s="97"/>
-      <c r="I102" s="97"/>
-      <c r="J102" s="97"/>
-      <c r="K102" s="97"/>
-      <c r="L102" s="97"/>
+      <c r="B102" s="85"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="85"/>
+      <c r="F102" s="85"/>
+      <c r="G102" s="85"/>
+      <c r="H102" s="85"/>
+      <c r="I102" s="85"/>
+      <c r="J102" s="85"/>
+      <c r="K102" s="85"/>
+      <c r="L102" s="85"/>
     </row>
     <row r="103" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B103" s="97"/>
-      <c r="C103" s="97"/>
-      <c r="D103" s="97"/>
-      <c r="E103" s="97"/>
-      <c r="F103" s="97"/>
-      <c r="G103" s="97"/>
-      <c r="H103" s="97"/>
-      <c r="I103" s="97"/>
-      <c r="J103" s="97"/>
-      <c r="K103" s="97"/>
-      <c r="L103" s="97"/>
+      <c r="B103" s="85"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
+      <c r="G103" s="85"/>
+      <c r="H103" s="85"/>
+      <c r="I103" s="85"/>
+      <c r="J103" s="85"/>
+      <c r="K103" s="85"/>
+      <c r="L103" s="85"/>
     </row>
     <row r="104" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B104" s="97"/>
-      <c r="C104" s="97"/>
-      <c r="D104" s="97"/>
-      <c r="E104" s="97"/>
-      <c r="F104" s="97"/>
-      <c r="G104" s="97"/>
-      <c r="H104" s="97"/>
-      <c r="I104" s="97"/>
-      <c r="J104" s="97"/>
-      <c r="K104" s="97"/>
-      <c r="L104" s="97"/>
+      <c r="B104" s="85"/>
+      <c r="C104" s="85"/>
+      <c r="D104" s="85"/>
+      <c r="E104" s="85"/>
+      <c r="F104" s="85"/>
+      <c r="G104" s="85"/>
+      <c r="H104" s="85"/>
+      <c r="I104" s="85"/>
+      <c r="J104" s="85"/>
+      <c r="K104" s="85"/>
+      <c r="L104" s="85"/>
     </row>
     <row r="105" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B105" s="97"/>
-      <c r="C105" s="97"/>
-      <c r="D105" s="97"/>
-      <c r="E105" s="97"/>
-      <c r="F105" s="97"/>
-      <c r="G105" s="97"/>
-      <c r="H105" s="97"/>
-      <c r="I105" s="97"/>
-      <c r="J105" s="97"/>
-      <c r="K105" s="97"/>
-      <c r="L105" s="97"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
+      <c r="F105" s="85"/>
+      <c r="G105" s="85"/>
+      <c r="H105" s="85"/>
+      <c r="I105" s="85"/>
+      <c r="J105" s="85"/>
+      <c r="K105" s="85"/>
+      <c r="L105" s="85"/>
     </row>
     <row r="106" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B106" s="97"/>
-      <c r="C106" s="97"/>
-      <c r="D106" s="97"/>
-      <c r="E106" s="97"/>
-      <c r="F106" s="97"/>
-      <c r="G106" s="97"/>
-      <c r="H106" s="97"/>
-      <c r="I106" s="97"/>
-      <c r="J106" s="97"/>
-      <c r="K106" s="97"/>
-      <c r="L106" s="97"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="85"/>
+      <c r="E106" s="85"/>
+      <c r="F106" s="85"/>
+      <c r="G106" s="85"/>
+      <c r="H106" s="85"/>
+      <c r="I106" s="85"/>
+      <c r="J106" s="85"/>
+      <c r="K106" s="85"/>
+      <c r="L106" s="85"/>
     </row>
     <row r="107" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B107" s="97"/>
-      <c r="C107" s="97"/>
-      <c r="D107" s="97"/>
-      <c r="E107" s="97"/>
-      <c r="F107" s="97"/>
-      <c r="G107" s="97"/>
-      <c r="H107" s="97"/>
-      <c r="I107" s="97"/>
-      <c r="J107" s="97"/>
-      <c r="K107" s="97"/>
-      <c r="L107" s="97"/>
+      <c r="B107" s="85"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="85"/>
+      <c r="E107" s="85"/>
+      <c r="F107" s="85"/>
+      <c r="G107" s="85"/>
+      <c r="H107" s="85"/>
+      <c r="I107" s="85"/>
+      <c r="J107" s="85"/>
+      <c r="K107" s="85"/>
+      <c r="L107" s="85"/>
     </row>
     <row r="108" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B108" s="97"/>
-      <c r="C108" s="97"/>
-      <c r="D108" s="97"/>
-      <c r="E108" s="97"/>
-      <c r="F108" s="97"/>
-      <c r="G108" s="97"/>
-      <c r="H108" s="97"/>
-      <c r="I108" s="97"/>
-      <c r="J108" s="97"/>
-      <c r="K108" s="97"/>
-      <c r="L108" s="97"/>
+      <c r="B108" s="85"/>
+      <c r="C108" s="85"/>
+      <c r="D108" s="85"/>
+      <c r="E108" s="85"/>
+      <c r="F108" s="85"/>
+      <c r="G108" s="85"/>
+      <c r="H108" s="85"/>
+      <c r="I108" s="85"/>
+      <c r="J108" s="85"/>
+      <c r="K108" s="85"/>
+      <c r="L108" s="85"/>
     </row>
     <row r="109" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B109" s="97"/>
-      <c r="C109" s="97"/>
-      <c r="D109" s="97"/>
-      <c r="E109" s="97"/>
-      <c r="F109" s="97"/>
-      <c r="G109" s="97"/>
-      <c r="H109" s="97"/>
-      <c r="I109" s="97"/>
-      <c r="J109" s="97"/>
-      <c r="K109" s="97"/>
-      <c r="L109" s="97"/>
+      <c r="B109" s="85"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="85"/>
+      <c r="E109" s="85"/>
+      <c r="F109" s="85"/>
+      <c r="G109" s="85"/>
+      <c r="H109" s="85"/>
+      <c r="I109" s="85"/>
+      <c r="J109" s="85"/>
+      <c r="K109" s="85"/>
+      <c r="L109" s="85"/>
     </row>
     <row r="110" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B110" s="97"/>
-      <c r="C110" s="97"/>
-      <c r="D110" s="97"/>
-      <c r="E110" s="97"/>
-      <c r="F110" s="97"/>
-      <c r="G110" s="97"/>
-      <c r="H110" s="97"/>
-      <c r="I110" s="97"/>
-      <c r="J110" s="97"/>
-      <c r="K110" s="97"/>
-      <c r="L110" s="97"/>
+      <c r="B110" s="85"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="85"/>
+      <c r="E110" s="85"/>
+      <c r="F110" s="85"/>
+      <c r="G110" s="85"/>
+      <c r="H110" s="85"/>
+      <c r="I110" s="85"/>
+      <c r="J110" s="85"/>
+      <c r="K110" s="85"/>
+      <c r="L110" s="85"/>
     </row>
     <row r="111" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B111" s="97"/>
-      <c r="C111" s="97"/>
-      <c r="D111" s="97"/>
-      <c r="E111" s="97"/>
-      <c r="F111" s="97"/>
-      <c r="G111" s="97"/>
-      <c r="H111" s="97"/>
-      <c r="I111" s="97"/>
-      <c r="J111" s="97"/>
-      <c r="K111" s="97"/>
-      <c r="L111" s="97"/>
+      <c r="B111" s="85"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
+      <c r="F111" s="85"/>
+      <c r="G111" s="85"/>
+      <c r="H111" s="85"/>
+      <c r="I111" s="85"/>
+      <c r="J111" s="85"/>
+      <c r="K111" s="85"/>
+      <c r="L111" s="85"/>
     </row>
     <row r="112" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B112" s="97"/>
-      <c r="C112" s="97"/>
-      <c r="D112" s="97"/>
-      <c r="E112" s="97"/>
-      <c r="F112" s="97"/>
-      <c r="G112" s="97"/>
-      <c r="H112" s="97"/>
-      <c r="I112" s="97"/>
-      <c r="J112" s="97"/>
-      <c r="K112" s="97"/>
-      <c r="L112" s="97"/>
+      <c r="B112" s="85"/>
+      <c r="C112" s="85"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="85"/>
+      <c r="F112" s="85"/>
+      <c r="G112" s="85"/>
+      <c r="H112" s="85"/>
+      <c r="I112" s="85"/>
+      <c r="J112" s="85"/>
+      <c r="K112" s="85"/>
+      <c r="L112" s="85"/>
     </row>
     <row r="113" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B113" s="97"/>
-      <c r="C113" s="97"/>
-      <c r="D113" s="97"/>
-      <c r="E113" s="97"/>
-      <c r="F113" s="97"/>
-      <c r="G113" s="97"/>
-      <c r="H113" s="97"/>
-      <c r="I113" s="97"/>
-      <c r="J113" s="97"/>
-      <c r="K113" s="97"/>
-      <c r="L113" s="97"/>
+      <c r="B113" s="85"/>
+      <c r="C113" s="85"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="85"/>
+      <c r="G113" s="85"/>
+      <c r="H113" s="85"/>
+      <c r="I113" s="85"/>
+      <c r="J113" s="85"/>
+      <c r="K113" s="85"/>
+      <c r="L113" s="85"/>
     </row>
     <row r="114" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B114" s="97"/>
-      <c r="C114" s="97"/>
-      <c r="D114" s="97"/>
-      <c r="E114" s="97"/>
-      <c r="F114" s="97"/>
-      <c r="G114" s="97"/>
-      <c r="H114" s="97"/>
-      <c r="I114" s="97"/>
-      <c r="J114" s="97"/>
-      <c r="K114" s="97"/>
-      <c r="L114" s="97"/>
+      <c r="B114" s="85"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="85"/>
+      <c r="F114" s="85"/>
+      <c r="G114" s="85"/>
+      <c r="H114" s="85"/>
+      <c r="I114" s="85"/>
+      <c r="J114" s="85"/>
+      <c r="K114" s="85"/>
+      <c r="L114" s="85"/>
     </row>
     <row r="115" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B115" s="97"/>
-      <c r="C115" s="97"/>
-      <c r="D115" s="97"/>
-      <c r="E115" s="97"/>
-      <c r="F115" s="97"/>
-      <c r="G115" s="97"/>
-      <c r="H115" s="97"/>
-      <c r="I115" s="97"/>
-      <c r="J115" s="97"/>
-      <c r="K115" s="97"/>
-      <c r="L115" s="97"/>
+      <c r="B115" s="85"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
+      <c r="G115" s="85"/>
+      <c r="H115" s="85"/>
+      <c r="I115" s="85"/>
+      <c r="J115" s="85"/>
+      <c r="K115" s="85"/>
+      <c r="L115" s="85"/>
     </row>
     <row r="116" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B116" s="97"/>
-      <c r="C116" s="97"/>
-      <c r="D116" s="97"/>
-      <c r="E116" s="97"/>
-      <c r="F116" s="97"/>
-      <c r="G116" s="97"/>
-      <c r="H116" s="97"/>
-      <c r="I116" s="97"/>
-      <c r="J116" s="97"/>
-      <c r="K116" s="97"/>
-      <c r="L116" s="97"/>
+      <c r="B116" s="85"/>
+      <c r="C116" s="85"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
+      <c r="F116" s="85"/>
+      <c r="G116" s="85"/>
+      <c r="H116" s="85"/>
+      <c r="I116" s="85"/>
+      <c r="J116" s="85"/>
+      <c r="K116" s="85"/>
+      <c r="L116" s="85"/>
     </row>
     <row r="117" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B117" s="97"/>
-      <c r="C117" s="97"/>
-      <c r="D117" s="97"/>
-      <c r="E117" s="97"/>
-      <c r="F117" s="97"/>
-      <c r="G117" s="97"/>
-      <c r="H117" s="97"/>
-      <c r="I117" s="97"/>
-      <c r="J117" s="97"/>
-      <c r="K117" s="97"/>
-      <c r="L117" s="97"/>
+      <c r="B117" s="85"/>
+      <c r="C117" s="85"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
+      <c r="F117" s="85"/>
+      <c r="G117" s="85"/>
+      <c r="H117" s="85"/>
+      <c r="I117" s="85"/>
+      <c r="J117" s="85"/>
+      <c r="K117" s="85"/>
+      <c r="L117" s="85"/>
     </row>
     <row r="118" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B118" s="97"/>
-      <c r="C118" s="97"/>
-      <c r="D118" s="97"/>
-      <c r="E118" s="97"/>
-      <c r="F118" s="97"/>
-      <c r="G118" s="97"/>
-      <c r="H118" s="97"/>
-      <c r="I118" s="97"/>
-      <c r="J118" s="97"/>
-      <c r="K118" s="97"/>
-      <c r="L118" s="97"/>
+      <c r="B118" s="85"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="85"/>
+      <c r="G118" s="85"/>
+      <c r="H118" s="85"/>
+      <c r="I118" s="85"/>
+      <c r="J118" s="85"/>
+      <c r="K118" s="85"/>
+      <c r="L118" s="85"/>
     </row>
     <row r="119" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B119" s="97"/>
-      <c r="C119" s="97"/>
-      <c r="D119" s="97"/>
-      <c r="E119" s="97"/>
-      <c r="F119" s="97"/>
-      <c r="G119" s="97"/>
-      <c r="H119" s="97"/>
-      <c r="I119" s="97"/>
-      <c r="J119" s="97"/>
-      <c r="K119" s="97"/>
-      <c r="L119" s="97"/>
+      <c r="B119" s="85"/>
+      <c r="C119" s="85"/>
+      <c r="D119" s="85"/>
+      <c r="E119" s="85"/>
+      <c r="F119" s="85"/>
+      <c r="G119" s="85"/>
+      <c r="H119" s="85"/>
+      <c r="I119" s="85"/>
+      <c r="J119" s="85"/>
+      <c r="K119" s="85"/>
+      <c r="L119" s="85"/>
     </row>
     <row r="120" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B120" s="97"/>
-      <c r="C120" s="97"/>
-      <c r="D120" s="97"/>
-      <c r="E120" s="97"/>
-      <c r="F120" s="97"/>
-      <c r="G120" s="97"/>
-      <c r="H120" s="97"/>
-      <c r="I120" s="97"/>
-      <c r="J120" s="97"/>
-      <c r="K120" s="97"/>
-      <c r="L120" s="97"/>
+      <c r="B120" s="85"/>
+      <c r="C120" s="85"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="85"/>
+      <c r="F120" s="85"/>
+      <c r="G120" s="85"/>
+      <c r="H120" s="85"/>
+      <c r="I120" s="85"/>
+      <c r="J120" s="85"/>
+      <c r="K120" s="85"/>
+      <c r="L120" s="85"/>
     </row>
     <row r="121" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B121" s="97"/>
-      <c r="C121" s="97"/>
-      <c r="D121" s="97"/>
-      <c r="E121" s="97"/>
-      <c r="F121" s="97"/>
-      <c r="G121" s="97"/>
-      <c r="H121" s="97"/>
-      <c r="I121" s="97"/>
-      <c r="J121" s="97"/>
-      <c r="K121" s="97"/>
-      <c r="L121" s="97"/>
+      <c r="B121" s="85"/>
+      <c r="C121" s="85"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
+      <c r="G121" s="85"/>
+      <c r="H121" s="85"/>
+      <c r="I121" s="85"/>
+      <c r="J121" s="85"/>
+      <c r="K121" s="85"/>
+      <c r="L121" s="85"/>
     </row>
     <row r="122" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B122" s="97"/>
-      <c r="C122" s="97"/>
-      <c r="D122" s="97"/>
-      <c r="E122" s="97"/>
-      <c r="F122" s="97"/>
-      <c r="G122" s="97"/>
-      <c r="H122" s="97"/>
-      <c r="I122" s="97"/>
-      <c r="J122" s="97"/>
-      <c r="K122" s="97"/>
-      <c r="L122" s="97"/>
+      <c r="B122" s="85"/>
+      <c r="C122" s="85"/>
+      <c r="D122" s="85"/>
+      <c r="E122" s="85"/>
+      <c r="F122" s="85"/>
+      <c r="G122" s="85"/>
+      <c r="H122" s="85"/>
+      <c r="I122" s="85"/>
+      <c r="J122" s="85"/>
+      <c r="K122" s="85"/>
+      <c r="L122" s="85"/>
     </row>
     <row r="123" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B123" s="97"/>
-      <c r="C123" s="97"/>
-      <c r="D123" s="97"/>
-      <c r="E123" s="97"/>
-      <c r="F123" s="97"/>
-      <c r="G123" s="97"/>
-      <c r="H123" s="97"/>
-      <c r="I123" s="97"/>
-      <c r="J123" s="97"/>
-      <c r="K123" s="97"/>
-      <c r="L123" s="97"/>
+      <c r="B123" s="85"/>
+      <c r="C123" s="85"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
+      <c r="G123" s="85"/>
+      <c r="H123" s="85"/>
+      <c r="I123" s="85"/>
+      <c r="J123" s="85"/>
+      <c r="K123" s="85"/>
+      <c r="L123" s="85"/>
     </row>
     <row r="124" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B124" s="97"/>
-      <c r="C124" s="97"/>
-      <c r="D124" s="97"/>
-      <c r="E124" s="97"/>
-      <c r="F124" s="97"/>
-      <c r="G124" s="97"/>
-      <c r="H124" s="97"/>
-      <c r="I124" s="97"/>
-      <c r="J124" s="97"/>
-      <c r="K124" s="97"/>
-      <c r="L124" s="97"/>
+      <c r="B124" s="85"/>
+      <c r="C124" s="85"/>
+      <c r="D124" s="85"/>
+      <c r="E124" s="85"/>
+      <c r="F124" s="85"/>
+      <c r="G124" s="85"/>
+      <c r="H124" s="85"/>
+      <c r="I124" s="85"/>
+      <c r="J124" s="85"/>
+      <c r="K124" s="85"/>
+      <c r="L124" s="85"/>
     </row>
     <row r="125" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B125" s="97"/>
-      <c r="C125" s="97"/>
-      <c r="D125" s="97"/>
-      <c r="E125" s="97"/>
-      <c r="F125" s="97"/>
-      <c r="G125" s="97"/>
-      <c r="H125" s="97"/>
-      <c r="I125" s="97"/>
-      <c r="J125" s="97"/>
-      <c r="K125" s="97"/>
-      <c r="L125" s="97"/>
+      <c r="B125" s="85"/>
+      <c r="C125" s="85"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
+      <c r="G125" s="85"/>
+      <c r="H125" s="85"/>
+      <c r="I125" s="85"/>
+      <c r="J125" s="85"/>
+      <c r="K125" s="85"/>
+      <c r="L125" s="85"/>
     </row>
     <row r="126" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B126" s="97"/>
-      <c r="C126" s="97"/>
-      <c r="D126" s="97"/>
-      <c r="E126" s="97"/>
-      <c r="F126" s="97"/>
-      <c r="G126" s="97"/>
-      <c r="H126" s="97"/>
-      <c r="I126" s="97"/>
-      <c r="J126" s="97"/>
-      <c r="K126" s="97"/>
-      <c r="L126" s="97"/>
+      <c r="B126" s="85"/>
+      <c r="C126" s="85"/>
+      <c r="D126" s="85"/>
+      <c r="E126" s="85"/>
+      <c r="F126" s="85"/>
+      <c r="G126" s="85"/>
+      <c r="H126" s="85"/>
+      <c r="I126" s="85"/>
+      <c r="J126" s="85"/>
+      <c r="K126" s="85"/>
+      <c r="L126" s="85"/>
     </row>
     <row r="127" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B127" s="97"/>
-      <c r="C127" s="97"/>
-      <c r="D127" s="97"/>
-      <c r="E127" s="97"/>
-      <c r="F127" s="97"/>
-      <c r="G127" s="97"/>
-      <c r="H127" s="97"/>
-      <c r="I127" s="97"/>
-      <c r="J127" s="97"/>
-      <c r="K127" s="97"/>
-      <c r="L127" s="97"/>
+      <c r="B127" s="85"/>
+      <c r="C127" s="85"/>
+      <c r="D127" s="85"/>
+      <c r="E127" s="85"/>
+      <c r="F127" s="85"/>
+      <c r="G127" s="85"/>
+      <c r="H127" s="85"/>
+      <c r="I127" s="85"/>
+      <c r="J127" s="85"/>
+      <c r="K127" s="85"/>
+      <c r="L127" s="85"/>
     </row>
     <row r="128" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B128" s="97"/>
-      <c r="C128" s="97"/>
-      <c r="D128" s="97"/>
-      <c r="E128" s="97"/>
-      <c r="F128" s="97"/>
-      <c r="G128" s="97"/>
-      <c r="H128" s="97"/>
-      <c r="I128" s="97"/>
-      <c r="J128" s="97"/>
-      <c r="K128" s="97"/>
-      <c r="L128" s="97"/>
+      <c r="B128" s="85"/>
+      <c r="C128" s="85"/>
+      <c r="D128" s="85"/>
+      <c r="E128" s="85"/>
+      <c r="F128" s="85"/>
+      <c r="G128" s="85"/>
+      <c r="H128" s="85"/>
+      <c r="I128" s="85"/>
+      <c r="J128" s="85"/>
+      <c r="K128" s="85"/>
+      <c r="L128" s="85"/>
     </row>
     <row r="129" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B129" s="97"/>
-      <c r="C129" s="97"/>
-      <c r="D129" s="97"/>
-      <c r="E129" s="97"/>
-      <c r="F129" s="97"/>
-      <c r="G129" s="97"/>
-      <c r="H129" s="97"/>
-      <c r="I129" s="97"/>
-      <c r="J129" s="97"/>
-      <c r="K129" s="97"/>
-      <c r="L129" s="97"/>
+      <c r="B129" s="85"/>
+      <c r="C129" s="85"/>
+      <c r="D129" s="85"/>
+      <c r="E129" s="85"/>
+      <c r="F129" s="85"/>
+      <c r="G129" s="85"/>
+      <c r="H129" s="85"/>
+      <c r="I129" s="85"/>
+      <c r="J129" s="85"/>
+      <c r="K129" s="85"/>
+      <c r="L129" s="85"/>
     </row>
     <row r="130" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B130" s="97"/>
-      <c r="C130" s="97"/>
-      <c r="D130" s="97"/>
-      <c r="E130" s="97"/>
-      <c r="F130" s="97"/>
-      <c r="G130" s="97"/>
-      <c r="H130" s="97"/>
-      <c r="I130" s="97"/>
-      <c r="J130" s="97"/>
-      <c r="K130" s="97"/>
-      <c r="L130" s="97"/>
+      <c r="B130" s="85"/>
+      <c r="C130" s="85"/>
+      <c r="D130" s="85"/>
+      <c r="E130" s="85"/>
+      <c r="F130" s="85"/>
+      <c r="G130" s="85"/>
+      <c r="H130" s="85"/>
+      <c r="I130" s="85"/>
+      <c r="J130" s="85"/>
+      <c r="K130" s="85"/>
+      <c r="L130" s="85"/>
     </row>
     <row r="131" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B131" s="97"/>
-      <c r="C131" s="97"/>
-      <c r="D131" s="97"/>
-      <c r="E131" s="97"/>
-      <c r="F131" s="97"/>
-      <c r="G131" s="97"/>
-      <c r="H131" s="97"/>
-      <c r="I131" s="97"/>
-      <c r="J131" s="97"/>
-      <c r="K131" s="97"/>
-      <c r="L131" s="97"/>
+      <c r="B131" s="85"/>
+      <c r="C131" s="85"/>
+      <c r="D131" s="85"/>
+      <c r="E131" s="85"/>
+      <c r="F131" s="85"/>
+      <c r="G131" s="85"/>
+      <c r="H131" s="85"/>
+      <c r="I131" s="85"/>
+      <c r="J131" s="85"/>
+      <c r="K131" s="85"/>
+      <c r="L131" s="85"/>
     </row>
     <row r="132" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B132" s="97"/>
-      <c r="C132" s="97"/>
-      <c r="D132" s="97"/>
-      <c r="E132" s="97"/>
-      <c r="F132" s="97"/>
-      <c r="G132" s="97"/>
-      <c r="H132" s="97"/>
-      <c r="I132" s="97"/>
-      <c r="J132" s="97"/>
-      <c r="K132" s="97"/>
-      <c r="L132" s="97"/>
+      <c r="B132" s="85"/>
+      <c r="C132" s="85"/>
+      <c r="D132" s="85"/>
+      <c r="E132" s="85"/>
+      <c r="F132" s="85"/>
+      <c r="G132" s="85"/>
+      <c r="H132" s="85"/>
+      <c r="I132" s="85"/>
+      <c r="J132" s="85"/>
+      <c r="K132" s="85"/>
+      <c r="L132" s="85"/>
     </row>
     <row r="133" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B133" s="97"/>
-      <c r="C133" s="97"/>
-      <c r="D133" s="97"/>
-      <c r="E133" s="97"/>
-      <c r="F133" s="97"/>
-      <c r="G133" s="97"/>
-      <c r="H133" s="97"/>
-      <c r="I133" s="97"/>
-      <c r="J133" s="97"/>
-      <c r="K133" s="97"/>
-      <c r="L133" s="97"/>
+      <c r="B133" s="85"/>
+      <c r="C133" s="85"/>
+      <c r="D133" s="85"/>
+      <c r="E133" s="85"/>
+      <c r="F133" s="85"/>
+      <c r="G133" s="85"/>
+      <c r="H133" s="85"/>
+      <c r="I133" s="85"/>
+      <c r="J133" s="85"/>
+      <c r="K133" s="85"/>
+      <c r="L133" s="85"/>
     </row>
     <row r="134" spans="2:12" ht="24.75" customHeight="1">
       <c r="J134" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="K134" s="95" t="str">
+      <c r="K134" s="83" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L134" s="95"/>
+      <c r="L134" s="83"/>
     </row>
     <row r="135" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B135" s="97" t="s">
+      <c r="B135" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="C135" s="97"/>
-      <c r="D135" s="97"/>
-      <c r="E135" s="97"/>
-      <c r="F135" s="97"/>
-      <c r="G135" s="97"/>
-      <c r="H135" s="97"/>
-      <c r="I135" s="97"/>
-      <c r="J135" s="97"/>
-      <c r="K135" s="97"/>
-      <c r="L135" s="97"/>
+      <c r="C135" s="85"/>
+      <c r="D135" s="85"/>
+      <c r="E135" s="85"/>
+      <c r="F135" s="85"/>
+      <c r="G135" s="85"/>
+      <c r="H135" s="85"/>
+      <c r="I135" s="85"/>
+      <c r="J135" s="85"/>
+      <c r="K135" s="85"/>
+      <c r="L135" s="85"/>
     </row>
     <row r="136" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B136" s="97"/>
-      <c r="C136" s="97"/>
-      <c r="D136" s="97"/>
-      <c r="E136" s="97"/>
-      <c r="F136" s="97"/>
-      <c r="G136" s="97"/>
-      <c r="H136" s="97"/>
-      <c r="I136" s="97"/>
-      <c r="J136" s="97"/>
-      <c r="K136" s="97"/>
-      <c r="L136" s="97"/>
+      <c r="B136" s="85"/>
+      <c r="C136" s="85"/>
+      <c r="D136" s="85"/>
+      <c r="E136" s="85"/>
+      <c r="F136" s="85"/>
+      <c r="G136" s="85"/>
+      <c r="H136" s="85"/>
+      <c r="I136" s="85"/>
+      <c r="J136" s="85"/>
+      <c r="K136" s="85"/>
+      <c r="L136" s="85"/>
     </row>
     <row r="137" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B137" s="97"/>
-      <c r="C137" s="97"/>
-      <c r="D137" s="97"/>
-      <c r="E137" s="97"/>
-      <c r="F137" s="97"/>
-      <c r="G137" s="97"/>
-      <c r="H137" s="97"/>
-      <c r="I137" s="97"/>
-      <c r="J137" s="97"/>
-      <c r="K137" s="97"/>
-      <c r="L137" s="97"/>
+      <c r="B137" s="85"/>
+      <c r="C137" s="85"/>
+      <c r="D137" s="85"/>
+      <c r="E137" s="85"/>
+      <c r="F137" s="85"/>
+      <c r="G137" s="85"/>
+      <c r="H137" s="85"/>
+      <c r="I137" s="85"/>
+      <c r="J137" s="85"/>
+      <c r="K137" s="85"/>
+      <c r="L137" s="85"/>
     </row>
     <row r="138" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B138" s="97"/>
-      <c r="C138" s="97"/>
-      <c r="D138" s="97"/>
-      <c r="E138" s="97"/>
-      <c r="F138" s="97"/>
-      <c r="G138" s="97"/>
-      <c r="H138" s="97"/>
-      <c r="I138" s="97"/>
-      <c r="J138" s="97"/>
-      <c r="K138" s="97"/>
-      <c r="L138" s="97"/>
+      <c r="B138" s="85"/>
+      <c r="C138" s="85"/>
+      <c r="D138" s="85"/>
+      <c r="E138" s="85"/>
+      <c r="F138" s="85"/>
+      <c r="G138" s="85"/>
+      <c r="H138" s="85"/>
+      <c r="I138" s="85"/>
+      <c r="J138" s="85"/>
+      <c r="K138" s="85"/>
+      <c r="L138" s="85"/>
     </row>
     <row r="139" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B139" s="97"/>
-      <c r="C139" s="97"/>
-      <c r="D139" s="97"/>
-      <c r="E139" s="97"/>
-      <c r="F139" s="97"/>
-      <c r="G139" s="97"/>
-      <c r="H139" s="97"/>
-      <c r="I139" s="97"/>
-      <c r="J139" s="97"/>
-      <c r="K139" s="97"/>
-      <c r="L139" s="97"/>
+      <c r="B139" s="85"/>
+      <c r="C139" s="85"/>
+      <c r="D139" s="85"/>
+      <c r="E139" s="85"/>
+      <c r="F139" s="85"/>
+      <c r="G139" s="85"/>
+      <c r="H139" s="85"/>
+      <c r="I139" s="85"/>
+      <c r="J139" s="85"/>
+      <c r="K139" s="85"/>
+      <c r="L139" s="85"/>
     </row>
     <row r="140" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B140" s="97"/>
-      <c r="C140" s="97"/>
-      <c r="D140" s="97"/>
-      <c r="E140" s="97"/>
-      <c r="F140" s="97"/>
-      <c r="G140" s="97"/>
-      <c r="H140" s="97"/>
-      <c r="I140" s="97"/>
-      <c r="J140" s="97"/>
-      <c r="K140" s="97"/>
-      <c r="L140" s="97"/>
+      <c r="B140" s="85"/>
+      <c r="C140" s="85"/>
+      <c r="D140" s="85"/>
+      <c r="E140" s="85"/>
+      <c r="F140" s="85"/>
+      <c r="G140" s="85"/>
+      <c r="H140" s="85"/>
+      <c r="I140" s="85"/>
+      <c r="J140" s="85"/>
+      <c r="K140" s="85"/>
+      <c r="L140" s="85"/>
     </row>
     <row r="141" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B141" s="97"/>
-      <c r="C141" s="97"/>
-      <c r="D141" s="97"/>
-      <c r="E141" s="97"/>
-      <c r="F141" s="97"/>
-      <c r="G141" s="97"/>
-      <c r="H141" s="97"/>
-      <c r="I141" s="97"/>
-      <c r="J141" s="97"/>
-      <c r="K141" s="97"/>
-      <c r="L141" s="97"/>
+      <c r="B141" s="85"/>
+      <c r="C141" s="85"/>
+      <c r="D141" s="85"/>
+      <c r="E141" s="85"/>
+      <c r="F141" s="85"/>
+      <c r="G141" s="85"/>
+      <c r="H141" s="85"/>
+      <c r="I141" s="85"/>
+      <c r="J141" s="85"/>
+      <c r="K141" s="85"/>
+      <c r="L141" s="85"/>
     </row>
     <row r="142" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B142" s="97"/>
-      <c r="C142" s="97"/>
-      <c r="D142" s="97"/>
-      <c r="E142" s="97"/>
-      <c r="F142" s="97"/>
-      <c r="G142" s="97"/>
-      <c r="H142" s="97"/>
-      <c r="I142" s="97"/>
-      <c r="J142" s="97"/>
-      <c r="K142" s="97"/>
-      <c r="L142" s="97"/>
+      <c r="B142" s="85"/>
+      <c r="C142" s="85"/>
+      <c r="D142" s="85"/>
+      <c r="E142" s="85"/>
+      <c r="F142" s="85"/>
+      <c r="G142" s="85"/>
+      <c r="H142" s="85"/>
+      <c r="I142" s="85"/>
+      <c r="J142" s="85"/>
+      <c r="K142" s="85"/>
+      <c r="L142" s="85"/>
     </row>
     <row r="143" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B143" s="97"/>
-      <c r="C143" s="97"/>
-      <c r="D143" s="97"/>
-      <c r="E143" s="97"/>
-      <c r="F143" s="97"/>
-      <c r="G143" s="97"/>
-      <c r="H143" s="97"/>
-      <c r="I143" s="97"/>
-      <c r="J143" s="97"/>
-      <c r="K143" s="97"/>
-      <c r="L143" s="97"/>
+      <c r="B143" s="85"/>
+      <c r="C143" s="85"/>
+      <c r="D143" s="85"/>
+      <c r="E143" s="85"/>
+      <c r="F143" s="85"/>
+      <c r="G143" s="85"/>
+      <c r="H143" s="85"/>
+      <c r="I143" s="85"/>
+      <c r="J143" s="85"/>
+      <c r="K143" s="85"/>
+      <c r="L143" s="85"/>
     </row>
     <row r="144" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B144" s="97"/>
-      <c r="C144" s="97"/>
-      <c r="D144" s="97"/>
-      <c r="E144" s="97"/>
-      <c r="F144" s="97"/>
-      <c r="G144" s="97"/>
-      <c r="H144" s="97"/>
-      <c r="I144" s="97"/>
-      <c r="J144" s="97"/>
-      <c r="K144" s="97"/>
-      <c r="L144" s="97"/>
+      <c r="B144" s="85"/>
+      <c r="C144" s="85"/>
+      <c r="D144" s="85"/>
+      <c r="E144" s="85"/>
+      <c r="F144" s="85"/>
+      <c r="G144" s="85"/>
+      <c r="H144" s="85"/>
+      <c r="I144" s="85"/>
+      <c r="J144" s="85"/>
+      <c r="K144" s="85"/>
+      <c r="L144" s="85"/>
     </row>
     <row r="145" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B145" s="97"/>
-      <c r="C145" s="97"/>
-      <c r="D145" s="97"/>
-      <c r="E145" s="97"/>
-      <c r="F145" s="97"/>
-      <c r="G145" s="97"/>
-      <c r="H145" s="97"/>
-      <c r="I145" s="97"/>
-      <c r="J145" s="97"/>
-      <c r="K145" s="97"/>
-      <c r="L145" s="97"/>
+      <c r="B145" s="85"/>
+      <c r="C145" s="85"/>
+      <c r="D145" s="85"/>
+      <c r="E145" s="85"/>
+      <c r="F145" s="85"/>
+      <c r="G145" s="85"/>
+      <c r="H145" s="85"/>
+      <c r="I145" s="85"/>
+      <c r="J145" s="85"/>
+      <c r="K145" s="85"/>
+      <c r="L145" s="85"/>
     </row>
     <row r="146" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B146" s="97"/>
-      <c r="C146" s="97"/>
-      <c r="D146" s="97"/>
-      <c r="E146" s="97"/>
-      <c r="F146" s="97"/>
-      <c r="G146" s="97"/>
-      <c r="H146" s="97"/>
-      <c r="I146" s="97"/>
-      <c r="J146" s="97"/>
-      <c r="K146" s="97"/>
-      <c r="L146" s="97"/>
+      <c r="B146" s="85"/>
+      <c r="C146" s="85"/>
+      <c r="D146" s="85"/>
+      <c r="E146" s="85"/>
+      <c r="F146" s="85"/>
+      <c r="G146" s="85"/>
+      <c r="H146" s="85"/>
+      <c r="I146" s="85"/>
+      <c r="J146" s="85"/>
+      <c r="K146" s="85"/>
+      <c r="L146" s="85"/>
     </row>
     <row r="147" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B147" s="97"/>
-      <c r="C147" s="97"/>
-      <c r="D147" s="97"/>
-      <c r="E147" s="97"/>
-      <c r="F147" s="97"/>
-      <c r="G147" s="97"/>
-      <c r="H147" s="97"/>
-      <c r="I147" s="97"/>
-      <c r="J147" s="97"/>
-      <c r="K147" s="97"/>
-      <c r="L147" s="97"/>
+      <c r="B147" s="85"/>
+      <c r="C147" s="85"/>
+      <c r="D147" s="85"/>
+      <c r="E147" s="85"/>
+      <c r="F147" s="85"/>
+      <c r="G147" s="85"/>
+      <c r="H147" s="85"/>
+      <c r="I147" s="85"/>
+      <c r="J147" s="85"/>
+      <c r="K147" s="85"/>
+      <c r="L147" s="85"/>
     </row>
     <row r="148" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B148" s="97"/>
-      <c r="C148" s="97"/>
-      <c r="D148" s="97"/>
-      <c r="E148" s="97"/>
-      <c r="F148" s="97"/>
-      <c r="G148" s="97"/>
-      <c r="H148" s="97"/>
-      <c r="I148" s="97"/>
-      <c r="J148" s="97"/>
-      <c r="K148" s="97"/>
-      <c r="L148" s="97"/>
+      <c r="B148" s="85"/>
+      <c r="C148" s="85"/>
+      <c r="D148" s="85"/>
+      <c r="E148" s="85"/>
+      <c r="F148" s="85"/>
+      <c r="G148" s="85"/>
+      <c r="H148" s="85"/>
+      <c r="I148" s="85"/>
+      <c r="J148" s="85"/>
+      <c r="K148" s="85"/>
+      <c r="L148" s="85"/>
     </row>
     <row r="149" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B149" s="97"/>
-      <c r="C149" s="97"/>
-      <c r="D149" s="97"/>
-      <c r="E149" s="97"/>
-      <c r="F149" s="97"/>
-      <c r="G149" s="97"/>
-      <c r="H149" s="97"/>
-      <c r="I149" s="97"/>
-      <c r="J149" s="97"/>
-      <c r="K149" s="97"/>
-      <c r="L149" s="97"/>
+      <c r="B149" s="85"/>
+      <c r="C149" s="85"/>
+      <c r="D149" s="85"/>
+      <c r="E149" s="85"/>
+      <c r="F149" s="85"/>
+      <c r="G149" s="85"/>
+      <c r="H149" s="85"/>
+      <c r="I149" s="85"/>
+      <c r="J149" s="85"/>
+      <c r="K149" s="85"/>
+      <c r="L149" s="85"/>
     </row>
     <row r="150" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B150" s="97"/>
-      <c r="C150" s="97"/>
-      <c r="D150" s="97"/>
-      <c r="E150" s="97"/>
-      <c r="F150" s="97"/>
-      <c r="G150" s="97"/>
-      <c r="H150" s="97"/>
-      <c r="I150" s="97"/>
-      <c r="J150" s="97"/>
-      <c r="K150" s="97"/>
-      <c r="L150" s="97"/>
+      <c r="B150" s="85"/>
+      <c r="C150" s="85"/>
+      <c r="D150" s="85"/>
+      <c r="E150" s="85"/>
+      <c r="F150" s="85"/>
+      <c r="G150" s="85"/>
+      <c r="H150" s="85"/>
+      <c r="I150" s="85"/>
+      <c r="J150" s="85"/>
+      <c r="K150" s="85"/>
+      <c r="L150" s="85"/>
     </row>
     <row r="151" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B151" s="97"/>
-      <c r="C151" s="97"/>
-      <c r="D151" s="97"/>
-      <c r="E151" s="97"/>
-      <c r="F151" s="97"/>
-      <c r="G151" s="97"/>
-      <c r="H151" s="97"/>
-      <c r="I151" s="97"/>
-      <c r="J151" s="97"/>
-      <c r="K151" s="97"/>
-      <c r="L151" s="97"/>
+      <c r="B151" s="85"/>
+      <c r="C151" s="85"/>
+      <c r="D151" s="85"/>
+      <c r="E151" s="85"/>
+      <c r="F151" s="85"/>
+      <c r="G151" s="85"/>
+      <c r="H151" s="85"/>
+      <c r="I151" s="85"/>
+      <c r="J151" s="85"/>
+      <c r="K151" s="85"/>
+      <c r="L151" s="85"/>
     </row>
     <row r="152" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B152" s="97"/>
-      <c r="C152" s="97"/>
-      <c r="D152" s="97"/>
-      <c r="E152" s="97"/>
-      <c r="F152" s="97"/>
-      <c r="G152" s="97"/>
-      <c r="H152" s="97"/>
-      <c r="I152" s="97"/>
-      <c r="J152" s="97"/>
-      <c r="K152" s="97"/>
-      <c r="L152" s="97"/>
+      <c r="B152" s="85"/>
+      <c r="C152" s="85"/>
+      <c r="D152" s="85"/>
+      <c r="E152" s="85"/>
+      <c r="F152" s="85"/>
+      <c r="G152" s="85"/>
+      <c r="H152" s="85"/>
+      <c r="I152" s="85"/>
+      <c r="J152" s="85"/>
+      <c r="K152" s="85"/>
+      <c r="L152" s="85"/>
     </row>
     <row r="153" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B153" s="97"/>
-      <c r="C153" s="97"/>
-      <c r="D153" s="97"/>
-      <c r="E153" s="97"/>
-      <c r="F153" s="97"/>
-      <c r="G153" s="97"/>
-      <c r="H153" s="97"/>
-      <c r="I153" s="97"/>
-      <c r="J153" s="97"/>
-      <c r="K153" s="97"/>
-      <c r="L153" s="97"/>
+      <c r="B153" s="85"/>
+      <c r="C153" s="85"/>
+      <c r="D153" s="85"/>
+      <c r="E153" s="85"/>
+      <c r="F153" s="85"/>
+      <c r="G153" s="85"/>
+      <c r="H153" s="85"/>
+      <c r="I153" s="85"/>
+      <c r="J153" s="85"/>
+      <c r="K153" s="85"/>
+      <c r="L153" s="85"/>
     </row>
     <row r="154" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B154" s="97"/>
-      <c r="C154" s="97"/>
-      <c r="D154" s="97"/>
-      <c r="E154" s="97"/>
-      <c r="F154" s="97"/>
-      <c r="G154" s="97"/>
-      <c r="H154" s="97"/>
-      <c r="I154" s="97"/>
-      <c r="J154" s="97"/>
-      <c r="K154" s="97"/>
-      <c r="L154" s="97"/>
+      <c r="B154" s="85"/>
+      <c r="C154" s="85"/>
+      <c r="D154" s="85"/>
+      <c r="E154" s="85"/>
+      <c r="F154" s="85"/>
+      <c r="G154" s="85"/>
+      <c r="H154" s="85"/>
+      <c r="I154" s="85"/>
+      <c r="J154" s="85"/>
+      <c r="K154" s="85"/>
+      <c r="L154" s="85"/>
     </row>
     <row r="155" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B155" s="97"/>
-      <c r="C155" s="97"/>
-      <c r="D155" s="97"/>
-      <c r="E155" s="97"/>
-      <c r="F155" s="97"/>
-      <c r="G155" s="97"/>
-      <c r="H155" s="97"/>
-      <c r="I155" s="97"/>
-      <c r="J155" s="97"/>
-      <c r="K155" s="97"/>
-      <c r="L155" s="97"/>
+      <c r="B155" s="85"/>
+      <c r="C155" s="85"/>
+      <c r="D155" s="85"/>
+      <c r="E155" s="85"/>
+      <c r="F155" s="85"/>
+      <c r="G155" s="85"/>
+      <c r="H155" s="85"/>
+      <c r="I155" s="85"/>
+      <c r="J155" s="85"/>
+      <c r="K155" s="85"/>
+      <c r="L155" s="85"/>
     </row>
     <row r="156" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B156" s="97"/>
-      <c r="C156" s="97"/>
-      <c r="D156" s="97"/>
-      <c r="E156" s="97"/>
-      <c r="F156" s="97"/>
-      <c r="G156" s="97"/>
-      <c r="H156" s="97"/>
-      <c r="I156" s="97"/>
-      <c r="J156" s="97"/>
-      <c r="K156" s="97"/>
-      <c r="L156" s="97"/>
+      <c r="B156" s="85"/>
+      <c r="C156" s="85"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="85"/>
+      <c r="G156" s="85"/>
+      <c r="H156" s="85"/>
+      <c r="I156" s="85"/>
+      <c r="J156" s="85"/>
+      <c r="K156" s="85"/>
+      <c r="L156" s="85"/>
     </row>
     <row r="157" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B157" s="97"/>
-      <c r="C157" s="97"/>
-      <c r="D157" s="97"/>
-      <c r="E157" s="97"/>
-      <c r="F157" s="97"/>
-      <c r="G157" s="97"/>
-      <c r="H157" s="97"/>
-      <c r="I157" s="97"/>
-      <c r="J157" s="97"/>
-      <c r="K157" s="97"/>
-      <c r="L157" s="97"/>
+      <c r="B157" s="85"/>
+      <c r="C157" s="85"/>
+      <c r="D157" s="85"/>
+      <c r="E157" s="85"/>
+      <c r="F157" s="85"/>
+      <c r="G157" s="85"/>
+      <c r="H157" s="85"/>
+      <c r="I157" s="85"/>
+      <c r="J157" s="85"/>
+      <c r="K157" s="85"/>
+      <c r="L157" s="85"/>
     </row>
     <row r="158" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B158" s="97"/>
-      <c r="C158" s="97"/>
-      <c r="D158" s="97"/>
-      <c r="E158" s="97"/>
-      <c r="F158" s="97"/>
-      <c r="G158" s="97"/>
-      <c r="H158" s="97"/>
-      <c r="I158" s="97"/>
-      <c r="J158" s="97"/>
-      <c r="K158" s="97"/>
-      <c r="L158" s="97"/>
+      <c r="B158" s="85"/>
+      <c r="C158" s="85"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="85"/>
+      <c r="G158" s="85"/>
+      <c r="H158" s="85"/>
+      <c r="I158" s="85"/>
+      <c r="J158" s="85"/>
+      <c r="K158" s="85"/>
+      <c r="L158" s="85"/>
     </row>
     <row r="159" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B159" s="97"/>
-      <c r="C159" s="97"/>
-      <c r="D159" s="97"/>
-      <c r="E159" s="97"/>
-      <c r="F159" s="97"/>
-      <c r="G159" s="97"/>
-      <c r="H159" s="97"/>
-      <c r="I159" s="97"/>
-      <c r="J159" s="97"/>
-      <c r="K159" s="97"/>
-      <c r="L159" s="97"/>
+      <c r="B159" s="85"/>
+      <c r="C159" s="85"/>
+      <c r="D159" s="85"/>
+      <c r="E159" s="85"/>
+      <c r="F159" s="85"/>
+      <c r="G159" s="85"/>
+      <c r="H159" s="85"/>
+      <c r="I159" s="85"/>
+      <c r="J159" s="85"/>
+      <c r="K159" s="85"/>
+      <c r="L159" s="85"/>
     </row>
     <row r="160" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B160" s="97"/>
-      <c r="C160" s="97"/>
-      <c r="D160" s="97"/>
-      <c r="E160" s="97"/>
-      <c r="F160" s="97"/>
-      <c r="G160" s="97"/>
-      <c r="H160" s="97"/>
-      <c r="I160" s="97"/>
-      <c r="J160" s="97"/>
-      <c r="K160" s="97"/>
-      <c r="L160" s="97"/>
+      <c r="B160" s="85"/>
+      <c r="C160" s="85"/>
+      <c r="D160" s="85"/>
+      <c r="E160" s="85"/>
+      <c r="F160" s="85"/>
+      <c r="G160" s="85"/>
+      <c r="H160" s="85"/>
+      <c r="I160" s="85"/>
+      <c r="J160" s="85"/>
+      <c r="K160" s="85"/>
+      <c r="L160" s="85"/>
     </row>
     <row r="161" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B161" s="97"/>
-      <c r="C161" s="97"/>
-      <c r="D161" s="97"/>
-      <c r="E161" s="97"/>
-      <c r="F161" s="97"/>
-      <c r="G161" s="97"/>
-      <c r="H161" s="97"/>
-      <c r="I161" s="97"/>
-      <c r="J161" s="97"/>
-      <c r="K161" s="97"/>
-      <c r="L161" s="97"/>
+      <c r="B161" s="85"/>
+      <c r="C161" s="85"/>
+      <c r="D161" s="85"/>
+      <c r="E161" s="85"/>
+      <c r="F161" s="85"/>
+      <c r="G161" s="85"/>
+      <c r="H161" s="85"/>
+      <c r="I161" s="85"/>
+      <c r="J161" s="85"/>
+      <c r="K161" s="85"/>
+      <c r="L161" s="85"/>
     </row>
     <row r="162" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B162" s="97"/>
-      <c r="C162" s="97"/>
-      <c r="D162" s="97"/>
-      <c r="E162" s="97"/>
-      <c r="F162" s="97"/>
-      <c r="G162" s="97"/>
-      <c r="H162" s="97"/>
-      <c r="I162" s="97"/>
-      <c r="J162" s="97"/>
-      <c r="K162" s="97"/>
-      <c r="L162" s="97"/>
+      <c r="B162" s="85"/>
+      <c r="C162" s="85"/>
+      <c r="D162" s="85"/>
+      <c r="E162" s="85"/>
+      <c r="F162" s="85"/>
+      <c r="G162" s="85"/>
+      <c r="H162" s="85"/>
+      <c r="I162" s="85"/>
+      <c r="J162" s="85"/>
+      <c r="K162" s="85"/>
+      <c r="L162" s="85"/>
     </row>
     <row r="163" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B163" s="97"/>
-      <c r="C163" s="97"/>
-      <c r="D163" s="97"/>
-      <c r="E163" s="97"/>
-      <c r="F163" s="97"/>
-      <c r="G163" s="97"/>
-      <c r="H163" s="97"/>
-      <c r="I163" s="97"/>
-      <c r="J163" s="97"/>
-      <c r="K163" s="97"/>
-      <c r="L163" s="97"/>
+      <c r="B163" s="85"/>
+      <c r="C163" s="85"/>
+      <c r="D163" s="85"/>
+      <c r="E163" s="85"/>
+      <c r="F163" s="85"/>
+      <c r="G163" s="85"/>
+      <c r="H163" s="85"/>
+      <c r="I163" s="85"/>
+      <c r="J163" s="85"/>
+      <c r="K163" s="85"/>
+      <c r="L163" s="85"/>
     </row>
     <row r="164" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B164" s="97"/>
-      <c r="C164" s="97"/>
-      <c r="D164" s="97"/>
-      <c r="E164" s="97"/>
-      <c r="F164" s="97"/>
-      <c r="G164" s="97"/>
-      <c r="H164" s="97"/>
-      <c r="I164" s="97"/>
-      <c r="J164" s="97"/>
-      <c r="K164" s="97"/>
-      <c r="L164" s="97"/>
+      <c r="B164" s="85"/>
+      <c r="C164" s="85"/>
+      <c r="D164" s="85"/>
+      <c r="E164" s="85"/>
+      <c r="F164" s="85"/>
+      <c r="G164" s="85"/>
+      <c r="H164" s="85"/>
+      <c r="I164" s="85"/>
+      <c r="J164" s="85"/>
+      <c r="K164" s="85"/>
+      <c r="L164" s="85"/>
     </row>
     <row r="165" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B165" s="97"/>
-      <c r="C165" s="97"/>
-      <c r="D165" s="97"/>
-      <c r="E165" s="97"/>
-      <c r="F165" s="97"/>
-      <c r="G165" s="97"/>
-      <c r="H165" s="97"/>
-      <c r="I165" s="97"/>
-      <c r="J165" s="97"/>
-      <c r="K165" s="97"/>
-      <c r="L165" s="97"/>
+      <c r="B165" s="85"/>
+      <c r="C165" s="85"/>
+      <c r="D165" s="85"/>
+      <c r="E165" s="85"/>
+      <c r="F165" s="85"/>
+      <c r="G165" s="85"/>
+      <c r="H165" s="85"/>
+      <c r="I165" s="85"/>
+      <c r="J165" s="85"/>
+      <c r="K165" s="85"/>
+      <c r="L165" s="85"/>
     </row>
     <row r="166" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B166" s="97"/>
-      <c r="C166" s="97"/>
-      <c r="D166" s="97"/>
-      <c r="E166" s="97"/>
-      <c r="F166" s="97"/>
-      <c r="G166" s="97"/>
-      <c r="H166" s="97"/>
-      <c r="I166" s="97"/>
-      <c r="J166" s="97"/>
-      <c r="K166" s="97"/>
-      <c r="L166" s="97"/>
+      <c r="B166" s="85"/>
+      <c r="C166" s="85"/>
+      <c r="D166" s="85"/>
+      <c r="E166" s="85"/>
+      <c r="F166" s="85"/>
+      <c r="G166" s="85"/>
+      <c r="H166" s="85"/>
+      <c r="I166" s="85"/>
+      <c r="J166" s="85"/>
+      <c r="K166" s="85"/>
+      <c r="L166" s="85"/>
     </row>
     <row r="167" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B167" s="97"/>
-      <c r="C167" s="97"/>
-      <c r="D167" s="97"/>
-      <c r="E167" s="97"/>
-      <c r="F167" s="97"/>
-      <c r="G167" s="97"/>
-      <c r="H167" s="97"/>
-      <c r="I167" s="97"/>
-      <c r="J167" s="97"/>
-      <c r="K167" s="97"/>
-      <c r="L167" s="97"/>
+      <c r="B167" s="85"/>
+      <c r="C167" s="85"/>
+      <c r="D167" s="85"/>
+      <c r="E167" s="85"/>
+      <c r="F167" s="85"/>
+      <c r="G167" s="85"/>
+      <c r="H167" s="85"/>
+      <c r="I167" s="85"/>
+      <c r="J167" s="85"/>
+      <c r="K167" s="85"/>
+      <c r="L167" s="85"/>
     </row>
     <row r="168" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B168" s="97"/>
-      <c r="C168" s="97"/>
-      <c r="D168" s="97"/>
-      <c r="E168" s="97"/>
-      <c r="F168" s="97"/>
-      <c r="G168" s="97"/>
-      <c r="H168" s="97"/>
-      <c r="I168" s="97"/>
-      <c r="J168" s="97"/>
-      <c r="K168" s="97"/>
-      <c r="L168" s="97"/>
+      <c r="B168" s="85"/>
+      <c r="C168" s="85"/>
+      <c r="D168" s="85"/>
+      <c r="E168" s="85"/>
+      <c r="F168" s="85"/>
+      <c r="G168" s="85"/>
+      <c r="H168" s="85"/>
+      <c r="I168" s="85"/>
+      <c r="J168" s="85"/>
+      <c r="K168" s="85"/>
+      <c r="L168" s="85"/>
     </row>
     <row r="169" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B169" s="97"/>
-      <c r="C169" s="97"/>
-      <c r="D169" s="97"/>
-      <c r="E169" s="97"/>
-      <c r="F169" s="97"/>
-      <c r="G169" s="97"/>
-      <c r="H169" s="97"/>
-      <c r="I169" s="97"/>
-      <c r="J169" s="97"/>
-      <c r="K169" s="97"/>
-      <c r="L169" s="97"/>
+      <c r="B169" s="85"/>
+      <c r="C169" s="85"/>
+      <c r="D169" s="85"/>
+      <c r="E169" s="85"/>
+      <c r="F169" s="85"/>
+      <c r="G169" s="85"/>
+      <c r="H169" s="85"/>
+      <c r="I169" s="85"/>
+      <c r="J169" s="85"/>
+      <c r="K169" s="85"/>
+      <c r="L169" s="85"/>
     </row>
     <row r="170" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B170" s="97"/>
-      <c r="C170" s="97"/>
-      <c r="D170" s="97"/>
-      <c r="E170" s="97"/>
-      <c r="F170" s="97"/>
-      <c r="G170" s="97"/>
-      <c r="H170" s="97"/>
-      <c r="I170" s="97"/>
-      <c r="J170" s="97"/>
-      <c r="K170" s="97"/>
-      <c r="L170" s="97"/>
+      <c r="B170" s="85"/>
+      <c r="C170" s="85"/>
+      <c r="D170" s="85"/>
+      <c r="E170" s="85"/>
+      <c r="F170" s="85"/>
+      <c r="G170" s="85"/>
+      <c r="H170" s="85"/>
+      <c r="I170" s="85"/>
+      <c r="J170" s="85"/>
+      <c r="K170" s="85"/>
+      <c r="L170" s="85"/>
     </row>
     <row r="171" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B171" s="97"/>
-      <c r="C171" s="97"/>
-      <c r="D171" s="97"/>
-      <c r="E171" s="97"/>
-      <c r="F171" s="97"/>
-      <c r="G171" s="97"/>
-      <c r="H171" s="97"/>
-      <c r="I171" s="97"/>
-      <c r="J171" s="97"/>
-      <c r="K171" s="97"/>
-      <c r="L171" s="97"/>
+      <c r="B171" s="85"/>
+      <c r="C171" s="85"/>
+      <c r="D171" s="85"/>
+      <c r="E171" s="85"/>
+      <c r="F171" s="85"/>
+      <c r="G171" s="85"/>
+      <c r="H171" s="85"/>
+      <c r="I171" s="85"/>
+      <c r="J171" s="85"/>
+      <c r="K171" s="85"/>
+      <c r="L171" s="85"/>
     </row>
     <row r="172" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B172" s="97"/>
-      <c r="C172" s="97"/>
-      <c r="D172" s="97"/>
-      <c r="E172" s="97"/>
-      <c r="F172" s="97"/>
-      <c r="G172" s="97"/>
-      <c r="H172" s="97"/>
-      <c r="I172" s="97"/>
-      <c r="J172" s="97"/>
-      <c r="K172" s="97"/>
-      <c r="L172" s="97"/>
+      <c r="B172" s="85"/>
+      <c r="C172" s="85"/>
+      <c r="D172" s="85"/>
+      <c r="E172" s="85"/>
+      <c r="F172" s="85"/>
+      <c r="G172" s="85"/>
+      <c r="H172" s="85"/>
+      <c r="I172" s="85"/>
+      <c r="J172" s="85"/>
+      <c r="K172" s="85"/>
+      <c r="L172" s="85"/>
     </row>
     <row r="173" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B173" s="97"/>
-      <c r="C173" s="97"/>
-      <c r="D173" s="97"/>
-      <c r="E173" s="97"/>
-      <c r="F173" s="97"/>
-      <c r="G173" s="97"/>
-      <c r="H173" s="97"/>
-      <c r="I173" s="97"/>
-      <c r="J173" s="97"/>
-      <c r="K173" s="97"/>
-      <c r="L173" s="97"/>
+      <c r="B173" s="85"/>
+      <c r="C173" s="85"/>
+      <c r="D173" s="85"/>
+      <c r="E173" s="85"/>
+      <c r="F173" s="85"/>
+      <c r="G173" s="85"/>
+      <c r="H173" s="85"/>
+      <c r="I173" s="85"/>
+      <c r="J173" s="85"/>
+      <c r="K173" s="85"/>
+      <c r="L173" s="85"/>
     </row>
     <row r="174" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B174" s="97"/>
-      <c r="C174" s="97"/>
-      <c r="D174" s="97"/>
-      <c r="E174" s="97"/>
-      <c r="F174" s="97"/>
-      <c r="G174" s="97"/>
-      <c r="H174" s="97"/>
-      <c r="I174" s="97"/>
-      <c r="J174" s="97"/>
-      <c r="K174" s="97"/>
-      <c r="L174" s="97"/>
+      <c r="B174" s="85"/>
+      <c r="C174" s="85"/>
+      <c r="D174" s="85"/>
+      <c r="E174" s="85"/>
+      <c r="F174" s="85"/>
+      <c r="G174" s="85"/>
+      <c r="H174" s="85"/>
+      <c r="I174" s="85"/>
+      <c r="J174" s="85"/>
+      <c r="K174" s="85"/>
+      <c r="L174" s="85"/>
     </row>
     <row r="175" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B175" s="97"/>
-      <c r="C175" s="97"/>
-      <c r="D175" s="97"/>
-      <c r="E175" s="97"/>
-      <c r="F175" s="97"/>
-      <c r="G175" s="97"/>
-      <c r="H175" s="97"/>
-      <c r="I175" s="97"/>
-      <c r="J175" s="97"/>
-      <c r="K175" s="97"/>
-      <c r="L175" s="97"/>
+      <c r="B175" s="85"/>
+      <c r="C175" s="85"/>
+      <c r="D175" s="85"/>
+      <c r="E175" s="85"/>
+      <c r="F175" s="85"/>
+      <c r="G175" s="85"/>
+      <c r="H175" s="85"/>
+      <c r="I175" s="85"/>
+      <c r="J175" s="85"/>
+      <c r="K175" s="85"/>
+      <c r="L175" s="85"/>
     </row>
     <row r="176" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B176" s="97"/>
-      <c r="C176" s="97"/>
-      <c r="D176" s="97"/>
-      <c r="E176" s="97"/>
-      <c r="F176" s="97"/>
-      <c r="G176" s="97"/>
-      <c r="H176" s="97"/>
-      <c r="I176" s="97"/>
-      <c r="J176" s="97"/>
-      <c r="K176" s="97"/>
-      <c r="L176" s="97"/>
+      <c r="B176" s="85"/>
+      <c r="C176" s="85"/>
+      <c r="D176" s="85"/>
+      <c r="E176" s="85"/>
+      <c r="F176" s="85"/>
+      <c r="G176" s="85"/>
+      <c r="H176" s="85"/>
+      <c r="I176" s="85"/>
+      <c r="J176" s="85"/>
+      <c r="K176" s="85"/>
+      <c r="L176" s="85"/>
     </row>
     <row r="177" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B177" s="97"/>
-      <c r="C177" s="97"/>
-      <c r="D177" s="97"/>
-      <c r="E177" s="97"/>
-      <c r="F177" s="97"/>
-      <c r="G177" s="97"/>
-      <c r="H177" s="97"/>
-      <c r="I177" s="97"/>
-      <c r="J177" s="97"/>
-      <c r="K177" s="97"/>
-      <c r="L177" s="97"/>
+      <c r="B177" s="85"/>
+      <c r="C177" s="85"/>
+      <c r="D177" s="85"/>
+      <c r="E177" s="85"/>
+      <c r="F177" s="85"/>
+      <c r="G177" s="85"/>
+      <c r="H177" s="85"/>
+      <c r="I177" s="85"/>
+      <c r="J177" s="85"/>
+      <c r="K177" s="85"/>
+      <c r="L177" s="85"/>
     </row>
     <row r="178" spans="2:12" ht="18" customHeight="1">
-      <c r="B178" s="97" t="s">
+      <c r="B178" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="C178" s="97"/>
-      <c r="D178" s="99" t="str">
+      <c r="C178" s="85"/>
+      <c r="D178" s="87" t="str">
         <f>記入!B37</f>
         <v>${cv.signingdate}</v>
       </c>
-      <c r="E178" s="99"/>
+      <c r="E178" s="87"/>
       <c r="F178" s="45"/>
       <c r="G178" s="45"/>
       <c r="H178" s="45"/>
@@ -8229,11 +8232,11 @@
       <c r="J208" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="K208" s="95" t="str">
+      <c r="K208" s="83" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L208" s="95"/>
+      <c r="L208" s="83"/>
     </row>
     <row r="209" spans="2:12" ht="18.75">
       <c r="B209" s="38" t="s">
@@ -8257,19 +8260,19 @@
     </row>
     <row r="212" spans="2:12" ht="14.25">
       <c r="B212" s="34"/>
-      <c r="C212" s="98" t="str">
+      <c r="C212" s="86" t="str">
         <f>記入!B11</f>
         <v>${cv.pjnamechinese}</v>
       </c>
-      <c r="D212" s="98"/>
-      <c r="E212" s="98"/>
-      <c r="F212" s="98"/>
-      <c r="G212" s="98"/>
-      <c r="H212" s="98"/>
-      <c r="I212" s="98"/>
-      <c r="J212" s="98"/>
-      <c r="K212" s="98"/>
-      <c r="L212" s="98"/>
+      <c r="D212" s="86"/>
+      <c r="E212" s="86"/>
+      <c r="F212" s="86"/>
+      <c r="G212" s="86"/>
+      <c r="H212" s="86"/>
+      <c r="I212" s="86"/>
+      <c r="J212" s="86"/>
+      <c r="K212" s="86"/>
+      <c r="L212" s="86"/>
     </row>
     <row r="213" spans="2:12" ht="14.25">
       <c r="B213" s="34"/>
@@ -8304,11 +8307,11 @@
       <c r="C215" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="D215" s="93" t="str">
+      <c r="D215" s="81" t="str">
         <f>記入!B14</f>
         <v>${cv.openingdate}</v>
       </c>
-      <c r="E215" s="94"/>
+      <c r="E215" s="82"/>
       <c r="F215" s="35"/>
       <c r="G215" s="35"/>
       <c r="H215" s="35"/>
@@ -8322,11 +8325,11 @@
       <c r="C216" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="D216" s="93" t="str">
+      <c r="D216" s="81" t="str">
         <f>記入!B15</f>
         <v>${cv.enddate}</v>
       </c>
-      <c r="E216" s="94"/>
+      <c r="E216" s="82"/>
       <c r="F216" s="35"/>
       <c r="G216" s="35"/>
       <c r="H216" s="35"/>
@@ -8389,18 +8392,18 @@
     </row>
     <row r="222" spans="2:12" ht="14.25">
       <c r="B222" s="34"/>
-      <c r="C222" s="81" t="s">
+      <c r="C222" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="D222" s="81"/>
-      <c r="E222" s="81" t="s">
+      <c r="D222" s="88"/>
+      <c r="E222" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="F222" s="81"/>
-      <c r="G222" s="81" t="s">
+      <c r="F222" s="88"/>
+      <c r="G222" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="H222" s="81"/>
+      <c r="H222" s="88"/>
       <c r="I222" s="34"/>
       <c r="J222" s="34"/>
       <c r="K222" s="34"/>
@@ -8408,21 +8411,21 @@
     </row>
     <row r="223" spans="2:12" ht="14.25">
       <c r="B223" s="34"/>
-      <c r="C223" s="82" t="str">
+      <c r="C223" s="89" t="str">
         <f>IF(E223="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="D223" s="82"/>
-      <c r="E223" s="81" t="str">
+      <c r="D223" s="89"/>
+      <c r="E223" s="88" t="str">
         <f>IF(記入!A29="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F223" s="81"/>
-      <c r="G223" s="92" t="str">
+      <c r="F223" s="88"/>
+      <c r="G223" s="90" t="str">
         <f>IF(記入!B29="","-",記入!B29)</f>
         <v>${ba1[0].deliverydate}</v>
       </c>
-      <c r="H223" s="92"/>
+      <c r="H223" s="90"/>
       <c r="I223" s="34"/>
       <c r="J223" s="34"/>
       <c r="K223" s="34"/>
@@ -8430,21 +8433,21 @@
     </row>
     <row r="224" spans="2:12" ht="14.25">
       <c r="B224" s="34"/>
-      <c r="C224" s="82" t="str">
+      <c r="C224" s="89" t="str">
         <f>IF(E224="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="D224" s="82"/>
-      <c r="E224" s="81" t="str">
+      <c r="D224" s="89"/>
+      <c r="E224" s="88" t="str">
         <f>IF(記入!A30="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F224" s="81"/>
-      <c r="G224" s="92" t="str">
+      <c r="F224" s="88"/>
+      <c r="G224" s="90" t="str">
         <f>IF(記入!B30="","-",記入!B30)</f>
         <v>${ba1[1].deliverydate}</v>
       </c>
-      <c r="H224" s="92"/>
+      <c r="H224" s="90"/>
       <c r="I224" s="34"/>
       <c r="J224" s="34"/>
       <c r="K224" s="34"/>
@@ -8452,21 +8455,21 @@
     </row>
     <row r="225" spans="2:12" ht="14.25">
       <c r="B225" s="34"/>
-      <c r="C225" s="82" t="str">
+      <c r="C225" s="89" t="str">
         <f>IF(E225="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="D225" s="82"/>
-      <c r="E225" s="81" t="str">
+      <c r="D225" s="89"/>
+      <c r="E225" s="88" t="str">
         <f>IF(記入!A31="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F225" s="81"/>
-      <c r="G225" s="92" t="str">
+      <c r="F225" s="88"/>
+      <c r="G225" s="90" t="str">
         <f>IF(記入!B31="","-",記入!B31)</f>
         <v>${ba1[2].deliverydate}</v>
       </c>
-      <c r="H225" s="92"/>
+      <c r="H225" s="90"/>
       <c r="I225" s="34"/>
       <c r="J225" s="34"/>
       <c r="K225" s="34"/>
@@ -8474,21 +8477,21 @@
     </row>
     <row r="226" spans="2:12" ht="14.25">
       <c r="B226" s="34"/>
-      <c r="C226" s="82" t="str">
+      <c r="C226" s="89" t="str">
         <f>IF(E225="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="D226" s="82"/>
-      <c r="E226" s="81" t="str">
+      <c r="D226" s="89"/>
+      <c r="E226" s="88" t="str">
         <f>IF(記入!A32="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F226" s="81"/>
-      <c r="G226" s="92" t="str">
+      <c r="F226" s="88"/>
+      <c r="G226" s="90" t="str">
         <f>IF(記入!B32="","-",記入!B32)</f>
         <v>${ba1[3].deliverydate}</v>
       </c>
-      <c r="H226" s="92"/>
+      <c r="H226" s="90"/>
       <c r="I226" s="34"/>
       <c r="J226" s="34"/>
       <c r="K226" s="34"/>
@@ -8524,131 +8527,131 @@
     </row>
     <row r="229" spans="2:12" ht="14.25">
       <c r="B229" s="34"/>
-      <c r="C229" s="81" t="s">
+      <c r="C229" s="88" t="s">
         <v>54</v>
       </c>
-      <c r="D229" s="81"/>
-      <c r="E229" s="81" t="s">
+      <c r="D229" s="88"/>
+      <c r="E229" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="F229" s="81"/>
-      <c r="G229" s="81" t="s">
+      <c r="F229" s="88"/>
+      <c r="G229" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="H229" s="81"/>
-      <c r="I229" s="81" t="str">
+      <c r="H229" s="88"/>
+      <c r="I229" s="88" t="str">
         <f>"金额"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金额(${cv.currencyposition})</v>
       </c>
-      <c r="J229" s="81"/>
-      <c r="K229" s="81" t="str">
+      <c r="J229" s="88"/>
+      <c r="K229" s="88" t="str">
         <f>"金额总计"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金额总计(${cv.currencyposition})</v>
       </c>
-      <c r="L229" s="81"/>
+      <c r="L229" s="88"/>
     </row>
     <row r="230" spans="2:12" ht="14.25">
       <c r="B230" s="34"/>
-      <c r="C230" s="82" t="str">
+      <c r="C230" s="89" t="str">
         <f>IF(E230="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="D230" s="82"/>
-      <c r="E230" s="83" t="str">
+      <c r="D230" s="89"/>
+      <c r="E230" s="91" t="str">
         <f>IF(記入!D29="","-",記入!D29)</f>
         <v>${ba1[0].claimdate}</v>
       </c>
-      <c r="F230" s="84"/>
-      <c r="G230" s="83" t="str">
+      <c r="F230" s="92"/>
+      <c r="G230" s="91" t="str">
         <f>IF(記入!E29="","-",記入!E29)</f>
         <v>${ba1[0].supportdate}</v>
       </c>
-      <c r="H230" s="84"/>
-      <c r="I230" s="85" t="str">
+      <c r="H230" s="92"/>
+      <c r="I230" s="93" t="str">
         <f>IF(記入!F29="","-",記入!F29)</f>
         <v>${ba1[0].claimamount}</v>
       </c>
-      <c r="J230" s="84"/>
-      <c r="K230" s="86" t="str">
+      <c r="J230" s="92"/>
+      <c r="K230" s="94" t="str">
         <f>記入!B20</f>
         <v>${cv.claimamount}</v>
       </c>
-      <c r="L230" s="87"/>
+      <c r="L230" s="95"/>
     </row>
     <row r="231" spans="2:12" ht="14.25" customHeight="1">
       <c r="B231" s="34"/>
-      <c r="C231" s="82" t="str">
+      <c r="C231" s="89" t="str">
         <f>IF(E231="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="D231" s="82"/>
-      <c r="E231" s="83" t="str">
+      <c r="D231" s="89"/>
+      <c r="E231" s="91" t="str">
         <f>IF(記入!D30="","-",記入!D30)</f>
         <v>${ba1[1].claimdate}</v>
       </c>
-      <c r="F231" s="84"/>
-      <c r="G231" s="83" t="str">
+      <c r="F231" s="92"/>
+      <c r="G231" s="91" t="str">
         <f>IF(記入!E30="","-",記入!E30)</f>
         <v>${ba1[1].supportdate}</v>
       </c>
-      <c r="H231" s="84"/>
-      <c r="I231" s="85" t="str">
+      <c r="H231" s="92"/>
+      <c r="I231" s="93" t="str">
         <f>IF(記入!F30="","-",記入!F30)</f>
         <v>${ba1[1].claimamount}</v>
       </c>
-      <c r="J231" s="84"/>
-      <c r="K231" s="88"/>
-      <c r="L231" s="89"/>
+      <c r="J231" s="92"/>
+      <c r="K231" s="96"/>
+      <c r="L231" s="97"/>
     </row>
     <row r="232" spans="2:12" ht="14.25" customHeight="1">
       <c r="B232" s="34"/>
-      <c r="C232" s="82" t="str">
+      <c r="C232" s="89" t="str">
         <f>IF(E232="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="D232" s="82"/>
-      <c r="E232" s="83" t="str">
+      <c r="D232" s="89"/>
+      <c r="E232" s="91" t="str">
         <f>IF(記入!D31="","-",記入!D31)</f>
         <v>${ba1[2].claimdate}</v>
       </c>
-      <c r="F232" s="84"/>
-      <c r="G232" s="83" t="str">
+      <c r="F232" s="92"/>
+      <c r="G232" s="91" t="str">
         <f>IF(記入!E31="","-",記入!E31)</f>
         <v>${ba1[2].supportdate}</v>
       </c>
-      <c r="H232" s="84"/>
-      <c r="I232" s="85" t="str">
+      <c r="H232" s="92"/>
+      <c r="I232" s="93" t="str">
         <f>IF(記入!F31="","-",記入!F31)</f>
         <v>${ba1[2].claimamount}</v>
       </c>
-      <c r="J232" s="84"/>
-      <c r="K232" s="88"/>
-      <c r="L232" s="89"/>
+      <c r="J232" s="92"/>
+      <c r="K232" s="96"/>
+      <c r="L232" s="97"/>
     </row>
     <row r="233" spans="2:12" ht="14.25" customHeight="1">
       <c r="B233" s="34"/>
-      <c r="C233" s="82" t="str">
+      <c r="C233" s="89" t="str">
         <f>IF(E233="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="D233" s="82"/>
-      <c r="E233" s="83" t="str">
+      <c r="D233" s="89"/>
+      <c r="E233" s="91" t="str">
         <f>IF(記入!D32="","-",記入!D32)</f>
         <v>${ba1[3].claimdate}</v>
       </c>
-      <c r="F233" s="84"/>
-      <c r="G233" s="83" t="str">
+      <c r="F233" s="92"/>
+      <c r="G233" s="91" t="str">
         <f>IF(記入!E32="","-",記入!E32)</f>
         <v>${ba1[3].supportdate}</v>
       </c>
-      <c r="H233" s="84"/>
-      <c r="I233" s="85" t="str">
+      <c r="H233" s="92"/>
+      <c r="I233" s="93" t="str">
         <f>IF(記入!F32="","-",記入!F32)</f>
         <v>${ba1[3].claimamount}</v>
       </c>
-      <c r="J233" s="84"/>
-      <c r="K233" s="90"/>
-      <c r="L233" s="91"/>
+      <c r="J233" s="92"/>
+      <c r="K233" s="98"/>
+      <c r="L233" s="99"/>
     </row>
     <row r="234" spans="2:12" ht="14.25">
       <c r="B234" s="34"/>
@@ -8670,41 +8673,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B11:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="B69:L133"/>
-    <mergeCell ref="K134:L134"/>
-    <mergeCell ref="B135:L177"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="C212:L212"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="C222:D222"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="C223:D223"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="G232:H232"/>
-    <mergeCell ref="I232:J232"/>
-    <mergeCell ref="C224:D224"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="G225:H225"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="G226:H226"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="G229:H229"/>
     <mergeCell ref="K229:L229"/>
     <mergeCell ref="C230:D230"/>
     <mergeCell ref="E230:F230"/>
@@ -8721,6 +8689,41 @@
     <mergeCell ref="I229:J229"/>
     <mergeCell ref="I231:J231"/>
     <mergeCell ref="C232:D232"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="G232:H232"/>
+    <mergeCell ref="I232:J232"/>
+    <mergeCell ref="C224:D224"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="G225:H225"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="G226:H226"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="C223:D223"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B11:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B69:L133"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="B135:L177"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="C212:L212"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="D178:E178"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/controller/src/main/resources/jxls_templates/qiyueshu_yiwushoutuo.xlsx
+++ b/controller/src/main/resources/jxls_templates/qiyueshu_yiwushoutuo.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570"/>
+    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -1058,7 +1058,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="177" formatCode="mm/dd/yy;@"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1465,7 +1465,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1589,9 +1589,6 @@
     <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1612,6 +1609,30 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1640,34 +1661,34 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="18" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="14" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="40" fontId="18" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1691,41 +1712,8 @@
     <xf numFmtId="176" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="18" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="18" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2039,8 +2027,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2056,14 +2044,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="G1" s="56" t="s">
+      <c r="B1" s="54"/>
+      <c r="G1" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="57"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="45" t="s">
@@ -2076,8 +2064,8 @@
         <v>15</v>
       </c>
       <c r="D2" s="12"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="58"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="46" t="s">
@@ -2087,8 +2075,8 @@
       <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="45" t="s">
@@ -2100,8 +2088,8 @@
       <c r="C4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="58"/>
-      <c r="H4" s="59"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="45" t="s">
@@ -2111,8 +2099,8 @@
       <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="47" t="s">
@@ -2124,8 +2112,8 @@
       <c r="C6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="58"/>
-      <c r="H6" s="59"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="47" t="s">
@@ -2137,8 +2125,8 @@
       <c r="C7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="58"/>
-      <c r="H7" s="59"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="58"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="45" t="s">
@@ -2148,8 +2136,8 @@
       <c r="C8" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="59"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A9" s="46" t="s">
@@ -2161,8 +2149,8 @@
       <c r="C9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="59"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="45" t="s">
@@ -2174,8 +2162,8 @@
       <c r="C10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="58"/>
-      <c r="H10" s="59"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="45" t="s">
@@ -2187,8 +2175,8 @@
       <c r="C11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="58"/>
-      <c r="H11" s="59"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="45" t="s">
@@ -2200,8 +2188,8 @@
       <c r="C12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="58"/>
-      <c r="H12" s="59"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="45" t="s">
@@ -2211,8 +2199,8 @@
       <c r="C13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="58"/>
-      <c r="H13" s="59"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="58"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="45" t="s">
@@ -2224,8 +2212,8 @@
       <c r="C14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="59"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="45" t="s">
@@ -2237,8 +2225,8 @@
       <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="58"/>
-      <c r="H15" s="59"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="45" t="s">
@@ -2248,8 +2236,8 @@
       <c r="C16" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="58"/>
-      <c r="H16" s="59"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="45" t="s">
@@ -2259,8 +2247,8 @@
       <c r="C17" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="58"/>
-      <c r="H17" s="59"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="45" t="s">
@@ -2270,8 +2258,8 @@
       <c r="C18" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G18" s="58"/>
-      <c r="H18" s="59"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="45" t="s">
@@ -2283,8 +2271,8 @@
       <c r="C19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="58"/>
-      <c r="H19" s="59"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="58"/>
     </row>
     <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A20" s="45" t="s">
@@ -2296,8 +2284,8 @@
       <c r="C20" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="58"/>
-      <c r="H20" s="59"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="58"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="45" t="s">
@@ -2307,8 +2295,8 @@
       <c r="C21" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="58"/>
-      <c r="H21" s="59"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="58"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="45" t="s">
@@ -2318,8 +2306,8 @@
       <c r="C22" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="58"/>
-      <c r="H22" s="59"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
     </row>
     <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A23" s="46" t="s">
@@ -2329,8 +2317,8 @@
       <c r="C23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="58"/>
-      <c r="H23" s="59"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="58"/>
     </row>
     <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A24" s="46" t="s">
@@ -2340,8 +2328,8 @@
       <c r="C24" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G24" s="58"/>
-      <c r="H24" s="59"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="58"/>
     </row>
     <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5">
       <c r="A25" s="46" t="s">
@@ -2353,8 +2341,8 @@
       <c r="C25" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="59"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="58"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="46" t="s">
@@ -2366,14 +2354,14 @@
       <c r="C26" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="58"/>
-      <c r="H26" s="59"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="58"/>
     </row>
     <row r="27" spans="1:8" ht="1.5" hidden="1" customHeight="1">
       <c r="A27" s="48"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="59"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="58"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="49" t="s">
@@ -2394,100 +2382,100 @@
       <c r="F28" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="58"/>
-      <c r="H28" s="59"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="58"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
       <c r="A29" s="52" t="str">
         <f>IF(B29="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="95" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="54" t="s">
+      <c r="C29" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="95" t="s">
         <v>112</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="59"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="58"/>
     </row>
     <row r="30" spans="1:8" ht="13.5">
       <c r="A30" s="52" t="str">
         <f>IF(B30="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="54" t="s">
+      <c r="C30" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="95" t="s">
         <v>113</v>
       </c>
       <c r="F30" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="58"/>
-      <c r="H30" s="59"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="58"/>
     </row>
     <row r="31" spans="1:8" ht="13.5">
       <c r="A31" s="52" t="str">
         <f>IF(B31="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="54" t="s">
+      <c r="C31" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="95" t="s">
         <v>114</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="59"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="58"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" thickBot="1">
       <c r="A32" s="52" t="str">
         <f>IF(B32="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="54" t="s">
+      <c r="C32" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="D32" s="54" t="s">
+      <c r="D32" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="95" t="s">
         <v>115</v>
       </c>
       <c r="F32" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="G32" s="60"/>
-      <c r="H32" s="61"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="60"/>
     </row>
     <row r="33" spans="1:4" ht="10.5" customHeight="1">
       <c r="A33" s="2"/>
@@ -2540,8 +2528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L237"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A184" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="H195" sqref="H195"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A196" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E230" sqref="E230:J233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2557,18 +2545,18 @@
       <c r="J2" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="76" t="str">
+      <c r="K2" s="64" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="76"/>
+      <c r="L2" s="64"/>
     </row>
     <row r="3" spans="1:12" ht="18.75">
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="20" t="s">
@@ -2623,32 +2611,32 @@
       <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="65" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="B10" s="21"/>
@@ -2664,2186 +2652,2186 @@
       <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
+      <c r="K14" s="65"/>
+      <c r="L14" s="65"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="77"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="77"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="77"/>
-      <c r="G16" s="77"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="77"/>
-      <c r="K16" s="77"/>
-      <c r="L16" s="77"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="77"/>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="77"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="77"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="77"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="77"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="77"/>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-      <c r="L20" s="77"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="77"/>
-      <c r="C21" s="77"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="77"/>
-      <c r="G21" s="77"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="77"/>
-      <c r="J21" s="77"/>
-      <c r="K21" s="77"/>
-      <c r="L21" s="77"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="77"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="77"/>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="77"/>
-      <c r="K22" s="77"/>
-      <c r="L22" s="77"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="77"/>
-      <c r="C23" s="77"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="77"/>
-      <c r="L23" s="77"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77"/>
-      <c r="L24" s="77"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="77"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="77"/>
-      <c r="J25" s="77"/>
-      <c r="K25" s="77"/>
-      <c r="L25" s="77"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="77"/>
-      <c r="C26" s="77"/>
-      <c r="D26" s="77"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="77"/>
-      <c r="G26" s="77"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="77"/>
-      <c r="L26" s="77"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="77"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-      <c r="L27" s="77"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="77"/>
-      <c r="C28" s="77"/>
-      <c r="D28" s="77"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
-      <c r="G28" s="77"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="77"/>
-      <c r="L28" s="77"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="77"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="77"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="77"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="77"/>
-      <c r="L29" s="77"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="65"/>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="77"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="77"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="65"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="77"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="65"/>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="77"/>
-      <c r="J33" s="77"/>
-      <c r="K33" s="77"/>
-      <c r="L33" s="77"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="77"/>
-      <c r="C34" s="77"/>
-      <c r="D34" s="77"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
-      <c r="G34" s="77"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="77"/>
-      <c r="L34" s="77"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65"/>
+      <c r="I34" s="65"/>
+      <c r="J34" s="65"/>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="77"/>
-      <c r="C35" s="77"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="65"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65"/>
+      <c r="I35" s="65"/>
+      <c r="J35" s="65"/>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="77"/>
-      <c r="C36" s="77"/>
-      <c r="D36" s="77"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="77"/>
-      <c r="K36" s="77"/>
-      <c r="L36" s="77"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="65"/>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="77"/>
-      <c r="C37" s="77"/>
-      <c r="D37" s="77"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="77"/>
-      <c r="J37" s="77"/>
-      <c r="K37" s="77"/>
-      <c r="L37" s="77"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
-      <c r="G38" s="77"/>
-      <c r="H38" s="77"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="77"/>
-      <c r="K38" s="77"/>
-      <c r="L38" s="77"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="77"/>
-      <c r="C39" s="77"/>
-      <c r="D39" s="77"/>
-      <c r="E39" s="77"/>
-      <c r="F39" s="77"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="77"/>
-      <c r="J39" s="77"/>
-      <c r="K39" s="77"/>
-      <c r="L39" s="77"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="77"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="77"/>
-      <c r="K40" s="77"/>
-      <c r="L40" s="77"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="65"/>
+      <c r="L40" s="65"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="77"/>
-      <c r="C41" s="77"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="77"/>
-      <c r="K41" s="77"/>
-      <c r="L41" s="77"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="65"/>
+      <c r="F41" s="65"/>
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="65"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="77"/>
-      <c r="L42" s="77"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="65"/>
+      <c r="J42" s="65"/>
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
-      <c r="D43" s="77"/>
-      <c r="E43" s="77"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="65"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="65"/>
+      <c r="J43" s="65"/>
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="77"/>
-      <c r="E44" s="77"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
-      <c r="L44" s="77"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="65"/>
+      <c r="K44" s="65"/>
+      <c r="L44" s="65"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="77"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="77"/>
-      <c r="E45" s="77"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="77"/>
-      <c r="J45" s="77"/>
-      <c r="K45" s="77"/>
-      <c r="L45" s="77"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="65"/>
+      <c r="D45" s="65"/>
+      <c r="E45" s="65"/>
+      <c r="F45" s="65"/>
+      <c r="G45" s="65"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="65"/>
+      <c r="J45" s="65"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="77"/>
-      <c r="C46" s="77"/>
-      <c r="D46" s="77"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="65"/>
+      <c r="J46" s="65"/>
+      <c r="K46" s="65"/>
+      <c r="L46" s="65"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="77"/>
-      <c r="C47" s="77"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="77"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="77"/>
-      <c r="J47" s="77"/>
-      <c r="K47" s="77"/>
-      <c r="L47" s="77"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="65"/>
+      <c r="E47" s="65"/>
+      <c r="F47" s="65"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+      <c r="J47" s="65"/>
+      <c r="K47" s="65"/>
+      <c r="L47" s="65"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="77"/>
-      <c r="C48" s="77"/>
-      <c r="D48" s="77"/>
-      <c r="E48" s="77"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="77"/>
-      <c r="J48" s="77"/>
-      <c r="K48" s="77"/>
-      <c r="L48" s="77"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+      <c r="J48" s="65"/>
+      <c r="K48" s="65"/>
+      <c r="L48" s="65"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="77"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
-      <c r="L49" s="77"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+      <c r="J49" s="65"/>
+      <c r="K49" s="65"/>
+      <c r="L49" s="65"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="77"/>
-      <c r="C50" s="77"/>
-      <c r="D50" s="77"/>
-      <c r="E50" s="77"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="77"/>
-      <c r="J50" s="77"/>
-      <c r="K50" s="77"/>
-      <c r="L50" s="77"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+      <c r="J50" s="65"/>
+      <c r="K50" s="65"/>
+      <c r="L50" s="65"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="77"/>
-      <c r="C51" s="77"/>
-      <c r="D51" s="77"/>
-      <c r="E51" s="77"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="65"/>
+      <c r="K51" s="65"/>
+      <c r="L51" s="65"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="77"/>
-      <c r="C52" s="77"/>
-      <c r="D52" s="77"/>
-      <c r="E52" s="77"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="77"/>
-      <c r="J52" s="77"/>
-      <c r="K52" s="77"/>
-      <c r="L52" s="77"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="65"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="65"/>
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="77"/>
-      <c r="C53" s="77"/>
-      <c r="D53" s="77"/>
-      <c r="E53" s="77"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="77"/>
-      <c r="J53" s="77"/>
-      <c r="K53" s="77"/>
-      <c r="L53" s="77"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="65"/>
+      <c r="D53" s="65"/>
+      <c r="E53" s="65"/>
+      <c r="F53" s="65"/>
+      <c r="G53" s="65"/>
+      <c r="H53" s="65"/>
+      <c r="I53" s="65"/>
+      <c r="J53" s="65"/>
+      <c r="K53" s="65"/>
+      <c r="L53" s="65"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="65"/>
+      <c r="J54" s="65"/>
+      <c r="K54" s="65"/>
+      <c r="L54" s="65"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="77"/>
-      <c r="C55" s="77"/>
-      <c r="D55" s="77"/>
-      <c r="E55" s="77"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="77"/>
-      <c r="J55" s="77"/>
-      <c r="K55" s="77"/>
-      <c r="L55" s="77"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+      <c r="J55" s="65"/>
+      <c r="K55" s="65"/>
+      <c r="L55" s="65"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="77"/>
-      <c r="C56" s="77"/>
-      <c r="D56" s="77"/>
-      <c r="E56" s="77"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="77"/>
-      <c r="J56" s="77"/>
-      <c r="K56" s="77"/>
-      <c r="L56" s="77"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="65"/>
+      <c r="F56" s="65"/>
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="77"/>
-      <c r="C57" s="77"/>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="77"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="77"/>
-      <c r="L57" s="77"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="65"/>
+      <c r="E57" s="65"/>
+      <c r="F57" s="65"/>
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+      <c r="J57" s="65"/>
+      <c r="K57" s="65"/>
+      <c r="L57" s="65"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="77"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="77"/>
-      <c r="J58" s="77"/>
-      <c r="K58" s="77"/>
-      <c r="L58" s="77"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="65"/>
+      <c r="E58" s="65"/>
+      <c r="F58" s="65"/>
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+      <c r="J58" s="65"/>
+      <c r="K58" s="65"/>
+      <c r="L58" s="65"/>
     </row>
     <row r="59" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B59" s="77"/>
-      <c r="C59" s="77"/>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
-      <c r="K59" s="77"/>
-      <c r="L59" s="77"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="65"/>
+      <c r="E59" s="65"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+      <c r="J59" s="65"/>
+      <c r="K59" s="65"/>
+      <c r="L59" s="65"/>
     </row>
     <row r="60" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="77"/>
-      <c r="J60" s="77"/>
-      <c r="K60" s="77"/>
-      <c r="L60" s="77"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+      <c r="J60" s="65"/>
+      <c r="K60" s="65"/>
+      <c r="L60" s="65"/>
     </row>
     <row r="61" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B61" s="77"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="77"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="77"/>
-      <c r="J61" s="77"/>
-      <c r="K61" s="77"/>
-      <c r="L61" s="77"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+      <c r="J61" s="65"/>
+      <c r="K61" s="65"/>
+      <c r="L61" s="65"/>
     </row>
     <row r="62" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B62" s="77"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="77"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+      <c r="J62" s="65"/>
+      <c r="K62" s="65"/>
+      <c r="L62" s="65"/>
     </row>
     <row r="63" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B63" s="77"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="77"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="77"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="77"/>
-      <c r="K63" s="77"/>
-      <c r="L63" s="77"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="65"/>
+      <c r="J63" s="65"/>
+      <c r="K63" s="65"/>
+      <c r="L63" s="65"/>
     </row>
     <row r="64" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B64" s="77"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="77"/>
-      <c r="E64" s="77"/>
-      <c r="F64" s="77"/>
-      <c r="G64" s="77"/>
-      <c r="H64" s="77"/>
-      <c r="I64" s="77"/>
-      <c r="J64" s="77"/>
-      <c r="K64" s="77"/>
-      <c r="L64" s="77"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="65"/>
+      <c r="J64" s="65"/>
+      <c r="K64" s="65"/>
+      <c r="L64" s="65"/>
     </row>
     <row r="65" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B65" s="77"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="77"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="77"/>
-      <c r="G65" s="77"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="77"/>
-      <c r="L65" s="77"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="65"/>
+      <c r="E65" s="65"/>
+      <c r="F65" s="65"/>
+      <c r="G65" s="65"/>
+      <c r="H65" s="65"/>
+      <c r="I65" s="65"/>
+      <c r="J65" s="65"/>
+      <c r="K65" s="65"/>
+      <c r="L65" s="65"/>
     </row>
     <row r="66" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B66" s="77"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="77"/>
-      <c r="G66" s="77"/>
-      <c r="H66" s="77"/>
-      <c r="I66" s="77"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="77"/>
-      <c r="L66" s="77"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
+      <c r="I66" s="65"/>
+      <c r="J66" s="65"/>
+      <c r="K66" s="65"/>
+      <c r="L66" s="65"/>
     </row>
     <row r="67" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B67" s="77"/>
-      <c r="C67" s="77"/>
-      <c r="D67" s="77"/>
-      <c r="E67" s="77"/>
-      <c r="F67" s="77"/>
-      <c r="G67" s="77"/>
-      <c r="H67" s="77"/>
-      <c r="I67" s="77"/>
-      <c r="J67" s="77"/>
-      <c r="K67" s="77"/>
-      <c r="L67" s="77"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="65"/>
+      <c r="E67" s="65"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="65"/>
+      <c r="H67" s="65"/>
+      <c r="I67" s="65"/>
+      <c r="J67" s="65"/>
+      <c r="K67" s="65"/>
+      <c r="L67" s="65"/>
     </row>
     <row r="68" spans="2:12" ht="24.75" customHeight="1">
       <c r="J68" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K68" s="76" t="str">
+      <c r="K68" s="64" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L68" s="76"/>
+      <c r="L68" s="64"/>
     </row>
     <row r="69" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B69" s="77" t="s">
+      <c r="B69" s="65" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="77"/>
-      <c r="D69" s="77"/>
-      <c r="E69" s="77"/>
-      <c r="F69" s="77"/>
-      <c r="G69" s="77"/>
-      <c r="H69" s="77"/>
-      <c r="I69" s="77"/>
-      <c r="J69" s="77"/>
-      <c r="K69" s="77"/>
-      <c r="L69" s="77"/>
+      <c r="C69" s="65"/>
+      <c r="D69" s="65"/>
+      <c r="E69" s="65"/>
+      <c r="F69" s="65"/>
+      <c r="G69" s="65"/>
+      <c r="H69" s="65"/>
+      <c r="I69" s="65"/>
+      <c r="J69" s="65"/>
+      <c r="K69" s="65"/>
+      <c r="L69" s="65"/>
     </row>
     <row r="70" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B70" s="77"/>
-      <c r="C70" s="77"/>
-      <c r="D70" s="77"/>
-      <c r="E70" s="77"/>
-      <c r="F70" s="77"/>
-      <c r="G70" s="77"/>
-      <c r="H70" s="77"/>
-      <c r="I70" s="77"/>
-      <c r="J70" s="77"/>
-      <c r="K70" s="77"/>
-      <c r="L70" s="77"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
+      <c r="I70" s="65"/>
+      <c r="J70" s="65"/>
+      <c r="K70" s="65"/>
+      <c r="L70" s="65"/>
     </row>
     <row r="71" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B71" s="77"/>
-      <c r="C71" s="77"/>
-      <c r="D71" s="77"/>
-      <c r="E71" s="77"/>
-      <c r="F71" s="77"/>
-      <c r="G71" s="77"/>
-      <c r="H71" s="77"/>
-      <c r="I71" s="77"/>
-      <c r="J71" s="77"/>
-      <c r="K71" s="77"/>
-      <c r="L71" s="77"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="65"/>
+      <c r="F71" s="65"/>
+      <c r="G71" s="65"/>
+      <c r="H71" s="65"/>
+      <c r="I71" s="65"/>
+      <c r="J71" s="65"/>
+      <c r="K71" s="65"/>
+      <c r="L71" s="65"/>
     </row>
     <row r="72" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B72" s="77"/>
-      <c r="C72" s="77"/>
-      <c r="D72" s="77"/>
-      <c r="E72" s="77"/>
-      <c r="F72" s="77"/>
-      <c r="G72" s="77"/>
-      <c r="H72" s="77"/>
-      <c r="I72" s="77"/>
-      <c r="J72" s="77"/>
-      <c r="K72" s="77"/>
-      <c r="L72" s="77"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
+      <c r="I72" s="65"/>
+      <c r="J72" s="65"/>
+      <c r="K72" s="65"/>
+      <c r="L72" s="65"/>
     </row>
     <row r="73" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B73" s="77"/>
-      <c r="C73" s="77"/>
-      <c r="D73" s="77"/>
-      <c r="E73" s="77"/>
-      <c r="F73" s="77"/>
-      <c r="G73" s="77"/>
-      <c r="H73" s="77"/>
-      <c r="I73" s="77"/>
-      <c r="J73" s="77"/>
-      <c r="K73" s="77"/>
-      <c r="L73" s="77"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="65"/>
+      <c r="D73" s="65"/>
+      <c r="E73" s="65"/>
+      <c r="F73" s="65"/>
+      <c r="G73" s="65"/>
+      <c r="H73" s="65"/>
+      <c r="I73" s="65"/>
+      <c r="J73" s="65"/>
+      <c r="K73" s="65"/>
+      <c r="L73" s="65"/>
     </row>
     <row r="74" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B74" s="77"/>
-      <c r="C74" s="77"/>
-      <c r="D74" s="77"/>
-      <c r="E74" s="77"/>
-      <c r="F74" s="77"/>
-      <c r="G74" s="77"/>
-      <c r="H74" s="77"/>
-      <c r="I74" s="77"/>
-      <c r="J74" s="77"/>
-      <c r="K74" s="77"/>
-      <c r="L74" s="77"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
+      <c r="I74" s="65"/>
+      <c r="J74" s="65"/>
+      <c r="K74" s="65"/>
+      <c r="L74" s="65"/>
     </row>
     <row r="75" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B75" s="77"/>
-      <c r="C75" s="77"/>
-      <c r="D75" s="77"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="77"/>
-      <c r="H75" s="77"/>
-      <c r="I75" s="77"/>
-      <c r="J75" s="77"/>
-      <c r="K75" s="77"/>
-      <c r="L75" s="77"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="65"/>
+      <c r="E75" s="65"/>
+      <c r="F75" s="65"/>
+      <c r="G75" s="65"/>
+      <c r="H75" s="65"/>
+      <c r="I75" s="65"/>
+      <c r="J75" s="65"/>
+      <c r="K75" s="65"/>
+      <c r="L75" s="65"/>
     </row>
     <row r="76" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B76" s="77"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="77"/>
-      <c r="G76" s="77"/>
-      <c r="H76" s="77"/>
-      <c r="I76" s="77"/>
-      <c r="J76" s="77"/>
-      <c r="K76" s="77"/>
-      <c r="L76" s="77"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
+      <c r="I76" s="65"/>
+      <c r="J76" s="65"/>
+      <c r="K76" s="65"/>
+      <c r="L76" s="65"/>
     </row>
     <row r="77" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B77" s="77"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="77"/>
-      <c r="F77" s="77"/>
-      <c r="G77" s="77"/>
-      <c r="H77" s="77"/>
-      <c r="I77" s="77"/>
-      <c r="J77" s="77"/>
-      <c r="K77" s="77"/>
-      <c r="L77" s="77"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="65"/>
+      <c r="D77" s="65"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="65"/>
+      <c r="H77" s="65"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="65"/>
+      <c r="K77" s="65"/>
+      <c r="L77" s="65"/>
     </row>
     <row r="78" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B78" s="77"/>
-      <c r="C78" s="77"/>
-      <c r="D78" s="77"/>
-      <c r="E78" s="77"/>
-      <c r="F78" s="77"/>
-      <c r="G78" s="77"/>
-      <c r="H78" s="77"/>
-      <c r="I78" s="77"/>
-      <c r="J78" s="77"/>
-      <c r="K78" s="77"/>
-      <c r="L78" s="77"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
+      <c r="J78" s="65"/>
+      <c r="K78" s="65"/>
+      <c r="L78" s="65"/>
     </row>
     <row r="79" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B79" s="77"/>
-      <c r="C79" s="77"/>
-      <c r="D79" s="77"/>
-      <c r="E79" s="77"/>
-      <c r="F79" s="77"/>
-      <c r="G79" s="77"/>
-      <c r="H79" s="77"/>
-      <c r="I79" s="77"/>
-      <c r="J79" s="77"/>
-      <c r="K79" s="77"/>
-      <c r="L79" s="77"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="65"/>
+      <c r="D79" s="65"/>
+      <c r="E79" s="65"/>
+      <c r="F79" s="65"/>
+      <c r="G79" s="65"/>
+      <c r="H79" s="65"/>
+      <c r="I79" s="65"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="65"/>
+      <c r="L79" s="65"/>
     </row>
     <row r="80" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B80" s="77"/>
-      <c r="C80" s="77"/>
-      <c r="D80" s="77"/>
-      <c r="E80" s="77"/>
-      <c r="F80" s="77"/>
-      <c r="G80" s="77"/>
-      <c r="H80" s="77"/>
-      <c r="I80" s="77"/>
-      <c r="J80" s="77"/>
-      <c r="K80" s="77"/>
-      <c r="L80" s="77"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
+      <c r="I80" s="65"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="65"/>
+      <c r="L80" s="65"/>
     </row>
     <row r="81" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B81" s="77"/>
-      <c r="C81" s="77"/>
-      <c r="D81" s="77"/>
-      <c r="E81" s="77"/>
-      <c r="F81" s="77"/>
-      <c r="G81" s="77"/>
-      <c r="H81" s="77"/>
-      <c r="I81" s="77"/>
-      <c r="J81" s="77"/>
-      <c r="K81" s="77"/>
-      <c r="L81" s="77"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="65"/>
+      <c r="D81" s="65"/>
+      <c r="E81" s="65"/>
+      <c r="F81" s="65"/>
+      <c r="G81" s="65"/>
+      <c r="H81" s="65"/>
+      <c r="I81" s="65"/>
+      <c r="J81" s="65"/>
+      <c r="K81" s="65"/>
+      <c r="L81" s="65"/>
     </row>
     <row r="82" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B82" s="77"/>
-      <c r="C82" s="77"/>
-      <c r="D82" s="77"/>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
-      <c r="G82" s="77"/>
-      <c r="H82" s="77"/>
-      <c r="I82" s="77"/>
-      <c r="J82" s="77"/>
-      <c r="K82" s="77"/>
-      <c r="L82" s="77"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="65"/>
+      <c r="I82" s="65"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="65"/>
+      <c r="L82" s="65"/>
     </row>
     <row r="83" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B83" s="77"/>
-      <c r="C83" s="77"/>
-      <c r="D83" s="77"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="77"/>
-      <c r="H83" s="77"/>
-      <c r="I83" s="77"/>
-      <c r="J83" s="77"/>
-      <c r="K83" s="77"/>
-      <c r="L83" s="77"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="65"/>
+      <c r="D83" s="65"/>
+      <c r="E83" s="65"/>
+      <c r="F83" s="65"/>
+      <c r="G83" s="65"/>
+      <c r="H83" s="65"/>
+      <c r="I83" s="65"/>
+      <c r="J83" s="65"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="65"/>
     </row>
     <row r="84" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B84" s="77"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="77"/>
-      <c r="J84" s="77"/>
-      <c r="K84" s="77"/>
-      <c r="L84" s="77"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="65"/>
+      <c r="I84" s="65"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
     </row>
     <row r="85" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B85" s="77"/>
-      <c r="C85" s="77"/>
-      <c r="D85" s="77"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="77"/>
-      <c r="H85" s="77"/>
-      <c r="I85" s="77"/>
-      <c r="J85" s="77"/>
-      <c r="K85" s="77"/>
-      <c r="L85" s="77"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="65"/>
+      <c r="D85" s="65"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="65"/>
+      <c r="H85" s="65"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="65"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
     </row>
     <row r="86" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B86" s="77"/>
-      <c r="C86" s="77"/>
-      <c r="D86" s="77"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="77"/>
-      <c r="H86" s="77"/>
-      <c r="I86" s="77"/>
-      <c r="J86" s="77"/>
-      <c r="K86" s="77"/>
-      <c r="L86" s="77"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="65"/>
+      <c r="I86" s="65"/>
+      <c r="J86" s="65"/>
+      <c r="K86" s="65"/>
+      <c r="L86" s="65"/>
     </row>
     <row r="87" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B87" s="77"/>
-      <c r="C87" s="77"/>
-      <c r="D87" s="77"/>
-      <c r="E87" s="77"/>
-      <c r="F87" s="77"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="77"/>
-      <c r="I87" s="77"/>
-      <c r="J87" s="77"/>
-      <c r="K87" s="77"/>
-      <c r="L87" s="77"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="65"/>
+      <c r="D87" s="65"/>
+      <c r="E87" s="65"/>
+      <c r="F87" s="65"/>
+      <c r="G87" s="65"/>
+      <c r="H87" s="65"/>
+      <c r="I87" s="65"/>
+      <c r="J87" s="65"/>
+      <c r="K87" s="65"/>
+      <c r="L87" s="65"/>
     </row>
     <row r="88" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B88" s="77"/>
-      <c r="C88" s="77"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="77"/>
-      <c r="F88" s="77"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="77"/>
-      <c r="I88" s="77"/>
-      <c r="J88" s="77"/>
-      <c r="K88" s="77"/>
-      <c r="L88" s="77"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="65"/>
+      <c r="F88" s="65"/>
+      <c r="G88" s="65"/>
+      <c r="H88" s="65"/>
+      <c r="I88" s="65"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="65"/>
+      <c r="L88" s="65"/>
     </row>
     <row r="89" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B89" s="77"/>
-      <c r="C89" s="77"/>
-      <c r="D89" s="77"/>
-      <c r="E89" s="77"/>
-      <c r="F89" s="77"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="77"/>
-      <c r="I89" s="77"/>
-      <c r="J89" s="77"/>
-      <c r="K89" s="77"/>
-      <c r="L89" s="77"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="65"/>
+      <c r="E89" s="65"/>
+      <c r="F89" s="65"/>
+      <c r="G89" s="65"/>
+      <c r="H89" s="65"/>
+      <c r="I89" s="65"/>
+      <c r="J89" s="65"/>
+      <c r="K89" s="65"/>
+      <c r="L89" s="65"/>
     </row>
     <row r="90" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B90" s="77"/>
-      <c r="C90" s="77"/>
-      <c r="D90" s="77"/>
-      <c r="E90" s="77"/>
-      <c r="F90" s="77"/>
-      <c r="G90" s="77"/>
-      <c r="H90" s="77"/>
-      <c r="I90" s="77"/>
-      <c r="J90" s="77"/>
-      <c r="K90" s="77"/>
-      <c r="L90" s="77"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="65"/>
+      <c r="F90" s="65"/>
+      <c r="G90" s="65"/>
+      <c r="H90" s="65"/>
+      <c r="I90" s="65"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="65"/>
+      <c r="L90" s="65"/>
     </row>
     <row r="91" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B91" s="77"/>
-      <c r="C91" s="77"/>
-      <c r="D91" s="77"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="77"/>
-      <c r="I91" s="77"/>
-      <c r="J91" s="77"/>
-      <c r="K91" s="77"/>
-      <c r="L91" s="77"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="65"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="65"/>
+      <c r="H91" s="65"/>
+      <c r="I91" s="65"/>
+      <c r="J91" s="65"/>
+      <c r="K91" s="65"/>
+      <c r="L91" s="65"/>
     </row>
     <row r="92" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B92" s="77"/>
-      <c r="C92" s="77"/>
-      <c r="D92" s="77"/>
-      <c r="E92" s="77"/>
-      <c r="F92" s="77"/>
-      <c r="G92" s="77"/>
-      <c r="H92" s="77"/>
-      <c r="I92" s="77"/>
-      <c r="J92" s="77"/>
-      <c r="K92" s="77"/>
-      <c r="L92" s="77"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="65"/>
+      <c r="H92" s="65"/>
+      <c r="I92" s="65"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
+      <c r="L92" s="65"/>
     </row>
     <row r="93" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B93" s="77"/>
-      <c r="C93" s="77"/>
-      <c r="D93" s="77"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="77"/>
-      <c r="G93" s="77"/>
-      <c r="H93" s="77"/>
-      <c r="I93" s="77"/>
-      <c r="J93" s="77"/>
-      <c r="K93" s="77"/>
-      <c r="L93" s="77"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="65"/>
+      <c r="E93" s="65"/>
+      <c r="F93" s="65"/>
+      <c r="G93" s="65"/>
+      <c r="H93" s="65"/>
+      <c r="I93" s="65"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="65"/>
+      <c r="L93" s="65"/>
     </row>
     <row r="94" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B94" s="77"/>
-      <c r="C94" s="77"/>
-      <c r="D94" s="77"/>
-      <c r="E94" s="77"/>
-      <c r="F94" s="77"/>
-      <c r="G94" s="77"/>
-      <c r="H94" s="77"/>
-      <c r="I94" s="77"/>
-      <c r="J94" s="77"/>
-      <c r="K94" s="77"/>
-      <c r="L94" s="77"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="65"/>
+      <c r="F94" s="65"/>
+      <c r="G94" s="65"/>
+      <c r="H94" s="65"/>
+      <c r="I94" s="65"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="65"/>
+      <c r="L94" s="65"/>
     </row>
     <row r="95" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B95" s="77"/>
-      <c r="C95" s="77"/>
-      <c r="D95" s="77"/>
-      <c r="E95" s="77"/>
-      <c r="F95" s="77"/>
-      <c r="G95" s="77"/>
-      <c r="H95" s="77"/>
-      <c r="I95" s="77"/>
-      <c r="J95" s="77"/>
-      <c r="K95" s="77"/>
-      <c r="L95" s="77"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="65"/>
+      <c r="E95" s="65"/>
+      <c r="F95" s="65"/>
+      <c r="G95" s="65"/>
+      <c r="H95" s="65"/>
+      <c r="I95" s="65"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
+      <c r="L95" s="65"/>
     </row>
     <row r="96" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B96" s="77"/>
-      <c r="C96" s="77"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="77"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="77"/>
-      <c r="H96" s="77"/>
-      <c r="I96" s="77"/>
-      <c r="J96" s="77"/>
-      <c r="K96" s="77"/>
-      <c r="L96" s="77"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="65"/>
+      <c r="F96" s="65"/>
+      <c r="G96" s="65"/>
+      <c r="H96" s="65"/>
+      <c r="I96" s="65"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="65"/>
+      <c r="L96" s="65"/>
     </row>
     <row r="97" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B97" s="77"/>
-      <c r="C97" s="77"/>
-      <c r="D97" s="77"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="77"/>
-      <c r="G97" s="77"/>
-      <c r="H97" s="77"/>
-      <c r="I97" s="77"/>
-      <c r="J97" s="77"/>
-      <c r="K97" s="77"/>
-      <c r="L97" s="77"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="65"/>
+      <c r="D97" s="65"/>
+      <c r="E97" s="65"/>
+      <c r="F97" s="65"/>
+      <c r="G97" s="65"/>
+      <c r="H97" s="65"/>
+      <c r="I97" s="65"/>
+      <c r="J97" s="65"/>
+      <c r="K97" s="65"/>
+      <c r="L97" s="65"/>
     </row>
     <row r="98" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B98" s="77"/>
-      <c r="C98" s="77"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="77"/>
-      <c r="H98" s="77"/>
-      <c r="I98" s="77"/>
-      <c r="J98" s="77"/>
-      <c r="K98" s="77"/>
-      <c r="L98" s="77"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="65"/>
+      <c r="E98" s="65"/>
+      <c r="F98" s="65"/>
+      <c r="G98" s="65"/>
+      <c r="H98" s="65"/>
+      <c r="I98" s="65"/>
+      <c r="J98" s="65"/>
+      <c r="K98" s="65"/>
+      <c r="L98" s="65"/>
     </row>
     <row r="99" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B99" s="77"/>
-      <c r="C99" s="77"/>
-      <c r="D99" s="77"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77"/>
-      <c r="G99" s="77"/>
-      <c r="H99" s="77"/>
-      <c r="I99" s="77"/>
-      <c r="J99" s="77"/>
-      <c r="K99" s="77"/>
-      <c r="L99" s="77"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65"/>
+      <c r="I99" s="65"/>
+      <c r="J99" s="65"/>
+      <c r="K99" s="65"/>
+      <c r="L99" s="65"/>
     </row>
     <row r="100" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B100" s="77"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
-      <c r="I100" s="77"/>
-      <c r="J100" s="77"/>
-      <c r="K100" s="77"/>
-      <c r="L100" s="77"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="65"/>
+      <c r="I100" s="65"/>
+      <c r="J100" s="65"/>
+      <c r="K100" s="65"/>
+      <c r="L100" s="65"/>
     </row>
     <row r="101" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B101" s="77"/>
-      <c r="C101" s="77"/>
-      <c r="D101" s="77"/>
-      <c r="E101" s="77"/>
-      <c r="F101" s="77"/>
-      <c r="G101" s="77"/>
-      <c r="H101" s="77"/>
-      <c r="I101" s="77"/>
-      <c r="J101" s="77"/>
-      <c r="K101" s="77"/>
-      <c r="L101" s="77"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="65"/>
+      <c r="D101" s="65"/>
+      <c r="E101" s="65"/>
+      <c r="F101" s="65"/>
+      <c r="G101" s="65"/>
+      <c r="H101" s="65"/>
+      <c r="I101" s="65"/>
+      <c r="J101" s="65"/>
+      <c r="K101" s="65"/>
+      <c r="L101" s="65"/>
     </row>
     <row r="102" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B102" s="77"/>
-      <c r="C102" s="77"/>
-      <c r="D102" s="77"/>
-      <c r="E102" s="77"/>
-      <c r="F102" s="77"/>
-      <c r="G102" s="77"/>
-      <c r="H102" s="77"/>
-      <c r="I102" s="77"/>
-      <c r="J102" s="77"/>
-      <c r="K102" s="77"/>
-      <c r="L102" s="77"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="65"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="65"/>
+      <c r="F102" s="65"/>
+      <c r="G102" s="65"/>
+      <c r="H102" s="65"/>
+      <c r="I102" s="65"/>
+      <c r="J102" s="65"/>
+      <c r="K102" s="65"/>
+      <c r="L102" s="65"/>
     </row>
     <row r="103" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B103" s="77"/>
-      <c r="C103" s="77"/>
-      <c r="D103" s="77"/>
-      <c r="E103" s="77"/>
-      <c r="F103" s="77"/>
-      <c r="G103" s="77"/>
-      <c r="H103" s="77"/>
-      <c r="I103" s="77"/>
-      <c r="J103" s="77"/>
-      <c r="K103" s="77"/>
-      <c r="L103" s="77"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="65"/>
+      <c r="D103" s="65"/>
+      <c r="E103" s="65"/>
+      <c r="F103" s="65"/>
+      <c r="G103" s="65"/>
+      <c r="H103" s="65"/>
+      <c r="I103" s="65"/>
+      <c r="J103" s="65"/>
+      <c r="K103" s="65"/>
+      <c r="L103" s="65"/>
     </row>
     <row r="104" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B104" s="77"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77"/>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
-      <c r="G104" s="77"/>
-      <c r="H104" s="77"/>
-      <c r="I104" s="77"/>
-      <c r="J104" s="77"/>
-      <c r="K104" s="77"/>
-      <c r="L104" s="77"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="65"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="65"/>
+      <c r="F104" s="65"/>
+      <c r="G104" s="65"/>
+      <c r="H104" s="65"/>
+      <c r="I104" s="65"/>
+      <c r="J104" s="65"/>
+      <c r="K104" s="65"/>
+      <c r="L104" s="65"/>
     </row>
     <row r="105" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B105" s="77"/>
-      <c r="C105" s="77"/>
-      <c r="D105" s="77"/>
-      <c r="E105" s="77"/>
-      <c r="F105" s="77"/>
-      <c r="G105" s="77"/>
-      <c r="H105" s="77"/>
-      <c r="I105" s="77"/>
-      <c r="J105" s="77"/>
-      <c r="K105" s="77"/>
-      <c r="L105" s="77"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="65"/>
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="65"/>
+      <c r="H105" s="65"/>
+      <c r="I105" s="65"/>
+      <c r="J105" s="65"/>
+      <c r="K105" s="65"/>
+      <c r="L105" s="65"/>
     </row>
     <row r="106" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B106" s="77"/>
-      <c r="C106" s="77"/>
-      <c r="D106" s="77"/>
-      <c r="E106" s="77"/>
-      <c r="F106" s="77"/>
-      <c r="G106" s="77"/>
-      <c r="H106" s="77"/>
-      <c r="I106" s="77"/>
-      <c r="J106" s="77"/>
-      <c r="K106" s="77"/>
-      <c r="L106" s="77"/>
+      <c r="B106" s="65"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="65"/>
+      <c r="H106" s="65"/>
+      <c r="I106" s="65"/>
+      <c r="J106" s="65"/>
+      <c r="K106" s="65"/>
+      <c r="L106" s="65"/>
     </row>
     <row r="107" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B107" s="77"/>
-      <c r="C107" s="77"/>
-      <c r="D107" s="77"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="77"/>
-      <c r="H107" s="77"/>
-      <c r="I107" s="77"/>
-      <c r="J107" s="77"/>
-      <c r="K107" s="77"/>
-      <c r="L107" s="77"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="65"/>
+      <c r="D107" s="65"/>
+      <c r="E107" s="65"/>
+      <c r="F107" s="65"/>
+      <c r="G107" s="65"/>
+      <c r="H107" s="65"/>
+      <c r="I107" s="65"/>
+      <c r="J107" s="65"/>
+      <c r="K107" s="65"/>
+      <c r="L107" s="65"/>
     </row>
     <row r="108" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B108" s="77"/>
-      <c r="C108" s="77"/>
-      <c r="D108" s="77"/>
-      <c r="E108" s="77"/>
-      <c r="F108" s="77"/>
-      <c r="G108" s="77"/>
-      <c r="H108" s="77"/>
-      <c r="I108" s="77"/>
-      <c r="J108" s="77"/>
-      <c r="K108" s="77"/>
-      <c r="L108" s="77"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="65"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="65"/>
+      <c r="F108" s="65"/>
+      <c r="G108" s="65"/>
+      <c r="H108" s="65"/>
+      <c r="I108" s="65"/>
+      <c r="J108" s="65"/>
+      <c r="K108" s="65"/>
+      <c r="L108" s="65"/>
     </row>
     <row r="109" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B109" s="77"/>
-      <c r="C109" s="77"/>
-      <c r="D109" s="77"/>
-      <c r="E109" s="77"/>
-      <c r="F109" s="77"/>
-      <c r="G109" s="77"/>
-      <c r="H109" s="77"/>
-      <c r="I109" s="77"/>
-      <c r="J109" s="77"/>
-      <c r="K109" s="77"/>
-      <c r="L109" s="77"/>
+      <c r="B109" s="65"/>
+      <c r="C109" s="65"/>
+      <c r="D109" s="65"/>
+      <c r="E109" s="65"/>
+      <c r="F109" s="65"/>
+      <c r="G109" s="65"/>
+      <c r="H109" s="65"/>
+      <c r="I109" s="65"/>
+      <c r="J109" s="65"/>
+      <c r="K109" s="65"/>
+      <c r="L109" s="65"/>
     </row>
     <row r="110" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B110" s="77"/>
-      <c r="C110" s="77"/>
-      <c r="D110" s="77"/>
-      <c r="E110" s="77"/>
-      <c r="F110" s="77"/>
-      <c r="G110" s="77"/>
-      <c r="H110" s="77"/>
-      <c r="I110" s="77"/>
-      <c r="J110" s="77"/>
-      <c r="K110" s="77"/>
-      <c r="L110" s="77"/>
+      <c r="B110" s="65"/>
+      <c r="C110" s="65"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="65"/>
+      <c r="F110" s="65"/>
+      <c r="G110" s="65"/>
+      <c r="H110" s="65"/>
+      <c r="I110" s="65"/>
+      <c r="J110" s="65"/>
+      <c r="K110" s="65"/>
+      <c r="L110" s="65"/>
     </row>
     <row r="111" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B111" s="77"/>
-      <c r="C111" s="77"/>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="77"/>
-      <c r="G111" s="77"/>
-      <c r="H111" s="77"/>
-      <c r="I111" s="77"/>
-      <c r="J111" s="77"/>
-      <c r="K111" s="77"/>
-      <c r="L111" s="77"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="65"/>
+      <c r="D111" s="65"/>
+      <c r="E111" s="65"/>
+      <c r="F111" s="65"/>
+      <c r="G111" s="65"/>
+      <c r="H111" s="65"/>
+      <c r="I111" s="65"/>
+      <c r="J111" s="65"/>
+      <c r="K111" s="65"/>
+      <c r="L111" s="65"/>
     </row>
     <row r="112" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B112" s="77"/>
-      <c r="C112" s="77"/>
-      <c r="D112" s="77"/>
-      <c r="E112" s="77"/>
-      <c r="F112" s="77"/>
-      <c r="G112" s="77"/>
-      <c r="H112" s="77"/>
-      <c r="I112" s="77"/>
-      <c r="J112" s="77"/>
-      <c r="K112" s="77"/>
-      <c r="L112" s="77"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="65"/>
+      <c r="D112" s="65"/>
+      <c r="E112" s="65"/>
+      <c r="F112" s="65"/>
+      <c r="G112" s="65"/>
+      <c r="H112" s="65"/>
+      <c r="I112" s="65"/>
+      <c r="J112" s="65"/>
+      <c r="K112" s="65"/>
+      <c r="L112" s="65"/>
     </row>
     <row r="113" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B113" s="77"/>
-      <c r="C113" s="77"/>
-      <c r="D113" s="77"/>
-      <c r="E113" s="77"/>
-      <c r="F113" s="77"/>
-      <c r="G113" s="77"/>
-      <c r="H113" s="77"/>
-      <c r="I113" s="77"/>
-      <c r="J113" s="77"/>
-      <c r="K113" s="77"/>
-      <c r="L113" s="77"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="65"/>
+      <c r="D113" s="65"/>
+      <c r="E113" s="65"/>
+      <c r="F113" s="65"/>
+      <c r="G113" s="65"/>
+      <c r="H113" s="65"/>
+      <c r="I113" s="65"/>
+      <c r="J113" s="65"/>
+      <c r="K113" s="65"/>
+      <c r="L113" s="65"/>
     </row>
     <row r="114" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B114" s="77"/>
-      <c r="C114" s="77"/>
-      <c r="D114" s="77"/>
-      <c r="E114" s="77"/>
-      <c r="F114" s="77"/>
-      <c r="G114" s="77"/>
-      <c r="H114" s="77"/>
-      <c r="I114" s="77"/>
-      <c r="J114" s="77"/>
-      <c r="K114" s="77"/>
-      <c r="L114" s="77"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="65"/>
+      <c r="D114" s="65"/>
+      <c r="E114" s="65"/>
+      <c r="F114" s="65"/>
+      <c r="G114" s="65"/>
+      <c r="H114" s="65"/>
+      <c r="I114" s="65"/>
+      <c r="J114" s="65"/>
+      <c r="K114" s="65"/>
+      <c r="L114" s="65"/>
     </row>
     <row r="115" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B115" s="77"/>
-      <c r="C115" s="77"/>
-      <c r="D115" s="77"/>
-      <c r="E115" s="77"/>
-      <c r="F115" s="77"/>
-      <c r="G115" s="77"/>
-      <c r="H115" s="77"/>
-      <c r="I115" s="77"/>
-      <c r="J115" s="77"/>
-      <c r="K115" s="77"/>
-      <c r="L115" s="77"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="65"/>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
+      <c r="F115" s="65"/>
+      <c r="G115" s="65"/>
+      <c r="H115" s="65"/>
+      <c r="I115" s="65"/>
+      <c r="J115" s="65"/>
+      <c r="K115" s="65"/>
+      <c r="L115" s="65"/>
     </row>
     <row r="116" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B116" s="77"/>
-      <c r="C116" s="77"/>
-      <c r="D116" s="77"/>
-      <c r="E116" s="77"/>
-      <c r="F116" s="77"/>
-      <c r="G116" s="77"/>
-      <c r="H116" s="77"/>
-      <c r="I116" s="77"/>
-      <c r="J116" s="77"/>
-      <c r="K116" s="77"/>
-      <c r="L116" s="77"/>
+      <c r="B116" s="65"/>
+      <c r="C116" s="65"/>
+      <c r="D116" s="65"/>
+      <c r="E116" s="65"/>
+      <c r="F116" s="65"/>
+      <c r="G116" s="65"/>
+      <c r="H116" s="65"/>
+      <c r="I116" s="65"/>
+      <c r="J116" s="65"/>
+      <c r="K116" s="65"/>
+      <c r="L116" s="65"/>
     </row>
     <row r="117" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B117" s="77"/>
-      <c r="C117" s="77"/>
-      <c r="D117" s="77"/>
-      <c r="E117" s="77"/>
-      <c r="F117" s="77"/>
-      <c r="G117" s="77"/>
-      <c r="H117" s="77"/>
-      <c r="I117" s="77"/>
-      <c r="J117" s="77"/>
-      <c r="K117" s="77"/>
-      <c r="L117" s="77"/>
+      <c r="B117" s="65"/>
+      <c r="C117" s="65"/>
+      <c r="D117" s="65"/>
+      <c r="E117" s="65"/>
+      <c r="F117" s="65"/>
+      <c r="G117" s="65"/>
+      <c r="H117" s="65"/>
+      <c r="I117" s="65"/>
+      <c r="J117" s="65"/>
+      <c r="K117" s="65"/>
+      <c r="L117" s="65"/>
     </row>
     <row r="118" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B118" s="77"/>
-      <c r="C118" s="77"/>
-      <c r="D118" s="77"/>
-      <c r="E118" s="77"/>
-      <c r="F118" s="77"/>
-      <c r="G118" s="77"/>
-      <c r="H118" s="77"/>
-      <c r="I118" s="77"/>
-      <c r="J118" s="77"/>
-      <c r="K118" s="77"/>
-      <c r="L118" s="77"/>
+      <c r="B118" s="65"/>
+      <c r="C118" s="65"/>
+      <c r="D118" s="65"/>
+      <c r="E118" s="65"/>
+      <c r="F118" s="65"/>
+      <c r="G118" s="65"/>
+      <c r="H118" s="65"/>
+      <c r="I118" s="65"/>
+      <c r="J118" s="65"/>
+      <c r="K118" s="65"/>
+      <c r="L118" s="65"/>
     </row>
     <row r="119" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B119" s="77"/>
-      <c r="C119" s="77"/>
-      <c r="D119" s="77"/>
-      <c r="E119" s="77"/>
-      <c r="F119" s="77"/>
-      <c r="G119" s="77"/>
-      <c r="H119" s="77"/>
-      <c r="I119" s="77"/>
-      <c r="J119" s="77"/>
-      <c r="K119" s="77"/>
-      <c r="L119" s="77"/>
+      <c r="B119" s="65"/>
+      <c r="C119" s="65"/>
+      <c r="D119" s="65"/>
+      <c r="E119" s="65"/>
+      <c r="F119" s="65"/>
+      <c r="G119" s="65"/>
+      <c r="H119" s="65"/>
+      <c r="I119" s="65"/>
+      <c r="J119" s="65"/>
+      <c r="K119" s="65"/>
+      <c r="L119" s="65"/>
     </row>
     <row r="120" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B120" s="77"/>
-      <c r="C120" s="77"/>
-      <c r="D120" s="77"/>
-      <c r="E120" s="77"/>
-      <c r="F120" s="77"/>
-      <c r="G120" s="77"/>
-      <c r="H120" s="77"/>
-      <c r="I120" s="77"/>
-      <c r="J120" s="77"/>
-      <c r="K120" s="77"/>
-      <c r="L120" s="77"/>
+      <c r="B120" s="65"/>
+      <c r="C120" s="65"/>
+      <c r="D120" s="65"/>
+      <c r="E120" s="65"/>
+      <c r="F120" s="65"/>
+      <c r="G120" s="65"/>
+      <c r="H120" s="65"/>
+      <c r="I120" s="65"/>
+      <c r="J120" s="65"/>
+      <c r="K120" s="65"/>
+      <c r="L120" s="65"/>
     </row>
     <row r="121" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B121" s="77"/>
-      <c r="C121" s="77"/>
-      <c r="D121" s="77"/>
-      <c r="E121" s="77"/>
-      <c r="F121" s="77"/>
-      <c r="G121" s="77"/>
-      <c r="H121" s="77"/>
-      <c r="I121" s="77"/>
-      <c r="J121" s="77"/>
-      <c r="K121" s="77"/>
-      <c r="L121" s="77"/>
+      <c r="B121" s="65"/>
+      <c r="C121" s="65"/>
+      <c r="D121" s="65"/>
+      <c r="E121" s="65"/>
+      <c r="F121" s="65"/>
+      <c r="G121" s="65"/>
+      <c r="H121" s="65"/>
+      <c r="I121" s="65"/>
+      <c r="J121" s="65"/>
+      <c r="K121" s="65"/>
+      <c r="L121" s="65"/>
     </row>
     <row r="122" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B122" s="77"/>
-      <c r="C122" s="77"/>
-      <c r="D122" s="77"/>
-      <c r="E122" s="77"/>
-      <c r="F122" s="77"/>
-      <c r="G122" s="77"/>
-      <c r="H122" s="77"/>
-      <c r="I122" s="77"/>
-      <c r="J122" s="77"/>
-      <c r="K122" s="77"/>
-      <c r="L122" s="77"/>
+      <c r="B122" s="65"/>
+      <c r="C122" s="65"/>
+      <c r="D122" s="65"/>
+      <c r="E122" s="65"/>
+      <c r="F122" s="65"/>
+      <c r="G122" s="65"/>
+      <c r="H122" s="65"/>
+      <c r="I122" s="65"/>
+      <c r="J122" s="65"/>
+      <c r="K122" s="65"/>
+      <c r="L122" s="65"/>
     </row>
     <row r="123" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B123" s="77"/>
-      <c r="C123" s="77"/>
-      <c r="D123" s="77"/>
-      <c r="E123" s="77"/>
-      <c r="F123" s="77"/>
-      <c r="G123" s="77"/>
-      <c r="H123" s="77"/>
-      <c r="I123" s="77"/>
-      <c r="J123" s="77"/>
-      <c r="K123" s="77"/>
-      <c r="L123" s="77"/>
+      <c r="B123" s="65"/>
+      <c r="C123" s="65"/>
+      <c r="D123" s="65"/>
+      <c r="E123" s="65"/>
+      <c r="F123" s="65"/>
+      <c r="G123" s="65"/>
+      <c r="H123" s="65"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="65"/>
+      <c r="K123" s="65"/>
+      <c r="L123" s="65"/>
     </row>
     <row r="124" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B124" s="77"/>
-      <c r="C124" s="77"/>
-      <c r="D124" s="77"/>
-      <c r="E124" s="77"/>
-      <c r="F124" s="77"/>
-      <c r="G124" s="77"/>
-      <c r="H124" s="77"/>
-      <c r="I124" s="77"/>
-      <c r="J124" s="77"/>
-      <c r="K124" s="77"/>
-      <c r="L124" s="77"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="65"/>
+      <c r="D124" s="65"/>
+      <c r="E124" s="65"/>
+      <c r="F124" s="65"/>
+      <c r="G124" s="65"/>
+      <c r="H124" s="65"/>
+      <c r="I124" s="65"/>
+      <c r="J124" s="65"/>
+      <c r="K124" s="65"/>
+      <c r="L124" s="65"/>
     </row>
     <row r="125" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B125" s="77"/>
-      <c r="C125" s="77"/>
-      <c r="D125" s="77"/>
-      <c r="E125" s="77"/>
-      <c r="F125" s="77"/>
-      <c r="G125" s="77"/>
-      <c r="H125" s="77"/>
-      <c r="I125" s="77"/>
-      <c r="J125" s="77"/>
-      <c r="K125" s="77"/>
-      <c r="L125" s="77"/>
+      <c r="B125" s="65"/>
+      <c r="C125" s="65"/>
+      <c r="D125" s="65"/>
+      <c r="E125" s="65"/>
+      <c r="F125" s="65"/>
+      <c r="G125" s="65"/>
+      <c r="H125" s="65"/>
+      <c r="I125" s="65"/>
+      <c r="J125" s="65"/>
+      <c r="K125" s="65"/>
+      <c r="L125" s="65"/>
     </row>
     <row r="126" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B126" s="77"/>
-      <c r="C126" s="77"/>
-      <c r="D126" s="77"/>
-      <c r="E126" s="77"/>
-      <c r="F126" s="77"/>
-      <c r="G126" s="77"/>
-      <c r="H126" s="77"/>
-      <c r="I126" s="77"/>
-      <c r="J126" s="77"/>
-      <c r="K126" s="77"/>
-      <c r="L126" s="77"/>
+      <c r="B126" s="65"/>
+      <c r="C126" s="65"/>
+      <c r="D126" s="65"/>
+      <c r="E126" s="65"/>
+      <c r="F126" s="65"/>
+      <c r="G126" s="65"/>
+      <c r="H126" s="65"/>
+      <c r="I126" s="65"/>
+      <c r="J126" s="65"/>
+      <c r="K126" s="65"/>
+      <c r="L126" s="65"/>
     </row>
     <row r="127" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B127" s="77"/>
-      <c r="C127" s="77"/>
-      <c r="D127" s="77"/>
-      <c r="E127" s="77"/>
-      <c r="F127" s="77"/>
-      <c r="G127" s="77"/>
-      <c r="H127" s="77"/>
-      <c r="I127" s="77"/>
-      <c r="J127" s="77"/>
-      <c r="K127" s="77"/>
-      <c r="L127" s="77"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="65"/>
+      <c r="D127" s="65"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="65"/>
+      <c r="H127" s="65"/>
+      <c r="I127" s="65"/>
+      <c r="J127" s="65"/>
+      <c r="K127" s="65"/>
+      <c r="L127" s="65"/>
     </row>
     <row r="128" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B128" s="77"/>
-      <c r="C128" s="77"/>
-      <c r="D128" s="77"/>
-      <c r="E128" s="77"/>
-      <c r="F128" s="77"/>
-      <c r="G128" s="77"/>
-      <c r="H128" s="77"/>
-      <c r="I128" s="77"/>
-      <c r="J128" s="77"/>
-      <c r="K128" s="77"/>
-      <c r="L128" s="77"/>
+      <c r="B128" s="65"/>
+      <c r="C128" s="65"/>
+      <c r="D128" s="65"/>
+      <c r="E128" s="65"/>
+      <c r="F128" s="65"/>
+      <c r="G128" s="65"/>
+      <c r="H128" s="65"/>
+      <c r="I128" s="65"/>
+      <c r="J128" s="65"/>
+      <c r="K128" s="65"/>
+      <c r="L128" s="65"/>
     </row>
     <row r="129" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B129" s="77"/>
-      <c r="C129" s="77"/>
-      <c r="D129" s="77"/>
-      <c r="E129" s="77"/>
-      <c r="F129" s="77"/>
-      <c r="G129" s="77"/>
-      <c r="H129" s="77"/>
-      <c r="I129" s="77"/>
-      <c r="J129" s="77"/>
-      <c r="K129" s="77"/>
-      <c r="L129" s="77"/>
+      <c r="B129" s="65"/>
+      <c r="C129" s="65"/>
+      <c r="D129" s="65"/>
+      <c r="E129" s="65"/>
+      <c r="F129" s="65"/>
+      <c r="G129" s="65"/>
+      <c r="H129" s="65"/>
+      <c r="I129" s="65"/>
+      <c r="J129" s="65"/>
+      <c r="K129" s="65"/>
+      <c r="L129" s="65"/>
     </row>
     <row r="130" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B130" s="77"/>
-      <c r="C130" s="77"/>
-      <c r="D130" s="77"/>
-      <c r="E130" s="77"/>
-      <c r="F130" s="77"/>
-      <c r="G130" s="77"/>
-      <c r="H130" s="77"/>
-      <c r="I130" s="77"/>
-      <c r="J130" s="77"/>
-      <c r="K130" s="77"/>
-      <c r="L130" s="77"/>
+      <c r="B130" s="65"/>
+      <c r="C130" s="65"/>
+      <c r="D130" s="65"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="65"/>
+      <c r="G130" s="65"/>
+      <c r="H130" s="65"/>
+      <c r="I130" s="65"/>
+      <c r="J130" s="65"/>
+      <c r="K130" s="65"/>
+      <c r="L130" s="65"/>
     </row>
     <row r="131" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B131" s="77"/>
-      <c r="C131" s="77"/>
-      <c r="D131" s="77"/>
-      <c r="E131" s="77"/>
-      <c r="F131" s="77"/>
-      <c r="G131" s="77"/>
-      <c r="H131" s="77"/>
-      <c r="I131" s="77"/>
-      <c r="J131" s="77"/>
-      <c r="K131" s="77"/>
-      <c r="L131" s="77"/>
+      <c r="B131" s="65"/>
+      <c r="C131" s="65"/>
+      <c r="D131" s="65"/>
+      <c r="E131" s="65"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="65"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="65"/>
+      <c r="J131" s="65"/>
+      <c r="K131" s="65"/>
+      <c r="L131" s="65"/>
     </row>
     <row r="132" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B132" s="77"/>
-      <c r="C132" s="77"/>
-      <c r="D132" s="77"/>
-      <c r="E132" s="77"/>
-      <c r="F132" s="77"/>
-      <c r="G132" s="77"/>
-      <c r="H132" s="77"/>
-      <c r="I132" s="77"/>
-      <c r="J132" s="77"/>
-      <c r="K132" s="77"/>
-      <c r="L132" s="77"/>
+      <c r="B132" s="65"/>
+      <c r="C132" s="65"/>
+      <c r="D132" s="65"/>
+      <c r="E132" s="65"/>
+      <c r="F132" s="65"/>
+      <c r="G132" s="65"/>
+      <c r="H132" s="65"/>
+      <c r="I132" s="65"/>
+      <c r="J132" s="65"/>
+      <c r="K132" s="65"/>
+      <c r="L132" s="65"/>
     </row>
     <row r="133" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B133" s="77"/>
-      <c r="C133" s="77"/>
-      <c r="D133" s="77"/>
-      <c r="E133" s="77"/>
-      <c r="F133" s="77"/>
-      <c r="G133" s="77"/>
-      <c r="H133" s="77"/>
-      <c r="I133" s="77"/>
-      <c r="J133" s="77"/>
-      <c r="K133" s="77"/>
-      <c r="L133" s="77"/>
+      <c r="B133" s="65"/>
+      <c r="C133" s="65"/>
+      <c r="D133" s="65"/>
+      <c r="E133" s="65"/>
+      <c r="F133" s="65"/>
+      <c r="G133" s="65"/>
+      <c r="H133" s="65"/>
+      <c r="I133" s="65"/>
+      <c r="J133" s="65"/>
+      <c r="K133" s="65"/>
+      <c r="L133" s="65"/>
     </row>
     <row r="134" spans="2:12" ht="24.75" customHeight="1">
       <c r="J134" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K134" s="76" t="str">
+      <c r="K134" s="64" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L134" s="76"/>
+      <c r="L134" s="64"/>
     </row>
     <row r="135" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B135" s="77" t="s">
+      <c r="B135" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="C135" s="77"/>
-      <c r="D135" s="77"/>
-      <c r="E135" s="77"/>
-      <c r="F135" s="77"/>
-      <c r="G135" s="77"/>
-      <c r="H135" s="77"/>
-      <c r="I135" s="77"/>
-      <c r="J135" s="77"/>
-      <c r="K135" s="77"/>
-      <c r="L135" s="77"/>
+      <c r="C135" s="65"/>
+      <c r="D135" s="65"/>
+      <c r="E135" s="65"/>
+      <c r="F135" s="65"/>
+      <c r="G135" s="65"/>
+      <c r="H135" s="65"/>
+      <c r="I135" s="65"/>
+      <c r="J135" s="65"/>
+      <c r="K135" s="65"/>
+      <c r="L135" s="65"/>
     </row>
     <row r="136" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B136" s="77"/>
-      <c r="C136" s="77"/>
-      <c r="D136" s="77"/>
-      <c r="E136" s="77"/>
-      <c r="F136" s="77"/>
-      <c r="G136" s="77"/>
-      <c r="H136" s="77"/>
-      <c r="I136" s="77"/>
-      <c r="J136" s="77"/>
-      <c r="K136" s="77"/>
-      <c r="L136" s="77"/>
+      <c r="B136" s="65"/>
+      <c r="C136" s="65"/>
+      <c r="D136" s="65"/>
+      <c r="E136" s="65"/>
+      <c r="F136" s="65"/>
+      <c r="G136" s="65"/>
+      <c r="H136" s="65"/>
+      <c r="I136" s="65"/>
+      <c r="J136" s="65"/>
+      <c r="K136" s="65"/>
+      <c r="L136" s="65"/>
     </row>
     <row r="137" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B137" s="77"/>
-      <c r="C137" s="77"/>
-      <c r="D137" s="77"/>
-      <c r="E137" s="77"/>
-      <c r="F137" s="77"/>
-      <c r="G137" s="77"/>
-      <c r="H137" s="77"/>
-      <c r="I137" s="77"/>
-      <c r="J137" s="77"/>
-      <c r="K137" s="77"/>
-      <c r="L137" s="77"/>
+      <c r="B137" s="65"/>
+      <c r="C137" s="65"/>
+      <c r="D137" s="65"/>
+      <c r="E137" s="65"/>
+      <c r="F137" s="65"/>
+      <c r="G137" s="65"/>
+      <c r="H137" s="65"/>
+      <c r="I137" s="65"/>
+      <c r="J137" s="65"/>
+      <c r="K137" s="65"/>
+      <c r="L137" s="65"/>
     </row>
     <row r="138" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B138" s="77"/>
-      <c r="C138" s="77"/>
-      <c r="D138" s="77"/>
-      <c r="E138" s="77"/>
-      <c r="F138" s="77"/>
-      <c r="G138" s="77"/>
-      <c r="H138" s="77"/>
-      <c r="I138" s="77"/>
-      <c r="J138" s="77"/>
-      <c r="K138" s="77"/>
-      <c r="L138" s="77"/>
+      <c r="B138" s="65"/>
+      <c r="C138" s="65"/>
+      <c r="D138" s="65"/>
+      <c r="E138" s="65"/>
+      <c r="F138" s="65"/>
+      <c r="G138" s="65"/>
+      <c r="H138" s="65"/>
+      <c r="I138" s="65"/>
+      <c r="J138" s="65"/>
+      <c r="K138" s="65"/>
+      <c r="L138" s="65"/>
     </row>
     <row r="139" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B139" s="77"/>
-      <c r="C139" s="77"/>
-      <c r="D139" s="77"/>
-      <c r="E139" s="77"/>
-      <c r="F139" s="77"/>
-      <c r="G139" s="77"/>
-      <c r="H139" s="77"/>
-      <c r="I139" s="77"/>
-      <c r="J139" s="77"/>
-      <c r="K139" s="77"/>
-      <c r="L139" s="77"/>
+      <c r="B139" s="65"/>
+      <c r="C139" s="65"/>
+      <c r="D139" s="65"/>
+      <c r="E139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="65"/>
+      <c r="H139" s="65"/>
+      <c r="I139" s="65"/>
+      <c r="J139" s="65"/>
+      <c r="K139" s="65"/>
+      <c r="L139" s="65"/>
     </row>
     <row r="140" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B140" s="77"/>
-      <c r="C140" s="77"/>
-      <c r="D140" s="77"/>
-      <c r="E140" s="77"/>
-      <c r="F140" s="77"/>
-      <c r="G140" s="77"/>
-      <c r="H140" s="77"/>
-      <c r="I140" s="77"/>
-      <c r="J140" s="77"/>
-      <c r="K140" s="77"/>
-      <c r="L140" s="77"/>
+      <c r="B140" s="65"/>
+      <c r="C140" s="65"/>
+      <c r="D140" s="65"/>
+      <c r="E140" s="65"/>
+      <c r="F140" s="65"/>
+      <c r="G140" s="65"/>
+      <c r="H140" s="65"/>
+      <c r="I140" s="65"/>
+      <c r="J140" s="65"/>
+      <c r="K140" s="65"/>
+      <c r="L140" s="65"/>
     </row>
     <row r="141" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B141" s="77"/>
-      <c r="C141" s="77"/>
-      <c r="D141" s="77"/>
-      <c r="E141" s="77"/>
-      <c r="F141" s="77"/>
-      <c r="G141" s="77"/>
-      <c r="H141" s="77"/>
-      <c r="I141" s="77"/>
-      <c r="J141" s="77"/>
-      <c r="K141" s="77"/>
-      <c r="L141" s="77"/>
+      <c r="B141" s="65"/>
+      <c r="C141" s="65"/>
+      <c r="D141" s="65"/>
+      <c r="E141" s="65"/>
+      <c r="F141" s="65"/>
+      <c r="G141" s="65"/>
+      <c r="H141" s="65"/>
+      <c r="I141" s="65"/>
+      <c r="J141" s="65"/>
+      <c r="K141" s="65"/>
+      <c r="L141" s="65"/>
     </row>
     <row r="142" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B142" s="77"/>
-      <c r="C142" s="77"/>
-      <c r="D142" s="77"/>
-      <c r="E142" s="77"/>
-      <c r="F142" s="77"/>
-      <c r="G142" s="77"/>
-      <c r="H142" s="77"/>
-      <c r="I142" s="77"/>
-      <c r="J142" s="77"/>
-      <c r="K142" s="77"/>
-      <c r="L142" s="77"/>
+      <c r="B142" s="65"/>
+      <c r="C142" s="65"/>
+      <c r="D142" s="65"/>
+      <c r="E142" s="65"/>
+      <c r="F142" s="65"/>
+      <c r="G142" s="65"/>
+      <c r="H142" s="65"/>
+      <c r="I142" s="65"/>
+      <c r="J142" s="65"/>
+      <c r="K142" s="65"/>
+      <c r="L142" s="65"/>
     </row>
     <row r="143" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B143" s="77"/>
-      <c r="C143" s="77"/>
-      <c r="D143" s="77"/>
-      <c r="E143" s="77"/>
-      <c r="F143" s="77"/>
-      <c r="G143" s="77"/>
-      <c r="H143" s="77"/>
-      <c r="I143" s="77"/>
-      <c r="J143" s="77"/>
-      <c r="K143" s="77"/>
-      <c r="L143" s="77"/>
+      <c r="B143" s="65"/>
+      <c r="C143" s="65"/>
+      <c r="D143" s="65"/>
+      <c r="E143" s="65"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="65"/>
+      <c r="H143" s="65"/>
+      <c r="I143" s="65"/>
+      <c r="J143" s="65"/>
+      <c r="K143" s="65"/>
+      <c r="L143" s="65"/>
     </row>
     <row r="144" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B144" s="77"/>
-      <c r="C144" s="77"/>
-      <c r="D144" s="77"/>
-      <c r="E144" s="77"/>
-      <c r="F144" s="77"/>
-      <c r="G144" s="77"/>
-      <c r="H144" s="77"/>
-      <c r="I144" s="77"/>
-      <c r="J144" s="77"/>
-      <c r="K144" s="77"/>
-      <c r="L144" s="77"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="65"/>
+      <c r="D144" s="65"/>
+      <c r="E144" s="65"/>
+      <c r="F144" s="65"/>
+      <c r="G144" s="65"/>
+      <c r="H144" s="65"/>
+      <c r="I144" s="65"/>
+      <c r="J144" s="65"/>
+      <c r="K144" s="65"/>
+      <c r="L144" s="65"/>
     </row>
     <row r="145" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B145" s="77"/>
-      <c r="C145" s="77"/>
-      <c r="D145" s="77"/>
-      <c r="E145" s="77"/>
-      <c r="F145" s="77"/>
-      <c r="G145" s="77"/>
-      <c r="H145" s="77"/>
-      <c r="I145" s="77"/>
-      <c r="J145" s="77"/>
-      <c r="K145" s="77"/>
-      <c r="L145" s="77"/>
+      <c r="B145" s="65"/>
+      <c r="C145" s="65"/>
+      <c r="D145" s="65"/>
+      <c r="E145" s="65"/>
+      <c r="F145" s="65"/>
+      <c r="G145" s="65"/>
+      <c r="H145" s="65"/>
+      <c r="I145" s="65"/>
+      <c r="J145" s="65"/>
+      <c r="K145" s="65"/>
+      <c r="L145" s="65"/>
     </row>
     <row r="146" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B146" s="77"/>
-      <c r="C146" s="77"/>
-      <c r="D146" s="77"/>
-      <c r="E146" s="77"/>
-      <c r="F146" s="77"/>
-      <c r="G146" s="77"/>
-      <c r="H146" s="77"/>
-      <c r="I146" s="77"/>
-      <c r="J146" s="77"/>
-      <c r="K146" s="77"/>
-      <c r="L146" s="77"/>
+      <c r="B146" s="65"/>
+      <c r="C146" s="65"/>
+      <c r="D146" s="65"/>
+      <c r="E146" s="65"/>
+      <c r="F146" s="65"/>
+      <c r="G146" s="65"/>
+      <c r="H146" s="65"/>
+      <c r="I146" s="65"/>
+      <c r="J146" s="65"/>
+      <c r="K146" s="65"/>
+      <c r="L146" s="65"/>
     </row>
     <row r="147" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B147" s="77"/>
-      <c r="C147" s="77"/>
-      <c r="D147" s="77"/>
-      <c r="E147" s="77"/>
-      <c r="F147" s="77"/>
-      <c r="G147" s="77"/>
-      <c r="H147" s="77"/>
-      <c r="I147" s="77"/>
-      <c r="J147" s="77"/>
-      <c r="K147" s="77"/>
-      <c r="L147" s="77"/>
+      <c r="B147" s="65"/>
+      <c r="C147" s="65"/>
+      <c r="D147" s="65"/>
+      <c r="E147" s="65"/>
+      <c r="F147" s="65"/>
+      <c r="G147" s="65"/>
+      <c r="H147" s="65"/>
+      <c r="I147" s="65"/>
+      <c r="J147" s="65"/>
+      <c r="K147" s="65"/>
+      <c r="L147" s="65"/>
     </row>
     <row r="148" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B148" s="77"/>
-      <c r="C148" s="77"/>
-      <c r="D148" s="77"/>
-      <c r="E148" s="77"/>
-      <c r="F148" s="77"/>
-      <c r="G148" s="77"/>
-      <c r="H148" s="77"/>
-      <c r="I148" s="77"/>
-      <c r="J148" s="77"/>
-      <c r="K148" s="77"/>
-      <c r="L148" s="77"/>
+      <c r="B148" s="65"/>
+      <c r="C148" s="65"/>
+      <c r="D148" s="65"/>
+      <c r="E148" s="65"/>
+      <c r="F148" s="65"/>
+      <c r="G148" s="65"/>
+      <c r="H148" s="65"/>
+      <c r="I148" s="65"/>
+      <c r="J148" s="65"/>
+      <c r="K148" s="65"/>
+      <c r="L148" s="65"/>
     </row>
     <row r="149" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B149" s="77"/>
-      <c r="C149" s="77"/>
-      <c r="D149" s="77"/>
-      <c r="E149" s="77"/>
-      <c r="F149" s="77"/>
-      <c r="G149" s="77"/>
-      <c r="H149" s="77"/>
-      <c r="I149" s="77"/>
-      <c r="J149" s="77"/>
-      <c r="K149" s="77"/>
-      <c r="L149" s="77"/>
+      <c r="B149" s="65"/>
+      <c r="C149" s="65"/>
+      <c r="D149" s="65"/>
+      <c r="E149" s="65"/>
+      <c r="F149" s="65"/>
+      <c r="G149" s="65"/>
+      <c r="H149" s="65"/>
+      <c r="I149" s="65"/>
+      <c r="J149" s="65"/>
+      <c r="K149" s="65"/>
+      <c r="L149" s="65"/>
     </row>
     <row r="150" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B150" s="77"/>
-      <c r="C150" s="77"/>
-      <c r="D150" s="77"/>
-      <c r="E150" s="77"/>
-      <c r="F150" s="77"/>
-      <c r="G150" s="77"/>
-      <c r="H150" s="77"/>
-      <c r="I150" s="77"/>
-      <c r="J150" s="77"/>
-      <c r="K150" s="77"/>
-      <c r="L150" s="77"/>
+      <c r="B150" s="65"/>
+      <c r="C150" s="65"/>
+      <c r="D150" s="65"/>
+      <c r="E150" s="65"/>
+      <c r="F150" s="65"/>
+      <c r="G150" s="65"/>
+      <c r="H150" s="65"/>
+      <c r="I150" s="65"/>
+      <c r="J150" s="65"/>
+      <c r="K150" s="65"/>
+      <c r="L150" s="65"/>
     </row>
     <row r="151" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B151" s="77"/>
-      <c r="C151" s="77"/>
-      <c r="D151" s="77"/>
-      <c r="E151" s="77"/>
-      <c r="F151" s="77"/>
-      <c r="G151" s="77"/>
-      <c r="H151" s="77"/>
-      <c r="I151" s="77"/>
-      <c r="J151" s="77"/>
-      <c r="K151" s="77"/>
-      <c r="L151" s="77"/>
+      <c r="B151" s="65"/>
+      <c r="C151" s="65"/>
+      <c r="D151" s="65"/>
+      <c r="E151" s="65"/>
+      <c r="F151" s="65"/>
+      <c r="G151" s="65"/>
+      <c r="H151" s="65"/>
+      <c r="I151" s="65"/>
+      <c r="J151" s="65"/>
+      <c r="K151" s="65"/>
+      <c r="L151" s="65"/>
     </row>
     <row r="152" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B152" s="77"/>
-      <c r="C152" s="77"/>
-      <c r="D152" s="77"/>
-      <c r="E152" s="77"/>
-      <c r="F152" s="77"/>
-      <c r="G152" s="77"/>
-      <c r="H152" s="77"/>
-      <c r="I152" s="77"/>
-      <c r="J152" s="77"/>
-      <c r="K152" s="77"/>
-      <c r="L152" s="77"/>
+      <c r="B152" s="65"/>
+      <c r="C152" s="65"/>
+      <c r="D152" s="65"/>
+      <c r="E152" s="65"/>
+      <c r="F152" s="65"/>
+      <c r="G152" s="65"/>
+      <c r="H152" s="65"/>
+      <c r="I152" s="65"/>
+      <c r="J152" s="65"/>
+      <c r="K152" s="65"/>
+      <c r="L152" s="65"/>
     </row>
     <row r="153" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B153" s="77"/>
-      <c r="C153" s="77"/>
-      <c r="D153" s="77"/>
-      <c r="E153" s="77"/>
-      <c r="F153" s="77"/>
-      <c r="G153" s="77"/>
-      <c r="H153" s="77"/>
-      <c r="I153" s="77"/>
-      <c r="J153" s="77"/>
-      <c r="K153" s="77"/>
-      <c r="L153" s="77"/>
+      <c r="B153" s="65"/>
+      <c r="C153" s="65"/>
+      <c r="D153" s="65"/>
+      <c r="E153" s="65"/>
+      <c r="F153" s="65"/>
+      <c r="G153" s="65"/>
+      <c r="H153" s="65"/>
+      <c r="I153" s="65"/>
+      <c r="J153" s="65"/>
+      <c r="K153" s="65"/>
+      <c r="L153" s="65"/>
     </row>
     <row r="154" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B154" s="77"/>
-      <c r="C154" s="77"/>
-      <c r="D154" s="77"/>
-      <c r="E154" s="77"/>
-      <c r="F154" s="77"/>
-      <c r="G154" s="77"/>
-      <c r="H154" s="77"/>
-      <c r="I154" s="77"/>
-      <c r="J154" s="77"/>
-      <c r="K154" s="77"/>
-      <c r="L154" s="77"/>
+      <c r="B154" s="65"/>
+      <c r="C154" s="65"/>
+      <c r="D154" s="65"/>
+      <c r="E154" s="65"/>
+      <c r="F154" s="65"/>
+      <c r="G154" s="65"/>
+      <c r="H154" s="65"/>
+      <c r="I154" s="65"/>
+      <c r="J154" s="65"/>
+      <c r="K154" s="65"/>
+      <c r="L154" s="65"/>
     </row>
     <row r="155" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B155" s="77"/>
-      <c r="C155" s="77"/>
-      <c r="D155" s="77"/>
-      <c r="E155" s="77"/>
-      <c r="F155" s="77"/>
-      <c r="G155" s="77"/>
-      <c r="H155" s="77"/>
-      <c r="I155" s="77"/>
-      <c r="J155" s="77"/>
-      <c r="K155" s="77"/>
-      <c r="L155" s="77"/>
+      <c r="B155" s="65"/>
+      <c r="C155" s="65"/>
+      <c r="D155" s="65"/>
+      <c r="E155" s="65"/>
+      <c r="F155" s="65"/>
+      <c r="G155" s="65"/>
+      <c r="H155" s="65"/>
+      <c r="I155" s="65"/>
+      <c r="J155" s="65"/>
+      <c r="K155" s="65"/>
+      <c r="L155" s="65"/>
     </row>
     <row r="156" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B156" s="77"/>
-      <c r="C156" s="77"/>
-      <c r="D156" s="77"/>
-      <c r="E156" s="77"/>
-      <c r="F156" s="77"/>
-      <c r="G156" s="77"/>
-      <c r="H156" s="77"/>
-      <c r="I156" s="77"/>
-      <c r="J156" s="77"/>
-      <c r="K156" s="77"/>
-      <c r="L156" s="77"/>
+      <c r="B156" s="65"/>
+      <c r="C156" s="65"/>
+      <c r="D156" s="65"/>
+      <c r="E156" s="65"/>
+      <c r="F156" s="65"/>
+      <c r="G156" s="65"/>
+      <c r="H156" s="65"/>
+      <c r="I156" s="65"/>
+      <c r="J156" s="65"/>
+      <c r="K156" s="65"/>
+      <c r="L156" s="65"/>
     </row>
     <row r="157" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B157" s="77"/>
-      <c r="C157" s="77"/>
-      <c r="D157" s="77"/>
-      <c r="E157" s="77"/>
-      <c r="F157" s="77"/>
-      <c r="G157" s="77"/>
-      <c r="H157" s="77"/>
-      <c r="I157" s="77"/>
-      <c r="J157" s="77"/>
-      <c r="K157" s="77"/>
-      <c r="L157" s="77"/>
+      <c r="B157" s="65"/>
+      <c r="C157" s="65"/>
+      <c r="D157" s="65"/>
+      <c r="E157" s="65"/>
+      <c r="F157" s="65"/>
+      <c r="G157" s="65"/>
+      <c r="H157" s="65"/>
+      <c r="I157" s="65"/>
+      <c r="J157" s="65"/>
+      <c r="K157" s="65"/>
+      <c r="L157" s="65"/>
     </row>
     <row r="158" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B158" s="77"/>
-      <c r="C158" s="77"/>
-      <c r="D158" s="77"/>
-      <c r="E158" s="77"/>
-      <c r="F158" s="77"/>
-      <c r="G158" s="77"/>
-      <c r="H158" s="77"/>
-      <c r="I158" s="77"/>
-      <c r="J158" s="77"/>
-      <c r="K158" s="77"/>
-      <c r="L158" s="77"/>
+      <c r="B158" s="65"/>
+      <c r="C158" s="65"/>
+      <c r="D158" s="65"/>
+      <c r="E158" s="65"/>
+      <c r="F158" s="65"/>
+      <c r="G158" s="65"/>
+      <c r="H158" s="65"/>
+      <c r="I158" s="65"/>
+      <c r="J158" s="65"/>
+      <c r="K158" s="65"/>
+      <c r="L158" s="65"/>
     </row>
     <row r="159" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B159" s="77"/>
-      <c r="C159" s="77"/>
-      <c r="D159" s="77"/>
-      <c r="E159" s="77"/>
-      <c r="F159" s="77"/>
-      <c r="G159" s="77"/>
-      <c r="H159" s="77"/>
-      <c r="I159" s="77"/>
-      <c r="J159" s="77"/>
-      <c r="K159" s="77"/>
-      <c r="L159" s="77"/>
+      <c r="B159" s="65"/>
+      <c r="C159" s="65"/>
+      <c r="D159" s="65"/>
+      <c r="E159" s="65"/>
+      <c r="F159" s="65"/>
+      <c r="G159" s="65"/>
+      <c r="H159" s="65"/>
+      <c r="I159" s="65"/>
+      <c r="J159" s="65"/>
+      <c r="K159" s="65"/>
+      <c r="L159" s="65"/>
     </row>
     <row r="160" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B160" s="77"/>
-      <c r="C160" s="77"/>
-      <c r="D160" s="77"/>
-      <c r="E160" s="77"/>
-      <c r="F160" s="77"/>
-      <c r="G160" s="77"/>
-      <c r="H160" s="77"/>
-      <c r="I160" s="77"/>
-      <c r="J160" s="77"/>
-      <c r="K160" s="77"/>
-      <c r="L160" s="77"/>
+      <c r="B160" s="65"/>
+      <c r="C160" s="65"/>
+      <c r="D160" s="65"/>
+      <c r="E160" s="65"/>
+      <c r="F160" s="65"/>
+      <c r="G160" s="65"/>
+      <c r="H160" s="65"/>
+      <c r="I160" s="65"/>
+      <c r="J160" s="65"/>
+      <c r="K160" s="65"/>
+      <c r="L160" s="65"/>
     </row>
     <row r="161" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B161" s="77"/>
-      <c r="C161" s="77"/>
-      <c r="D161" s="77"/>
-      <c r="E161" s="77"/>
-      <c r="F161" s="77"/>
-      <c r="G161" s="77"/>
-      <c r="H161" s="77"/>
-      <c r="I161" s="77"/>
-      <c r="J161" s="77"/>
-      <c r="K161" s="77"/>
-      <c r="L161" s="77"/>
+      <c r="B161" s="65"/>
+      <c r="C161" s="65"/>
+      <c r="D161" s="65"/>
+      <c r="E161" s="65"/>
+      <c r="F161" s="65"/>
+      <c r="G161" s="65"/>
+      <c r="H161" s="65"/>
+      <c r="I161" s="65"/>
+      <c r="J161" s="65"/>
+      <c r="K161" s="65"/>
+      <c r="L161" s="65"/>
     </row>
     <row r="162" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B162" s="77"/>
-      <c r="C162" s="77"/>
-      <c r="D162" s="77"/>
-      <c r="E162" s="77"/>
-      <c r="F162" s="77"/>
-      <c r="G162" s="77"/>
-      <c r="H162" s="77"/>
-      <c r="I162" s="77"/>
-      <c r="J162" s="77"/>
-      <c r="K162" s="77"/>
-      <c r="L162" s="77"/>
+      <c r="B162" s="65"/>
+      <c r="C162" s="65"/>
+      <c r="D162" s="65"/>
+      <c r="E162" s="65"/>
+      <c r="F162" s="65"/>
+      <c r="G162" s="65"/>
+      <c r="H162" s="65"/>
+      <c r="I162" s="65"/>
+      <c r="J162" s="65"/>
+      <c r="K162" s="65"/>
+      <c r="L162" s="65"/>
     </row>
     <row r="163" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B163" s="77"/>
-      <c r="C163" s="77"/>
-      <c r="D163" s="77"/>
-      <c r="E163" s="77"/>
-      <c r="F163" s="77"/>
-      <c r="G163" s="77"/>
-      <c r="H163" s="77"/>
-      <c r="I163" s="77"/>
-      <c r="J163" s="77"/>
-      <c r="K163" s="77"/>
-      <c r="L163" s="77"/>
+      <c r="B163" s="65"/>
+      <c r="C163" s="65"/>
+      <c r="D163" s="65"/>
+      <c r="E163" s="65"/>
+      <c r="F163" s="65"/>
+      <c r="G163" s="65"/>
+      <c r="H163" s="65"/>
+      <c r="I163" s="65"/>
+      <c r="J163" s="65"/>
+      <c r="K163" s="65"/>
+      <c r="L163" s="65"/>
     </row>
     <row r="164" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B164" s="77"/>
-      <c r="C164" s="77"/>
-      <c r="D164" s="77"/>
-      <c r="E164" s="77"/>
-      <c r="F164" s="77"/>
-      <c r="G164" s="77"/>
-      <c r="H164" s="77"/>
-      <c r="I164" s="77"/>
-      <c r="J164" s="77"/>
-      <c r="K164" s="77"/>
-      <c r="L164" s="77"/>
+      <c r="B164" s="65"/>
+      <c r="C164" s="65"/>
+      <c r="D164" s="65"/>
+      <c r="E164" s="65"/>
+      <c r="F164" s="65"/>
+      <c r="G164" s="65"/>
+      <c r="H164" s="65"/>
+      <c r="I164" s="65"/>
+      <c r="J164" s="65"/>
+      <c r="K164" s="65"/>
+      <c r="L164" s="65"/>
     </row>
     <row r="165" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B165" s="77"/>
-      <c r="C165" s="77"/>
-      <c r="D165" s="77"/>
-      <c r="E165" s="77"/>
-      <c r="F165" s="77"/>
-      <c r="G165" s="77"/>
-      <c r="H165" s="77"/>
-      <c r="I165" s="77"/>
-      <c r="J165" s="77"/>
-      <c r="K165" s="77"/>
-      <c r="L165" s="77"/>
+      <c r="B165" s="65"/>
+      <c r="C165" s="65"/>
+      <c r="D165" s="65"/>
+      <c r="E165" s="65"/>
+      <c r="F165" s="65"/>
+      <c r="G165" s="65"/>
+      <c r="H165" s="65"/>
+      <c r="I165" s="65"/>
+      <c r="J165" s="65"/>
+      <c r="K165" s="65"/>
+      <c r="L165" s="65"/>
     </row>
     <row r="166" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B166" s="77"/>
-      <c r="C166" s="77"/>
-      <c r="D166" s="77"/>
-      <c r="E166" s="77"/>
-      <c r="F166" s="77"/>
-      <c r="G166" s="77"/>
-      <c r="H166" s="77"/>
-      <c r="I166" s="77"/>
-      <c r="J166" s="77"/>
-      <c r="K166" s="77"/>
-      <c r="L166" s="77"/>
+      <c r="B166" s="65"/>
+      <c r="C166" s="65"/>
+      <c r="D166" s="65"/>
+      <c r="E166" s="65"/>
+      <c r="F166" s="65"/>
+      <c r="G166" s="65"/>
+      <c r="H166" s="65"/>
+      <c r="I166" s="65"/>
+      <c r="J166" s="65"/>
+      <c r="K166" s="65"/>
+      <c r="L166" s="65"/>
     </row>
     <row r="167" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B167" s="77"/>
-      <c r="C167" s="77"/>
-      <c r="D167" s="77"/>
-      <c r="E167" s="77"/>
-      <c r="F167" s="77"/>
-      <c r="G167" s="77"/>
-      <c r="H167" s="77"/>
-      <c r="I167" s="77"/>
-      <c r="J167" s="77"/>
-      <c r="K167" s="77"/>
-      <c r="L167" s="77"/>
+      <c r="B167" s="65"/>
+      <c r="C167" s="65"/>
+      <c r="D167" s="65"/>
+      <c r="E167" s="65"/>
+      <c r="F167" s="65"/>
+      <c r="G167" s="65"/>
+      <c r="H167" s="65"/>
+      <c r="I167" s="65"/>
+      <c r="J167" s="65"/>
+      <c r="K167" s="65"/>
+      <c r="L167" s="65"/>
     </row>
     <row r="168" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B168" s="77"/>
-      <c r="C168" s="77"/>
-      <c r="D168" s="77"/>
-      <c r="E168" s="77"/>
-      <c r="F168" s="77"/>
-      <c r="G168" s="77"/>
-      <c r="H168" s="77"/>
-      <c r="I168" s="77"/>
-      <c r="J168" s="77"/>
-      <c r="K168" s="77"/>
-      <c r="L168" s="77"/>
+      <c r="B168" s="65"/>
+      <c r="C168" s="65"/>
+      <c r="D168" s="65"/>
+      <c r="E168" s="65"/>
+      <c r="F168" s="65"/>
+      <c r="G168" s="65"/>
+      <c r="H168" s="65"/>
+      <c r="I168" s="65"/>
+      <c r="J168" s="65"/>
+      <c r="K168" s="65"/>
+      <c r="L168" s="65"/>
     </row>
     <row r="169" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B169" s="77"/>
-      <c r="C169" s="77"/>
-      <c r="D169" s="77"/>
-      <c r="E169" s="77"/>
-      <c r="F169" s="77"/>
-      <c r="G169" s="77"/>
-      <c r="H169" s="77"/>
-      <c r="I169" s="77"/>
-      <c r="J169" s="77"/>
-      <c r="K169" s="77"/>
-      <c r="L169" s="77"/>
+      <c r="B169" s="65"/>
+      <c r="C169" s="65"/>
+      <c r="D169" s="65"/>
+      <c r="E169" s="65"/>
+      <c r="F169" s="65"/>
+      <c r="G169" s="65"/>
+      <c r="H169" s="65"/>
+      <c r="I169" s="65"/>
+      <c r="J169" s="65"/>
+      <c r="K169" s="65"/>
+      <c r="L169" s="65"/>
     </row>
     <row r="170" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B170" s="77"/>
-      <c r="C170" s="77"/>
-      <c r="D170" s="77"/>
-      <c r="E170" s="77"/>
-      <c r="F170" s="77"/>
-      <c r="G170" s="77"/>
-      <c r="H170" s="77"/>
-      <c r="I170" s="77"/>
-      <c r="J170" s="77"/>
-      <c r="K170" s="77"/>
-      <c r="L170" s="77"/>
+      <c r="B170" s="65"/>
+      <c r="C170" s="65"/>
+      <c r="D170" s="65"/>
+      <c r="E170" s="65"/>
+      <c r="F170" s="65"/>
+      <c r="G170" s="65"/>
+      <c r="H170" s="65"/>
+      <c r="I170" s="65"/>
+      <c r="J170" s="65"/>
+      <c r="K170" s="65"/>
+      <c r="L170" s="65"/>
     </row>
     <row r="171" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B171" s="77"/>
-      <c r="C171" s="77"/>
-      <c r="D171" s="77"/>
-      <c r="E171" s="77"/>
-      <c r="F171" s="77"/>
-      <c r="G171" s="77"/>
-      <c r="H171" s="77"/>
-      <c r="I171" s="77"/>
-      <c r="J171" s="77"/>
-      <c r="K171" s="77"/>
-      <c r="L171" s="77"/>
+      <c r="B171" s="65"/>
+      <c r="C171" s="65"/>
+      <c r="D171" s="65"/>
+      <c r="E171" s="65"/>
+      <c r="F171" s="65"/>
+      <c r="G171" s="65"/>
+      <c r="H171" s="65"/>
+      <c r="I171" s="65"/>
+      <c r="J171" s="65"/>
+      <c r="K171" s="65"/>
+      <c r="L171" s="65"/>
     </row>
     <row r="172" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B172" s="77"/>
-      <c r="C172" s="77"/>
-      <c r="D172" s="77"/>
-      <c r="E172" s="77"/>
-      <c r="F172" s="77"/>
-      <c r="G172" s="77"/>
-      <c r="H172" s="77"/>
-      <c r="I172" s="77"/>
-      <c r="J172" s="77"/>
-      <c r="K172" s="77"/>
-      <c r="L172" s="77"/>
+      <c r="B172" s="65"/>
+      <c r="C172" s="65"/>
+      <c r="D172" s="65"/>
+      <c r="E172" s="65"/>
+      <c r="F172" s="65"/>
+      <c r="G172" s="65"/>
+      <c r="H172" s="65"/>
+      <c r="I172" s="65"/>
+      <c r="J172" s="65"/>
+      <c r="K172" s="65"/>
+      <c r="L172" s="65"/>
     </row>
     <row r="173" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B173" s="77"/>
-      <c r="C173" s="77"/>
-      <c r="D173" s="77"/>
-      <c r="E173" s="77"/>
-      <c r="F173" s="77"/>
-      <c r="G173" s="77"/>
-      <c r="H173" s="77"/>
-      <c r="I173" s="77"/>
-      <c r="J173" s="77"/>
-      <c r="K173" s="77"/>
-      <c r="L173" s="77"/>
+      <c r="B173" s="65"/>
+      <c r="C173" s="65"/>
+      <c r="D173" s="65"/>
+      <c r="E173" s="65"/>
+      <c r="F173" s="65"/>
+      <c r="G173" s="65"/>
+      <c r="H173" s="65"/>
+      <c r="I173" s="65"/>
+      <c r="J173" s="65"/>
+      <c r="K173" s="65"/>
+      <c r="L173" s="65"/>
     </row>
     <row r="174" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B174" s="77"/>
-      <c r="C174" s="77"/>
-      <c r="D174" s="77"/>
-      <c r="E174" s="77"/>
-      <c r="F174" s="77"/>
-      <c r="G174" s="77"/>
-      <c r="H174" s="77"/>
-      <c r="I174" s="77"/>
-      <c r="J174" s="77"/>
-      <c r="K174" s="77"/>
-      <c r="L174" s="77"/>
+      <c r="B174" s="65"/>
+      <c r="C174" s="65"/>
+      <c r="D174" s="65"/>
+      <c r="E174" s="65"/>
+      <c r="F174" s="65"/>
+      <c r="G174" s="65"/>
+      <c r="H174" s="65"/>
+      <c r="I174" s="65"/>
+      <c r="J174" s="65"/>
+      <c r="K174" s="65"/>
+      <c r="L174" s="65"/>
     </row>
     <row r="175" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B175" s="77"/>
-      <c r="C175" s="77"/>
-      <c r="D175" s="77"/>
-      <c r="E175" s="77"/>
-      <c r="F175" s="77"/>
-      <c r="G175" s="77"/>
-      <c r="H175" s="77"/>
-      <c r="I175" s="77"/>
-      <c r="J175" s="77"/>
-      <c r="K175" s="77"/>
-      <c r="L175" s="77"/>
+      <c r="B175" s="65"/>
+      <c r="C175" s="65"/>
+      <c r="D175" s="65"/>
+      <c r="E175" s="65"/>
+      <c r="F175" s="65"/>
+      <c r="G175" s="65"/>
+      <c r="H175" s="65"/>
+      <c r="I175" s="65"/>
+      <c r="J175" s="65"/>
+      <c r="K175" s="65"/>
+      <c r="L175" s="65"/>
     </row>
     <row r="176" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B176" s="77"/>
-      <c r="C176" s="77"/>
-      <c r="D176" s="77"/>
-      <c r="E176" s="77"/>
-      <c r="F176" s="77"/>
-      <c r="G176" s="77"/>
-      <c r="H176" s="77"/>
-      <c r="I176" s="77"/>
-      <c r="J176" s="77"/>
-      <c r="K176" s="77"/>
-      <c r="L176" s="77"/>
+      <c r="B176" s="65"/>
+      <c r="C176" s="65"/>
+      <c r="D176" s="65"/>
+      <c r="E176" s="65"/>
+      <c r="F176" s="65"/>
+      <c r="G176" s="65"/>
+      <c r="H176" s="65"/>
+      <c r="I176" s="65"/>
+      <c r="J176" s="65"/>
+      <c r="K176" s="65"/>
+      <c r="L176" s="65"/>
     </row>
     <row r="177" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B177" s="77"/>
-      <c r="C177" s="77"/>
-      <c r="D177" s="77"/>
-      <c r="E177" s="77"/>
-      <c r="F177" s="77"/>
-      <c r="G177" s="77"/>
-      <c r="H177" s="77"/>
-      <c r="I177" s="77"/>
-      <c r="J177" s="77"/>
-      <c r="K177" s="77"/>
-      <c r="L177" s="77"/>
+      <c r="B177" s="65"/>
+      <c r="C177" s="65"/>
+      <c r="D177" s="65"/>
+      <c r="E177" s="65"/>
+      <c r="F177" s="65"/>
+      <c r="G177" s="65"/>
+      <c r="H177" s="65"/>
+      <c r="I177" s="65"/>
+      <c r="J177" s="65"/>
+      <c r="K177" s="65"/>
+      <c r="L177" s="65"/>
     </row>
     <row r="178" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B178" s="77" t="s">
+      <c r="B178" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="C178" s="77"/>
-      <c r="D178" s="79" t="str">
+      <c r="C178" s="65"/>
+      <c r="D178" s="67" t="str">
         <f>記入!B37</f>
         <v>${signingdate}</v>
       </c>
-      <c r="E178" s="79"/>
+      <c r="E178" s="67"/>
       <c r="F178" s="42"/>
       <c r="G178" s="42"/>
       <c r="H178" s="42"/>
@@ -5160,11 +5148,11 @@
       <c r="J208" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K208" s="76" t="str">
+      <c r="K208" s="64" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L208" s="76"/>
+      <c r="L208" s="64"/>
     </row>
     <row r="209" spans="2:12" ht="17.25">
       <c r="B209" s="25" t="s">
@@ -5188,19 +5176,19 @@
     </row>
     <row r="212" spans="2:12" ht="14.25">
       <c r="B212" s="21"/>
-      <c r="C212" s="62" t="str">
+      <c r="C212" s="69" t="str">
         <f>記入!B10</f>
         <v>${cv.pjnamejapanese}</v>
       </c>
-      <c r="D212" s="62"/>
-      <c r="E212" s="62"/>
-      <c r="F212" s="62"/>
-      <c r="G212" s="62"/>
-      <c r="H212" s="62"/>
-      <c r="I212" s="62"/>
-      <c r="J212" s="62"/>
-      <c r="K212" s="62"/>
-      <c r="L212" s="62"/>
+      <c r="D212" s="69"/>
+      <c r="E212" s="69"/>
+      <c r="F212" s="69"/>
+      <c r="G212" s="69"/>
+      <c r="H212" s="69"/>
+      <c r="I212" s="69"/>
+      <c r="J212" s="69"/>
+      <c r="K212" s="69"/>
+      <c r="L212" s="69"/>
     </row>
     <row r="213" spans="2:12" ht="14.25">
       <c r="B213" s="21"/>
@@ -5235,11 +5223,11 @@
       <c r="C215" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D215" s="63" t="str">
+      <c r="D215" s="70" t="str">
         <f>記入!B14</f>
         <v>${openingdate}</v>
       </c>
-      <c r="E215" s="64"/>
+      <c r="E215" s="71"/>
       <c r="F215" s="22"/>
       <c r="G215" s="22"/>
       <c r="H215" s="22"/>
@@ -5253,11 +5241,11 @@
       <c r="C216" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D216" s="63" t="str">
+      <c r="D216" s="70" t="str">
         <f>記入!B15</f>
         <v>${enddate}</v>
       </c>
-      <c r="E216" s="64"/>
+      <c r="E216" s="71"/>
       <c r="F216" s="22"/>
       <c r="G216" s="22"/>
       <c r="H216" s="22"/>
@@ -5320,18 +5308,18 @@
     </row>
     <row r="222" spans="2:12" ht="14.25">
       <c r="B222" s="21"/>
-      <c r="C222" s="74" t="s">
+      <c r="C222" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="D222" s="74"/>
-      <c r="E222" s="74" t="s">
+      <c r="D222" s="61"/>
+      <c r="E222" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="F222" s="74"/>
-      <c r="G222" s="74" t="s">
+      <c r="F222" s="61"/>
+      <c r="G222" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="H222" s="74"/>
+      <c r="H222" s="61"/>
       <c r="I222" s="21"/>
       <c r="J222" s="21"/>
       <c r="K222" s="21"/>
@@ -5339,21 +5327,21 @@
     </row>
     <row r="223" spans="2:12" ht="14.25">
       <c r="B223" s="21"/>
-      <c r="C223" s="71" t="str">
+      <c r="C223" s="63" t="str">
         <f>IF(E223="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="D223" s="71"/>
-      <c r="E223" s="74" t="str">
+      <c r="D223" s="63"/>
+      <c r="E223" s="61" t="str">
         <f>IF(記入!A29="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F223" s="74"/>
-      <c r="G223" s="80" t="str">
+      <c r="F223" s="61"/>
+      <c r="G223" s="62" t="str">
         <f>IF(記入!B29="","-",記入!B29)</f>
         <v>${ba1[0].deliverydate}</v>
       </c>
-      <c r="H223" s="80"/>
+      <c r="H223" s="62"/>
       <c r="I223" s="21"/>
       <c r="J223" s="21"/>
       <c r="K223" s="21"/>
@@ -5361,21 +5349,21 @@
     </row>
     <row r="224" spans="2:12" ht="14.25">
       <c r="B224" s="21"/>
-      <c r="C224" s="71" t="str">
+      <c r="C224" s="63" t="str">
         <f>IF(E224="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="D224" s="71"/>
-      <c r="E224" s="74" t="str">
+      <c r="D224" s="63"/>
+      <c r="E224" s="61" t="str">
         <f>IF(記入!A30="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F224" s="74"/>
-      <c r="G224" s="80" t="str">
+      <c r="F224" s="61"/>
+      <c r="G224" s="62" t="str">
         <f>IF(記入!B30="","-",記入!B30)</f>
         <v>${ba1[1].deliverydate}</v>
       </c>
-      <c r="H224" s="80"/>
+      <c r="H224" s="62"/>
       <c r="I224" s="21"/>
       <c r="J224" s="21"/>
       <c r="K224" s="21"/>
@@ -5383,21 +5371,21 @@
     </row>
     <row r="225" spans="2:12" ht="14.25">
       <c r="B225" s="21"/>
-      <c r="C225" s="71" t="str">
+      <c r="C225" s="63" t="str">
         <f>IF(E225="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="D225" s="71"/>
-      <c r="E225" s="74" t="str">
+      <c r="D225" s="63"/>
+      <c r="E225" s="61" t="str">
         <f>IF(記入!A31="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F225" s="74"/>
-      <c r="G225" s="80" t="str">
+      <c r="F225" s="61"/>
+      <c r="G225" s="62" t="str">
         <f>IF(記入!B31="","-",記入!B31)</f>
         <v>${ba1[2].deliverydate}</v>
       </c>
-      <c r="H225" s="80"/>
+      <c r="H225" s="62"/>
       <c r="I225" s="21"/>
       <c r="J225" s="21"/>
       <c r="K225" s="21"/>
@@ -5405,21 +5393,21 @@
     </row>
     <row r="226" spans="2:12" ht="14.25">
       <c r="B226" s="21"/>
-      <c r="C226" s="71" t="str">
+      <c r="C226" s="63" t="str">
         <f>IF(E226="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="D226" s="71"/>
-      <c r="E226" s="74" t="str">
+      <c r="D226" s="63"/>
+      <c r="E226" s="61" t="str">
         <f>IF(記入!A32="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F226" s="74"/>
-      <c r="G226" s="80" t="str">
+      <c r="F226" s="61"/>
+      <c r="G226" s="62" t="str">
         <f>IF(記入!B32="","-",記入!B32)</f>
         <v>${ba1[3].deliverydate}</v>
       </c>
-      <c r="H226" s="80"/>
+      <c r="H226" s="62"/>
       <c r="I226" s="21"/>
       <c r="J226" s="21"/>
       <c r="K226" s="21"/>
@@ -5455,131 +5443,131 @@
     </row>
     <row r="229" spans="2:12" ht="14.25">
       <c r="B229" s="21"/>
-      <c r="C229" s="74" t="s">
+      <c r="C229" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="D229" s="74"/>
-      <c r="E229" s="74" t="s">
+      <c r="D229" s="61"/>
+      <c r="E229" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="F229" s="74"/>
-      <c r="G229" s="74" t="s">
+      <c r="F229" s="61"/>
+      <c r="G229" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="H229" s="74"/>
-      <c r="I229" s="74" t="str">
+      <c r="H229" s="61"/>
+      <c r="I229" s="61" t="str">
         <f>"金額"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額(${cv.currencyposition})</v>
       </c>
-      <c r="J229" s="74"/>
-      <c r="K229" s="74" t="str">
+      <c r="J229" s="61"/>
+      <c r="K229" s="61" t="str">
         <f>"金額総計"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金額総計(${cv.currencyposition})</v>
       </c>
-      <c r="L229" s="74"/>
+      <c r="L229" s="61"/>
     </row>
     <row r="230" spans="2:12" ht="14.25">
       <c r="B230" s="21"/>
-      <c r="C230" s="71" t="str">
+      <c r="C230" s="63" t="str">
         <f>IF(E230="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="D230" s="71"/>
-      <c r="E230" s="72" t="str">
+      <c r="D230" s="63"/>
+      <c r="E230" s="68" t="str">
         <f>IF(記入!D29="","-",記入!D29)</f>
         <v>${ba1[0].claimdate}</v>
       </c>
-      <c r="F230" s="73"/>
-      <c r="G230" s="72" t="str">
+      <c r="F230" s="68"/>
+      <c r="G230" s="68" t="str">
         <f>IF(記入!E29="","-",記入!E29)</f>
         <v>${ba1[0].supportdate}</v>
       </c>
-      <c r="H230" s="73"/>
-      <c r="I230" s="75" t="str">
+      <c r="H230" s="68"/>
+      <c r="I230" s="68" t="str">
         <f>IF(記入!F29="","-",記入!F29)</f>
         <v>${ba1[0].claimamount}</v>
       </c>
-      <c r="J230" s="73"/>
-      <c r="K230" s="65" t="str">
+      <c r="J230" s="68"/>
+      <c r="K230" s="72" t="str">
         <f>記入!B20</f>
         <v>${claimamo}</v>
       </c>
-      <c r="L230" s="66"/>
+      <c r="L230" s="73"/>
     </row>
     <row r="231" spans="2:12" ht="14.25" customHeight="1">
       <c r="B231" s="21"/>
-      <c r="C231" s="71" t="str">
+      <c r="C231" s="63" t="str">
         <f>IF(E231="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="D231" s="71"/>
-      <c r="E231" s="72" t="str">
+      <c r="D231" s="63"/>
+      <c r="E231" s="68" t="str">
         <f>IF(記入!D30="","-",記入!D30)</f>
         <v>${ba1[1].claimdate}</v>
       </c>
-      <c r="F231" s="73"/>
-      <c r="G231" s="72" t="str">
+      <c r="F231" s="68"/>
+      <c r="G231" s="68" t="str">
         <f>IF(記入!E30="","-",記入!E30)</f>
         <v>${ba1[1].supportdate}</v>
       </c>
-      <c r="H231" s="73"/>
-      <c r="I231" s="75" t="str">
+      <c r="H231" s="68"/>
+      <c r="I231" s="68" t="str">
         <f>IF(記入!F30="","-",記入!F30)</f>
         <v>${ba1[1].claimamount}</v>
       </c>
-      <c r="J231" s="73"/>
-      <c r="K231" s="67"/>
-      <c r="L231" s="68"/>
+      <c r="J231" s="68"/>
+      <c r="K231" s="74"/>
+      <c r="L231" s="75"/>
     </row>
     <row r="232" spans="2:12" ht="14.25" customHeight="1">
       <c r="B232" s="21"/>
-      <c r="C232" s="71" t="str">
+      <c r="C232" s="63" t="str">
         <f>IF(E232="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="D232" s="71"/>
-      <c r="E232" s="72" t="str">
+      <c r="D232" s="63"/>
+      <c r="E232" s="68" t="str">
         <f>IF(記入!D31="","-",記入!D31)</f>
         <v>${ba1[2].claimdate}</v>
       </c>
-      <c r="F232" s="73"/>
-      <c r="G232" s="72" t="str">
+      <c r="F232" s="68"/>
+      <c r="G232" s="68" t="str">
         <f>IF(記入!E31="","-",記入!E31)</f>
         <v>${ba1[2].supportdate}</v>
       </c>
-      <c r="H232" s="73"/>
-      <c r="I232" s="75" t="str">
+      <c r="H232" s="68"/>
+      <c r="I232" s="68" t="str">
         <f>IF(記入!F31="","-",記入!F31)</f>
         <v>${ba1[2].claimamount}</v>
       </c>
-      <c r="J232" s="73"/>
-      <c r="K232" s="67"/>
-      <c r="L232" s="68"/>
+      <c r="J232" s="68"/>
+      <c r="K232" s="74"/>
+      <c r="L232" s="75"/>
     </row>
     <row r="233" spans="2:12" ht="14.25" customHeight="1">
       <c r="B233" s="21"/>
-      <c r="C233" s="71" t="str">
+      <c r="C233" s="63" t="str">
         <f>IF(E233="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="D233" s="71"/>
-      <c r="E233" s="72" t="str">
+      <c r="D233" s="63"/>
+      <c r="E233" s="68" t="str">
         <f>IF(記入!D32="","-",記入!D32)</f>
         <v>${ba1[3].claimdate}</v>
       </c>
-      <c r="F233" s="73"/>
-      <c r="G233" s="72" t="str">
+      <c r="F233" s="68"/>
+      <c r="G233" s="68" t="str">
         <f>IF(記入!E32="","-",記入!E32)</f>
         <v>${ba1[3].supportdate}</v>
       </c>
-      <c r="H233" s="73"/>
-      <c r="I233" s="75" t="str">
+      <c r="H233" s="68"/>
+      <c r="I233" s="68" t="str">
         <f>IF(記入!F32="","-",記入!F32)</f>
         <v>${ba1[3].claimamount}</v>
       </c>
-      <c r="J233" s="73"/>
-      <c r="K233" s="69"/>
-      <c r="L233" s="70"/>
+      <c r="J233" s="68"/>
+      <c r="K233" s="76"/>
+      <c r="L233" s="77"/>
     </row>
     <row r="234" spans="2:12" ht="14.25">
       <c r="B234" s="21"/>
@@ -5601,41 +5589,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="G225:H225"/>
-    <mergeCell ref="G226:H226"/>
-    <mergeCell ref="C222:D222"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B69:L133"/>
-    <mergeCell ref="B11:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K134:L134"/>
-    <mergeCell ref="B135:L177"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="I230:J230"/>
-    <mergeCell ref="I231:J231"/>
-    <mergeCell ref="I232:J232"/>
-    <mergeCell ref="I233:J233"/>
-    <mergeCell ref="K229:L229"/>
-    <mergeCell ref="I229:J229"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="G230:H230"/>
-    <mergeCell ref="E226:F226"/>
     <mergeCell ref="C212:L212"/>
     <mergeCell ref="D215:E215"/>
     <mergeCell ref="D216:E216"/>
@@ -5652,6 +5605,41 @@
     <mergeCell ref="E230:F230"/>
     <mergeCell ref="E231:F231"/>
     <mergeCell ref="E232:F232"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="G229:H229"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="G230:H230"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="I230:J230"/>
+    <mergeCell ref="I231:J231"/>
+    <mergeCell ref="I232:J232"/>
+    <mergeCell ref="I233:J233"/>
+    <mergeCell ref="K229:L229"/>
+    <mergeCell ref="I229:J229"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B69:L133"/>
+    <mergeCell ref="B11:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="B135:L177"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="G225:H225"/>
+    <mergeCell ref="G226:H226"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -5675,8 +5663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L237"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A161" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I218" sqref="I218"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A211" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E230" sqref="E230:J233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5694,18 +5682,18 @@
       <c r="J2" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="83" t="str">
+      <c r="K2" s="90" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L2" s="83"/>
+      <c r="L2" s="90"/>
     </row>
     <row r="3" spans="1:12" ht="20.25">
-      <c r="F3" s="84" t="s">
+      <c r="F3" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="30" t="s">
@@ -5761,32 +5749,32 @@
       <c r="L7" s="33"/>
     </row>
     <row r="8" spans="1:12" ht="18" customHeight="1">
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1">
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="B10" s="32"/>
@@ -5802,2186 +5790,2186 @@
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="92" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="92"/>
+      <c r="L11" s="92"/>
     </row>
     <row r="12" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
     </row>
     <row r="14" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="92"/>
+      <c r="L14" s="92"/>
     </row>
     <row r="15" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="85"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="92"/>
+      <c r="L15" s="92"/>
     </row>
     <row r="16" spans="1:12" ht="13.5" customHeight="1">
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="85"/>
-      <c r="H16" s="85"/>
-      <c r="I16" s="85"/>
-      <c r="J16" s="85"/>
-      <c r="K16" s="85"/>
-      <c r="L16" s="85"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
     </row>
     <row r="17" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="85"/>
-      <c r="I17" s="85"/>
-      <c r="J17" s="85"/>
-      <c r="K17" s="85"/>
-      <c r="L17" s="85"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="92"/>
+      <c r="L17" s="92"/>
     </row>
     <row r="18" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="85"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="85"/>
-      <c r="J18" s="85"/>
-      <c r="K18" s="85"/>
-      <c r="L18" s="85"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="92"/>
+      <c r="L18" s="92"/>
     </row>
     <row r="19" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="85"/>
-      <c r="H19" s="85"/>
-      <c r="I19" s="85"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="85"/>
-      <c r="L19" s="85"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
     </row>
     <row r="20" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="85"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="85"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="85"/>
-      <c r="L20" s="85"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="92"/>
     </row>
     <row r="21" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="85"/>
-      <c r="L21" s="85"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="92"/>
+      <c r="L21" s="92"/>
     </row>
     <row r="22" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="85"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="85"/>
-      <c r="L22" s="85"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
     </row>
     <row r="23" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
-      <c r="J23" s="85"/>
-      <c r="K23" s="85"/>
-      <c r="L23" s="85"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
     </row>
     <row r="24" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="85"/>
-      <c r="L24" s="85"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
     </row>
     <row r="25" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
-      <c r="L25" s="85"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
     </row>
     <row r="26" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="85"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="85"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
     </row>
     <row r="27" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="85"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
     </row>
     <row r="28" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="85"/>
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
     </row>
     <row r="29" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
     </row>
     <row r="30" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="92"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="92"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="85"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="92"/>
+      <c r="J31" s="92"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
     </row>
     <row r="32" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
     </row>
     <row r="33" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B33" s="85"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
     </row>
     <row r="34" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="85"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
-      <c r="J34" s="85"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="85"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="92"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="92"/>
+      <c r="I34" s="92"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
     </row>
     <row r="35" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B35" s="85"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="85"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
-      <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="85"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
+      <c r="I35" s="92"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
     </row>
     <row r="36" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="85"/>
-      <c r="H36" s="85"/>
-      <c r="I36" s="85"/>
-      <c r="J36" s="85"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="85"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
     </row>
     <row r="37" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="85"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="92"/>
+      <c r="E37" s="92"/>
+      <c r="F37" s="92"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="92"/>
+      <c r="I37" s="92"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
     </row>
     <row r="38" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="85"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
-      <c r="J38" s="85"/>
-      <c r="K38" s="85"/>
-      <c r="L38" s="85"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="92"/>
+      <c r="D38" s="92"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="92"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="92"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="92"/>
+      <c r="L38" s="92"/>
     </row>
     <row r="39" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="85"/>
-      <c r="K39" s="85"/>
-      <c r="L39" s="85"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
+      <c r="F39" s="92"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="92"/>
     </row>
     <row r="40" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="85"/>
-      <c r="K40" s="85"/>
-      <c r="L40" s="85"/>
+      <c r="B40" s="92"/>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="92"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="92"/>
+      <c r="I40" s="92"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="92"/>
+      <c r="L40" s="92"/>
     </row>
     <row r="41" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
-      <c r="J41" s="85"/>
-      <c r="K41" s="85"/>
-      <c r="L41" s="85"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
     </row>
     <row r="42" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="85"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="85"/>
-      <c r="J42" s="85"/>
-      <c r="K42" s="85"/>
-      <c r="L42" s="85"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="92"/>
+      <c r="L42" s="92"/>
     </row>
     <row r="43" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B43" s="85"/>
-      <c r="C43" s="85"/>
-      <c r="D43" s="85"/>
-      <c r="E43" s="85"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="85"/>
-      <c r="H43" s="85"/>
-      <c r="I43" s="85"/>
-      <c r="J43" s="85"/>
-      <c r="K43" s="85"/>
-      <c r="L43" s="85"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="92"/>
     </row>
     <row r="44" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B44" s="85"/>
-      <c r="C44" s="85"/>
-      <c r="D44" s="85"/>
-      <c r="E44" s="85"/>
-      <c r="F44" s="85"/>
-      <c r="G44" s="85"/>
-      <c r="H44" s="85"/>
-      <c r="I44" s="85"/>
-      <c r="J44" s="85"/>
-      <c r="K44" s="85"/>
-      <c r="L44" s="85"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="92"/>
     </row>
     <row r="45" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B45" s="85"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="85"/>
-      <c r="H45" s="85"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
     </row>
     <row r="46" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="85"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="92"/>
+      <c r="D46" s="92"/>
+      <c r="E46" s="92"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="92"/>
+      <c r="I46" s="92"/>
+      <c r="J46" s="92"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
     </row>
     <row r="47" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B47" s="85"/>
-      <c r="C47" s="85"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="85"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="92"/>
+      <c r="D47" s="92"/>
+      <c r="E47" s="92"/>
+      <c r="F47" s="92"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="92"/>
+      <c r="I47" s="92"/>
+      <c r="J47" s="92"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="92"/>
     </row>
     <row r="48" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B48" s="85"/>
-      <c r="C48" s="85"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="85"/>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
+      <c r="B48" s="92"/>
+      <c r="C48" s="92"/>
+      <c r="D48" s="92"/>
+      <c r="E48" s="92"/>
+      <c r="F48" s="92"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="92"/>
+      <c r="I48" s="92"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="92"/>
     </row>
     <row r="49" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B49" s="85"/>
-      <c r="C49" s="85"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="85"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="92"/>
+      <c r="D49" s="92"/>
+      <c r="E49" s="92"/>
+      <c r="F49" s="92"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="92"/>
+      <c r="I49" s="92"/>
+      <c r="J49" s="92"/>
+      <c r="K49" s="92"/>
+      <c r="L49" s="92"/>
     </row>
     <row r="50" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="85"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="92"/>
+      <c r="I50" s="92"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="92"/>
     </row>
     <row r="51" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B51" s="85"/>
-      <c r="C51" s="85"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="85"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="92"/>
+      <c r="E51" s="92"/>
+      <c r="F51" s="92"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="92"/>
+      <c r="I51" s="92"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="92"/>
     </row>
     <row r="52" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B52" s="85"/>
-      <c r="C52" s="85"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="85"/>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="92"/>
+      <c r="F52" s="92"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="92"/>
+      <c r="I52" s="92"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="92"/>
+      <c r="L52" s="92"/>
     </row>
     <row r="53" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B53" s="85"/>
-      <c r="C53" s="85"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="85"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="92"/>
+      <c r="E53" s="92"/>
+      <c r="F53" s="92"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="92"/>
+      <c r="I53" s="92"/>
+      <c r="J53" s="92"/>
+      <c r="K53" s="92"/>
+      <c r="L53" s="92"/>
     </row>
     <row r="54" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="85"/>
-      <c r="H54" s="85"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="92"/>
+      <c r="D54" s="92"/>
+      <c r="E54" s="92"/>
+      <c r="F54" s="92"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="92"/>
+      <c r="I54" s="92"/>
+      <c r="J54" s="92"/>
+      <c r="K54" s="92"/>
+      <c r="L54" s="92"/>
     </row>
     <row r="55" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B55" s="85"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="85"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="92"/>
+      <c r="D55" s="92"/>
+      <c r="E55" s="92"/>
+      <c r="F55" s="92"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="92"/>
+      <c r="K55" s="92"/>
+      <c r="L55" s="92"/>
     </row>
     <row r="56" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B56" s="85"/>
-      <c r="C56" s="85"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="85"/>
-      <c r="H56" s="85"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="92"/>
+      <c r="D56" s="92"/>
+      <c r="E56" s="92"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="92"/>
+      <c r="K56" s="92"/>
+      <c r="L56" s="92"/>
     </row>
     <row r="57" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="85"/>
-      <c r="H57" s="85"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="92"/>
+      <c r="D57" s="92"/>
+      <c r="E57" s="92"/>
+      <c r="F57" s="92"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="92"/>
+      <c r="I57" s="92"/>
+      <c r="J57" s="92"/>
+      <c r="K57" s="92"/>
+      <c r="L57" s="92"/>
     </row>
     <row r="58" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="85"/>
-      <c r="H58" s="85"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="92"/>
+      <c r="D58" s="92"/>
+      <c r="E58" s="92"/>
+      <c r="F58" s="92"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="92"/>
+      <c r="I58" s="92"/>
+      <c r="J58" s="92"/>
+      <c r="K58" s="92"/>
+      <c r="L58" s="92"/>
     </row>
     <row r="59" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="85"/>
-      <c r="H59" s="85"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
+      <c r="B59" s="92"/>
+      <c r="C59" s="92"/>
+      <c r="D59" s="92"/>
+      <c r="E59" s="92"/>
+      <c r="F59" s="92"/>
+      <c r="G59" s="92"/>
+      <c r="H59" s="92"/>
+      <c r="I59" s="92"/>
+      <c r="J59" s="92"/>
+      <c r="K59" s="92"/>
+      <c r="L59" s="92"/>
     </row>
     <row r="60" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B60" s="85"/>
-      <c r="C60" s="85"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="85"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="85"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="92"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="92"/>
+      <c r="F60" s="92"/>
+      <c r="G60" s="92"/>
+      <c r="H60" s="92"/>
+      <c r="I60" s="92"/>
+      <c r="J60" s="92"/>
+      <c r="K60" s="92"/>
+      <c r="L60" s="92"/>
     </row>
     <row r="61" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B61" s="85"/>
-      <c r="C61" s="85"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="85"/>
-      <c r="H61" s="85"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="92"/>
+      <c r="F61" s="92"/>
+      <c r="G61" s="92"/>
+      <c r="H61" s="92"/>
+      <c r="I61" s="92"/>
+      <c r="J61" s="92"/>
+      <c r="K61" s="92"/>
+      <c r="L61" s="92"/>
     </row>
     <row r="62" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="85"/>
-      <c r="K62" s="85"/>
-      <c r="L62" s="85"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="92"/>
+      <c r="F62" s="92"/>
+      <c r="G62" s="92"/>
+      <c r="H62" s="92"/>
+      <c r="I62" s="92"/>
+      <c r="J62" s="92"/>
+      <c r="K62" s="92"/>
+      <c r="L62" s="92"/>
     </row>
     <row r="63" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B63" s="85"/>
-      <c r="C63" s="85"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="85"/>
-      <c r="H63" s="85"/>
-      <c r="I63" s="85"/>
-      <c r="J63" s="85"/>
-      <c r="K63" s="85"/>
-      <c r="L63" s="85"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="92"/>
+      <c r="D63" s="92"/>
+      <c r="E63" s="92"/>
+      <c r="F63" s="92"/>
+      <c r="G63" s="92"/>
+      <c r="H63" s="92"/>
+      <c r="I63" s="92"/>
+      <c r="J63" s="92"/>
+      <c r="K63" s="92"/>
+      <c r="L63" s="92"/>
     </row>
     <row r="64" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B64" s="85"/>
-      <c r="C64" s="85"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="85"/>
-      <c r="H64" s="85"/>
-      <c r="I64" s="85"/>
-      <c r="J64" s="85"/>
-      <c r="K64" s="85"/>
-      <c r="L64" s="85"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="92"/>
+      <c r="E64" s="92"/>
+      <c r="F64" s="92"/>
+      <c r="G64" s="92"/>
+      <c r="H64" s="92"/>
+      <c r="I64" s="92"/>
+      <c r="J64" s="92"/>
+      <c r="K64" s="92"/>
+      <c r="L64" s="92"/>
     </row>
     <row r="65" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B65" s="85"/>
-      <c r="C65" s="85"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="85"/>
-      <c r="H65" s="85"/>
-      <c r="I65" s="85"/>
-      <c r="J65" s="85"/>
-      <c r="K65" s="85"/>
-      <c r="L65" s="85"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="92"/>
+      <c r="D65" s="92"/>
+      <c r="E65" s="92"/>
+      <c r="F65" s="92"/>
+      <c r="G65" s="92"/>
+      <c r="H65" s="92"/>
+      <c r="I65" s="92"/>
+      <c r="J65" s="92"/>
+      <c r="K65" s="92"/>
+      <c r="L65" s="92"/>
     </row>
     <row r="66" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="85"/>
-      <c r="J66" s="85"/>
-      <c r="K66" s="85"/>
-      <c r="L66" s="85"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="92"/>
+      <c r="D66" s="92"/>
+      <c r="E66" s="92"/>
+      <c r="F66" s="92"/>
+      <c r="G66" s="92"/>
+      <c r="H66" s="92"/>
+      <c r="I66" s="92"/>
+      <c r="J66" s="92"/>
+      <c r="K66" s="92"/>
+      <c r="L66" s="92"/>
     </row>
     <row r="67" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B67" s="85"/>
-      <c r="C67" s="85"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="85"/>
-      <c r="H67" s="85"/>
-      <c r="I67" s="85"/>
-      <c r="J67" s="85"/>
-      <c r="K67" s="85"/>
-      <c r="L67" s="85"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="92"/>
+      <c r="L67" s="92"/>
     </row>
     <row r="68" spans="2:12" ht="24.75" customHeight="1">
       <c r="J68" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="K68" s="83" t="str">
+      <c r="K68" s="90" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L68" s="83"/>
+      <c r="L68" s="90"/>
     </row>
     <row r="69" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B69" s="85" t="s">
+      <c r="B69" s="92" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="85"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="85"/>
-      <c r="H69" s="85"/>
-      <c r="I69" s="85"/>
-      <c r="J69" s="85"/>
-      <c r="K69" s="85"/>
-      <c r="L69" s="85"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="92"/>
+      <c r="E69" s="92"/>
+      <c r="F69" s="92"/>
+      <c r="G69" s="92"/>
+      <c r="H69" s="92"/>
+      <c r="I69" s="92"/>
+      <c r="J69" s="92"/>
+      <c r="K69" s="92"/>
+      <c r="L69" s="92"/>
     </row>
     <row r="70" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="85"/>
-      <c r="H70" s="85"/>
-      <c r="I70" s="85"/>
-      <c r="J70" s="85"/>
-      <c r="K70" s="85"/>
-      <c r="L70" s="85"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="92"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="92"/>
+      <c r="J70" s="92"/>
+      <c r="K70" s="92"/>
+      <c r="L70" s="92"/>
     </row>
     <row r="71" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B71" s="85"/>
-      <c r="C71" s="85"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="85"/>
-      <c r="H71" s="85"/>
-      <c r="I71" s="85"/>
-      <c r="J71" s="85"/>
-      <c r="K71" s="85"/>
-      <c r="L71" s="85"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="92"/>
+      <c r="K71" s="92"/>
+      <c r="L71" s="92"/>
     </row>
     <row r="72" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B72" s="85"/>
-      <c r="C72" s="85"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="85"/>
-      <c r="H72" s="85"/>
-      <c r="I72" s="85"/>
-      <c r="J72" s="85"/>
-      <c r="K72" s="85"/>
-      <c r="L72" s="85"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="92"/>
+      <c r="J72" s="92"/>
+      <c r="K72" s="92"/>
+      <c r="L72" s="92"/>
     </row>
     <row r="73" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B73" s="85"/>
-      <c r="C73" s="85"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="85"/>
-      <c r="H73" s="85"/>
-      <c r="I73" s="85"/>
-      <c r="J73" s="85"/>
-      <c r="K73" s="85"/>
-      <c r="L73" s="85"/>
+      <c r="B73" s="92"/>
+      <c r="C73" s="92"/>
+      <c r="D73" s="92"/>
+      <c r="E73" s="92"/>
+      <c r="F73" s="92"/>
+      <c r="G73" s="92"/>
+      <c r="H73" s="92"/>
+      <c r="I73" s="92"/>
+      <c r="J73" s="92"/>
+      <c r="K73" s="92"/>
+      <c r="L73" s="92"/>
     </row>
     <row r="74" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B74" s="85"/>
-      <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="85"/>
-      <c r="H74" s="85"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="85"/>
-      <c r="K74" s="85"/>
-      <c r="L74" s="85"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="92"/>
+      <c r="I74" s="92"/>
+      <c r="J74" s="92"/>
+      <c r="K74" s="92"/>
+      <c r="L74" s="92"/>
     </row>
     <row r="75" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="85"/>
-      <c r="H75" s="85"/>
-      <c r="I75" s="85"/>
-      <c r="J75" s="85"/>
-      <c r="K75" s="85"/>
-      <c r="L75" s="85"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="92"/>
+      <c r="G75" s="92"/>
+      <c r="H75" s="92"/>
+      <c r="I75" s="92"/>
+      <c r="J75" s="92"/>
+      <c r="K75" s="92"/>
+      <c r="L75" s="92"/>
     </row>
     <row r="76" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B76" s="85"/>
-      <c r="C76" s="85"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="85"/>
-      <c r="H76" s="85"/>
-      <c r="I76" s="85"/>
-      <c r="J76" s="85"/>
-      <c r="K76" s="85"/>
-      <c r="L76" s="85"/>
+      <c r="B76" s="92"/>
+      <c r="C76" s="92"/>
+      <c r="D76" s="92"/>
+      <c r="E76" s="92"/>
+      <c r="F76" s="92"/>
+      <c r="G76" s="92"/>
+      <c r="H76" s="92"/>
+      <c r="I76" s="92"/>
+      <c r="J76" s="92"/>
+      <c r="K76" s="92"/>
+      <c r="L76" s="92"/>
     </row>
     <row r="77" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B77" s="85"/>
-      <c r="C77" s="85"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="85"/>
-      <c r="F77" s="85"/>
-      <c r="G77" s="85"/>
-      <c r="H77" s="85"/>
-      <c r="I77" s="85"/>
-      <c r="J77" s="85"/>
-      <c r="K77" s="85"/>
-      <c r="L77" s="85"/>
+      <c r="B77" s="92"/>
+      <c r="C77" s="92"/>
+      <c r="D77" s="92"/>
+      <c r="E77" s="92"/>
+      <c r="F77" s="92"/>
+      <c r="G77" s="92"/>
+      <c r="H77" s="92"/>
+      <c r="I77" s="92"/>
+      <c r="J77" s="92"/>
+      <c r="K77" s="92"/>
+      <c r="L77" s="92"/>
     </row>
     <row r="78" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B78" s="85"/>
-      <c r="C78" s="85"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="85"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="85"/>
-      <c r="H78" s="85"/>
-      <c r="I78" s="85"/>
-      <c r="J78" s="85"/>
-      <c r="K78" s="85"/>
-      <c r="L78" s="85"/>
+      <c r="B78" s="92"/>
+      <c r="C78" s="92"/>
+      <c r="D78" s="92"/>
+      <c r="E78" s="92"/>
+      <c r="F78" s="92"/>
+      <c r="G78" s="92"/>
+      <c r="H78" s="92"/>
+      <c r="I78" s="92"/>
+      <c r="J78" s="92"/>
+      <c r="K78" s="92"/>
+      <c r="L78" s="92"/>
     </row>
     <row r="79" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B79" s="85"/>
-      <c r="C79" s="85"/>
-      <c r="D79" s="85"/>
-      <c r="E79" s="85"/>
-      <c r="F79" s="85"/>
-      <c r="G79" s="85"/>
-      <c r="H79" s="85"/>
-      <c r="I79" s="85"/>
-      <c r="J79" s="85"/>
-      <c r="K79" s="85"/>
-      <c r="L79" s="85"/>
+      <c r="B79" s="92"/>
+      <c r="C79" s="92"/>
+      <c r="D79" s="92"/>
+      <c r="E79" s="92"/>
+      <c r="F79" s="92"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="92"/>
+      <c r="I79" s="92"/>
+      <c r="J79" s="92"/>
+      <c r="K79" s="92"/>
+      <c r="L79" s="92"/>
     </row>
     <row r="80" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B80" s="85"/>
-      <c r="C80" s="85"/>
-      <c r="D80" s="85"/>
-      <c r="E80" s="85"/>
-      <c r="F80" s="85"/>
-      <c r="G80" s="85"/>
-      <c r="H80" s="85"/>
-      <c r="I80" s="85"/>
-      <c r="J80" s="85"/>
-      <c r="K80" s="85"/>
-      <c r="L80" s="85"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="92"/>
+      <c r="F80" s="92"/>
+      <c r="G80" s="92"/>
+      <c r="H80" s="92"/>
+      <c r="I80" s="92"/>
+      <c r="J80" s="92"/>
+      <c r="K80" s="92"/>
+      <c r="L80" s="92"/>
     </row>
     <row r="81" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B81" s="85"/>
-      <c r="C81" s="85"/>
-      <c r="D81" s="85"/>
-      <c r="E81" s="85"/>
-      <c r="F81" s="85"/>
-      <c r="G81" s="85"/>
-      <c r="H81" s="85"/>
-      <c r="I81" s="85"/>
-      <c r="J81" s="85"/>
-      <c r="K81" s="85"/>
-      <c r="L81" s="85"/>
+      <c r="B81" s="92"/>
+      <c r="C81" s="92"/>
+      <c r="D81" s="92"/>
+      <c r="E81" s="92"/>
+      <c r="F81" s="92"/>
+      <c r="G81" s="92"/>
+      <c r="H81" s="92"/>
+      <c r="I81" s="92"/>
+      <c r="J81" s="92"/>
+      <c r="K81" s="92"/>
+      <c r="L81" s="92"/>
     </row>
     <row r="82" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B82" s="85"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="85"/>
-      <c r="G82" s="85"/>
-      <c r="H82" s="85"/>
-      <c r="I82" s="85"/>
-      <c r="J82" s="85"/>
-      <c r="K82" s="85"/>
-      <c r="L82" s="85"/>
+      <c r="B82" s="92"/>
+      <c r="C82" s="92"/>
+      <c r="D82" s="92"/>
+      <c r="E82" s="92"/>
+      <c r="F82" s="92"/>
+      <c r="G82" s="92"/>
+      <c r="H82" s="92"/>
+      <c r="I82" s="92"/>
+      <c r="J82" s="92"/>
+      <c r="K82" s="92"/>
+      <c r="L82" s="92"/>
     </row>
     <row r="83" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B83" s="85"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
-      <c r="G83" s="85"/>
-      <c r="H83" s="85"/>
-      <c r="I83" s="85"/>
-      <c r="J83" s="85"/>
-      <c r="K83" s="85"/>
-      <c r="L83" s="85"/>
+      <c r="B83" s="92"/>
+      <c r="C83" s="92"/>
+      <c r="D83" s="92"/>
+      <c r="E83" s="92"/>
+      <c r="F83" s="92"/>
+      <c r="G83" s="92"/>
+      <c r="H83" s="92"/>
+      <c r="I83" s="92"/>
+      <c r="J83" s="92"/>
+      <c r="K83" s="92"/>
+      <c r="L83" s="92"/>
     </row>
     <row r="84" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B84" s="85"/>
-      <c r="C84" s="85"/>
-      <c r="D84" s="85"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="85"/>
-      <c r="G84" s="85"/>
-      <c r="H84" s="85"/>
-      <c r="I84" s="85"/>
-      <c r="J84" s="85"/>
-      <c r="K84" s="85"/>
-      <c r="L84" s="85"/>
+      <c r="B84" s="92"/>
+      <c r="C84" s="92"/>
+      <c r="D84" s="92"/>
+      <c r="E84" s="92"/>
+      <c r="F84" s="92"/>
+      <c r="G84" s="92"/>
+      <c r="H84" s="92"/>
+      <c r="I84" s="92"/>
+      <c r="J84" s="92"/>
+      <c r="K84" s="92"/>
+      <c r="L84" s="92"/>
     </row>
     <row r="85" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B85" s="85"/>
-      <c r="C85" s="85"/>
-      <c r="D85" s="85"/>
-      <c r="E85" s="85"/>
-      <c r="F85" s="85"/>
-      <c r="G85" s="85"/>
-      <c r="H85" s="85"/>
-      <c r="I85" s="85"/>
-      <c r="J85" s="85"/>
-      <c r="K85" s="85"/>
-      <c r="L85" s="85"/>
+      <c r="B85" s="92"/>
+      <c r="C85" s="92"/>
+      <c r="D85" s="92"/>
+      <c r="E85" s="92"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="92"/>
+      <c r="H85" s="92"/>
+      <c r="I85" s="92"/>
+      <c r="J85" s="92"/>
+      <c r="K85" s="92"/>
+      <c r="L85" s="92"/>
     </row>
     <row r="86" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B86" s="85"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
-      <c r="G86" s="85"/>
-      <c r="H86" s="85"/>
-      <c r="I86" s="85"/>
-      <c r="J86" s="85"/>
-      <c r="K86" s="85"/>
-      <c r="L86" s="85"/>
+      <c r="B86" s="92"/>
+      <c r="C86" s="92"/>
+      <c r="D86" s="92"/>
+      <c r="E86" s="92"/>
+      <c r="F86" s="92"/>
+      <c r="G86" s="92"/>
+      <c r="H86" s="92"/>
+      <c r="I86" s="92"/>
+      <c r="J86" s="92"/>
+      <c r="K86" s="92"/>
+      <c r="L86" s="92"/>
     </row>
     <row r="87" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B87" s="85"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
-      <c r="G87" s="85"/>
-      <c r="H87" s="85"/>
-      <c r="I87" s="85"/>
-      <c r="J87" s="85"/>
-      <c r="K87" s="85"/>
-      <c r="L87" s="85"/>
+      <c r="B87" s="92"/>
+      <c r="C87" s="92"/>
+      <c r="D87" s="92"/>
+      <c r="E87" s="92"/>
+      <c r="F87" s="92"/>
+      <c r="G87" s="92"/>
+      <c r="H87" s="92"/>
+      <c r="I87" s="92"/>
+      <c r="J87" s="92"/>
+      <c r="K87" s="92"/>
+      <c r="L87" s="92"/>
     </row>
     <row r="88" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B88" s="85"/>
-      <c r="C88" s="85"/>
-      <c r="D88" s="85"/>
-      <c r="E88" s="85"/>
-      <c r="F88" s="85"/>
-      <c r="G88" s="85"/>
-      <c r="H88" s="85"/>
-      <c r="I88" s="85"/>
-      <c r="J88" s="85"/>
-      <c r="K88" s="85"/>
-      <c r="L88" s="85"/>
+      <c r="B88" s="92"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="92"/>
+      <c r="E88" s="92"/>
+      <c r="F88" s="92"/>
+      <c r="G88" s="92"/>
+      <c r="H88" s="92"/>
+      <c r="I88" s="92"/>
+      <c r="J88" s="92"/>
+      <c r="K88" s="92"/>
+      <c r="L88" s="92"/>
     </row>
     <row r="89" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B89" s="85"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="85"/>
-      <c r="G89" s="85"/>
-      <c r="H89" s="85"/>
-      <c r="I89" s="85"/>
-      <c r="J89" s="85"/>
-      <c r="K89" s="85"/>
-      <c r="L89" s="85"/>
+      <c r="B89" s="92"/>
+      <c r="C89" s="92"/>
+      <c r="D89" s="92"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="92"/>
+      <c r="I89" s="92"/>
+      <c r="J89" s="92"/>
+      <c r="K89" s="92"/>
+      <c r="L89" s="92"/>
     </row>
     <row r="90" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="85"/>
-      <c r="F90" s="85"/>
-      <c r="G90" s="85"/>
-      <c r="H90" s="85"/>
-      <c r="I90" s="85"/>
-      <c r="J90" s="85"/>
-      <c r="K90" s="85"/>
-      <c r="L90" s="85"/>
+      <c r="B90" s="92"/>
+      <c r="C90" s="92"/>
+      <c r="D90" s="92"/>
+      <c r="E90" s="92"/>
+      <c r="F90" s="92"/>
+      <c r="G90" s="92"/>
+      <c r="H90" s="92"/>
+      <c r="I90" s="92"/>
+      <c r="J90" s="92"/>
+      <c r="K90" s="92"/>
+      <c r="L90" s="92"/>
     </row>
     <row r="91" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B91" s="85"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="85"/>
-      <c r="G91" s="85"/>
-      <c r="H91" s="85"/>
-      <c r="I91" s="85"/>
-      <c r="J91" s="85"/>
-      <c r="K91" s="85"/>
-      <c r="L91" s="85"/>
+      <c r="B91" s="92"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="92"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="92"/>
+      <c r="G91" s="92"/>
+      <c r="H91" s="92"/>
+      <c r="I91" s="92"/>
+      <c r="J91" s="92"/>
+      <c r="K91" s="92"/>
+      <c r="L91" s="92"/>
     </row>
     <row r="92" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B92" s="85"/>
-      <c r="C92" s="85"/>
-      <c r="D92" s="85"/>
-      <c r="E92" s="85"/>
-      <c r="F92" s="85"/>
-      <c r="G92" s="85"/>
-      <c r="H92" s="85"/>
-      <c r="I92" s="85"/>
-      <c r="J92" s="85"/>
-      <c r="K92" s="85"/>
-      <c r="L92" s="85"/>
+      <c r="B92" s="92"/>
+      <c r="C92" s="92"/>
+      <c r="D92" s="92"/>
+      <c r="E92" s="92"/>
+      <c r="F92" s="92"/>
+      <c r="G92" s="92"/>
+      <c r="H92" s="92"/>
+      <c r="I92" s="92"/>
+      <c r="J92" s="92"/>
+      <c r="K92" s="92"/>
+      <c r="L92" s="92"/>
     </row>
     <row r="93" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B93" s="85"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="85"/>
-      <c r="G93" s="85"/>
-      <c r="H93" s="85"/>
-      <c r="I93" s="85"/>
-      <c r="J93" s="85"/>
-      <c r="K93" s="85"/>
-      <c r="L93" s="85"/>
+      <c r="B93" s="92"/>
+      <c r="C93" s="92"/>
+      <c r="D93" s="92"/>
+      <c r="E93" s="92"/>
+      <c r="F93" s="92"/>
+      <c r="G93" s="92"/>
+      <c r="H93" s="92"/>
+      <c r="I93" s="92"/>
+      <c r="J93" s="92"/>
+      <c r="K93" s="92"/>
+      <c r="L93" s="92"/>
     </row>
     <row r="94" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B94" s="85"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="85"/>
-      <c r="G94" s="85"/>
-      <c r="H94" s="85"/>
-      <c r="I94" s="85"/>
-      <c r="J94" s="85"/>
-      <c r="K94" s="85"/>
-      <c r="L94" s="85"/>
+      <c r="B94" s="92"/>
+      <c r="C94" s="92"/>
+      <c r="D94" s="92"/>
+      <c r="E94" s="92"/>
+      <c r="F94" s="92"/>
+      <c r="G94" s="92"/>
+      <c r="H94" s="92"/>
+      <c r="I94" s="92"/>
+      <c r="J94" s="92"/>
+      <c r="K94" s="92"/>
+      <c r="L94" s="92"/>
     </row>
     <row r="95" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B95" s="85"/>
-      <c r="C95" s="85"/>
-      <c r="D95" s="85"/>
-      <c r="E95" s="85"/>
-      <c r="F95" s="85"/>
-      <c r="G95" s="85"/>
-      <c r="H95" s="85"/>
-      <c r="I95" s="85"/>
-      <c r="J95" s="85"/>
-      <c r="K95" s="85"/>
-      <c r="L95" s="85"/>
+      <c r="B95" s="92"/>
+      <c r="C95" s="92"/>
+      <c r="D95" s="92"/>
+      <c r="E95" s="92"/>
+      <c r="F95" s="92"/>
+      <c r="G95" s="92"/>
+      <c r="H95" s="92"/>
+      <c r="I95" s="92"/>
+      <c r="J95" s="92"/>
+      <c r="K95" s="92"/>
+      <c r="L95" s="92"/>
     </row>
     <row r="96" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B96" s="85"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="85"/>
-      <c r="E96" s="85"/>
-      <c r="F96" s="85"/>
-      <c r="G96" s="85"/>
-      <c r="H96" s="85"/>
-      <c r="I96" s="85"/>
-      <c r="J96" s="85"/>
-      <c r="K96" s="85"/>
-      <c r="L96" s="85"/>
+      <c r="B96" s="92"/>
+      <c r="C96" s="92"/>
+      <c r="D96" s="92"/>
+      <c r="E96" s="92"/>
+      <c r="F96" s="92"/>
+      <c r="G96" s="92"/>
+      <c r="H96" s="92"/>
+      <c r="I96" s="92"/>
+      <c r="J96" s="92"/>
+      <c r="K96" s="92"/>
+      <c r="L96" s="92"/>
     </row>
     <row r="97" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B97" s="85"/>
-      <c r="C97" s="85"/>
-      <c r="D97" s="85"/>
-      <c r="E97" s="85"/>
-      <c r="F97" s="85"/>
-      <c r="G97" s="85"/>
-      <c r="H97" s="85"/>
-      <c r="I97" s="85"/>
-      <c r="J97" s="85"/>
-      <c r="K97" s="85"/>
-      <c r="L97" s="85"/>
+      <c r="B97" s="92"/>
+      <c r="C97" s="92"/>
+      <c r="D97" s="92"/>
+      <c r="E97" s="92"/>
+      <c r="F97" s="92"/>
+      <c r="G97" s="92"/>
+      <c r="H97" s="92"/>
+      <c r="I97" s="92"/>
+      <c r="J97" s="92"/>
+      <c r="K97" s="92"/>
+      <c r="L97" s="92"/>
     </row>
     <row r="98" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B98" s="85"/>
-      <c r="C98" s="85"/>
-      <c r="D98" s="85"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="85"/>
-      <c r="G98" s="85"/>
-      <c r="H98" s="85"/>
-      <c r="I98" s="85"/>
-      <c r="J98" s="85"/>
-      <c r="K98" s="85"/>
-      <c r="L98" s="85"/>
+      <c r="B98" s="92"/>
+      <c r="C98" s="92"/>
+      <c r="D98" s="92"/>
+      <c r="E98" s="92"/>
+      <c r="F98" s="92"/>
+      <c r="G98" s="92"/>
+      <c r="H98" s="92"/>
+      <c r="I98" s="92"/>
+      <c r="J98" s="92"/>
+      <c r="K98" s="92"/>
+      <c r="L98" s="92"/>
     </row>
     <row r="99" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B99" s="85"/>
-      <c r="C99" s="85"/>
-      <c r="D99" s="85"/>
-      <c r="E99" s="85"/>
-      <c r="F99" s="85"/>
-      <c r="G99" s="85"/>
-      <c r="H99" s="85"/>
-      <c r="I99" s="85"/>
-      <c r="J99" s="85"/>
-      <c r="K99" s="85"/>
-      <c r="L99" s="85"/>
+      <c r="B99" s="92"/>
+      <c r="C99" s="92"/>
+      <c r="D99" s="92"/>
+      <c r="E99" s="92"/>
+      <c r="F99" s="92"/>
+      <c r="G99" s="92"/>
+      <c r="H99" s="92"/>
+      <c r="I99" s="92"/>
+      <c r="J99" s="92"/>
+      <c r="K99" s="92"/>
+      <c r="L99" s="92"/>
     </row>
     <row r="100" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B100" s="85"/>
-      <c r="C100" s="85"/>
-      <c r="D100" s="85"/>
-      <c r="E100" s="85"/>
-      <c r="F100" s="85"/>
-      <c r="G100" s="85"/>
-      <c r="H100" s="85"/>
-      <c r="I100" s="85"/>
-      <c r="J100" s="85"/>
-      <c r="K100" s="85"/>
-      <c r="L100" s="85"/>
+      <c r="B100" s="92"/>
+      <c r="C100" s="92"/>
+      <c r="D100" s="92"/>
+      <c r="E100" s="92"/>
+      <c r="F100" s="92"/>
+      <c r="G100" s="92"/>
+      <c r="H100" s="92"/>
+      <c r="I100" s="92"/>
+      <c r="J100" s="92"/>
+      <c r="K100" s="92"/>
+      <c r="L100" s="92"/>
     </row>
     <row r="101" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="85"/>
-      <c r="E101" s="85"/>
-      <c r="F101" s="85"/>
-      <c r="G101" s="85"/>
-      <c r="H101" s="85"/>
-      <c r="I101" s="85"/>
-      <c r="J101" s="85"/>
-      <c r="K101" s="85"/>
-      <c r="L101" s="85"/>
+      <c r="B101" s="92"/>
+      <c r="C101" s="92"/>
+      <c r="D101" s="92"/>
+      <c r="E101" s="92"/>
+      <c r="F101" s="92"/>
+      <c r="G101" s="92"/>
+      <c r="H101" s="92"/>
+      <c r="I101" s="92"/>
+      <c r="J101" s="92"/>
+      <c r="K101" s="92"/>
+      <c r="L101" s="92"/>
     </row>
     <row r="102" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B102" s="85"/>
-      <c r="C102" s="85"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="85"/>
-      <c r="F102" s="85"/>
-      <c r="G102" s="85"/>
-      <c r="H102" s="85"/>
-      <c r="I102" s="85"/>
-      <c r="J102" s="85"/>
-      <c r="K102" s="85"/>
-      <c r="L102" s="85"/>
+      <c r="B102" s="92"/>
+      <c r="C102" s="92"/>
+      <c r="D102" s="92"/>
+      <c r="E102" s="92"/>
+      <c r="F102" s="92"/>
+      <c r="G102" s="92"/>
+      <c r="H102" s="92"/>
+      <c r="I102" s="92"/>
+      <c r="J102" s="92"/>
+      <c r="K102" s="92"/>
+      <c r="L102" s="92"/>
     </row>
     <row r="103" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B103" s="85"/>
-      <c r="C103" s="85"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
-      <c r="G103" s="85"/>
-      <c r="H103" s="85"/>
-      <c r="I103" s="85"/>
-      <c r="J103" s="85"/>
-      <c r="K103" s="85"/>
-      <c r="L103" s="85"/>
+      <c r="B103" s="92"/>
+      <c r="C103" s="92"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="92"/>
+      <c r="F103" s="92"/>
+      <c r="G103" s="92"/>
+      <c r="H103" s="92"/>
+      <c r="I103" s="92"/>
+      <c r="J103" s="92"/>
+      <c r="K103" s="92"/>
+      <c r="L103" s="92"/>
     </row>
     <row r="104" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B104" s="85"/>
-      <c r="C104" s="85"/>
-      <c r="D104" s="85"/>
-      <c r="E104" s="85"/>
-      <c r="F104" s="85"/>
-      <c r="G104" s="85"/>
-      <c r="H104" s="85"/>
-      <c r="I104" s="85"/>
-      <c r="J104" s="85"/>
-      <c r="K104" s="85"/>
-      <c r="L104" s="85"/>
+      <c r="B104" s="92"/>
+      <c r="C104" s="92"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="92"/>
+      <c r="F104" s="92"/>
+      <c r="G104" s="92"/>
+      <c r="H104" s="92"/>
+      <c r="I104" s="92"/>
+      <c r="J104" s="92"/>
+      <c r="K104" s="92"/>
+      <c r="L104" s="92"/>
     </row>
     <row r="105" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B105" s="85"/>
-      <c r="C105" s="85"/>
-      <c r="D105" s="85"/>
-      <c r="E105" s="85"/>
-      <c r="F105" s="85"/>
-      <c r="G105" s="85"/>
-      <c r="H105" s="85"/>
-      <c r="I105" s="85"/>
-      <c r="J105" s="85"/>
-      <c r="K105" s="85"/>
-      <c r="L105" s="85"/>
+      <c r="B105" s="92"/>
+      <c r="C105" s="92"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="92"/>
+      <c r="F105" s="92"/>
+      <c r="G105" s="92"/>
+      <c r="H105" s="92"/>
+      <c r="I105" s="92"/>
+      <c r="J105" s="92"/>
+      <c r="K105" s="92"/>
+      <c r="L105" s="92"/>
     </row>
     <row r="106" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B106" s="85"/>
-      <c r="C106" s="85"/>
-      <c r="D106" s="85"/>
-      <c r="E106" s="85"/>
-      <c r="F106" s="85"/>
-      <c r="G106" s="85"/>
-      <c r="H106" s="85"/>
-      <c r="I106" s="85"/>
-      <c r="J106" s="85"/>
-      <c r="K106" s="85"/>
-      <c r="L106" s="85"/>
+      <c r="B106" s="92"/>
+      <c r="C106" s="92"/>
+      <c r="D106" s="92"/>
+      <c r="E106" s="92"/>
+      <c r="F106" s="92"/>
+      <c r="G106" s="92"/>
+      <c r="H106" s="92"/>
+      <c r="I106" s="92"/>
+      <c r="J106" s="92"/>
+      <c r="K106" s="92"/>
+      <c r="L106" s="92"/>
     </row>
     <row r="107" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B107" s="85"/>
-      <c r="C107" s="85"/>
-      <c r="D107" s="85"/>
-      <c r="E107" s="85"/>
-      <c r="F107" s="85"/>
-      <c r="G107" s="85"/>
-      <c r="H107" s="85"/>
-      <c r="I107" s="85"/>
-      <c r="J107" s="85"/>
-      <c r="K107" s="85"/>
-      <c r="L107" s="85"/>
+      <c r="B107" s="92"/>
+      <c r="C107" s="92"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="92"/>
+      <c r="F107" s="92"/>
+      <c r="G107" s="92"/>
+      <c r="H107" s="92"/>
+      <c r="I107" s="92"/>
+      <c r="J107" s="92"/>
+      <c r="K107" s="92"/>
+      <c r="L107" s="92"/>
     </row>
     <row r="108" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B108" s="85"/>
-      <c r="C108" s="85"/>
-      <c r="D108" s="85"/>
-      <c r="E108" s="85"/>
-      <c r="F108" s="85"/>
-      <c r="G108" s="85"/>
-      <c r="H108" s="85"/>
-      <c r="I108" s="85"/>
-      <c r="J108" s="85"/>
-      <c r="K108" s="85"/>
-      <c r="L108" s="85"/>
+      <c r="B108" s="92"/>
+      <c r="C108" s="92"/>
+      <c r="D108" s="92"/>
+      <c r="E108" s="92"/>
+      <c r="F108" s="92"/>
+      <c r="G108" s="92"/>
+      <c r="H108" s="92"/>
+      <c r="I108" s="92"/>
+      <c r="J108" s="92"/>
+      <c r="K108" s="92"/>
+      <c r="L108" s="92"/>
     </row>
     <row r="109" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B109" s="85"/>
-      <c r="C109" s="85"/>
-      <c r="D109" s="85"/>
-      <c r="E109" s="85"/>
-      <c r="F109" s="85"/>
-      <c r="G109" s="85"/>
-      <c r="H109" s="85"/>
-      <c r="I109" s="85"/>
-      <c r="J109" s="85"/>
-      <c r="K109" s="85"/>
-      <c r="L109" s="85"/>
+      <c r="B109" s="92"/>
+      <c r="C109" s="92"/>
+      <c r="D109" s="92"/>
+      <c r="E109" s="92"/>
+      <c r="F109" s="92"/>
+      <c r="G109" s="92"/>
+      <c r="H109" s="92"/>
+      <c r="I109" s="92"/>
+      <c r="J109" s="92"/>
+      <c r="K109" s="92"/>
+      <c r="L109" s="92"/>
     </row>
     <row r="110" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B110" s="85"/>
-      <c r="C110" s="85"/>
-      <c r="D110" s="85"/>
-      <c r="E110" s="85"/>
-      <c r="F110" s="85"/>
-      <c r="G110" s="85"/>
-      <c r="H110" s="85"/>
-      <c r="I110" s="85"/>
-      <c r="J110" s="85"/>
-      <c r="K110" s="85"/>
-      <c r="L110" s="85"/>
+      <c r="B110" s="92"/>
+      <c r="C110" s="92"/>
+      <c r="D110" s="92"/>
+      <c r="E110" s="92"/>
+      <c r="F110" s="92"/>
+      <c r="G110" s="92"/>
+      <c r="H110" s="92"/>
+      <c r="I110" s="92"/>
+      <c r="J110" s="92"/>
+      <c r="K110" s="92"/>
+      <c r="L110" s="92"/>
     </row>
     <row r="111" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B111" s="85"/>
-      <c r="C111" s="85"/>
-      <c r="D111" s="85"/>
-      <c r="E111" s="85"/>
-      <c r="F111" s="85"/>
-      <c r="G111" s="85"/>
-      <c r="H111" s="85"/>
-      <c r="I111" s="85"/>
-      <c r="J111" s="85"/>
-      <c r="K111" s="85"/>
-      <c r="L111" s="85"/>
+      <c r="B111" s="92"/>
+      <c r="C111" s="92"/>
+      <c r="D111" s="92"/>
+      <c r="E111" s="92"/>
+      <c r="F111" s="92"/>
+      <c r="G111" s="92"/>
+      <c r="H111" s="92"/>
+      <c r="I111" s="92"/>
+      <c r="J111" s="92"/>
+      <c r="K111" s="92"/>
+      <c r="L111" s="92"/>
     </row>
     <row r="112" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B112" s="85"/>
-      <c r="C112" s="85"/>
-      <c r="D112" s="85"/>
-      <c r="E112" s="85"/>
-      <c r="F112" s="85"/>
-      <c r="G112" s="85"/>
-      <c r="H112" s="85"/>
-      <c r="I112" s="85"/>
-      <c r="J112" s="85"/>
-      <c r="K112" s="85"/>
-      <c r="L112" s="85"/>
+      <c r="B112" s="92"/>
+      <c r="C112" s="92"/>
+      <c r="D112" s="92"/>
+      <c r="E112" s="92"/>
+      <c r="F112" s="92"/>
+      <c r="G112" s="92"/>
+      <c r="H112" s="92"/>
+      <c r="I112" s="92"/>
+      <c r="J112" s="92"/>
+      <c r="K112" s="92"/>
+      <c r="L112" s="92"/>
     </row>
     <row r="113" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B113" s="85"/>
-      <c r="C113" s="85"/>
-      <c r="D113" s="85"/>
-      <c r="E113" s="85"/>
-      <c r="F113" s="85"/>
-      <c r="G113" s="85"/>
-      <c r="H113" s="85"/>
-      <c r="I113" s="85"/>
-      <c r="J113" s="85"/>
-      <c r="K113" s="85"/>
-      <c r="L113" s="85"/>
+      <c r="B113" s="92"/>
+      <c r="C113" s="92"/>
+      <c r="D113" s="92"/>
+      <c r="E113" s="92"/>
+      <c r="F113" s="92"/>
+      <c r="G113" s="92"/>
+      <c r="H113" s="92"/>
+      <c r="I113" s="92"/>
+      <c r="J113" s="92"/>
+      <c r="K113" s="92"/>
+      <c r="L113" s="92"/>
     </row>
     <row r="114" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B114" s="85"/>
-      <c r="C114" s="85"/>
-      <c r="D114" s="85"/>
-      <c r="E114" s="85"/>
-      <c r="F114" s="85"/>
-      <c r="G114" s="85"/>
-      <c r="H114" s="85"/>
-      <c r="I114" s="85"/>
-      <c r="J114" s="85"/>
-      <c r="K114" s="85"/>
-      <c r="L114" s="85"/>
+      <c r="B114" s="92"/>
+      <c r="C114" s="92"/>
+      <c r="D114" s="92"/>
+      <c r="E114" s="92"/>
+      <c r="F114" s="92"/>
+      <c r="G114" s="92"/>
+      <c r="H114" s="92"/>
+      <c r="I114" s="92"/>
+      <c r="J114" s="92"/>
+      <c r="K114" s="92"/>
+      <c r="L114" s="92"/>
     </row>
     <row r="115" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B115" s="85"/>
-      <c r="C115" s="85"/>
-      <c r="D115" s="85"/>
-      <c r="E115" s="85"/>
-      <c r="F115" s="85"/>
-      <c r="G115" s="85"/>
-      <c r="H115" s="85"/>
-      <c r="I115" s="85"/>
-      <c r="J115" s="85"/>
-      <c r="K115" s="85"/>
-      <c r="L115" s="85"/>
+      <c r="B115" s="92"/>
+      <c r="C115" s="92"/>
+      <c r="D115" s="92"/>
+      <c r="E115" s="92"/>
+      <c r="F115" s="92"/>
+      <c r="G115" s="92"/>
+      <c r="H115" s="92"/>
+      <c r="I115" s="92"/>
+      <c r="J115" s="92"/>
+      <c r="K115" s="92"/>
+      <c r="L115" s="92"/>
     </row>
     <row r="116" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B116" s="85"/>
-      <c r="C116" s="85"/>
-      <c r="D116" s="85"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="85"/>
-      <c r="G116" s="85"/>
-      <c r="H116" s="85"/>
-      <c r="I116" s="85"/>
-      <c r="J116" s="85"/>
-      <c r="K116" s="85"/>
-      <c r="L116" s="85"/>
+      <c r="B116" s="92"/>
+      <c r="C116" s="92"/>
+      <c r="D116" s="92"/>
+      <c r="E116" s="92"/>
+      <c r="F116" s="92"/>
+      <c r="G116" s="92"/>
+      <c r="H116" s="92"/>
+      <c r="I116" s="92"/>
+      <c r="J116" s="92"/>
+      <c r="K116" s="92"/>
+      <c r="L116" s="92"/>
     </row>
     <row r="117" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B117" s="85"/>
-      <c r="C117" s="85"/>
-      <c r="D117" s="85"/>
-      <c r="E117" s="85"/>
-      <c r="F117" s="85"/>
-      <c r="G117" s="85"/>
-      <c r="H117" s="85"/>
-      <c r="I117" s="85"/>
-      <c r="J117" s="85"/>
-      <c r="K117" s="85"/>
-      <c r="L117" s="85"/>
+      <c r="B117" s="92"/>
+      <c r="C117" s="92"/>
+      <c r="D117" s="92"/>
+      <c r="E117" s="92"/>
+      <c r="F117" s="92"/>
+      <c r="G117" s="92"/>
+      <c r="H117" s="92"/>
+      <c r="I117" s="92"/>
+      <c r="J117" s="92"/>
+      <c r="K117" s="92"/>
+      <c r="L117" s="92"/>
     </row>
     <row r="118" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B118" s="85"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="85"/>
-      <c r="E118" s="85"/>
-      <c r="F118" s="85"/>
-      <c r="G118" s="85"/>
-      <c r="H118" s="85"/>
-      <c r="I118" s="85"/>
-      <c r="J118" s="85"/>
-      <c r="K118" s="85"/>
-      <c r="L118" s="85"/>
+      <c r="B118" s="92"/>
+      <c r="C118" s="92"/>
+      <c r="D118" s="92"/>
+      <c r="E118" s="92"/>
+      <c r="F118" s="92"/>
+      <c r="G118" s="92"/>
+      <c r="H118" s="92"/>
+      <c r="I118" s="92"/>
+      <c r="J118" s="92"/>
+      <c r="K118" s="92"/>
+      <c r="L118" s="92"/>
     </row>
     <row r="119" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B119" s="85"/>
-      <c r="C119" s="85"/>
-      <c r="D119" s="85"/>
-      <c r="E119" s="85"/>
-      <c r="F119" s="85"/>
-      <c r="G119" s="85"/>
-      <c r="H119" s="85"/>
-      <c r="I119" s="85"/>
-      <c r="J119" s="85"/>
-      <c r="K119" s="85"/>
-      <c r="L119" s="85"/>
+      <c r="B119" s="92"/>
+      <c r="C119" s="92"/>
+      <c r="D119" s="92"/>
+      <c r="E119" s="92"/>
+      <c r="F119" s="92"/>
+      <c r="G119" s="92"/>
+      <c r="H119" s="92"/>
+      <c r="I119" s="92"/>
+      <c r="J119" s="92"/>
+      <c r="K119" s="92"/>
+      <c r="L119" s="92"/>
     </row>
     <row r="120" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B120" s="85"/>
-      <c r="C120" s="85"/>
-      <c r="D120" s="85"/>
-      <c r="E120" s="85"/>
-      <c r="F120" s="85"/>
-      <c r="G120" s="85"/>
-      <c r="H120" s="85"/>
-      <c r="I120" s="85"/>
-      <c r="J120" s="85"/>
-      <c r="K120" s="85"/>
-      <c r="L120" s="85"/>
+      <c r="B120" s="92"/>
+      <c r="C120" s="92"/>
+      <c r="D120" s="92"/>
+      <c r="E120" s="92"/>
+      <c r="F120" s="92"/>
+      <c r="G120" s="92"/>
+      <c r="H120" s="92"/>
+      <c r="I120" s="92"/>
+      <c r="J120" s="92"/>
+      <c r="K120" s="92"/>
+      <c r="L120" s="92"/>
     </row>
     <row r="121" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B121" s="85"/>
-      <c r="C121" s="85"/>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
-      <c r="G121" s="85"/>
-      <c r="H121" s="85"/>
-      <c r="I121" s="85"/>
-      <c r="J121" s="85"/>
-      <c r="K121" s="85"/>
-      <c r="L121" s="85"/>
+      <c r="B121" s="92"/>
+      <c r="C121" s="92"/>
+      <c r="D121" s="92"/>
+      <c r="E121" s="92"/>
+      <c r="F121" s="92"/>
+      <c r="G121" s="92"/>
+      <c r="H121" s="92"/>
+      <c r="I121" s="92"/>
+      <c r="J121" s="92"/>
+      <c r="K121" s="92"/>
+      <c r="L121" s="92"/>
     </row>
     <row r="122" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B122" s="85"/>
-      <c r="C122" s="85"/>
-      <c r="D122" s="85"/>
-      <c r="E122" s="85"/>
-      <c r="F122" s="85"/>
-      <c r="G122" s="85"/>
-      <c r="H122" s="85"/>
-      <c r="I122" s="85"/>
-      <c r="J122" s="85"/>
-      <c r="K122" s="85"/>
-      <c r="L122" s="85"/>
+      <c r="B122" s="92"/>
+      <c r="C122" s="92"/>
+      <c r="D122" s="92"/>
+      <c r="E122" s="92"/>
+      <c r="F122" s="92"/>
+      <c r="G122" s="92"/>
+      <c r="H122" s="92"/>
+      <c r="I122" s="92"/>
+      <c r="J122" s="92"/>
+      <c r="K122" s="92"/>
+      <c r="L122" s="92"/>
     </row>
     <row r="123" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B123" s="85"/>
-      <c r="C123" s="85"/>
-      <c r="D123" s="85"/>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
-      <c r="G123" s="85"/>
-      <c r="H123" s="85"/>
-      <c r="I123" s="85"/>
-      <c r="J123" s="85"/>
-      <c r="K123" s="85"/>
-      <c r="L123" s="85"/>
+      <c r="B123" s="92"/>
+      <c r="C123" s="92"/>
+      <c r="D123" s="92"/>
+      <c r="E123" s="92"/>
+      <c r="F123" s="92"/>
+      <c r="G123" s="92"/>
+      <c r="H123" s="92"/>
+      <c r="I123" s="92"/>
+      <c r="J123" s="92"/>
+      <c r="K123" s="92"/>
+      <c r="L123" s="92"/>
     </row>
     <row r="124" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B124" s="85"/>
-      <c r="C124" s="85"/>
-      <c r="D124" s="85"/>
-      <c r="E124" s="85"/>
-      <c r="F124" s="85"/>
-      <c r="G124" s="85"/>
-      <c r="H124" s="85"/>
-      <c r="I124" s="85"/>
-      <c r="J124" s="85"/>
-      <c r="K124" s="85"/>
-      <c r="L124" s="85"/>
+      <c r="B124" s="92"/>
+      <c r="C124" s="92"/>
+      <c r="D124" s="92"/>
+      <c r="E124" s="92"/>
+      <c r="F124" s="92"/>
+      <c r="G124" s="92"/>
+      <c r="H124" s="92"/>
+      <c r="I124" s="92"/>
+      <c r="J124" s="92"/>
+      <c r="K124" s="92"/>
+      <c r="L124" s="92"/>
     </row>
     <row r="125" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B125" s="85"/>
-      <c r="C125" s="85"/>
-      <c r="D125" s="85"/>
-      <c r="E125" s="85"/>
-      <c r="F125" s="85"/>
-      <c r="G125" s="85"/>
-      <c r="H125" s="85"/>
-      <c r="I125" s="85"/>
-      <c r="J125" s="85"/>
-      <c r="K125" s="85"/>
-      <c r="L125" s="85"/>
+      <c r="B125" s="92"/>
+      <c r="C125" s="92"/>
+      <c r="D125" s="92"/>
+      <c r="E125" s="92"/>
+      <c r="F125" s="92"/>
+      <c r="G125" s="92"/>
+      <c r="H125" s="92"/>
+      <c r="I125" s="92"/>
+      <c r="J125" s="92"/>
+      <c r="K125" s="92"/>
+      <c r="L125" s="92"/>
     </row>
     <row r="126" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B126" s="85"/>
-      <c r="C126" s="85"/>
-      <c r="D126" s="85"/>
-      <c r="E126" s="85"/>
-      <c r="F126" s="85"/>
-      <c r="G126" s="85"/>
-      <c r="H126" s="85"/>
-      <c r="I126" s="85"/>
-      <c r="J126" s="85"/>
-      <c r="K126" s="85"/>
-      <c r="L126" s="85"/>
+      <c r="B126" s="92"/>
+      <c r="C126" s="92"/>
+      <c r="D126" s="92"/>
+      <c r="E126" s="92"/>
+      <c r="F126" s="92"/>
+      <c r="G126" s="92"/>
+      <c r="H126" s="92"/>
+      <c r="I126" s="92"/>
+      <c r="J126" s="92"/>
+      <c r="K126" s="92"/>
+      <c r="L126" s="92"/>
     </row>
     <row r="127" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B127" s="85"/>
-      <c r="C127" s="85"/>
-      <c r="D127" s="85"/>
-      <c r="E127" s="85"/>
-      <c r="F127" s="85"/>
-      <c r="G127" s="85"/>
-      <c r="H127" s="85"/>
-      <c r="I127" s="85"/>
-      <c r="J127" s="85"/>
-      <c r="K127" s="85"/>
-      <c r="L127" s="85"/>
+      <c r="B127" s="92"/>
+      <c r="C127" s="92"/>
+      <c r="D127" s="92"/>
+      <c r="E127" s="92"/>
+      <c r="F127" s="92"/>
+      <c r="G127" s="92"/>
+      <c r="H127" s="92"/>
+      <c r="I127" s="92"/>
+      <c r="J127" s="92"/>
+      <c r="K127" s="92"/>
+      <c r="L127" s="92"/>
     </row>
     <row r="128" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B128" s="85"/>
-      <c r="C128" s="85"/>
-      <c r="D128" s="85"/>
-      <c r="E128" s="85"/>
-      <c r="F128" s="85"/>
-      <c r="G128" s="85"/>
-      <c r="H128" s="85"/>
-      <c r="I128" s="85"/>
-      <c r="J128" s="85"/>
-      <c r="K128" s="85"/>
-      <c r="L128" s="85"/>
+      <c r="B128" s="92"/>
+      <c r="C128" s="92"/>
+      <c r="D128" s="92"/>
+      <c r="E128" s="92"/>
+      <c r="F128" s="92"/>
+      <c r="G128" s="92"/>
+      <c r="H128" s="92"/>
+      <c r="I128" s="92"/>
+      <c r="J128" s="92"/>
+      <c r="K128" s="92"/>
+      <c r="L128" s="92"/>
     </row>
     <row r="129" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B129" s="85"/>
-      <c r="C129" s="85"/>
-      <c r="D129" s="85"/>
-      <c r="E129" s="85"/>
-      <c r="F129" s="85"/>
-      <c r="G129" s="85"/>
-      <c r="H129" s="85"/>
-      <c r="I129" s="85"/>
-      <c r="J129" s="85"/>
-      <c r="K129" s="85"/>
-      <c r="L129" s="85"/>
+      <c r="B129" s="92"/>
+      <c r="C129" s="92"/>
+      <c r="D129" s="92"/>
+      <c r="E129" s="92"/>
+      <c r="F129" s="92"/>
+      <c r="G129" s="92"/>
+      <c r="H129" s="92"/>
+      <c r="I129" s="92"/>
+      <c r="J129" s="92"/>
+      <c r="K129" s="92"/>
+      <c r="L129" s="92"/>
     </row>
     <row r="130" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B130" s="85"/>
-      <c r="C130" s="85"/>
-      <c r="D130" s="85"/>
-      <c r="E130" s="85"/>
-      <c r="F130" s="85"/>
-      <c r="G130" s="85"/>
-      <c r="H130" s="85"/>
-      <c r="I130" s="85"/>
-      <c r="J130" s="85"/>
-      <c r="K130" s="85"/>
-      <c r="L130" s="85"/>
+      <c r="B130" s="92"/>
+      <c r="C130" s="92"/>
+      <c r="D130" s="92"/>
+      <c r="E130" s="92"/>
+      <c r="F130" s="92"/>
+      <c r="G130" s="92"/>
+      <c r="H130" s="92"/>
+      <c r="I130" s="92"/>
+      <c r="J130" s="92"/>
+      <c r="K130" s="92"/>
+      <c r="L130" s="92"/>
     </row>
     <row r="131" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B131" s="85"/>
-      <c r="C131" s="85"/>
-      <c r="D131" s="85"/>
-      <c r="E131" s="85"/>
-      <c r="F131" s="85"/>
-      <c r="G131" s="85"/>
-      <c r="H131" s="85"/>
-      <c r="I131" s="85"/>
-      <c r="J131" s="85"/>
-      <c r="K131" s="85"/>
-      <c r="L131" s="85"/>
+      <c r="B131" s="92"/>
+      <c r="C131" s="92"/>
+      <c r="D131" s="92"/>
+      <c r="E131" s="92"/>
+      <c r="F131" s="92"/>
+      <c r="G131" s="92"/>
+      <c r="H131" s="92"/>
+      <c r="I131" s="92"/>
+      <c r="J131" s="92"/>
+      <c r="K131" s="92"/>
+      <c r="L131" s="92"/>
     </row>
     <row r="132" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B132" s="85"/>
-      <c r="C132" s="85"/>
-      <c r="D132" s="85"/>
-      <c r="E132" s="85"/>
-      <c r="F132" s="85"/>
-      <c r="G132" s="85"/>
-      <c r="H132" s="85"/>
-      <c r="I132" s="85"/>
-      <c r="J132" s="85"/>
-      <c r="K132" s="85"/>
-      <c r="L132" s="85"/>
+      <c r="B132" s="92"/>
+      <c r="C132" s="92"/>
+      <c r="D132" s="92"/>
+      <c r="E132" s="92"/>
+      <c r="F132" s="92"/>
+      <c r="G132" s="92"/>
+      <c r="H132" s="92"/>
+      <c r="I132" s="92"/>
+      <c r="J132" s="92"/>
+      <c r="K132" s="92"/>
+      <c r="L132" s="92"/>
     </row>
     <row r="133" spans="2:12" ht="17.25" customHeight="1">
-      <c r="B133" s="85"/>
-      <c r="C133" s="85"/>
-      <c r="D133" s="85"/>
-      <c r="E133" s="85"/>
-      <c r="F133" s="85"/>
-      <c r="G133" s="85"/>
-      <c r="H133" s="85"/>
-      <c r="I133" s="85"/>
-      <c r="J133" s="85"/>
-      <c r="K133" s="85"/>
-      <c r="L133" s="85"/>
+      <c r="B133" s="92"/>
+      <c r="C133" s="92"/>
+      <c r="D133" s="92"/>
+      <c r="E133" s="92"/>
+      <c r="F133" s="92"/>
+      <c r="G133" s="92"/>
+      <c r="H133" s="92"/>
+      <c r="I133" s="92"/>
+      <c r="J133" s="92"/>
+      <c r="K133" s="92"/>
+      <c r="L133" s="92"/>
     </row>
     <row r="134" spans="2:12" ht="24.75" customHeight="1">
       <c r="J134" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="K134" s="83" t="str">
+      <c r="K134" s="90" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L134" s="83"/>
+      <c r="L134" s="90"/>
     </row>
     <row r="135" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B135" s="85" t="s">
+      <c r="B135" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="C135" s="85"/>
-      <c r="D135" s="85"/>
-      <c r="E135" s="85"/>
-      <c r="F135" s="85"/>
-      <c r="G135" s="85"/>
-      <c r="H135" s="85"/>
-      <c r="I135" s="85"/>
-      <c r="J135" s="85"/>
-      <c r="K135" s="85"/>
-      <c r="L135" s="85"/>
+      <c r="C135" s="92"/>
+      <c r="D135" s="92"/>
+      <c r="E135" s="92"/>
+      <c r="F135" s="92"/>
+      <c r="G135" s="92"/>
+      <c r="H135" s="92"/>
+      <c r="I135" s="92"/>
+      <c r="J135" s="92"/>
+      <c r="K135" s="92"/>
+      <c r="L135" s="92"/>
     </row>
     <row r="136" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B136" s="85"/>
-      <c r="C136" s="85"/>
-      <c r="D136" s="85"/>
-      <c r="E136" s="85"/>
-      <c r="F136" s="85"/>
-      <c r="G136" s="85"/>
-      <c r="H136" s="85"/>
-      <c r="I136" s="85"/>
-      <c r="J136" s="85"/>
-      <c r="K136" s="85"/>
-      <c r="L136" s="85"/>
+      <c r="B136" s="92"/>
+      <c r="C136" s="92"/>
+      <c r="D136" s="92"/>
+      <c r="E136" s="92"/>
+      <c r="F136" s="92"/>
+      <c r="G136" s="92"/>
+      <c r="H136" s="92"/>
+      <c r="I136" s="92"/>
+      <c r="J136" s="92"/>
+      <c r="K136" s="92"/>
+      <c r="L136" s="92"/>
     </row>
     <row r="137" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B137" s="85"/>
-      <c r="C137" s="85"/>
-      <c r="D137" s="85"/>
-      <c r="E137" s="85"/>
-      <c r="F137" s="85"/>
-      <c r="G137" s="85"/>
-      <c r="H137" s="85"/>
-      <c r="I137" s="85"/>
-      <c r="J137" s="85"/>
-      <c r="K137" s="85"/>
-      <c r="L137" s="85"/>
+      <c r="B137" s="92"/>
+      <c r="C137" s="92"/>
+      <c r="D137" s="92"/>
+      <c r="E137" s="92"/>
+      <c r="F137" s="92"/>
+      <c r="G137" s="92"/>
+      <c r="H137" s="92"/>
+      <c r="I137" s="92"/>
+      <c r="J137" s="92"/>
+      <c r="K137" s="92"/>
+      <c r="L137" s="92"/>
     </row>
     <row r="138" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B138" s="85"/>
-      <c r="C138" s="85"/>
-      <c r="D138" s="85"/>
-      <c r="E138" s="85"/>
-      <c r="F138" s="85"/>
-      <c r="G138" s="85"/>
-      <c r="H138" s="85"/>
-      <c r="I138" s="85"/>
-      <c r="J138" s="85"/>
-      <c r="K138" s="85"/>
-      <c r="L138" s="85"/>
+      <c r="B138" s="92"/>
+      <c r="C138" s="92"/>
+      <c r="D138" s="92"/>
+      <c r="E138" s="92"/>
+      <c r="F138" s="92"/>
+      <c r="G138" s="92"/>
+      <c r="H138" s="92"/>
+      <c r="I138" s="92"/>
+      <c r="J138" s="92"/>
+      <c r="K138" s="92"/>
+      <c r="L138" s="92"/>
     </row>
     <row r="139" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B139" s="85"/>
-      <c r="C139" s="85"/>
-      <c r="D139" s="85"/>
-      <c r="E139" s="85"/>
-      <c r="F139" s="85"/>
-      <c r="G139" s="85"/>
-      <c r="H139" s="85"/>
-      <c r="I139" s="85"/>
-      <c r="J139" s="85"/>
-      <c r="K139" s="85"/>
-      <c r="L139" s="85"/>
+      <c r="B139" s="92"/>
+      <c r="C139" s="92"/>
+      <c r="D139" s="92"/>
+      <c r="E139" s="92"/>
+      <c r="F139" s="92"/>
+      <c r="G139" s="92"/>
+      <c r="H139" s="92"/>
+      <c r="I139" s="92"/>
+      <c r="J139" s="92"/>
+      <c r="K139" s="92"/>
+      <c r="L139" s="92"/>
     </row>
     <row r="140" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B140" s="85"/>
-      <c r="C140" s="85"/>
-      <c r="D140" s="85"/>
-      <c r="E140" s="85"/>
-      <c r="F140" s="85"/>
-      <c r="G140" s="85"/>
-      <c r="H140" s="85"/>
-      <c r="I140" s="85"/>
-      <c r="J140" s="85"/>
-      <c r="K140" s="85"/>
-      <c r="L140" s="85"/>
+      <c r="B140" s="92"/>
+      <c r="C140" s="92"/>
+      <c r="D140" s="92"/>
+      <c r="E140" s="92"/>
+      <c r="F140" s="92"/>
+      <c r="G140" s="92"/>
+      <c r="H140" s="92"/>
+      <c r="I140" s="92"/>
+      <c r="J140" s="92"/>
+      <c r="K140" s="92"/>
+      <c r="L140" s="92"/>
     </row>
     <row r="141" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B141" s="85"/>
-      <c r="C141" s="85"/>
-      <c r="D141" s="85"/>
-      <c r="E141" s="85"/>
-      <c r="F141" s="85"/>
-      <c r="G141" s="85"/>
-      <c r="H141" s="85"/>
-      <c r="I141" s="85"/>
-      <c r="J141" s="85"/>
-      <c r="K141" s="85"/>
-      <c r="L141" s="85"/>
+      <c r="B141" s="92"/>
+      <c r="C141" s="92"/>
+      <c r="D141" s="92"/>
+      <c r="E141" s="92"/>
+      <c r="F141" s="92"/>
+      <c r="G141" s="92"/>
+      <c r="H141" s="92"/>
+      <c r="I141" s="92"/>
+      <c r="J141" s="92"/>
+      <c r="K141" s="92"/>
+      <c r="L141" s="92"/>
     </row>
     <row r="142" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B142" s="85"/>
-      <c r="C142" s="85"/>
-      <c r="D142" s="85"/>
-      <c r="E142" s="85"/>
-      <c r="F142" s="85"/>
-      <c r="G142" s="85"/>
-      <c r="H142" s="85"/>
-      <c r="I142" s="85"/>
-      <c r="J142" s="85"/>
-      <c r="K142" s="85"/>
-      <c r="L142" s="85"/>
+      <c r="B142" s="92"/>
+      <c r="C142" s="92"/>
+      <c r="D142" s="92"/>
+      <c r="E142" s="92"/>
+      <c r="F142" s="92"/>
+      <c r="G142" s="92"/>
+      <c r="H142" s="92"/>
+      <c r="I142" s="92"/>
+      <c r="J142" s="92"/>
+      <c r="K142" s="92"/>
+      <c r="L142" s="92"/>
     </row>
     <row r="143" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B143" s="85"/>
-      <c r="C143" s="85"/>
-      <c r="D143" s="85"/>
-      <c r="E143" s="85"/>
-      <c r="F143" s="85"/>
-      <c r="G143" s="85"/>
-      <c r="H143" s="85"/>
-      <c r="I143" s="85"/>
-      <c r="J143" s="85"/>
-      <c r="K143" s="85"/>
-      <c r="L143" s="85"/>
+      <c r="B143" s="92"/>
+      <c r="C143" s="92"/>
+      <c r="D143" s="92"/>
+      <c r="E143" s="92"/>
+      <c r="F143" s="92"/>
+      <c r="G143" s="92"/>
+      <c r="H143" s="92"/>
+      <c r="I143" s="92"/>
+      <c r="J143" s="92"/>
+      <c r="K143" s="92"/>
+      <c r="L143" s="92"/>
     </row>
     <row r="144" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B144" s="85"/>
-      <c r="C144" s="85"/>
-      <c r="D144" s="85"/>
-      <c r="E144" s="85"/>
-      <c r="F144" s="85"/>
-      <c r="G144" s="85"/>
-      <c r="H144" s="85"/>
-      <c r="I144" s="85"/>
-      <c r="J144" s="85"/>
-      <c r="K144" s="85"/>
-      <c r="L144" s="85"/>
+      <c r="B144" s="92"/>
+      <c r="C144" s="92"/>
+      <c r="D144" s="92"/>
+      <c r="E144" s="92"/>
+      <c r="F144" s="92"/>
+      <c r="G144" s="92"/>
+      <c r="H144" s="92"/>
+      <c r="I144" s="92"/>
+      <c r="J144" s="92"/>
+      <c r="K144" s="92"/>
+      <c r="L144" s="92"/>
     </row>
     <row r="145" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B145" s="85"/>
-      <c r="C145" s="85"/>
-      <c r="D145" s="85"/>
-      <c r="E145" s="85"/>
-      <c r="F145" s="85"/>
-      <c r="G145" s="85"/>
-      <c r="H145" s="85"/>
-      <c r="I145" s="85"/>
-      <c r="J145" s="85"/>
-      <c r="K145" s="85"/>
-      <c r="L145" s="85"/>
+      <c r="B145" s="92"/>
+      <c r="C145" s="92"/>
+      <c r="D145" s="92"/>
+      <c r="E145" s="92"/>
+      <c r="F145" s="92"/>
+      <c r="G145" s="92"/>
+      <c r="H145" s="92"/>
+      <c r="I145" s="92"/>
+      <c r="J145" s="92"/>
+      <c r="K145" s="92"/>
+      <c r="L145" s="92"/>
     </row>
     <row r="146" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B146" s="85"/>
-      <c r="C146" s="85"/>
-      <c r="D146" s="85"/>
-      <c r="E146" s="85"/>
-      <c r="F146" s="85"/>
-      <c r="G146" s="85"/>
-      <c r="H146" s="85"/>
-      <c r="I146" s="85"/>
-      <c r="J146" s="85"/>
-      <c r="K146" s="85"/>
-      <c r="L146" s="85"/>
+      <c r="B146" s="92"/>
+      <c r="C146" s="92"/>
+      <c r="D146" s="92"/>
+      <c r="E146" s="92"/>
+      <c r="F146" s="92"/>
+      <c r="G146" s="92"/>
+      <c r="H146" s="92"/>
+      <c r="I146" s="92"/>
+      <c r="J146" s="92"/>
+      <c r="K146" s="92"/>
+      <c r="L146" s="92"/>
     </row>
     <row r="147" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B147" s="85"/>
-      <c r="C147" s="85"/>
-      <c r="D147" s="85"/>
-      <c r="E147" s="85"/>
-      <c r="F147" s="85"/>
-      <c r="G147" s="85"/>
-      <c r="H147" s="85"/>
-      <c r="I147" s="85"/>
-      <c r="J147" s="85"/>
-      <c r="K147" s="85"/>
-      <c r="L147" s="85"/>
+      <c r="B147" s="92"/>
+      <c r="C147" s="92"/>
+      <c r="D147" s="92"/>
+      <c r="E147" s="92"/>
+      <c r="F147" s="92"/>
+      <c r="G147" s="92"/>
+      <c r="H147" s="92"/>
+      <c r="I147" s="92"/>
+      <c r="J147" s="92"/>
+      <c r="K147" s="92"/>
+      <c r="L147" s="92"/>
     </row>
     <row r="148" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B148" s="85"/>
-      <c r="C148" s="85"/>
-      <c r="D148" s="85"/>
-      <c r="E148" s="85"/>
-      <c r="F148" s="85"/>
-      <c r="G148" s="85"/>
-      <c r="H148" s="85"/>
-      <c r="I148" s="85"/>
-      <c r="J148" s="85"/>
-      <c r="K148" s="85"/>
-      <c r="L148" s="85"/>
+      <c r="B148" s="92"/>
+      <c r="C148" s="92"/>
+      <c r="D148" s="92"/>
+      <c r="E148" s="92"/>
+      <c r="F148" s="92"/>
+      <c r="G148" s="92"/>
+      <c r="H148" s="92"/>
+      <c r="I148" s="92"/>
+      <c r="J148" s="92"/>
+      <c r="K148" s="92"/>
+      <c r="L148" s="92"/>
     </row>
     <row r="149" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B149" s="85"/>
-      <c r="C149" s="85"/>
-      <c r="D149" s="85"/>
-      <c r="E149" s="85"/>
-      <c r="F149" s="85"/>
-      <c r="G149" s="85"/>
-      <c r="H149" s="85"/>
-      <c r="I149" s="85"/>
-      <c r="J149" s="85"/>
-      <c r="K149" s="85"/>
-      <c r="L149" s="85"/>
+      <c r="B149" s="92"/>
+      <c r="C149" s="92"/>
+      <c r="D149" s="92"/>
+      <c r="E149" s="92"/>
+      <c r="F149" s="92"/>
+      <c r="G149" s="92"/>
+      <c r="H149" s="92"/>
+      <c r="I149" s="92"/>
+      <c r="J149" s="92"/>
+      <c r="K149" s="92"/>
+      <c r="L149" s="92"/>
     </row>
     <row r="150" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B150" s="85"/>
-      <c r="C150" s="85"/>
-      <c r="D150" s="85"/>
-      <c r="E150" s="85"/>
-      <c r="F150" s="85"/>
-      <c r="G150" s="85"/>
-      <c r="H150" s="85"/>
-      <c r="I150" s="85"/>
-      <c r="J150" s="85"/>
-      <c r="K150" s="85"/>
-      <c r="L150" s="85"/>
+      <c r="B150" s="92"/>
+      <c r="C150" s="92"/>
+      <c r="D150" s="92"/>
+      <c r="E150" s="92"/>
+      <c r="F150" s="92"/>
+      <c r="G150" s="92"/>
+      <c r="H150" s="92"/>
+      <c r="I150" s="92"/>
+      <c r="J150" s="92"/>
+      <c r="K150" s="92"/>
+      <c r="L150" s="92"/>
     </row>
     <row r="151" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B151" s="85"/>
-      <c r="C151" s="85"/>
-      <c r="D151" s="85"/>
-      <c r="E151" s="85"/>
-      <c r="F151" s="85"/>
-      <c r="G151" s="85"/>
-      <c r="H151" s="85"/>
-      <c r="I151" s="85"/>
-      <c r="J151" s="85"/>
-      <c r="K151" s="85"/>
-      <c r="L151" s="85"/>
+      <c r="B151" s="92"/>
+      <c r="C151" s="92"/>
+      <c r="D151" s="92"/>
+      <c r="E151" s="92"/>
+      <c r="F151" s="92"/>
+      <c r="G151" s="92"/>
+      <c r="H151" s="92"/>
+      <c r="I151" s="92"/>
+      <c r="J151" s="92"/>
+      <c r="K151" s="92"/>
+      <c r="L151" s="92"/>
     </row>
     <row r="152" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B152" s="85"/>
-      <c r="C152" s="85"/>
-      <c r="D152" s="85"/>
-      <c r="E152" s="85"/>
-      <c r="F152" s="85"/>
-      <c r="G152" s="85"/>
-      <c r="H152" s="85"/>
-      <c r="I152" s="85"/>
-      <c r="J152" s="85"/>
-      <c r="K152" s="85"/>
-      <c r="L152" s="85"/>
+      <c r="B152" s="92"/>
+      <c r="C152" s="92"/>
+      <c r="D152" s="92"/>
+      <c r="E152" s="92"/>
+      <c r="F152" s="92"/>
+      <c r="G152" s="92"/>
+      <c r="H152" s="92"/>
+      <c r="I152" s="92"/>
+      <c r="J152" s="92"/>
+      <c r="K152" s="92"/>
+      <c r="L152" s="92"/>
     </row>
     <row r="153" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B153" s="85"/>
-      <c r="C153" s="85"/>
-      <c r="D153" s="85"/>
-      <c r="E153" s="85"/>
-      <c r="F153" s="85"/>
-      <c r="G153" s="85"/>
-      <c r="H153" s="85"/>
-      <c r="I153" s="85"/>
-      <c r="J153" s="85"/>
-      <c r="K153" s="85"/>
-      <c r="L153" s="85"/>
+      <c r="B153" s="92"/>
+      <c r="C153" s="92"/>
+      <c r="D153" s="92"/>
+      <c r="E153" s="92"/>
+      <c r="F153" s="92"/>
+      <c r="G153" s="92"/>
+      <c r="H153" s="92"/>
+      <c r="I153" s="92"/>
+      <c r="J153" s="92"/>
+      <c r="K153" s="92"/>
+      <c r="L153" s="92"/>
     </row>
     <row r="154" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B154" s="85"/>
-      <c r="C154" s="85"/>
-      <c r="D154" s="85"/>
-      <c r="E154" s="85"/>
-      <c r="F154" s="85"/>
-      <c r="G154" s="85"/>
-      <c r="H154" s="85"/>
-      <c r="I154" s="85"/>
-      <c r="J154" s="85"/>
-      <c r="K154" s="85"/>
-      <c r="L154" s="85"/>
+      <c r="B154" s="92"/>
+      <c r="C154" s="92"/>
+      <c r="D154" s="92"/>
+      <c r="E154" s="92"/>
+      <c r="F154" s="92"/>
+      <c r="G154" s="92"/>
+      <c r="H154" s="92"/>
+      <c r="I154" s="92"/>
+      <c r="J154" s="92"/>
+      <c r="K154" s="92"/>
+      <c r="L154" s="92"/>
     </row>
     <row r="155" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B155" s="85"/>
-      <c r="C155" s="85"/>
-      <c r="D155" s="85"/>
-      <c r="E155" s="85"/>
-      <c r="F155" s="85"/>
-      <c r="G155" s="85"/>
-      <c r="H155" s="85"/>
-      <c r="I155" s="85"/>
-      <c r="J155" s="85"/>
-      <c r="K155" s="85"/>
-      <c r="L155" s="85"/>
+      <c r="B155" s="92"/>
+      <c r="C155" s="92"/>
+      <c r="D155" s="92"/>
+      <c r="E155" s="92"/>
+      <c r="F155" s="92"/>
+      <c r="G155" s="92"/>
+      <c r="H155" s="92"/>
+      <c r="I155" s="92"/>
+      <c r="J155" s="92"/>
+      <c r="K155" s="92"/>
+      <c r="L155" s="92"/>
     </row>
     <row r="156" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B156" s="85"/>
-      <c r="C156" s="85"/>
-      <c r="D156" s="85"/>
-      <c r="E156" s="85"/>
-      <c r="F156" s="85"/>
-      <c r="G156" s="85"/>
-      <c r="H156" s="85"/>
-      <c r="I156" s="85"/>
-      <c r="J156" s="85"/>
-      <c r="K156" s="85"/>
-      <c r="L156" s="85"/>
+      <c r="B156" s="92"/>
+      <c r="C156" s="92"/>
+      <c r="D156" s="92"/>
+      <c r="E156" s="92"/>
+      <c r="F156" s="92"/>
+      <c r="G156" s="92"/>
+      <c r="H156" s="92"/>
+      <c r="I156" s="92"/>
+      <c r="J156" s="92"/>
+      <c r="K156" s="92"/>
+      <c r="L156" s="92"/>
     </row>
     <row r="157" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B157" s="85"/>
-      <c r="C157" s="85"/>
-      <c r="D157" s="85"/>
-      <c r="E157" s="85"/>
-      <c r="F157" s="85"/>
-      <c r="G157" s="85"/>
-      <c r="H157" s="85"/>
-      <c r="I157" s="85"/>
-      <c r="J157" s="85"/>
-      <c r="K157" s="85"/>
-      <c r="L157" s="85"/>
+      <c r="B157" s="92"/>
+      <c r="C157" s="92"/>
+      <c r="D157" s="92"/>
+      <c r="E157" s="92"/>
+      <c r="F157" s="92"/>
+      <c r="G157" s="92"/>
+      <c r="H157" s="92"/>
+      <c r="I157" s="92"/>
+      <c r="J157" s="92"/>
+      <c r="K157" s="92"/>
+      <c r="L157" s="92"/>
     </row>
     <row r="158" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B158" s="85"/>
-      <c r="C158" s="85"/>
-      <c r="D158" s="85"/>
-      <c r="E158" s="85"/>
-      <c r="F158" s="85"/>
-      <c r="G158" s="85"/>
-      <c r="H158" s="85"/>
-      <c r="I158" s="85"/>
-      <c r="J158" s="85"/>
-      <c r="K158" s="85"/>
-      <c r="L158" s="85"/>
+      <c r="B158" s="92"/>
+      <c r="C158" s="92"/>
+      <c r="D158" s="92"/>
+      <c r="E158" s="92"/>
+      <c r="F158" s="92"/>
+      <c r="G158" s="92"/>
+      <c r="H158" s="92"/>
+      <c r="I158" s="92"/>
+      <c r="J158" s="92"/>
+      <c r="K158" s="92"/>
+      <c r="L158" s="92"/>
     </row>
     <row r="159" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B159" s="85"/>
-      <c r="C159" s="85"/>
-      <c r="D159" s="85"/>
-      <c r="E159" s="85"/>
-      <c r="F159" s="85"/>
-      <c r="G159" s="85"/>
-      <c r="H159" s="85"/>
-      <c r="I159" s="85"/>
-      <c r="J159" s="85"/>
-      <c r="K159" s="85"/>
-      <c r="L159" s="85"/>
+      <c r="B159" s="92"/>
+      <c r="C159" s="92"/>
+      <c r="D159" s="92"/>
+      <c r="E159" s="92"/>
+      <c r="F159" s="92"/>
+      <c r="G159" s="92"/>
+      <c r="H159" s="92"/>
+      <c r="I159" s="92"/>
+      <c r="J159" s="92"/>
+      <c r="K159" s="92"/>
+      <c r="L159" s="92"/>
     </row>
     <row r="160" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B160" s="85"/>
-      <c r="C160" s="85"/>
-      <c r="D160" s="85"/>
-      <c r="E160" s="85"/>
-      <c r="F160" s="85"/>
-      <c r="G160" s="85"/>
-      <c r="H160" s="85"/>
-      <c r="I160" s="85"/>
-      <c r="J160" s="85"/>
-      <c r="K160" s="85"/>
-      <c r="L160" s="85"/>
+      <c r="B160" s="92"/>
+      <c r="C160" s="92"/>
+      <c r="D160" s="92"/>
+      <c r="E160" s="92"/>
+      <c r="F160" s="92"/>
+      <c r="G160" s="92"/>
+      <c r="H160" s="92"/>
+      <c r="I160" s="92"/>
+      <c r="J160" s="92"/>
+      <c r="K160" s="92"/>
+      <c r="L160" s="92"/>
     </row>
     <row r="161" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B161" s="85"/>
-      <c r="C161" s="85"/>
-      <c r="D161" s="85"/>
-      <c r="E161" s="85"/>
-      <c r="F161" s="85"/>
-      <c r="G161" s="85"/>
-      <c r="H161" s="85"/>
-      <c r="I161" s="85"/>
-      <c r="J161" s="85"/>
-      <c r="K161" s="85"/>
-      <c r="L161" s="85"/>
+      <c r="B161" s="92"/>
+      <c r="C161" s="92"/>
+      <c r="D161" s="92"/>
+      <c r="E161" s="92"/>
+      <c r="F161" s="92"/>
+      <c r="G161" s="92"/>
+      <c r="H161" s="92"/>
+      <c r="I161" s="92"/>
+      <c r="J161" s="92"/>
+      <c r="K161" s="92"/>
+      <c r="L161" s="92"/>
     </row>
     <row r="162" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B162" s="85"/>
-      <c r="C162" s="85"/>
-      <c r="D162" s="85"/>
-      <c r="E162" s="85"/>
-      <c r="F162" s="85"/>
-      <c r="G162" s="85"/>
-      <c r="H162" s="85"/>
-      <c r="I162" s="85"/>
-      <c r="J162" s="85"/>
-      <c r="K162" s="85"/>
-      <c r="L162" s="85"/>
+      <c r="B162" s="92"/>
+      <c r="C162" s="92"/>
+      <c r="D162" s="92"/>
+      <c r="E162" s="92"/>
+      <c r="F162" s="92"/>
+      <c r="G162" s="92"/>
+      <c r="H162" s="92"/>
+      <c r="I162" s="92"/>
+      <c r="J162" s="92"/>
+      <c r="K162" s="92"/>
+      <c r="L162" s="92"/>
     </row>
     <row r="163" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B163" s="85"/>
-      <c r="C163" s="85"/>
-      <c r="D163" s="85"/>
-      <c r="E163" s="85"/>
-      <c r="F163" s="85"/>
-      <c r="G163" s="85"/>
-      <c r="H163" s="85"/>
-      <c r="I163" s="85"/>
-      <c r="J163" s="85"/>
-      <c r="K163" s="85"/>
-      <c r="L163" s="85"/>
+      <c r="B163" s="92"/>
+      <c r="C163" s="92"/>
+      <c r="D163" s="92"/>
+      <c r="E163" s="92"/>
+      <c r="F163" s="92"/>
+      <c r="G163" s="92"/>
+      <c r="H163" s="92"/>
+      <c r="I163" s="92"/>
+      <c r="J163" s="92"/>
+      <c r="K163" s="92"/>
+      <c r="L163" s="92"/>
     </row>
     <row r="164" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B164" s="85"/>
-      <c r="C164" s="85"/>
-      <c r="D164" s="85"/>
-      <c r="E164" s="85"/>
-      <c r="F164" s="85"/>
-      <c r="G164" s="85"/>
-      <c r="H164" s="85"/>
-      <c r="I164" s="85"/>
-      <c r="J164" s="85"/>
-      <c r="K164" s="85"/>
-      <c r="L164" s="85"/>
+      <c r="B164" s="92"/>
+      <c r="C164" s="92"/>
+      <c r="D164" s="92"/>
+      <c r="E164" s="92"/>
+      <c r="F164" s="92"/>
+      <c r="G164" s="92"/>
+      <c r="H164" s="92"/>
+      <c r="I164" s="92"/>
+      <c r="J164" s="92"/>
+      <c r="K164" s="92"/>
+      <c r="L164" s="92"/>
     </row>
     <row r="165" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B165" s="85"/>
-      <c r="C165" s="85"/>
-      <c r="D165" s="85"/>
-      <c r="E165" s="85"/>
-      <c r="F165" s="85"/>
-      <c r="G165" s="85"/>
-      <c r="H165" s="85"/>
-      <c r="I165" s="85"/>
-      <c r="J165" s="85"/>
-      <c r="K165" s="85"/>
-      <c r="L165" s="85"/>
+      <c r="B165" s="92"/>
+      <c r="C165" s="92"/>
+      <c r="D165" s="92"/>
+      <c r="E165" s="92"/>
+      <c r="F165" s="92"/>
+      <c r="G165" s="92"/>
+      <c r="H165" s="92"/>
+      <c r="I165" s="92"/>
+      <c r="J165" s="92"/>
+      <c r="K165" s="92"/>
+      <c r="L165" s="92"/>
     </row>
     <row r="166" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B166" s="85"/>
-      <c r="C166" s="85"/>
-      <c r="D166" s="85"/>
-      <c r="E166" s="85"/>
-      <c r="F166" s="85"/>
-      <c r="G166" s="85"/>
-      <c r="H166" s="85"/>
-      <c r="I166" s="85"/>
-      <c r="J166" s="85"/>
-      <c r="K166" s="85"/>
-      <c r="L166" s="85"/>
+      <c r="B166" s="92"/>
+      <c r="C166" s="92"/>
+      <c r="D166" s="92"/>
+      <c r="E166" s="92"/>
+      <c r="F166" s="92"/>
+      <c r="G166" s="92"/>
+      <c r="H166" s="92"/>
+      <c r="I166" s="92"/>
+      <c r="J166" s="92"/>
+      <c r="K166" s="92"/>
+      <c r="L166" s="92"/>
     </row>
     <row r="167" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B167" s="85"/>
-      <c r="C167" s="85"/>
-      <c r="D167" s="85"/>
-      <c r="E167" s="85"/>
-      <c r="F167" s="85"/>
-      <c r="G167" s="85"/>
-      <c r="H167" s="85"/>
-      <c r="I167" s="85"/>
-      <c r="J167" s="85"/>
-      <c r="K167" s="85"/>
-      <c r="L167" s="85"/>
+      <c r="B167" s="92"/>
+      <c r="C167" s="92"/>
+      <c r="D167" s="92"/>
+      <c r="E167" s="92"/>
+      <c r="F167" s="92"/>
+      <c r="G167" s="92"/>
+      <c r="H167" s="92"/>
+      <c r="I167" s="92"/>
+      <c r="J167" s="92"/>
+      <c r="K167" s="92"/>
+      <c r="L167" s="92"/>
     </row>
     <row r="168" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B168" s="85"/>
-      <c r="C168" s="85"/>
-      <c r="D168" s="85"/>
-      <c r="E168" s="85"/>
-      <c r="F168" s="85"/>
-      <c r="G168" s="85"/>
-      <c r="H168" s="85"/>
-      <c r="I168" s="85"/>
-      <c r="J168" s="85"/>
-      <c r="K168" s="85"/>
-      <c r="L168" s="85"/>
+      <c r="B168" s="92"/>
+      <c r="C168" s="92"/>
+      <c r="D168" s="92"/>
+      <c r="E168" s="92"/>
+      <c r="F168" s="92"/>
+      <c r="G168" s="92"/>
+      <c r="H168" s="92"/>
+      <c r="I168" s="92"/>
+      <c r="J168" s="92"/>
+      <c r="K168" s="92"/>
+      <c r="L168" s="92"/>
     </row>
     <row r="169" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B169" s="85"/>
-      <c r="C169" s="85"/>
-      <c r="D169" s="85"/>
-      <c r="E169" s="85"/>
-      <c r="F169" s="85"/>
-      <c r="G169" s="85"/>
-      <c r="H169" s="85"/>
-      <c r="I169" s="85"/>
-      <c r="J169" s="85"/>
-      <c r="K169" s="85"/>
-      <c r="L169" s="85"/>
+      <c r="B169" s="92"/>
+      <c r="C169" s="92"/>
+      <c r="D169" s="92"/>
+      <c r="E169" s="92"/>
+      <c r="F169" s="92"/>
+      <c r="G169" s="92"/>
+      <c r="H169" s="92"/>
+      <c r="I169" s="92"/>
+      <c r="J169" s="92"/>
+      <c r="K169" s="92"/>
+      <c r="L169" s="92"/>
     </row>
     <row r="170" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B170" s="85"/>
-      <c r="C170" s="85"/>
-      <c r="D170" s="85"/>
-      <c r="E170" s="85"/>
-      <c r="F170" s="85"/>
-      <c r="G170" s="85"/>
-      <c r="H170" s="85"/>
-      <c r="I170" s="85"/>
-      <c r="J170" s="85"/>
-      <c r="K170" s="85"/>
-      <c r="L170" s="85"/>
+      <c r="B170" s="92"/>
+      <c r="C170" s="92"/>
+      <c r="D170" s="92"/>
+      <c r="E170" s="92"/>
+      <c r="F170" s="92"/>
+      <c r="G170" s="92"/>
+      <c r="H170" s="92"/>
+      <c r="I170" s="92"/>
+      <c r="J170" s="92"/>
+      <c r="K170" s="92"/>
+      <c r="L170" s="92"/>
     </row>
     <row r="171" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B171" s="85"/>
-      <c r="C171" s="85"/>
-      <c r="D171" s="85"/>
-      <c r="E171" s="85"/>
-      <c r="F171" s="85"/>
-      <c r="G171" s="85"/>
-      <c r="H171" s="85"/>
-      <c r="I171" s="85"/>
-      <c r="J171" s="85"/>
-      <c r="K171" s="85"/>
-      <c r="L171" s="85"/>
+      <c r="B171" s="92"/>
+      <c r="C171" s="92"/>
+      <c r="D171" s="92"/>
+      <c r="E171" s="92"/>
+      <c r="F171" s="92"/>
+      <c r="G171" s="92"/>
+      <c r="H171" s="92"/>
+      <c r="I171" s="92"/>
+      <c r="J171" s="92"/>
+      <c r="K171" s="92"/>
+      <c r="L171" s="92"/>
     </row>
     <row r="172" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B172" s="85"/>
-      <c r="C172" s="85"/>
-      <c r="D172" s="85"/>
-      <c r="E172" s="85"/>
-      <c r="F172" s="85"/>
-      <c r="G172" s="85"/>
-      <c r="H172" s="85"/>
-      <c r="I172" s="85"/>
-      <c r="J172" s="85"/>
-      <c r="K172" s="85"/>
-      <c r="L172" s="85"/>
+      <c r="B172" s="92"/>
+      <c r="C172" s="92"/>
+      <c r="D172" s="92"/>
+      <c r="E172" s="92"/>
+      <c r="F172" s="92"/>
+      <c r="G172" s="92"/>
+      <c r="H172" s="92"/>
+      <c r="I172" s="92"/>
+      <c r="J172" s="92"/>
+      <c r="K172" s="92"/>
+      <c r="L172" s="92"/>
     </row>
     <row r="173" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B173" s="85"/>
-      <c r="C173" s="85"/>
-      <c r="D173" s="85"/>
-      <c r="E173" s="85"/>
-      <c r="F173" s="85"/>
-      <c r="G173" s="85"/>
-      <c r="H173" s="85"/>
-      <c r="I173" s="85"/>
-      <c r="J173" s="85"/>
-      <c r="K173" s="85"/>
-      <c r="L173" s="85"/>
+      <c r="B173" s="92"/>
+      <c r="C173" s="92"/>
+      <c r="D173" s="92"/>
+      <c r="E173" s="92"/>
+      <c r="F173" s="92"/>
+      <c r="G173" s="92"/>
+      <c r="H173" s="92"/>
+      <c r="I173" s="92"/>
+      <c r="J173" s="92"/>
+      <c r="K173" s="92"/>
+      <c r="L173" s="92"/>
     </row>
     <row r="174" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B174" s="85"/>
-      <c r="C174" s="85"/>
-      <c r="D174" s="85"/>
-      <c r="E174" s="85"/>
-      <c r="F174" s="85"/>
-      <c r="G174" s="85"/>
-      <c r="H174" s="85"/>
-      <c r="I174" s="85"/>
-      <c r="J174" s="85"/>
-      <c r="K174" s="85"/>
-      <c r="L174" s="85"/>
+      <c r="B174" s="92"/>
+      <c r="C174" s="92"/>
+      <c r="D174" s="92"/>
+      <c r="E174" s="92"/>
+      <c r="F174" s="92"/>
+      <c r="G174" s="92"/>
+      <c r="H174" s="92"/>
+      <c r="I174" s="92"/>
+      <c r="J174" s="92"/>
+      <c r="K174" s="92"/>
+      <c r="L174" s="92"/>
     </row>
     <row r="175" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B175" s="85"/>
-      <c r="C175" s="85"/>
-      <c r="D175" s="85"/>
-      <c r="E175" s="85"/>
-      <c r="F175" s="85"/>
-      <c r="G175" s="85"/>
-      <c r="H175" s="85"/>
-      <c r="I175" s="85"/>
-      <c r="J175" s="85"/>
-      <c r="K175" s="85"/>
-      <c r="L175" s="85"/>
+      <c r="B175" s="92"/>
+      <c r="C175" s="92"/>
+      <c r="D175" s="92"/>
+      <c r="E175" s="92"/>
+      <c r="F175" s="92"/>
+      <c r="G175" s="92"/>
+      <c r="H175" s="92"/>
+      <c r="I175" s="92"/>
+      <c r="J175" s="92"/>
+      <c r="K175" s="92"/>
+      <c r="L175" s="92"/>
     </row>
     <row r="176" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B176" s="85"/>
-      <c r="C176" s="85"/>
-      <c r="D176" s="85"/>
-      <c r="E176" s="85"/>
-      <c r="F176" s="85"/>
-      <c r="G176" s="85"/>
-      <c r="H176" s="85"/>
-      <c r="I176" s="85"/>
-      <c r="J176" s="85"/>
-      <c r="K176" s="85"/>
-      <c r="L176" s="85"/>
+      <c r="B176" s="92"/>
+      <c r="C176" s="92"/>
+      <c r="D176" s="92"/>
+      <c r="E176" s="92"/>
+      <c r="F176" s="92"/>
+      <c r="G176" s="92"/>
+      <c r="H176" s="92"/>
+      <c r="I176" s="92"/>
+      <c r="J176" s="92"/>
+      <c r="K176" s="92"/>
+      <c r="L176" s="92"/>
     </row>
     <row r="177" spans="2:12" ht="13.5" customHeight="1">
-      <c r="B177" s="85"/>
-      <c r="C177" s="85"/>
-      <c r="D177" s="85"/>
-      <c r="E177" s="85"/>
-      <c r="F177" s="85"/>
-      <c r="G177" s="85"/>
-      <c r="H177" s="85"/>
-      <c r="I177" s="85"/>
-      <c r="J177" s="85"/>
-      <c r="K177" s="85"/>
-      <c r="L177" s="85"/>
+      <c r="B177" s="92"/>
+      <c r="C177" s="92"/>
+      <c r="D177" s="92"/>
+      <c r="E177" s="92"/>
+      <c r="F177" s="92"/>
+      <c r="G177" s="92"/>
+      <c r="H177" s="92"/>
+      <c r="I177" s="92"/>
+      <c r="J177" s="92"/>
+      <c r="K177" s="92"/>
+      <c r="L177" s="92"/>
     </row>
     <row r="178" spans="2:12" ht="18" customHeight="1">
-      <c r="B178" s="85" t="s">
+      <c r="B178" s="92" t="s">
         <v>95</v>
       </c>
-      <c r="C178" s="85"/>
-      <c r="D178" s="87" t="str">
+      <c r="C178" s="92"/>
+      <c r="D178" s="94" t="str">
         <f>記入!B37</f>
         <v>${signingdate}</v>
       </c>
-      <c r="E178" s="87"/>
+      <c r="E178" s="94"/>
       <c r="F178" s="43"/>
       <c r="G178" s="43"/>
       <c r="H178" s="43"/>
@@ -8299,11 +8287,11 @@
       <c r="J208" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="K208" s="83" t="str">
+      <c r="K208" s="90" t="str">
         <f>記入!B12</f>
         <v>${cv.contractnumber}</v>
       </c>
-      <c r="L208" s="83"/>
+      <c r="L208" s="90"/>
     </row>
     <row r="209" spans="2:12" ht="18.75">
       <c r="B209" s="36" t="s">
@@ -8327,19 +8315,19 @@
     </row>
     <row r="212" spans="2:12" ht="14.25">
       <c r="B212" s="32"/>
-      <c r="C212" s="86" t="str">
+      <c r="C212" s="93" t="str">
         <f>記入!B11</f>
         <v>${cv.pjnamechinese}</v>
       </c>
-      <c r="D212" s="86"/>
-      <c r="E212" s="86"/>
-      <c r="F212" s="86"/>
-      <c r="G212" s="86"/>
-      <c r="H212" s="86"/>
-      <c r="I212" s="86"/>
-      <c r="J212" s="86"/>
-      <c r="K212" s="86"/>
-      <c r="L212" s="86"/>
+      <c r="D212" s="93"/>
+      <c r="E212" s="93"/>
+      <c r="F212" s="93"/>
+      <c r="G212" s="93"/>
+      <c r="H212" s="93"/>
+      <c r="I212" s="93"/>
+      <c r="J212" s="93"/>
+      <c r="K212" s="93"/>
+      <c r="L212" s="93"/>
     </row>
     <row r="213" spans="2:12" ht="14.25">
       <c r="B213" s="32"/>
@@ -8374,11 +8362,11 @@
       <c r="C215" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D215" s="81" t="str">
+      <c r="D215" s="88" t="str">
         <f>記入!B14</f>
         <v>${openingdate}</v>
       </c>
-      <c r="E215" s="82"/>
+      <c r="E215" s="89"/>
       <c r="F215" s="33"/>
       <c r="G215" s="33"/>
       <c r="H215" s="33"/>
@@ -8392,11 +8380,11 @@
       <c r="C216" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D216" s="81" t="str">
+      <c r="D216" s="88" t="str">
         <f>記入!B15</f>
         <v>${enddate}</v>
       </c>
-      <c r="E216" s="82"/>
+      <c r="E216" s="89"/>
       <c r="F216" s="33"/>
       <c r="G216" s="33"/>
       <c r="H216" s="33"/>
@@ -8459,18 +8447,18 @@
     </row>
     <row r="222" spans="2:12" ht="14.25">
       <c r="B222" s="32"/>
-      <c r="C222" s="88" t="s">
+      <c r="C222" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D222" s="88"/>
-      <c r="E222" s="88" t="s">
+      <c r="D222" s="78"/>
+      <c r="E222" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="F222" s="88"/>
-      <c r="G222" s="88" t="s">
+      <c r="F222" s="78"/>
+      <c r="G222" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="H222" s="88"/>
+      <c r="H222" s="78"/>
       <c r="I222" s="32"/>
       <c r="J222" s="32"/>
       <c r="K222" s="32"/>
@@ -8478,21 +8466,21 @@
     </row>
     <row r="223" spans="2:12" ht="14.25">
       <c r="B223" s="32"/>
-      <c r="C223" s="89" t="str">
+      <c r="C223" s="79" t="str">
         <f>IF(E223="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="D223" s="89"/>
-      <c r="E223" s="88" t="str">
+      <c r="D223" s="79"/>
+      <c r="E223" s="78" t="str">
         <f>IF(記入!A29="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F223" s="88"/>
-      <c r="G223" s="90" t="str">
+      <c r="F223" s="78"/>
+      <c r="G223" s="87" t="str">
         <f>IF(記入!B29="","-",記入!B29)</f>
         <v>${ba1[0].deliverydate}</v>
       </c>
-      <c r="H223" s="90"/>
+      <c r="H223" s="87"/>
       <c r="I223" s="32"/>
       <c r="J223" s="32"/>
       <c r="K223" s="32"/>
@@ -8500,21 +8488,21 @@
     </row>
     <row r="224" spans="2:12" ht="14.25">
       <c r="B224" s="32"/>
-      <c r="C224" s="89" t="str">
+      <c r="C224" s="79" t="str">
         <f>IF(E224="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="D224" s="89"/>
-      <c r="E224" s="88" t="str">
+      <c r="D224" s="79"/>
+      <c r="E224" s="78" t="str">
         <f>IF(記入!A30="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F224" s="88"/>
-      <c r="G224" s="90" t="str">
+      <c r="F224" s="78"/>
+      <c r="G224" s="87" t="str">
         <f>IF(記入!B30="","-",記入!B30)</f>
         <v>${ba1[1].deliverydate}</v>
       </c>
-      <c r="H224" s="90"/>
+      <c r="H224" s="87"/>
       <c r="I224" s="32"/>
       <c r="J224" s="32"/>
       <c r="K224" s="32"/>
@@ -8522,21 +8510,21 @@
     </row>
     <row r="225" spans="2:12" ht="14.25">
       <c r="B225" s="32"/>
-      <c r="C225" s="89" t="str">
+      <c r="C225" s="79" t="str">
         <f>IF(E225="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="D225" s="89"/>
-      <c r="E225" s="88" t="str">
+      <c r="D225" s="79"/>
+      <c r="E225" s="78" t="str">
         <f>IF(記入!A31="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F225" s="88"/>
-      <c r="G225" s="90" t="str">
+      <c r="F225" s="78"/>
+      <c r="G225" s="87" t="str">
         <f>IF(記入!B31="","-",記入!B31)</f>
         <v>${ba1[2].deliverydate}</v>
       </c>
-      <c r="H225" s="90"/>
+      <c r="H225" s="87"/>
       <c r="I225" s="32"/>
       <c r="J225" s="32"/>
       <c r="K225" s="32"/>
@@ -8544,21 +8532,21 @@
     </row>
     <row r="226" spans="2:12" ht="14.25">
       <c r="B226" s="32"/>
-      <c r="C226" s="89" t="str">
+      <c r="C226" s="79" t="str">
         <f>IF(E225="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="D226" s="89"/>
-      <c r="E226" s="88" t="str">
+      <c r="D226" s="79"/>
+      <c r="E226" s="78" t="str">
         <f>IF(記入!A32="","-",記入!B12&amp;"-3")</f>
         <v>${cv.contractnumber}-3</v>
       </c>
-      <c r="F226" s="88"/>
-      <c r="G226" s="90" t="str">
+      <c r="F226" s="78"/>
+      <c r="G226" s="87" t="str">
         <f>IF(記入!B32="","-",記入!B32)</f>
         <v>${ba1[3].deliverydate}</v>
       </c>
-      <c r="H226" s="90"/>
+      <c r="H226" s="87"/>
       <c r="I226" s="32"/>
       <c r="J226" s="32"/>
       <c r="K226" s="32"/>
@@ -8594,131 +8582,131 @@
     </row>
     <row r="229" spans="2:12" ht="14.25">
       <c r="B229" s="32"/>
-      <c r="C229" s="88" t="s">
+      <c r="C229" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D229" s="88"/>
-      <c r="E229" s="88" t="s">
+      <c r="D229" s="78"/>
+      <c r="E229" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="F229" s="88"/>
-      <c r="G229" s="88" t="s">
+      <c r="F229" s="78"/>
+      <c r="G229" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="H229" s="88"/>
-      <c r="I229" s="88" t="str">
+      <c r="H229" s="78"/>
+      <c r="I229" s="78" t="str">
         <f>"金额"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金额(${cv.currencyposition})</v>
       </c>
-      <c r="J229" s="88"/>
-      <c r="K229" s="88" t="str">
+      <c r="J229" s="78"/>
+      <c r="K229" s="78" t="str">
         <f>"金额总计"&amp;"("&amp;記入!B19&amp;")"</f>
         <v>金额总计(${cv.currencyposition})</v>
       </c>
-      <c r="L229" s="88"/>
+      <c r="L229" s="78"/>
     </row>
     <row r="230" spans="2:12" ht="14.25">
       <c r="B230" s="32"/>
-      <c r="C230" s="89" t="str">
+      <c r="C230" s="79" t="str">
         <f>IF(E230="","","第一回")</f>
         <v>第一回</v>
       </c>
-      <c r="D230" s="89"/>
-      <c r="E230" s="91" t="str">
+      <c r="D230" s="79"/>
+      <c r="E230" s="80" t="str">
         <f>IF(記入!D29="","-",記入!D29)</f>
         <v>${ba1[0].claimdate}</v>
       </c>
-      <c r="F230" s="92"/>
-      <c r="G230" s="91" t="str">
+      <c r="F230" s="80"/>
+      <c r="G230" s="80" t="str">
         <f>IF(記入!E29="","-",記入!E29)</f>
         <v>${ba1[0].supportdate}</v>
       </c>
-      <c r="H230" s="92"/>
-      <c r="I230" s="93" t="str">
+      <c r="H230" s="80"/>
+      <c r="I230" s="80" t="str">
         <f>IF(記入!F29="","-",記入!F29)</f>
         <v>${ba1[0].claimamount}</v>
       </c>
-      <c r="J230" s="92"/>
-      <c r="K230" s="94" t="str">
+      <c r="J230" s="80"/>
+      <c r="K230" s="81" t="str">
         <f>記入!B20</f>
         <v>${claimamo}</v>
       </c>
-      <c r="L230" s="95"/>
+      <c r="L230" s="82"/>
     </row>
     <row r="231" spans="2:12" ht="14.25" customHeight="1">
       <c r="B231" s="32"/>
-      <c r="C231" s="89" t="str">
+      <c r="C231" s="79" t="str">
         <f>IF(E231="","","第二回")</f>
         <v>第二回</v>
       </c>
-      <c r="D231" s="89"/>
-      <c r="E231" s="91" t="str">
+      <c r="D231" s="79"/>
+      <c r="E231" s="80" t="str">
         <f>IF(記入!D30="","-",記入!D30)</f>
         <v>${ba1[1].claimdate}</v>
       </c>
-      <c r="F231" s="92"/>
-      <c r="G231" s="91" t="str">
+      <c r="F231" s="80"/>
+      <c r="G231" s="80" t="str">
         <f>IF(記入!E30="","-",記入!E30)</f>
         <v>${ba1[1].supportdate}</v>
       </c>
-      <c r="H231" s="92"/>
-      <c r="I231" s="93" t="str">
+      <c r="H231" s="80"/>
+      <c r="I231" s="80" t="str">
         <f>IF(記入!F30="","-",記入!F30)</f>
         <v>${ba1[1].claimamount}</v>
       </c>
-      <c r="J231" s="92"/>
-      <c r="K231" s="96"/>
-      <c r="L231" s="97"/>
+      <c r="J231" s="80"/>
+      <c r="K231" s="83"/>
+      <c r="L231" s="84"/>
     </row>
     <row r="232" spans="2:12" ht="14.25" customHeight="1">
       <c r="B232" s="32"/>
-      <c r="C232" s="89" t="str">
+      <c r="C232" s="79" t="str">
         <f>IF(E232="","","第三回")</f>
         <v>第三回</v>
       </c>
-      <c r="D232" s="89"/>
-      <c r="E232" s="91" t="str">
+      <c r="D232" s="79"/>
+      <c r="E232" s="80" t="str">
         <f>IF(記入!D31="","-",記入!D31)</f>
         <v>${ba1[2].claimdate}</v>
       </c>
-      <c r="F232" s="92"/>
-      <c r="G232" s="91" t="str">
+      <c r="F232" s="80"/>
+      <c r="G232" s="80" t="str">
         <f>IF(記入!E31="","-",記入!E31)</f>
         <v>${ba1[2].supportdate}</v>
       </c>
-      <c r="H232" s="92"/>
-      <c r="I232" s="93" t="str">
+      <c r="H232" s="80"/>
+      <c r="I232" s="80" t="str">
         <f>IF(記入!F31="","-",記入!F31)</f>
         <v>${ba1[2].claimamount}</v>
       </c>
-      <c r="J232" s="92"/>
-      <c r="K232" s="96"/>
-      <c r="L232" s="97"/>
+      <c r="J232" s="80"/>
+      <c r="K232" s="83"/>
+      <c r="L232" s="84"/>
     </row>
     <row r="233" spans="2:12" ht="14.25" customHeight="1">
       <c r="B233" s="32"/>
-      <c r="C233" s="89" t="str">
+      <c r="C233" s="79" t="str">
         <f>IF(E233="","","第四回")</f>
         <v>第四回</v>
       </c>
-      <c r="D233" s="89"/>
-      <c r="E233" s="91" t="str">
+      <c r="D233" s="79"/>
+      <c r="E233" s="80" t="str">
         <f>IF(記入!D32="","-",記入!D32)</f>
         <v>${ba1[3].claimdate}</v>
       </c>
-      <c r="F233" s="92"/>
-      <c r="G233" s="91" t="str">
+      <c r="F233" s="80"/>
+      <c r="G233" s="80" t="str">
         <f>IF(記入!E32="","-",記入!E32)</f>
         <v>${ba1[3].supportdate}</v>
       </c>
-      <c r="H233" s="92"/>
-      <c r="I233" s="93" t="str">
+      <c r="H233" s="80"/>
+      <c r="I233" s="80" t="str">
         <f>IF(記入!F32="","-",記入!F32)</f>
         <v>${ba1[3].claimamount}</v>
       </c>
-      <c r="J233" s="92"/>
-      <c r="K233" s="98"/>
-      <c r="L233" s="99"/>
+      <c r="J233" s="80"/>
+      <c r="K233" s="85"/>
+      <c r="L233" s="86"/>
     </row>
     <row r="234" spans="2:12" ht="14.25">
       <c r="B234" s="32"/>
@@ -8740,6 +8728,41 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="D216:E216"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B8:L9"/>
+    <mergeCell ref="B11:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B69:L133"/>
+    <mergeCell ref="K134:L134"/>
+    <mergeCell ref="B135:L177"/>
+    <mergeCell ref="K208:L208"/>
+    <mergeCell ref="C212:L212"/>
+    <mergeCell ref="D215:E215"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="C222:D222"/>
+    <mergeCell ref="E222:F222"/>
+    <mergeCell ref="G222:H222"/>
+    <mergeCell ref="C223:D223"/>
+    <mergeCell ref="E223:F223"/>
+    <mergeCell ref="G223:H223"/>
+    <mergeCell ref="E232:F232"/>
+    <mergeCell ref="G232:H232"/>
+    <mergeCell ref="I232:J232"/>
+    <mergeCell ref="C224:D224"/>
+    <mergeCell ref="E224:F224"/>
+    <mergeCell ref="G224:H224"/>
+    <mergeCell ref="C225:D225"/>
+    <mergeCell ref="E225:F225"/>
+    <mergeCell ref="G225:H225"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="E226:F226"/>
+    <mergeCell ref="G226:H226"/>
+    <mergeCell ref="C229:D229"/>
+    <mergeCell ref="E229:F229"/>
+    <mergeCell ref="G229:H229"/>
     <mergeCell ref="K229:L229"/>
     <mergeCell ref="C230:D230"/>
     <mergeCell ref="E230:F230"/>
@@ -8756,41 +8779,6 @@
     <mergeCell ref="I229:J229"/>
     <mergeCell ref="I231:J231"/>
     <mergeCell ref="C232:D232"/>
-    <mergeCell ref="E232:F232"/>
-    <mergeCell ref="G232:H232"/>
-    <mergeCell ref="I232:J232"/>
-    <mergeCell ref="C224:D224"/>
-    <mergeCell ref="E224:F224"/>
-    <mergeCell ref="G224:H224"/>
-    <mergeCell ref="C225:D225"/>
-    <mergeCell ref="E225:F225"/>
-    <mergeCell ref="G225:H225"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="E226:F226"/>
-    <mergeCell ref="G226:H226"/>
-    <mergeCell ref="C229:D229"/>
-    <mergeCell ref="E229:F229"/>
-    <mergeCell ref="G229:H229"/>
-    <mergeCell ref="C222:D222"/>
-    <mergeCell ref="E222:F222"/>
-    <mergeCell ref="G222:H222"/>
-    <mergeCell ref="C223:D223"/>
-    <mergeCell ref="E223:F223"/>
-    <mergeCell ref="G223:H223"/>
-    <mergeCell ref="D216:E216"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="B8:L9"/>
-    <mergeCell ref="B11:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="B69:L133"/>
-    <mergeCell ref="K134:L134"/>
-    <mergeCell ref="B135:L177"/>
-    <mergeCell ref="K208:L208"/>
-    <mergeCell ref="C212:L212"/>
-    <mergeCell ref="D215:E215"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="D178:E178"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.9055118110236221" right="0.70866141732283472" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
